--- a/temp/Yesterdaytrain.xlsx
+++ b/temp/Yesterdaytrain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,841 +28,847 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-10 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 13:56:00</t>
+    <t>2019-06-11 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-22 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-22 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 11:20:00</t>
   </si>
   <si>
     <t>2019-03-11 10:21:00</t>
   </si>
   <si>
-    <t>2019-03-11 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 11:08:00</t>
+    <t>2019-03-07 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:14:00</t>
   </si>
   <si>
     <t>2019-01-22 13:12:00</t>
   </si>
   <si>
-    <t>2019-01-22 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:16:00</t>
+    <t>2019-01-21 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:06:00</t>
   </si>
   <si>
     <t>2019-01-17 09:48:00</t>
   </si>
   <si>
-    <t>2019-01-16 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:23:00</t>
+    <t>2019-01-17 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:42:00</t>
   </si>
   <si>
     <t>2019-01-03 14:39:00</t>
   </si>
   <si>
-    <t>2019-01-03 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 14:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 11:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:09:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 13:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:37:00</t>
+    <t>2019-01-03 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:51:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:29:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:23:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 11:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 13:13:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 11:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 11:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 09:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 09:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 13:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 11:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:55:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:27:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:53:00</t>
   </si>
   <si>
     <t>2018-12-14 13:22:00</t>
   </si>
   <si>
-    <t>2018-12-14 10:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:30:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:54:00</t>
-  </si>
-  <si>
     <t>2018-12-13 10:46:00</t>
   </si>
   <si>
-    <t>2018-12-13 10:00:00</t>
+    <t>2018-12-13 10:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:05:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 09:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:29:00</t>
   </si>
   <si>
     <t>2018-12-11 14:28:00</t>
   </si>
   <si>
-    <t>2018-12-10 15:00:00</t>
+    <t>2018-12-10 14:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:20:00</t>
   </si>
   <si>
     <t>2018-12-07 14:50:00</t>
   </si>
   <si>
-    <t>2018-12-07 11:22:00</t>
+    <t>2018-12-07 13:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 13:35:00</t>
   </si>
   <si>
     <t>2018-12-07 10:50:00</t>
@@ -871,10 +877,10 @@
     <t>2018-12-07 10:48:00</t>
   </si>
   <si>
+    <t>2018-12-07 10:26:00</t>
+  </si>
+  <si>
     <t>2018-12-06 14:51:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:03:00</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1257,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.39</v>
+        <v>6.54</v>
       </c>
       <c r="C2">
-        <v>6.3774171023058</v>
+        <v>6.520888456092514</v>
       </c>
       <c r="D2">
-        <v>-0.01258289769419996</v>
+        <v>-0.01911154390748582</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1271,13 +1277,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.36</v>
+        <v>6.59</v>
       </c>
       <c r="C3">
-        <v>6.374650395349987</v>
+        <v>6.502244086829448</v>
       </c>
       <c r="D3">
-        <v>0.01465039534998702</v>
+        <v>-0.08775591317055209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1285,13 +1291,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.34</v>
+        <v>6.39</v>
       </c>
       <c r="C4">
-        <v>6.376043495883143</v>
+        <v>6.398996833036541</v>
       </c>
       <c r="D4">
-        <v>0.03604349588314282</v>
+        <v>0.008996833036541751</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1299,13 +1305,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.66</v>
+        <v>6.4</v>
       </c>
       <c r="C5">
-        <v>6.574094772720648</v>
+        <v>6.422116330248032</v>
       </c>
       <c r="D5">
-        <v>-0.08590522727935213</v>
+        <v>0.02211633024803206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1313,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.56</v>
+        <v>6.35</v>
       </c>
       <c r="C6">
-        <v>6.571530734203496</v>
+        <v>6.33420156228591</v>
       </c>
       <c r="D6">
-        <v>0.01153073420349671</v>
+        <v>-0.01579843771408918</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1327,13 +1333,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.85</v>
+        <v>6.64</v>
       </c>
       <c r="C7">
-        <v>6.661995189926169</v>
+        <v>6.560888284172353</v>
       </c>
       <c r="D7">
-        <v>-0.1880048100738305</v>
+        <v>-0.0791117158276462</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1341,13 +1347,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.89</v>
+        <v>6.55</v>
       </c>
       <c r="C8">
-        <v>6.721714121463205</v>
+        <v>6.555033210496646</v>
       </c>
       <c r="D8">
-        <v>-0.1682858785367944</v>
+        <v>0.005033210496645957</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1355,13 +1361,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>7.09</v>
+        <v>6.62</v>
       </c>
       <c r="C9">
-        <v>6.986499267130278</v>
+        <v>6.584610473307015</v>
       </c>
       <c r="D9">
-        <v>-0.1035007328697217</v>
+        <v>-0.03538952669298556</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1369,13 +1375,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7.1</v>
+        <v>7.08</v>
       </c>
       <c r="C10">
-        <v>7.033385822221812</v>
+        <v>6.986869824055917</v>
       </c>
       <c r="D10">
-        <v>-0.06661417777818723</v>
+        <v>-0.09313017594408279</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1383,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.13</v>
+        <v>7.22</v>
       </c>
       <c r="C11">
-        <v>7.127882500621173</v>
+        <v>7.212079363256535</v>
       </c>
       <c r="D11">
-        <v>-0.002117499378826437</v>
+        <v>-0.007920636743464549</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1397,13 +1403,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.08</v>
+        <v>7.26</v>
       </c>
       <c r="C12">
-        <v>7.271329588061968</v>
+        <v>7.236020988084844</v>
       </c>
       <c r="D12">
-        <v>0.1913295880619676</v>
+        <v>-0.02397901191515572</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1411,13 +1417,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
       <c r="C13">
-        <v>7.259248982535179</v>
+        <v>7.328184430715753</v>
       </c>
       <c r="D13">
-        <v>0.1592489825351793</v>
+        <v>0.1981844307157532</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1425,13 +1431,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7.13</v>
+        <v>7.06</v>
       </c>
       <c r="C14">
-        <v>7.292617805890074</v>
+        <v>7.283731472306846</v>
       </c>
       <c r="D14">
-        <v>0.1626178058900738</v>
+        <v>0.223731472306846</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1439,13 +1445,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
       <c r="C15">
-        <v>7.321194276942806</v>
+        <v>7.337141275512101</v>
       </c>
       <c r="D15">
-        <v>0.1811942769428061</v>
+        <v>0.1671412755121011</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1453,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>7.15</v>
+        <v>6.86</v>
       </c>
       <c r="C16">
-        <v>7.341616965510965</v>
+        <v>7.248296310940926</v>
       </c>
       <c r="D16">
-        <v>0.1916169655109643</v>
+        <v>0.3882963109409259</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1467,13 +1473,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>7.12</v>
+        <v>6.86</v>
       </c>
       <c r="C17">
-        <v>7.26495313507601</v>
+        <v>7.252252674348718</v>
       </c>
       <c r="D17">
-        <v>0.14495313507601</v>
+        <v>0.3922526743487174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1481,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>7.07</v>
+        <v>6.93</v>
       </c>
       <c r="C18">
-        <v>7.293978925897226</v>
+        <v>7.328700626316818</v>
       </c>
       <c r="D18">
-        <v>0.2239789258972253</v>
+        <v>0.3987006263168187</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1495,13 +1501,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.06</v>
+        <v>6.87</v>
       </c>
       <c r="C19">
-        <v>7.261603105348777</v>
+        <v>7.25839030312315</v>
       </c>
       <c r="D19">
-        <v>0.2016031053487772</v>
+        <v>0.3883903031231499</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1509,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.08</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>7.262689694946684</v>
+        <v>7.429759292815094</v>
       </c>
       <c r="D20">
-        <v>0.1826896949466841</v>
+        <v>0.4297592928150937</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1523,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="C21">
-        <v>7.406187380590901</v>
+        <v>7.402463523372239</v>
       </c>
       <c r="D21">
-        <v>0.4461873805909011</v>
+        <v>0.4524635233722387</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1537,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.92</v>
+        <v>6.94</v>
       </c>
       <c r="C22">
-        <v>7.379718509603014</v>
+        <v>7.422413316087649</v>
       </c>
       <c r="D22">
-        <v>0.4597185096030136</v>
+        <v>0.4824133160876487</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1551,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.85</v>
+        <v>6.95</v>
       </c>
       <c r="C23">
-        <v>7.228599706911353</v>
+        <v>7.428303023591798</v>
       </c>
       <c r="D23">
-        <v>0.3785997069113529</v>
+        <v>0.4783030235917982</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1565,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.97</v>
+        <v>7.04</v>
       </c>
       <c r="C24">
-        <v>7.421480514912436</v>
+        <v>7.54215076832217</v>
       </c>
       <c r="D24">
-        <v>0.4514805149124363</v>
+        <v>0.5021507683221698</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1579,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.88</v>
+        <v>7.07</v>
       </c>
       <c r="C25">
-        <v>7.383863531804276</v>
+        <v>7.53467726866397</v>
       </c>
       <c r="D25">
-        <v>0.5038635318042761</v>
+        <v>0.4646772686639693</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1593,13 +1599,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.89</v>
+        <v>7.14</v>
       </c>
       <c r="C26">
-        <v>7.381333135013397</v>
+        <v>7.588109884153996</v>
       </c>
       <c r="D26">
-        <v>0.4913331350133969</v>
+        <v>0.4481098841539959</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1607,13 +1613,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.18</v>
+        <v>7.28</v>
       </c>
       <c r="C27">
-        <v>7.49846407821735</v>
+        <v>7.567088076171794</v>
       </c>
       <c r="D27">
-        <v>0.3184640782173505</v>
+        <v>0.287088076171794</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1621,13 +1627,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="C28">
-        <v>7.554045229489224</v>
+        <v>7.531504722081324</v>
       </c>
       <c r="D28">
-        <v>0.3040452294892235</v>
+        <v>0.3315047220813243</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1638,10 +1644,10 @@
         <v>7.25</v>
       </c>
       <c r="C29">
-        <v>7.55008836572376</v>
+        <v>7.576692440547525</v>
       </c>
       <c r="D29">
-        <v>0.3000883657237603</v>
+        <v>0.3266924405475251</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1649,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.18</v>
+        <v>7.07</v>
       </c>
       <c r="C30">
-        <v>7.544022782116504</v>
+        <v>7.272464251164893</v>
       </c>
       <c r="D30">
-        <v>0.3640227821165043</v>
+        <v>0.2024642511648924</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1663,13 +1669,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.22</v>
+        <v>6.99</v>
       </c>
       <c r="C31">
-        <v>7.613584738959777</v>
+        <v>7.221408582288175</v>
       </c>
       <c r="D31">
-        <v>0.3935847389597775</v>
+        <v>0.2314085822881751</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1677,13 +1683,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.25</v>
+        <v>7.37</v>
       </c>
       <c r="C32">
-        <v>7.597879198400148</v>
+        <v>7.429790154192627</v>
       </c>
       <c r="D32">
-        <v>0.3478791984001477</v>
+        <v>0.05979015419262712</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1691,13 +1697,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.09</v>
+        <v>7.37</v>
       </c>
       <c r="C33">
-        <v>7.291998334999884</v>
+        <v>7.436078729696154</v>
       </c>
       <c r="D33">
-        <v>0.2019983349998844</v>
+        <v>0.06607872969615425</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1705,13 +1711,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.01</v>
+        <v>7.38</v>
       </c>
       <c r="C34">
-        <v>7.258691547699287</v>
+        <v>7.442750069014064</v>
       </c>
       <c r="D34">
-        <v>0.2486915476992868</v>
+        <v>0.0627500690140641</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1719,13 +1725,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.53</v>
+        <v>7.39</v>
       </c>
       <c r="C35">
-        <v>7.403478464852442</v>
+        <v>7.464961539525833</v>
       </c>
       <c r="D35">
-        <v>-0.1265215351475586</v>
+        <v>0.07496153952583295</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1733,13 +1739,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.66</v>
+        <v>7.27</v>
       </c>
       <c r="C36">
-        <v>7.585486082633841</v>
+        <v>7.365898594117176</v>
       </c>
       <c r="D36">
-        <v>-0.07451391736615864</v>
+        <v>0.09589859411717683</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1747,13 +1753,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.74</v>
+        <v>7.26</v>
       </c>
       <c r="C37">
-        <v>7.586222015323739</v>
+        <v>7.327004216224767</v>
       </c>
       <c r="D37">
-        <v>-0.1537779846762612</v>
+        <v>0.06700421622476682</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1761,13 +1767,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.69</v>
+        <v>7.25</v>
       </c>
       <c r="C38">
-        <v>7.531255095009743</v>
+        <v>7.325291437212226</v>
       </c>
       <c r="D38">
-        <v>-0.1587449049902574</v>
+        <v>0.07529143721222553</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1775,13 +1781,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.22</v>
+        <v>7.17</v>
       </c>
       <c r="C39">
-        <v>7.429247228580613</v>
+        <v>7.252199998706368</v>
       </c>
       <c r="D39">
-        <v>0.2092472285806135</v>
+        <v>0.0821999987063684</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1789,13 +1795,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.39</v>
+        <v>7.26</v>
       </c>
       <c r="C40">
-        <v>7.442042788951251</v>
+        <v>7.241315343405825</v>
       </c>
       <c r="D40">
-        <v>0.05204278895125114</v>
+        <v>-0.01868465659417495</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1803,13 +1809,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.42</v>
+        <v>7.3</v>
       </c>
       <c r="C41">
-        <v>7.470717254351871</v>
+        <v>7.297992682950813</v>
       </c>
       <c r="D41">
-        <v>0.0507172543518708</v>
+        <v>-0.002007317049186774</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1817,13 +1823,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.42</v>
+        <v>7.34</v>
       </c>
       <c r="C42">
-        <v>7.449155977807124</v>
+        <v>7.25191600211488</v>
       </c>
       <c r="D42">
-        <v>0.02915597780712442</v>
+        <v>-0.08808399788511956</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1831,13 +1837,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.26</v>
+        <v>7.19</v>
       </c>
       <c r="C43">
-        <v>7.330771591600239</v>
+        <v>7.15023848209044</v>
       </c>
       <c r="D43">
-        <v>0.07077159160023871</v>
+        <v>-0.03976151790956006</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1845,13 +1851,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.18</v>
+        <v>7.06</v>
       </c>
       <c r="C44">
-        <v>7.300636525537601</v>
+        <v>7.008619354019537</v>
       </c>
       <c r="D44">
-        <v>0.1206365255376012</v>
+        <v>-0.05138064598046288</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1859,13 +1865,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.21</v>
+        <v>7.2</v>
       </c>
       <c r="C45">
-        <v>7.237940244678762</v>
+        <v>7.088430995294924</v>
       </c>
       <c r="D45">
-        <v>0.02794024467876177</v>
+        <v>-0.1115690047050757</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1873,13 +1879,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.26</v>
+        <v>7.73</v>
       </c>
       <c r="C46">
-        <v>7.224694953509304</v>
+        <v>7.266910881770594</v>
       </c>
       <c r="D46">
-        <v>-0.03530504649069588</v>
+        <v>-0.4630891182294068</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1887,13 +1893,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.15</v>
+        <v>7.8</v>
       </c>
       <c r="C47">
-        <v>7.287552876247585</v>
+        <v>7.288508241314245</v>
       </c>
       <c r="D47">
-        <v>0.1375528762475851</v>
+        <v>-0.5114917586857546</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1901,13 +1907,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.24</v>
+        <v>7.95</v>
       </c>
       <c r="C48">
-        <v>7.285041017771392</v>
+        <v>7.282797067564939</v>
       </c>
       <c r="D48">
-        <v>0.0450410177713918</v>
+        <v>-0.6672029324350612</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1915,13 +1921,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.25</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C49">
-        <v>7.281620103162143</v>
+        <v>7.809861697379585</v>
       </c>
       <c r="D49">
-        <v>0.03162010316214303</v>
+        <v>-0.3101383026204143</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1929,13 +1935,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.27</v>
+        <v>7.72</v>
       </c>
       <c r="C50">
-        <v>7.314106912582187</v>
+        <v>7.807663043734383</v>
       </c>
       <c r="D50">
-        <v>0.0441069125821878</v>
+        <v>0.08766304373438327</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1943,13 +1949,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.37</v>
+        <v>7.78</v>
       </c>
       <c r="C51">
-        <v>7.336473651709675</v>
+        <v>7.826434407545175</v>
       </c>
       <c r="D51">
-        <v>-0.03352634829032475</v>
+        <v>0.04643440754517503</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1957,13 +1963,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.47</v>
+        <v>7.86</v>
       </c>
       <c r="C52">
-        <v>7.453359138685944</v>
+        <v>8.285246006806346</v>
       </c>
       <c r="D52">
-        <v>-0.0166408613140554</v>
+        <v>0.4252460068063462</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1971,13 +1977,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.48</v>
+        <v>7.75</v>
       </c>
       <c r="C53">
-        <v>7.4923142313833</v>
+        <v>8.241729201564752</v>
       </c>
       <c r="D53">
-        <v>0.01231423138329912</v>
+        <v>0.4917292015647519</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1985,13 +1991,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.16</v>
+        <v>7.62</v>
       </c>
       <c r="C54">
-        <v>7.143537080430872</v>
+        <v>8.124864525820129</v>
       </c>
       <c r="D54">
-        <v>-0.01646291956912815</v>
+        <v>0.5048645258201292</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1999,13 +2005,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.24</v>
+        <v>7.69</v>
       </c>
       <c r="C55">
-        <v>7.149436330089038</v>
+        <v>8.205000046622459</v>
       </c>
       <c r="D55">
-        <v>-0.09056366991096265</v>
+        <v>0.5150000466224585</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2013,13 +2019,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.3</v>
+        <v>7.76</v>
       </c>
       <c r="C56">
-        <v>7.166763038245183</v>
+        <v>8.243571028164725</v>
       </c>
       <c r="D56">
-        <v>-0.1332369617548164</v>
+        <v>0.4835710281647252</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2027,13 +2033,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.7</v>
+        <v>7.84</v>
       </c>
       <c r="C57">
-        <v>7.221294267643407</v>
+        <v>8.19618553912699</v>
       </c>
       <c r="D57">
-        <v>-0.4787057323565929</v>
+        <v>0.3561855391269901</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2041,13 +2047,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>8.4</v>
+        <v>7.91</v>
       </c>
       <c r="C58">
-        <v>7.877075012346329</v>
+        <v>8.295901827421314</v>
       </c>
       <c r="D58">
-        <v>-0.5229249876536715</v>
+        <v>0.3859018274213142</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2055,13 +2061,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.6</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C59">
-        <v>7.897948686653508</v>
+        <v>8.002236116510797</v>
       </c>
       <c r="D59">
-        <v>0.2979486866535082</v>
+        <v>-0.4677638834892033</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2069,13 +2075,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>8.01</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C60">
-        <v>7.921643036291713</v>
+        <v>7.929938243542788</v>
       </c>
       <c r="D60">
-        <v>-0.08835696370828661</v>
+        <v>-0.540061756457213</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2083,13 +2089,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>8.06</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C61">
-        <v>8.024061845988381</v>
+        <v>8.169470964784125</v>
       </c>
       <c r="D61">
-        <v>-0.03593815401161926</v>
+        <v>-0.9505290352158742</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2097,13 +2103,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7.82</v>
+        <v>9.09</v>
       </c>
       <c r="C62">
-        <v>8.418327059176022</v>
+        <v>8.293504770091539</v>
       </c>
       <c r="D62">
-        <v>0.5983270591760217</v>
+        <v>-0.7964952299084604</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2111,13 +2117,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.76</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C63">
-        <v>8.307163933886432</v>
+        <v>8.326870855645685</v>
       </c>
       <c r="D63">
-        <v>0.5471639338864325</v>
+        <v>-0.8931291443543152</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2125,13 +2131,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>7.83</v>
+        <v>9.23</v>
       </c>
       <c r="C64">
-        <v>8.319230916179773</v>
+        <v>8.319100558462186</v>
       </c>
       <c r="D64">
-        <v>0.489230916179773</v>
+        <v>-0.9108994415378149</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2139,13 +2145,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7.71</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C65">
-        <v>8.237634670469028</v>
+        <v>8.338102957250564</v>
       </c>
       <c r="D65">
-        <v>0.5276346704690278</v>
+        <v>-0.8718970427494366</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2153,13 +2159,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>7.74</v>
+        <v>8.83</v>
       </c>
       <c r="C66">
-        <v>8.247359978775037</v>
+        <v>8.192726383476927</v>
       </c>
       <c r="D66">
-        <v>0.5073599787750371</v>
+        <v>-0.637273616523073</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2167,13 +2173,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>7.75</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C67">
-        <v>8.248873270091444</v>
+        <v>8.173421335217746</v>
       </c>
       <c r="D67">
-        <v>0.498873270091444</v>
+        <v>-0.776578664782253</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2181,13 +2187,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>7.86</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C68">
-        <v>8.318774405325595</v>
+        <v>8.171860966611607</v>
       </c>
       <c r="D68">
-        <v>0.4587744053255944</v>
+        <v>-0.778139033388392</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2195,13 +2201,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.59</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="C69">
-        <v>8.065406885871592</v>
+        <v>8.17253864360953</v>
       </c>
       <c r="D69">
-        <v>-0.5245931141284075</v>
+        <v>-0.5474613563904711</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2209,13 +2215,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.34</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C70">
-        <v>7.884807727513281</v>
+        <v>8.132336245556106</v>
       </c>
       <c r="D70">
-        <v>-0.4551922724867188</v>
+        <v>-0.8276637544438952</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2226,10 +2232,10 @@
         <v>8.380000000000001</v>
       </c>
       <c r="C71">
-        <v>7.931358358230502</v>
+        <v>7.960213176700577</v>
       </c>
       <c r="D71">
-        <v>-0.4486416417694992</v>
+        <v>-0.4197868232994235</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2237,13 +2243,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>9.119999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C72">
-        <v>8.257863967056981</v>
+        <v>8.107002183280077</v>
       </c>
       <c r="D72">
-        <v>-0.8621360329430185</v>
+        <v>-0.03299781671992363</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2251,13 +2257,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>9.390000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="C73">
-        <v>8.418126397523984</v>
+        <v>8.070209876751674</v>
       </c>
       <c r="D73">
-        <v>-0.9718736024760162</v>
+        <v>-0.009790123248325955</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2265,13 +2271,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.81</v>
+        <v>8.01</v>
       </c>
       <c r="C74">
-        <v>8.157031410352445</v>
+        <v>8.053665200058708</v>
       </c>
       <c r="D74">
-        <v>-0.6529685896475552</v>
+        <v>0.04366520005870811</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2279,13 +2285,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.99</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>8.247001444015019</v>
+        <v>8.029738973503942</v>
       </c>
       <c r="D75">
-        <v>-0.7429985559849808</v>
+        <v>0.02973897350394239</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2293,13 +2299,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>9.050000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C76">
-        <v>8.26182954250821</v>
+        <v>8.195139188670908</v>
       </c>
       <c r="D76">
-        <v>-0.7881704574917912</v>
+        <v>-0.1048608113290932</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2307,13 +2313,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.52</v>
+        <v>8.59</v>
       </c>
       <c r="C77">
-        <v>8.095176924143463</v>
+        <v>8.248563134523417</v>
       </c>
       <c r="D77">
-        <v>-0.424823075856537</v>
+        <v>-0.3414368654765827</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2321,13 +2327,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.91</v>
+        <v>8.44</v>
       </c>
       <c r="C78">
-        <v>8.165696004480424</v>
+        <v>8.194940156170736</v>
       </c>
       <c r="D78">
-        <v>-0.7443039955195765</v>
+        <v>-0.2450598438292637</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2335,13 +2341,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.93</v>
+        <v>8.52</v>
       </c>
       <c r="C79">
-        <v>8.16350327835406</v>
+        <v>8.208578059273837</v>
       </c>
       <c r="D79">
-        <v>-0.7664967216459395</v>
+        <v>-0.3114219407261629</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2349,13 +2355,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>9.07</v>
+        <v>8.26</v>
       </c>
       <c r="C80">
-        <v>8.203503882373408</v>
+        <v>8.00457322962675</v>
       </c>
       <c r="D80">
-        <v>-0.8664961176265926</v>
+        <v>-0.2554267703732496</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2363,13 +2369,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>9.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C81">
-        <v>8.143698995865648</v>
+        <v>7.900861561381209</v>
       </c>
       <c r="D81">
-        <v>-0.9063010041343524</v>
+        <v>-0.07913843861879144</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2377,13 +2383,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="C82">
-        <v>8.05457498756622</v>
+        <v>7.830315079038131</v>
       </c>
       <c r="D82">
-        <v>0.06457498756621938</v>
+        <v>0.03031507903813146</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2391,13 +2397,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>8.220000000000001</v>
+        <v>7.66</v>
       </c>
       <c r="C83">
-        <v>8.112903828209404</v>
+        <v>7.666816908871876</v>
       </c>
       <c r="D83">
-        <v>-0.1070961717905963</v>
+        <v>0.006816908871876137</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2405,13 +2411,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>8.300000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="C84">
-        <v>8.185930069538635</v>
+        <v>7.578938975538012</v>
       </c>
       <c r="D84">
-        <v>-0.1140699304613655</v>
+        <v>-0.03106102446198822</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2419,13 +2425,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8.56</v>
+        <v>8.15</v>
       </c>
       <c r="C85">
-        <v>8.231072693081654</v>
+        <v>8.01382325939618</v>
       </c>
       <c r="D85">
-        <v>-0.3289273069183469</v>
+        <v>-0.1361767406038208</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2433,13 +2439,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7.98</v>
+        <v>8.19</v>
       </c>
       <c r="C86">
-        <v>7.866944710447457</v>
+        <v>8.167651422689042</v>
       </c>
       <c r="D86">
-        <v>-0.1130552895525438</v>
+        <v>-0.0223485773109573</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2447,13 +2453,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>7.66</v>
+        <v>8.18</v>
       </c>
       <c r="C87">
-        <v>7.649618011782734</v>
+        <v>8.187951383332638</v>
       </c>
       <c r="D87">
-        <v>-0.01038198821726599</v>
+        <v>0.007951383332638784</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2461,13 +2467,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.35</v>
+        <v>8.08</v>
       </c>
       <c r="C88">
-        <v>8.103260595914435</v>
+        <v>8.025814680010697</v>
       </c>
       <c r="D88">
-        <v>-0.2467394040855648</v>
+        <v>-0.05418531998930298</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2475,13 +2481,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.35</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C89">
-        <v>8.117049996034705</v>
+        <v>8.060725826353401</v>
       </c>
       <c r="D89">
-        <v>-0.2329500039652945</v>
+        <v>-0.05927417364659782</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2489,13 +2495,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>8.09</v>
+        <v>7.67</v>
       </c>
       <c r="C90">
-        <v>8.035695828304569</v>
+        <v>7.905698107376619</v>
       </c>
       <c r="D90">
-        <v>-0.05430417169543134</v>
+        <v>0.2356981073766189</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2503,13 +2509,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>8.07</v>
+        <v>7.66</v>
       </c>
       <c r="C91">
-        <v>8.00701708897342</v>
+        <v>7.85031474111058</v>
       </c>
       <c r="D91">
-        <v>-0.06298291102658027</v>
+        <v>0.1903147411105799</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2517,13 +2523,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>8.16</v>
+        <v>7.66</v>
       </c>
       <c r="C92">
-        <v>8.119327114190035</v>
+        <v>7.84867990851011</v>
       </c>
       <c r="D92">
-        <v>-0.04067288580996475</v>
+        <v>0.1886799085101103</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2531,13 +2537,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>8.09</v>
+        <v>7.73</v>
       </c>
       <c r="C93">
-        <v>8.11860581136504</v>
+        <v>7.941079959051551</v>
       </c>
       <c r="D93">
-        <v>0.02860581136503981</v>
+        <v>0.2110799590515509</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2545,13 +2551,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.6</v>
+        <v>7.56</v>
       </c>
       <c r="C94">
-        <v>7.928135385353598</v>
+        <v>7.502439606746357</v>
       </c>
       <c r="D94">
-        <v>0.3281353853535984</v>
+        <v>-0.05756039325364259</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2559,13 +2565,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="C95">
-        <v>7.844655478581594</v>
+        <v>7.446598740850799</v>
       </c>
       <c r="D95">
-        <v>0.2246554785815942</v>
+        <v>-0.1034012591492006</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2573,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.68</v>
+        <v>7.56</v>
       </c>
       <c r="C96">
-        <v>7.854736335867103</v>
+        <v>7.525629350795779</v>
       </c>
       <c r="D96">
-        <v>0.1747363358671032</v>
+        <v>-0.03437064920422106</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2587,13 +2593,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.69</v>
+        <v>7.59</v>
       </c>
       <c r="C97">
-        <v>7.888522439840112</v>
+        <v>7.560500244777668</v>
       </c>
       <c r="D97">
-        <v>0.1985224398401115</v>
+        <v>-0.02949975522233217</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2601,13 +2607,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.55</v>
+        <v>7.63</v>
       </c>
       <c r="C98">
-        <v>7.744294702512138</v>
+        <v>7.795268210175646</v>
       </c>
       <c r="D98">
-        <v>0.1942947025121384</v>
+        <v>0.165268210175646</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2615,13 +2621,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.45</v>
+        <v>7.6</v>
       </c>
       <c r="C99">
-        <v>7.569589907492097</v>
+        <v>7.777786738301923</v>
       </c>
       <c r="D99">
-        <v>0.119589907492097</v>
+        <v>0.1777867383019238</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2629,13 +2635,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.59</v>
+        <v>7.6</v>
       </c>
       <c r="C100">
-        <v>7.572890955468927</v>
+        <v>7.753513439797249</v>
       </c>
       <c r="D100">
-        <v>-0.01710904453107265</v>
+        <v>0.1535134397972495</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2643,13 +2649,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="C101">
-        <v>7.511285432748028</v>
+        <v>7.911852510832135</v>
       </c>
       <c r="D101">
-        <v>-0.1287145672519721</v>
+        <v>0.2118525108321352</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2660,10 +2666,10 @@
         <v>7.65</v>
       </c>
       <c r="C102">
-        <v>7.794212732960271</v>
+        <v>7.919290058407375</v>
       </c>
       <c r="D102">
-        <v>0.1442127329602707</v>
+        <v>0.2692900584073747</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2671,13 +2677,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.62</v>
+        <v>7.68</v>
       </c>
       <c r="C103">
-        <v>7.794347484704011</v>
+        <v>7.945471704272574</v>
       </c>
       <c r="D103">
-        <v>0.1743474847040112</v>
+        <v>0.2654717042725743</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2685,13 +2691,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.63</v>
+        <v>7.64</v>
       </c>
       <c r="C104">
-        <v>7.8847726761908</v>
+        <v>7.904453176200059</v>
       </c>
       <c r="D104">
-        <v>0.2547726761908002</v>
+        <v>0.2644531762000595</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2702,10 +2708,10 @@
         <v>7.61</v>
       </c>
       <c r="C105">
-        <v>7.872149737608757</v>
+        <v>7.872035132874924</v>
       </c>
       <c r="D105">
-        <v>0.2621497376087571</v>
+        <v>0.2620351328749235</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2713,13 +2719,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.63</v>
+        <v>7.61</v>
       </c>
       <c r="C106">
-        <v>7.882328706340826</v>
+        <v>7.872024803461851</v>
       </c>
       <c r="D106">
-        <v>0.2523287063408262</v>
+        <v>0.2620248034618511</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2727,13 +2733,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.62</v>
+        <v>7.61</v>
       </c>
       <c r="C107">
-        <v>7.836502251179303</v>
+        <v>7.885066461454548</v>
       </c>
       <c r="D107">
-        <v>0.2165022511793033</v>
+        <v>0.2750664614545473</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2741,13 +2747,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.73</v>
+        <v>7.64</v>
       </c>
       <c r="C108">
-        <v>7.94143522521292</v>
+        <v>7.887920959092289</v>
       </c>
       <c r="D108">
-        <v>0.2114352252129192</v>
+        <v>0.2479209590922897</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2755,13 +2761,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="C109">
-        <v>7.978360883457403</v>
+        <v>7.787035758085761</v>
       </c>
       <c r="D109">
-        <v>0.2583608834574029</v>
+        <v>0.0770357580857608</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2769,13 +2775,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="C110">
-        <v>7.954140589375355</v>
+        <v>7.964028807383105</v>
       </c>
       <c r="D110">
-        <v>0.2841405893753555</v>
+        <v>0.2840288073831054</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2783,13 +2789,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.7</v>
+        <v>7.75</v>
       </c>
       <c r="C111">
-        <v>7.988797606787549</v>
+        <v>7.91189713744131</v>
       </c>
       <c r="D111">
-        <v>0.2887976067875488</v>
+        <v>0.1618971374413096</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2797,13 +2803,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.64</v>
+        <v>7.32</v>
       </c>
       <c r="C112">
-        <v>7.933713707865564</v>
+        <v>7.593473843354923</v>
       </c>
       <c r="D112">
-        <v>0.2937137078655638</v>
+        <v>0.2734738433549229</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2811,13 +2817,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.61</v>
+        <v>7.32</v>
       </c>
       <c r="C113">
-        <v>7.90928021385302</v>
+        <v>7.576594655893071</v>
       </c>
       <c r="D113">
-        <v>0.2992802138530202</v>
+        <v>0.2565946558930712</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2825,13 +2831,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.37</v>
+        <v>7.32</v>
       </c>
       <c r="C114">
-        <v>7.623593297894527</v>
+        <v>7.556156313591501</v>
       </c>
       <c r="D114">
-        <v>0.2535932978945272</v>
+        <v>0.2361563135915006</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2839,13 +2845,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.33</v>
+        <v>7.3</v>
       </c>
       <c r="C115">
-        <v>7.606125417812557</v>
+        <v>7.513232473778793</v>
       </c>
       <c r="D115">
-        <v>0.2761254178125574</v>
+        <v>0.2132324737787927</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2853,13 +2859,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.3</v>
+        <v>7.26</v>
       </c>
       <c r="C116">
-        <v>7.582179497301103</v>
+        <v>7.476418023534814</v>
       </c>
       <c r="D116">
-        <v>0.2821794973011027</v>
+        <v>0.2164180235348141</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2867,13 +2873,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.11</v>
+        <v>7.08</v>
       </c>
       <c r="C117">
-        <v>7.386451729671196</v>
+        <v>7.527582864815573</v>
       </c>
       <c r="D117">
-        <v>0.2764517296711961</v>
+        <v>0.4475828648155726</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2881,13 +2887,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.16</v>
+        <v>7.14</v>
       </c>
       <c r="C118">
-        <v>7.424352140169172</v>
+        <v>7.497431945964015</v>
       </c>
       <c r="D118">
-        <v>0.264352140169172</v>
+        <v>0.3574319459640156</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2895,13 +2901,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.23</v>
+        <v>7.28</v>
       </c>
       <c r="C119">
-        <v>7.462841137962688</v>
+        <v>7.540957356643435</v>
       </c>
       <c r="D119">
-        <v>0.232841137962688</v>
+        <v>0.2609573566434351</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2909,13 +2915,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.22</v>
+        <v>7.56</v>
       </c>
       <c r="C120">
-        <v>7.471040006593166</v>
+        <v>7.595632959120238</v>
       </c>
       <c r="D120">
-        <v>0.2510400065931666</v>
+        <v>0.03563295912023801</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2923,13 +2929,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.04</v>
+        <v>7.91</v>
       </c>
       <c r="C121">
-        <v>7.518005051079368</v>
+        <v>7.880229928412941</v>
       </c>
       <c r="D121">
-        <v>0.4780050510793679</v>
+        <v>-0.02977007158705902</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2937,13 +2943,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.46</v>
+        <v>8.02</v>
       </c>
       <c r="C122">
-        <v>7.585419968686987</v>
+        <v>7.959961101199619</v>
       </c>
       <c r="D122">
-        <v>0.1254199686869875</v>
+        <v>-0.06003889880038038</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2951,13 +2957,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.44</v>
+        <v>7.98</v>
       </c>
       <c r="C123">
-        <v>7.604655354816406</v>
+        <v>8.128415324948806</v>
       </c>
       <c r="D123">
-        <v>0.1646553548164054</v>
+        <v>0.1484153249488056</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2965,13 +2971,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.53</v>
+        <v>8.01</v>
       </c>
       <c r="C124">
-        <v>7.591396243531524</v>
+        <v>8.030835902051399</v>
       </c>
       <c r="D124">
-        <v>0.06139624353152406</v>
+        <v>0.02083590205139885</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2979,13 +2985,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>7.94</v>
+        <v>8.32</v>
       </c>
       <c r="C125">
-        <v>7.892372164387358</v>
+        <v>8.095314535839019</v>
       </c>
       <c r="D125">
-        <v>-0.0476278356126425</v>
+        <v>-0.2246854641609808</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2993,13 +2999,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>7.93</v>
+        <v>8.41</v>
       </c>
       <c r="C126">
-        <v>7.862838631656357</v>
+        <v>8.075972776241649</v>
       </c>
       <c r="D126">
-        <v>-0.06716136834364317</v>
+        <v>-0.3340272237583513</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3007,13 +3013,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>7.91</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C127">
-        <v>7.991152334492608</v>
+        <v>8.179594282151552</v>
       </c>
       <c r="D127">
-        <v>0.08115233449260817</v>
+        <v>-0.1904057178484475</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3021,13 +3027,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>7.92</v>
+        <v>8.34</v>
       </c>
       <c r="C128">
-        <v>8.004711781211441</v>
+        <v>8.269769507883618</v>
       </c>
       <c r="D128">
-        <v>0.08471178121144085</v>
+        <v>-0.07023049211638188</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3035,13 +3041,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>7.85</v>
+        <v>8.26</v>
       </c>
       <c r="C129">
-        <v>7.967890879407711</v>
+        <v>8.178052545009482</v>
       </c>
       <c r="D129">
-        <v>0.1178908794077111</v>
+        <v>-0.0819474549905177</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3049,13 +3055,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>7.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C130">
-        <v>7.992442807433174</v>
+        <v>8.155237248961461</v>
       </c>
       <c r="D130">
-        <v>0.1624428074331741</v>
+        <v>-0.1347627510385383</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3063,13 +3069,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7.93</v>
+        <v>8.01</v>
       </c>
       <c r="C131">
-        <v>8.015760044595517</v>
+        <v>8.034022692247904</v>
       </c>
       <c r="D131">
-        <v>0.08576004459551712</v>
+        <v>0.02402269224790388</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3077,13 +3083,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.210000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="C132">
-        <v>8.171319332942719</v>
+        <v>8.499904175887634</v>
       </c>
       <c r="D132">
-        <v>-0.03868066705728168</v>
+        <v>0.09990417588763378</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3091,13 +3097,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.18</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C133">
-        <v>8.140374590558849</v>
+        <v>8.486177110050685</v>
       </c>
       <c r="D133">
-        <v>-0.03962540944115034</v>
+        <v>0.09617711005068408</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3105,13 +3111,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>8.289999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="C134">
-        <v>8.183017997525941</v>
+        <v>8.303020409896321</v>
       </c>
       <c r="D134">
-        <v>-0.1069820024740586</v>
+        <v>0.1130204098963219</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3119,13 +3125,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>8.289999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="C135">
-        <v>8.130129936488537</v>
+        <v>8.901728678939552</v>
       </c>
       <c r="D135">
-        <v>-0.1598700635114625</v>
+        <v>-0.2682713210604479</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3133,13 +3139,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>8.27</v>
+        <v>10.02</v>
       </c>
       <c r="C136">
-        <v>8.096150135833746</v>
+        <v>9.408914617102864</v>
       </c>
       <c r="D136">
-        <v>-0.1738498641662538</v>
+        <v>-0.6110853828971354</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3147,13 +3153,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>8.19</v>
+        <v>9.58</v>
       </c>
       <c r="C137">
-        <v>8.001453793374001</v>
+        <v>9.299724656857622</v>
       </c>
       <c r="D137">
-        <v>-0.1885462066259986</v>
+        <v>-0.2802753431423781</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3161,13 +3167,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>8.18</v>
+        <v>9.58</v>
       </c>
       <c r="C138">
-        <v>7.979403626829455</v>
+        <v>9.318136091775871</v>
       </c>
       <c r="D138">
-        <v>-0.2005963731705451</v>
+        <v>-0.2618639082241287</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3175,13 +3181,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.5</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C139">
-        <v>8.125129837303898</v>
+        <v>8.322749755516801</v>
       </c>
       <c r="D139">
-        <v>-0.3748701626961015</v>
+        <v>-0.1372502444831998</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3189,13 +3195,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.470000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="C140">
-        <v>8.101042577184572</v>
+        <v>8.150087856036436</v>
       </c>
       <c r="D140">
-        <v>-0.3689574228154289</v>
+        <v>-0.0999121439635644</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3203,13 +3209,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.33</v>
+        <v>7.63</v>
       </c>
       <c r="C141">
-        <v>8.165427184039228</v>
+        <v>8.133860534792435</v>
       </c>
       <c r="D141">
-        <v>-0.1645728159607724</v>
+        <v>0.5038605347924348</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3217,13 +3223,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>8.33</v>
+        <v>7.76</v>
       </c>
       <c r="C142">
-        <v>8.182959433236597</v>
+        <v>8.015784852034233</v>
       </c>
       <c r="D142">
-        <v>-0.1470405667634029</v>
+        <v>0.2557848520342336</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3231,13 +3237,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>8.210000000000001</v>
+        <v>7.66</v>
       </c>
       <c r="C143">
-        <v>8.102352638692174</v>
+        <v>7.910949499285536</v>
       </c>
       <c r="D143">
-        <v>-0.1076473613078264</v>
+        <v>0.2509494992855359</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3245,13 +3251,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>8.24</v>
+        <v>7.8</v>
       </c>
       <c r="C144">
-        <v>8.107194075457038</v>
+        <v>7.88140539468194</v>
       </c>
       <c r="D144">
-        <v>-0.1328059245429625</v>
+        <v>0.08140539468193975</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3259,13 +3265,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C145">
-        <v>8.062540092725332</v>
+        <v>7.843678190937462</v>
       </c>
       <c r="D145">
-        <v>-0.1374599072746676</v>
+        <v>0.04367819093746217</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3273,13 +3279,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.19</v>
+        <v>8.09</v>
       </c>
       <c r="C146">
-        <v>8.31010120891661</v>
+        <v>8.062818873665714</v>
       </c>
       <c r="D146">
-        <v>0.1201012089166102</v>
+        <v>-0.02718112633428582</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3287,13 +3293,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>8.380000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="C147">
-        <v>8.449247698199954</v>
+        <v>7.682316610151375</v>
       </c>
       <c r="D147">
-        <v>0.06924769819995369</v>
+        <v>0.2123166101513752</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3301,13 +3307,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>8.52</v>
+        <v>7.7</v>
       </c>
       <c r="C148">
-        <v>8.672212072536407</v>
+        <v>7.833992194927738</v>
       </c>
       <c r="D148">
-        <v>0.1522120725364076</v>
+        <v>0.1339921949277381</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3315,13 +3321,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>9.109999999999999</v>
+        <v>7.35</v>
       </c>
       <c r="C149">
-        <v>8.850512644053826</v>
+        <v>7.367743674166048</v>
       </c>
       <c r="D149">
-        <v>-0.2594873559461739</v>
+        <v>0.01774367416604861</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3329,13 +3335,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>9.380000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="C150">
-        <v>9.189805821154451</v>
+        <v>7.291185124813433</v>
       </c>
       <c r="D150">
-        <v>-0.1901941788455499</v>
+        <v>0.121185124813433</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3343,13 +3349,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>9.58</v>
+        <v>7.14</v>
       </c>
       <c r="C151">
-        <v>9.302411865920931</v>
+        <v>7.229610501038282</v>
       </c>
       <c r="D151">
-        <v>-0.2775881340790693</v>
+        <v>0.08961050103828239</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3357,13 +3363,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>9.58</v>
+        <v>7.2</v>
       </c>
       <c r="C152">
-        <v>9.307173153394224</v>
+        <v>7.229388764588904</v>
       </c>
       <c r="D152">
-        <v>-0.2728268466057759</v>
+        <v>0.02938876458890416</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3371,13 +3377,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>8.710000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="C153">
-        <v>8.51834561342644</v>
+        <v>7.211468284561919</v>
       </c>
       <c r="D153">
-        <v>-0.1916543865735605</v>
+        <v>0.0914682845619188</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3385,13 +3391,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>8.699999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="C154">
-        <v>8.553718736590085</v>
+        <v>7.096648351764804</v>
       </c>
       <c r="D154">
-        <v>-0.1462812634099144</v>
+        <v>0.1166483517648036</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3399,13 +3405,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>8.25</v>
+        <v>7.05</v>
       </c>
       <c r="C155">
-        <v>8.149793278757812</v>
+        <v>7.108540594129733</v>
       </c>
       <c r="D155">
-        <v>-0.1002067212421878</v>
+        <v>0.05854059412973367</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3413,13 +3419,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>8.380000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="C156">
-        <v>8.235014548495617</v>
+        <v>7.18908397010018</v>
       </c>
       <c r="D156">
-        <v>-0.1449854515043842</v>
+        <v>0.01908397010017993</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3427,13 +3433,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.65</v>
+        <v>7.29</v>
       </c>
       <c r="C157">
-        <v>8.154341525905348</v>
+        <v>7.228794086370424</v>
       </c>
       <c r="D157">
-        <v>0.5043415259053479</v>
+        <v>-0.06120591362957573</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3441,13 +3447,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.71</v>
+        <v>7.28</v>
       </c>
       <c r="C158">
-        <v>7.887782292125032</v>
+        <v>7.194966520536187</v>
       </c>
       <c r="D158">
-        <v>0.1777822921250323</v>
+        <v>-0.08503347946381279</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3455,13 +3461,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="C159">
-        <v>7.892220813807158</v>
+        <v>7.544478299660964</v>
       </c>
       <c r="D159">
-        <v>0.1322208138071579</v>
+        <v>-0.2255217003390353</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3469,13 +3475,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.85</v>
+        <v>7.46</v>
       </c>
       <c r="C160">
-        <v>7.840227322366343</v>
+        <v>7.422122527703761</v>
       </c>
       <c r="D160">
-        <v>-0.009772677633656635</v>
+        <v>-0.0378774722962385</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3483,13 +3489,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>8.050000000000001</v>
+        <v>7.49</v>
       </c>
       <c r="C161">
-        <v>8.049618998529734</v>
+        <v>7.375034699869694</v>
       </c>
       <c r="D161">
-        <v>-0.0003810014702665399</v>
+        <v>-0.1149653001303061</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3497,13 +3503,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.67</v>
+        <v>7.16</v>
       </c>
       <c r="C162">
-        <v>7.83790758057732</v>
+        <v>7.226828815743577</v>
       </c>
       <c r="D162">
-        <v>0.16790758057732</v>
+        <v>0.0668288157435768</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3511,13 +3517,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.59</v>
+        <v>7.02</v>
       </c>
       <c r="C163">
-        <v>7.785570037504239</v>
+        <v>6.708476180519817</v>
       </c>
       <c r="D163">
-        <v>0.1955700375042388</v>
+        <v>-0.3115238194801826</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3525,13 +3531,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.55</v>
+        <v>7.03</v>
       </c>
       <c r="C164">
-        <v>7.763929525685527</v>
+        <v>6.604389092121135</v>
       </c>
       <c r="D164">
-        <v>0.2139295256855274</v>
+        <v>-0.4256109078788652</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3539,13 +3545,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.71</v>
+        <v>7.22</v>
       </c>
       <c r="C165">
-        <v>7.875866757861773</v>
+        <v>6.629791294781205</v>
       </c>
       <c r="D165">
-        <v>0.1658667578617727</v>
+        <v>-0.590208705218795</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3553,13 +3559,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.53</v>
+        <v>7.17</v>
       </c>
       <c r="C166">
-        <v>7.729116968232874</v>
+        <v>6.773282261800935</v>
       </c>
       <c r="D166">
-        <v>0.1991169682328735</v>
+        <v>-0.3967177381990652</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3567,13 +3573,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.66</v>
+        <v>7.26</v>
       </c>
       <c r="C167">
-        <v>7.777999445076406</v>
+        <v>6.785239173578525</v>
       </c>
       <c r="D167">
-        <v>0.1179994450764061</v>
+        <v>-0.4747608264214751</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3581,13 +3587,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.53</v>
+        <v>6.65</v>
       </c>
       <c r="C168">
-        <v>7.712090984051851</v>
+        <v>6.330239605953706</v>
       </c>
       <c r="D168">
-        <v>0.1820909840518503</v>
+        <v>-0.3197603940462947</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3595,13 +3601,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>7.27</v>
+        <v>6.68</v>
       </c>
       <c r="C169">
-        <v>7.361990131421476</v>
+        <v>6.357741633822359</v>
       </c>
       <c r="D169">
-        <v>0.09199013142147638</v>
+        <v>-0.3222583661776408</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3609,13 +3615,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.17</v>
+        <v>6.59</v>
       </c>
       <c r="C170">
-        <v>7.166962078506924</v>
+        <v>6.343038964705457</v>
       </c>
       <c r="D170">
-        <v>-0.003037921493075579</v>
+        <v>-0.2469610352945431</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3623,13 +3629,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.16</v>
+        <v>6.77</v>
       </c>
       <c r="C171">
-        <v>7.171689161181594</v>
+        <v>6.30635420451277</v>
       </c>
       <c r="D171">
-        <v>0.01168916118159391</v>
+        <v>-0.4636457954872295</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3637,13 +3643,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.26</v>
+        <v>6.67</v>
       </c>
       <c r="C172">
-        <v>7.227141466890834</v>
+        <v>6.297609034973156</v>
       </c>
       <c r="D172">
-        <v>-0.03285853310916576</v>
+        <v>-0.3723909650268435</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3651,13 +3657,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.36</v>
+        <v>6.58</v>
       </c>
       <c r="C173">
-        <v>7.252472548574299</v>
+        <v>6.250423570900844</v>
       </c>
       <c r="D173">
-        <v>-0.1075274514257014</v>
+        <v>-0.3295764290991556</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3665,13 +3671,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.27</v>
+        <v>6.36</v>
       </c>
       <c r="C174">
-        <v>7.235019991075903</v>
+        <v>6.077744988354405</v>
       </c>
       <c r="D174">
-        <v>-0.03498000892409703</v>
+        <v>-0.2822550116455949</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3679,13 +3685,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.46</v>
+        <v>6.06</v>
       </c>
       <c r="C175">
-        <v>7.385257630007305</v>
+        <v>6.082400948193735</v>
       </c>
       <c r="D175">
-        <v>-0.07474236999269479</v>
+        <v>0.02240094819373528</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3693,13 +3699,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.12</v>
+        <v>5.74</v>
       </c>
       <c r="C176">
-        <v>7.315262208503989</v>
+        <v>6.057149584980369</v>
       </c>
       <c r="D176">
-        <v>0.1952622085039888</v>
+        <v>0.3171495849803687</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3707,13 +3713,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.18</v>
+        <v>5.74</v>
       </c>
       <c r="C177">
-        <v>7.238445720082718</v>
+        <v>6.061521793924161</v>
       </c>
       <c r="D177">
-        <v>0.05844572008271864</v>
+        <v>0.3215217939241608</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3721,13 +3727,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>7.05</v>
+        <v>5.75</v>
       </c>
       <c r="C178">
-        <v>6.549624123167413</v>
+        <v>6.064511511626252</v>
       </c>
       <c r="D178">
-        <v>-0.500375876832587</v>
+        <v>0.314511511626252</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3735,13 +3741,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>7.05</v>
+        <v>5.72</v>
       </c>
       <c r="C179">
-        <v>6.56123380651207</v>
+        <v>6.041917790240168</v>
       </c>
       <c r="D179">
-        <v>-0.4887661934879297</v>
+        <v>0.3219177902401684</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3749,13 +3755,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>7</v>
+        <v>5.68</v>
       </c>
       <c r="C180">
-        <v>6.544554743235332</v>
+        <v>5.952010508468755</v>
       </c>
       <c r="D180">
-        <v>-0.4554452567646683</v>
+        <v>0.272010508468755</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3763,13 +3769,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>7.24</v>
+        <v>5.65</v>
       </c>
       <c r="C181">
-        <v>6.628788297182605</v>
+        <v>5.931991709095806</v>
       </c>
       <c r="D181">
-        <v>-0.6112117028173953</v>
+        <v>0.2819917090958057</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3777,13 +3783,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.9</v>
+        <v>5.68</v>
       </c>
       <c r="C182">
-        <v>6.623145745482204</v>
+        <v>5.918559729406008</v>
       </c>
       <c r="D182">
-        <v>-0.2768542545177963</v>
+        <v>0.238559729406008</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3791,13 +3797,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.96</v>
+        <v>5.71</v>
       </c>
       <c r="C183">
-        <v>6.567903857258677</v>
+        <v>5.939008072253456</v>
       </c>
       <c r="D183">
-        <v>-0.3920961427413232</v>
+        <v>0.229008072253456</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3805,13 +3811,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.67</v>
+        <v>5.71</v>
       </c>
       <c r="C184">
-        <v>6.365139138758248</v>
+        <v>5.935769415740852</v>
       </c>
       <c r="D184">
-        <v>-0.3048608612417523</v>
+        <v>0.2257694157408521</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3819,13 +3825,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.81</v>
+        <v>5.69</v>
       </c>
       <c r="C185">
-        <v>6.335864590081537</v>
+        <v>5.891611146895107</v>
       </c>
       <c r="D185">
-        <v>-0.4741354099184623</v>
+        <v>0.2016111468951065</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3833,13 +3839,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.81</v>
+        <v>5.7</v>
       </c>
       <c r="C186">
-        <v>6.315001773142028</v>
+        <v>5.890455359824639</v>
       </c>
       <c r="D186">
-        <v>-0.4949982268579713</v>
+        <v>0.1904553598246386</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3847,13 +3853,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.81</v>
+        <v>5.74</v>
       </c>
       <c r="C187">
-        <v>6.322532033717461</v>
+        <v>5.879457539575702</v>
       </c>
       <c r="D187">
-        <v>-0.487467966282539</v>
+        <v>0.1394575395757016</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3861,13 +3867,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.36</v>
+        <v>5.47</v>
       </c>
       <c r="C188">
-        <v>6.118788541707555</v>
+        <v>5.651492064547122</v>
       </c>
       <c r="D188">
-        <v>-0.2412114582924456</v>
+        <v>0.1814920645471227</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3875,13 +3881,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.36</v>
+        <v>5.49</v>
       </c>
       <c r="C189">
-        <v>6.119568078505012</v>
+        <v>5.665886302307683</v>
       </c>
       <c r="D189">
-        <v>-0.2404319214949879</v>
+        <v>0.1758863023076831</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3889,13 +3895,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.75</v>
+        <v>5.45</v>
       </c>
       <c r="C190">
-        <v>6.057415348394323</v>
+        <v>5.638161159047108</v>
       </c>
       <c r="D190">
-        <v>0.3074153483943229</v>
+        <v>0.188161159047108</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3903,13 +3909,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.73</v>
+        <v>5.42</v>
       </c>
       <c r="C191">
-        <v>6.039279281022142</v>
+        <v>5.64370093659039</v>
       </c>
       <c r="D191">
-        <v>0.3092792810221416</v>
+        <v>0.2237009365903901</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3917,13 +3923,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.66</v>
+        <v>5.5</v>
       </c>
       <c r="C192">
-        <v>5.988331671204416</v>
+        <v>5.574372563126746</v>
       </c>
       <c r="D192">
-        <v>0.328331671204416</v>
+        <v>0.07437256312674556</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3931,13 +3937,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="C193">
-        <v>5.935128435307171</v>
+        <v>5.60362979479236</v>
       </c>
       <c r="D193">
-        <v>0.2351284353071712</v>
+        <v>0.00362979479236003</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3945,13 +3951,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="C194">
-        <v>5.871660513805481</v>
+        <v>5.619932389048323</v>
       </c>
       <c r="D194">
-        <v>0.2016605138054812</v>
+        <v>-6.761095167728826e-05</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3959,13 +3965,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="C195">
-        <v>5.829411219921586</v>
+        <v>5.625138682026124</v>
       </c>
       <c r="D195">
-        <v>0.09941121992158575</v>
+        <v>-0.07486131797387596</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3973,13 +3979,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.37</v>
+        <v>5.58</v>
       </c>
       <c r="C196">
-        <v>5.628395650498168</v>
+        <v>5.58353105973017</v>
       </c>
       <c r="D196">
-        <v>0.2583956504981675</v>
+        <v>0.003531059730169872</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3987,13 +3993,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.31</v>
+        <v>5.82</v>
       </c>
       <c r="C197">
-        <v>5.575735991377933</v>
+        <v>5.658364407371874</v>
       </c>
       <c r="D197">
-        <v>0.2657359913779338</v>
+        <v>-0.1616355926281265</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4001,13 +4007,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.29</v>
+        <v>5.76</v>
       </c>
       <c r="C198">
-        <v>5.566462427484494</v>
+        <v>5.666492444722515</v>
       </c>
       <c r="D198">
-        <v>0.2764624274844945</v>
+        <v>-0.09350755527748511</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4015,13 +4021,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.36</v>
+        <v>5.9</v>
       </c>
       <c r="C199">
-        <v>5.622646921220995</v>
+        <v>5.707389769306275</v>
       </c>
       <c r="D199">
-        <v>0.2626469212209948</v>
+        <v>-0.1926102306937256</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4029,13 +4035,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.38</v>
+        <v>5.83</v>
       </c>
       <c r="C200">
-        <v>5.667424977185799</v>
+        <v>5.645610240350569</v>
       </c>
       <c r="D200">
-        <v>0.2874249771857986</v>
+        <v>-0.1843897596494308</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4043,13 +4049,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.49</v>
+        <v>5.99</v>
       </c>
       <c r="C201">
-        <v>5.561854669327846</v>
+        <v>5.654492332929197</v>
       </c>
       <c r="D201">
-        <v>0.07185466932784568</v>
+        <v>-0.3355076670708037</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4057,13 +4063,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.55</v>
+        <v>5.37</v>
       </c>
       <c r="C202">
-        <v>5.583699082152875</v>
+        <v>5.451273170181533</v>
       </c>
       <c r="D202">
-        <v>0.03369908215287509</v>
+        <v>0.08127317018153324</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4071,13 +4077,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.55</v>
+        <v>5.3</v>
       </c>
       <c r="C203">
-        <v>5.58419499747701</v>
+        <v>5.425985867950159</v>
       </c>
       <c r="D203">
-        <v>0.0341949974770106</v>
+        <v>0.1259858679501589</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4085,13 +4091,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.62</v>
+        <v>5.3</v>
       </c>
       <c r="C204">
-        <v>5.622533541177481</v>
+        <v>5.430663997508567</v>
       </c>
       <c r="D204">
-        <v>0.002533541177481169</v>
+        <v>0.1306639975085675</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4099,13 +4105,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.6</v>
+        <v>5.27</v>
       </c>
       <c r="C205">
-        <v>5.631723015634337</v>
+        <v>5.417669416307859</v>
       </c>
       <c r="D205">
-        <v>0.03172301563433688</v>
+        <v>0.1476694163078598</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4113,13 +4119,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.61</v>
+        <v>5.27</v>
       </c>
       <c r="C206">
-        <v>5.640185528777308</v>
+        <v>5.437152010159002</v>
       </c>
       <c r="D206">
-        <v>0.03018552877730762</v>
+        <v>0.1671520101590023</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4127,13 +4133,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.69</v>
+        <v>5.21</v>
       </c>
       <c r="C207">
-        <v>5.606110619222902</v>
+        <v>5.486528948308997</v>
       </c>
       <c r="D207">
-        <v>-0.08388938077709795</v>
+        <v>0.2765289483089974</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4141,13 +4147,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.61</v>
+        <v>4.98</v>
       </c>
       <c r="C208">
-        <v>5.6183454744188</v>
+        <v>5.400747029501186</v>
       </c>
       <c r="D208">
-        <v>0.008345474418799625</v>
+        <v>0.4207470295011859</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4155,13 +4161,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.76</v>
+        <v>4.98</v>
       </c>
       <c r="C209">
-        <v>5.661492774001501</v>
+        <v>5.385218911048625</v>
       </c>
       <c r="D209">
-        <v>-0.0985072259984987</v>
+        <v>0.4052189110486246</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4169,13 +4175,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.93</v>
+        <v>5.01</v>
       </c>
       <c r="C210">
-        <v>5.627212483029889</v>
+        <v>5.41178800588046</v>
       </c>
       <c r="D210">
-        <v>-0.3027875169701106</v>
+        <v>0.4017880058804604</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4183,13 +4189,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.98</v>
+        <v>4.99</v>
       </c>
       <c r="C211">
-        <v>5.617021189753403</v>
+        <v>5.41023850009597</v>
       </c>
       <c r="D211">
-        <v>-0.3629788102465978</v>
+        <v>0.4202385000959694</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4197,13 +4203,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.98</v>
+        <v>5</v>
       </c>
       <c r="C212">
-        <v>5.636855620362058</v>
+        <v>5.369155777355743</v>
       </c>
       <c r="D212">
-        <v>-0.3431443796379421</v>
+        <v>0.3691557773557435</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4211,13 +4217,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.98</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>5.633625620048714</v>
+        <v>5.380212494225358</v>
       </c>
       <c r="D213">
-        <v>-0.3463743799512864</v>
+        <v>0.3802124942253577</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4225,13 +4231,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.98</v>
+        <v>5.01</v>
       </c>
       <c r="C214">
-        <v>5.625574944335306</v>
+        <v>5.367055251238913</v>
       </c>
       <c r="D214">
-        <v>-0.3544250556646942</v>
+        <v>0.3570552512389131</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4239,13 +4245,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.98</v>
+        <v>5.1</v>
       </c>
       <c r="C215">
-        <v>5.605788086300517</v>
+        <v>5.414202612055737</v>
       </c>
       <c r="D215">
-        <v>-0.3742119136994839</v>
+        <v>0.3142026120557375</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4253,13 +4259,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.44</v>
+        <v>5.08</v>
       </c>
       <c r="C216">
-        <v>5.514367984543397</v>
+        <v>5.415073490665579</v>
       </c>
       <c r="D216">
-        <v>0.07436798454339666</v>
+        <v>0.3350734906655788</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4267,13 +4273,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.3</v>
+        <v>5.14</v>
       </c>
       <c r="C217">
-        <v>5.426457856170685</v>
+        <v>5.4386140799892</v>
       </c>
       <c r="D217">
-        <v>0.1264578561706848</v>
+        <v>0.2986140799892008</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4281,13 +4287,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.27</v>
+        <v>5.14</v>
       </c>
       <c r="C218">
-        <v>5.437034800175998</v>
+        <v>5.383237700541402</v>
       </c>
       <c r="D218">
-        <v>0.1670348001759985</v>
+        <v>0.2432377005414024</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4295,13 +4301,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="C219">
-        <v>5.428925723868759</v>
+        <v>5.33084921519238</v>
       </c>
       <c r="D219">
-        <v>0.1789257238687592</v>
+        <v>0.2408492151923802</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4309,13 +4315,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.17</v>
+        <v>5.13</v>
       </c>
       <c r="C220">
-        <v>5.473019771798742</v>
+        <v>5.27542652242785</v>
       </c>
       <c r="D220">
-        <v>0.3030197717987422</v>
+        <v>0.1454265224278499</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4323,13 +4329,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="C221">
-        <v>5.478219271394695</v>
+        <v>5.304088710686338</v>
       </c>
       <c r="D221">
-        <v>0.3482192713946954</v>
+        <v>0.1640887106863387</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4337,13 +4343,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.06</v>
+        <v>5.16</v>
       </c>
       <c r="C222">
-        <v>5.484481281175616</v>
+        <v>5.314911878839354</v>
       </c>
       <c r="D222">
-        <v>0.4244812811756162</v>
+        <v>0.1549118788393535</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4351,13 +4357,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.06</v>
+        <v>5.11</v>
       </c>
       <c r="C223">
-        <v>5.484661210287643</v>
+        <v>5.313059534621033</v>
       </c>
       <c r="D223">
-        <v>0.4246612102876437</v>
+        <v>0.2030595346210324</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4365,13 +4371,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>4.98</v>
+        <v>5.14</v>
       </c>
       <c r="C224">
-        <v>5.397243298765345</v>
+        <v>5.299963272744296</v>
       </c>
       <c r="D224">
-        <v>0.4172432987653449</v>
+        <v>0.1599632727442968</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4379,13 +4385,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>4.96</v>
+        <v>5.13</v>
       </c>
       <c r="C225">
-        <v>5.369047134396342</v>
+        <v>5.301633546561686</v>
       </c>
       <c r="D225">
-        <v>0.4090471343963422</v>
+        <v>0.1716335465616856</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4393,13 +4399,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>4.95</v>
+        <v>5.1</v>
       </c>
       <c r="C226">
-        <v>5.363516045032941</v>
+        <v>5.273724990856143</v>
       </c>
       <c r="D226">
-        <v>0.4135160450329405</v>
+        <v>0.1737249908561438</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4407,13 +4413,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5</v>
+        <v>5.07</v>
       </c>
       <c r="C227">
-        <v>5.415390782597329</v>
+        <v>5.233511893077141</v>
       </c>
       <c r="D227">
-        <v>0.4153907825973286</v>
+        <v>0.1635118930771409</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4421,13 +4427,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.01</v>
+        <v>5.08</v>
       </c>
       <c r="C228">
-        <v>5.417504087848092</v>
+        <v>5.294783593966232</v>
       </c>
       <c r="D228">
-        <v>0.4075040878480918</v>
+        <v>0.2147835939662315</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4435,13 +4441,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.01</v>
+        <v>5.15</v>
       </c>
       <c r="C229">
-        <v>5.367102038381792</v>
+        <v>5.315493755348847</v>
       </c>
       <c r="D229">
-        <v>0.3571020383817922</v>
+        <v>0.1654937553488462</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4452,10 +4458,10 @@
         <v>5.08</v>
       </c>
       <c r="C230">
-        <v>5.411907533728573</v>
+        <v>5.226148121311908</v>
       </c>
       <c r="D230">
-        <v>0.3319075337285726</v>
+        <v>0.1461481213119082</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4463,13 +4469,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="C231">
-        <v>5.369135130324401</v>
+        <v>5.229895237221355</v>
       </c>
       <c r="D231">
-        <v>0.2291351303244014</v>
+        <v>0.1698952372213549</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4480,10 +4486,10 @@
         <v>5.09</v>
       </c>
       <c r="C232">
-        <v>5.286396549489054</v>
+        <v>5.239497346364633</v>
       </c>
       <c r="D232">
-        <v>0.1963965494890543</v>
+        <v>0.1494973463646332</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4491,13 +4497,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="C233">
-        <v>5.307926824755437</v>
+        <v>5.218341346065335</v>
       </c>
       <c r="D233">
-        <v>0.1579268247554362</v>
+        <v>0.1683413460653354</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4505,13 +4511,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.14</v>
+        <v>5.05</v>
       </c>
       <c r="C234">
-        <v>5.306267965822145</v>
+        <v>5.227270663089051</v>
       </c>
       <c r="D234">
-        <v>0.1662679658221453</v>
+        <v>0.1772706630890513</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4519,13 +4525,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.12</v>
+        <v>4.95</v>
       </c>
       <c r="C235">
-        <v>5.290978655823703</v>
+        <v>5.1018116001545</v>
       </c>
       <c r="D235">
-        <v>0.1709786558237028</v>
+        <v>0.1518116001544998</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4533,13 +4539,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.07</v>
+        <v>4.88</v>
       </c>
       <c r="C236">
-        <v>5.284163323579988</v>
+        <v>4.994676004333661</v>
       </c>
       <c r="D236">
-        <v>0.2141633235799878</v>
+        <v>0.1146760043336608</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4547,13 +4553,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.07</v>
+        <v>4.89</v>
       </c>
       <c r="C237">
-        <v>5.293082793428746</v>
+        <v>4.983584674220165</v>
       </c>
       <c r="D237">
-        <v>0.2230827934287456</v>
+        <v>0.09358467422016492</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4561,13 +4567,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.08</v>
+        <v>4.88</v>
       </c>
       <c r="C238">
-        <v>5.300888620434336</v>
+        <v>4.982692733618691</v>
       </c>
       <c r="D238">
-        <v>0.2208886204343363</v>
+        <v>0.1026927336186914</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4575,13 +4581,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.14</v>
+        <v>4.89</v>
       </c>
       <c r="C239">
-        <v>5.33303647657491</v>
+        <v>4.980627710258863</v>
       </c>
       <c r="D239">
-        <v>0.1930364765749104</v>
+        <v>0.09062771025886374</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4589,13 +4595,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.11</v>
+        <v>4.93</v>
       </c>
       <c r="C240">
-        <v>5.220700409761903</v>
+        <v>4.996314274208727</v>
       </c>
       <c r="D240">
-        <v>0.1107004097619022</v>
+        <v>0.06631427420872704</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4603,13 +4609,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.11</v>
+        <v>4.95</v>
       </c>
       <c r="C241">
-        <v>5.217377391114284</v>
+        <v>5.005052560997806</v>
       </c>
       <c r="D241">
-        <v>0.1073773911142837</v>
+        <v>0.05505256099780542</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4617,13 +4623,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.08</v>
+        <v>4.97</v>
       </c>
       <c r="C242">
-        <v>5.215264338516966</v>
+        <v>4.996059855935668</v>
       </c>
       <c r="D242">
-        <v>0.1352643385169658</v>
+        <v>0.02605985593566817</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4631,13 +4637,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.04</v>
+        <v>5.1</v>
       </c>
       <c r="C243">
-        <v>5.212253549586188</v>
+        <v>4.977591441470247</v>
       </c>
       <c r="D243">
-        <v>0.1722535495861877</v>
+        <v>-0.1224085585297523</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4645,13 +4651,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.05</v>
+        <v>5.13</v>
       </c>
       <c r="C244">
-        <v>5.218565738481607</v>
+        <v>5.002864751722806</v>
       </c>
       <c r="D244">
-        <v>0.1685657384816075</v>
+        <v>-0.1271352482771944</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4659,13 +4665,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.03</v>
+        <v>5.15</v>
       </c>
       <c r="C245">
-        <v>5.197234794231462</v>
+        <v>5.00060399414911</v>
       </c>
       <c r="D245">
-        <v>0.1672347942314616</v>
+        <v>-0.1493960058508907</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4673,13 +4679,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.01</v>
+        <v>5.19</v>
       </c>
       <c r="C246">
-        <v>5.165827516496249</v>
+        <v>5.041491574949299</v>
       </c>
       <c r="D246">
-        <v>0.1558275164962497</v>
+        <v>-0.1485084250507009</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4687,13 +4693,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>4.99</v>
+        <v>5.2</v>
       </c>
       <c r="C247">
-        <v>5.142998907369688</v>
+        <v>4.991830905654851</v>
       </c>
       <c r="D247">
-        <v>0.152998907369688</v>
+        <v>-0.2081690943451493</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4701,13 +4707,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>4.99</v>
+        <v>5.21</v>
       </c>
       <c r="C248">
-        <v>5.114260386636492</v>
+        <v>5.017601648463087</v>
       </c>
       <c r="D248">
-        <v>0.1242603866364922</v>
+        <v>-0.1923983515369132</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4715,13 +4721,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>4.89</v>
+        <v>5.15</v>
       </c>
       <c r="C249">
-        <v>4.980722731993551</v>
+        <v>5.07776869822243</v>
       </c>
       <c r="D249">
-        <v>0.09072273199355152</v>
+        <v>-0.07223130177757042</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4729,13 +4735,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>4.94</v>
+        <v>5.23</v>
       </c>
       <c r="C250">
-        <v>4.99551116472498</v>
+        <v>5.109500619469696</v>
       </c>
       <c r="D250">
-        <v>0.05551116472497952</v>
+        <v>-0.1204993805303047</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4743,13 +4749,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.1</v>
+        <v>5.26</v>
       </c>
       <c r="C251">
-        <v>4.992275699337005</v>
+        <v>5.152567324958047</v>
       </c>
       <c r="D251">
-        <v>-0.1077243006629951</v>
+        <v>-0.1074326750419523</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4757,13 +4763,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="C252">
-        <v>4.98026239419674</v>
+        <v>5.192705338023469</v>
       </c>
       <c r="D252">
-        <v>-0.1197376058032598</v>
+        <v>-0.1072946619765309</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4771,13 +4777,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="C253">
-        <v>4.98098629840664</v>
+        <v>5.130709370903071</v>
       </c>
       <c r="D253">
-        <v>-0.1090137015933594</v>
+        <v>-0.1192906290969287</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4785,13 +4791,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.14</v>
+        <v>5.19</v>
       </c>
       <c r="C254">
-        <v>4.993547729888538</v>
+        <v>5.038540895352305</v>
       </c>
       <c r="D254">
-        <v>-0.1464522701114621</v>
+        <v>-0.151459104647695</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4802,10 +4808,10 @@
         <v>5.17</v>
       </c>
       <c r="C255">
-        <v>5.025077684863084</v>
+        <v>5.007820422127343</v>
       </c>
       <c r="D255">
-        <v>-0.1449223151369159</v>
+        <v>-0.1621795778726565</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4813,13 +4819,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="C256">
-        <v>5.131407759794791</v>
+        <v>5.102478222869632</v>
       </c>
       <c r="D256">
-        <v>-0.09859224020520951</v>
+        <v>-0.1675217771303679</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4827,13 +4833,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.23</v>
+        <v>5.33</v>
       </c>
       <c r="C257">
-        <v>5.088748206777495</v>
+        <v>5.151702176189016</v>
       </c>
       <c r="D257">
-        <v>-0.1412517932225059</v>
+        <v>-0.1782978238109845</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4841,13 +4847,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.23</v>
+        <v>5.34</v>
       </c>
       <c r="C258">
-        <v>5.083650309512703</v>
+        <v>5.155738687756735</v>
       </c>
       <c r="D258">
-        <v>-0.1463496904872974</v>
+        <v>-0.1842613122432653</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4855,13 +4861,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.25</v>
+        <v>5.36</v>
       </c>
       <c r="C259">
-        <v>5.094056198416765</v>
+        <v>5.131317111992663</v>
       </c>
       <c r="D259">
-        <v>-0.1559438015832351</v>
+        <v>-0.228682888007337</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4869,13 +4875,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.25</v>
+        <v>5.35</v>
       </c>
       <c r="C260">
-        <v>5.099995743665152</v>
+        <v>5.101404863906479</v>
       </c>
       <c r="D260">
-        <v>-0.1500042563348485</v>
+        <v>-0.2485951360935204</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4883,13 +4889,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.18</v>
+        <v>5.29</v>
       </c>
       <c r="C261">
-        <v>5.009592268525705</v>
+        <v>5.103333292041613</v>
       </c>
       <c r="D261">
-        <v>-0.1704077314742944</v>
+        <v>-0.1866667079583868</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4897,13 +4903,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="C262">
-        <v>5.152573155106325</v>
+        <v>5.116944836322618</v>
       </c>
       <c r="D262">
-        <v>-0.1874268448936744</v>
+        <v>-0.2130551636773816</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4911,13 +4917,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="C263">
-        <v>5.161699216776035</v>
+        <v>5.157103215309343</v>
       </c>
       <c r="D263">
-        <v>-0.1783007832239649</v>
+        <v>-0.1228967846906572</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4925,13 +4931,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.3</v>
+        <v>5.38</v>
       </c>
       <c r="C264">
-        <v>5.09354602259607</v>
+        <v>5.166747175055331</v>
       </c>
       <c r="D264">
-        <v>-0.20645397740393</v>
+        <v>-0.2132528249446688</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4939,13 +4945,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.3</v>
+        <v>5.38</v>
       </c>
       <c r="C265">
-        <v>5.126741045817941</v>
+        <v>5.170822682814107</v>
       </c>
       <c r="D265">
-        <v>-0.1732589541820584</v>
+        <v>-0.2091773171858931</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4953,13 +4959,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="C266">
-        <v>5.189143282762466</v>
+        <v>5.202789739864004</v>
       </c>
       <c r="D266">
-        <v>-0.1808567172375337</v>
+        <v>-0.2072102601359962</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4967,13 +4973,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="C267">
-        <v>5.1905841997287</v>
+        <v>5.210810030782124</v>
       </c>
       <c r="D267">
-        <v>-0.1694158002713007</v>
+        <v>-0.209189969217876</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4981,13 +4987,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.37</v>
+        <v>5.65</v>
       </c>
       <c r="C268">
-        <v>5.175042110652414</v>
+        <v>5.284325313364594</v>
       </c>
       <c r="D268">
-        <v>-0.1949578893475863</v>
+        <v>-0.3656746866354066</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4995,13 +5001,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="C269">
-        <v>5.338070965760692</v>
+        <v>5.300715137566288</v>
       </c>
       <c r="D269">
-        <v>-0.4019290342393083</v>
+        <v>-0.3892848624337129</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5009,13 +5015,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="C270">
-        <v>5.338968087861807</v>
+        <v>5.338024427456851</v>
       </c>
       <c r="D270">
-        <v>-0.3810319121381927</v>
+        <v>-0.4019755725431491</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5023,13 +5029,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="C271">
-        <v>5.403814382384277</v>
+        <v>5.404546228811222</v>
       </c>
       <c r="D271">
-        <v>-0.1261856176157234</v>
+        <v>-0.1154537711887773</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5037,13 +5043,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C272">
-        <v>5.411888113608488</v>
+        <v>5.397796493991706</v>
       </c>
       <c r="D272">
-        <v>-0.1381118863915116</v>
+        <v>-0.1422035060082942</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5051,13 +5057,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.56</v>
+        <v>5.53</v>
       </c>
       <c r="C273">
-        <v>5.418392328580242</v>
+        <v>5.374823205105384</v>
       </c>
       <c r="D273">
-        <v>-0.1416076714197576</v>
+        <v>-0.1551767948946159</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5065,13 +5071,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.52</v>
+        <v>5.49</v>
       </c>
       <c r="C274">
-        <v>5.391493861922766</v>
+        <v>5.309511920956814</v>
       </c>
       <c r="D274">
-        <v>-0.1285061380772339</v>
+        <v>-0.1804880790431866</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5079,13 +5085,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="C275">
-        <v>5.404710820081788</v>
+        <v>5.311474211640936</v>
       </c>
       <c r="D275">
-        <v>-0.1152891799182116</v>
+        <v>-0.1985257883590634</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5093,13 +5099,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="C276">
-        <v>5.295880557434375</v>
+        <v>5.326051316637754</v>
       </c>
       <c r="D276">
-        <v>-0.1741194425656243</v>
+        <v>-0.1539486833622465</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5110,10 +5116,10 @@
         <v>5.47</v>
       </c>
       <c r="C277">
-        <v>5.326127256227987</v>
+        <v>5.326048492496327</v>
       </c>
       <c r="D277">
-        <v>-0.1438727437720129</v>
+        <v>-0.1439515075036732</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5121,13 +5127,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C278">
-        <v>5.343120326764327</v>
+        <v>5.353673469906143</v>
       </c>
       <c r="D278">
-        <v>-0.1968796732356726</v>
+        <v>-0.1963265300938568</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5135,13 +5141,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.66</v>
+        <v>5.56</v>
       </c>
       <c r="C279">
-        <v>5.388698838223504</v>
+        <v>5.3578534153354</v>
       </c>
       <c r="D279">
-        <v>-0.2713011617764964</v>
+        <v>-0.2021465846645993</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5152,10 +5158,10 @@
         <v>5.66</v>
       </c>
       <c r="C280">
-        <v>5.381331286100065</v>
+        <v>5.388584515356238</v>
       </c>
       <c r="D280">
-        <v>-0.2786687138999353</v>
+        <v>-0.2714154846437626</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5163,13 +5169,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="C281">
-        <v>5.337192937067566</v>
+        <v>5.375558566935487</v>
       </c>
       <c r="D281">
-        <v>-0.3128070629324347</v>
+        <v>-0.3044414330645129</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5177,13 +5183,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="C282">
-        <v>5.344897541552872</v>
+        <v>5.404516685249728</v>
       </c>
       <c r="D282">
-        <v>-0.2951024584471273</v>
+        <v>-0.2754833147502715</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5191,13 +5197,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="C283">
-        <v>5.360349009180651</v>
+        <v>5.337090493615285</v>
       </c>
       <c r="D283">
-        <v>-0.3096509908193488</v>
+        <v>-0.3129095063847149</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5205,13 +5211,41 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.68</v>
+        <v>5.64</v>
       </c>
       <c r="C284">
-        <v>5.397619680358933</v>
+        <v>5.344784579932846</v>
       </c>
       <c r="D284">
-        <v>-0.2823803196410664</v>
+        <v>-0.2952154200671542</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>5.67</v>
+      </c>
+      <c r="C285">
+        <v>5.345096555402488</v>
+      </c>
+      <c r="D285">
+        <v>-0.3249034445975116</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286">
+        <v>5.67</v>
+      </c>
+      <c r="C286">
+        <v>5.360127851201048</v>
+      </c>
+      <c r="D286">
+        <v>-0.3098721487989522</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytrain.xlsx
+++ b/temp/Yesterdaytrain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,694 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-11 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:04:00</t>
+    <t>2019-06-11 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 11:16:00</t>
   </si>
   <si>
     <t>2019-04-30 10:54:00</t>
   </si>
   <si>
-    <t>2019-04-30 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:45:00</t>
+    <t>2019-04-30 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 09:49:00</t>
   </si>
   <si>
     <t>2019-04-22 09:36:00</t>
   </si>
   <si>
-    <t>2019-04-22 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:08:00</t>
+    <t>2019-04-19 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:17:00</t>
   </si>
   <si>
     <t>2019-04-15 10:55:00</t>
   </si>
   <si>
-    <t>2019-04-12 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:47:00</t>
+    <t>2019-04-15 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:30:00</t>
   </si>
   <si>
     <t>2019-02-01 14:25:00</t>
   </si>
   <si>
-    <t>2019-02-01 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:01:00</t>
+    <t>2019-02-01 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 09:34:00</t>
   </si>
   <si>
     <t>2019-01-25 13:54:00</t>
   </si>
   <si>
-    <t>2019-01-25 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:03:00</t>
+    <t>2019-01-25 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:33:00</t>
   </si>
   <si>
     <t>2019-01-07 14:27:00</t>
@@ -724,142 +757,121 @@
     <t>2019-01-07 13:34:00</t>
   </si>
   <si>
-    <t>2019-01-07 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:51:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 11:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 11:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 09:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:13:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 11:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 11:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 09:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:55:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:24:00</t>
+    <t>2019-01-04 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 11:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 14:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 10:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:52:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 11:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 11:21:00</t>
   </si>
   <si>
     <t>2018-12-19 14:22:00</t>
   </si>
   <si>
-    <t>2018-12-19 09:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 09:45:00</t>
+    <t>2018-12-19 14:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:23:00</t>
   </si>
   <si>
     <t>2018-12-14 14:27:00</t>
   </si>
   <si>
-    <t>2018-12-14 13:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:22:00</t>
+    <t>2018-12-14 14:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 09:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:12:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:17:00</t>
   </si>
   <si>
     <t>2018-12-13 10:46:00</t>
   </si>
   <si>
-    <t>2018-12-13 10:42:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:30:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 14:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:20:00</t>
+    <t>2018-12-12 14:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 11:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:05:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:14:00</t>
   </si>
   <si>
     <t>2018-12-07 14:50:00</t>
@@ -868,19 +880,16 @@
     <t>2018-12-07 13:47:00</t>
   </si>
   <si>
-    <t>2018-12-07 13:35:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:48:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:26:00</t>
-  </si>
-  <si>
     <t>2018-12-06 14:51:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 09:55:00</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.54</v>
+        <v>6.63</v>
       </c>
       <c r="C2">
-        <v>6.520888456092514</v>
+        <v>6.664038205004265</v>
       </c>
       <c r="D2">
-        <v>-0.01911154390748582</v>
+        <v>0.03403820500426491</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1277,13 +1286,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.59</v>
+        <v>6.39</v>
       </c>
       <c r="C3">
-        <v>6.502244086829448</v>
+        <v>6.416948305580982</v>
       </c>
       <c r="D3">
-        <v>-0.08775591317055209</v>
+        <v>0.02694830558098182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,10 +1303,10 @@
         <v>6.39</v>
       </c>
       <c r="C4">
-        <v>6.398996833036541</v>
+        <v>6.404123507858386</v>
       </c>
       <c r="D4">
-        <v>0.008996833036541751</v>
+        <v>0.01412350785838612</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1305,13 +1314,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.4</v>
+        <v>6.69</v>
       </c>
       <c r="C5">
-        <v>6.422116330248032</v>
+        <v>6.603390758914412</v>
       </c>
       <c r="D5">
-        <v>0.02211633024803206</v>
+        <v>-0.0866092410855881</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1319,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.35</v>
+        <v>6.64</v>
       </c>
       <c r="C6">
-        <v>6.33420156228591</v>
+        <v>6.536120296611565</v>
       </c>
       <c r="D6">
-        <v>-0.01579843771408918</v>
+        <v>-0.1038797033884347</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1333,13 +1342,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.64</v>
+        <v>6.85</v>
       </c>
       <c r="C7">
-        <v>6.560888284172353</v>
+        <v>6.658393848830602</v>
       </c>
       <c r="D7">
-        <v>-0.0791117158276462</v>
+        <v>-0.1916061511693981</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1347,13 +1356,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="C8">
-        <v>6.555033210496646</v>
+        <v>6.728674922053961</v>
       </c>
       <c r="D8">
-        <v>0.005033210496645957</v>
+        <v>-0.1713250779460394</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1361,13 +1370,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.62</v>
+        <v>6.94</v>
       </c>
       <c r="C9">
-        <v>6.584610473307015</v>
+        <v>6.757715752861949</v>
       </c>
       <c r="D9">
-        <v>-0.03538952669298556</v>
+        <v>-0.1822842471380515</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1375,13 +1384,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7.08</v>
+        <v>6.99</v>
       </c>
       <c r="C10">
-        <v>6.986869824055917</v>
+        <v>6.774031924754511</v>
       </c>
       <c r="D10">
-        <v>-0.09313017594408279</v>
+        <v>-0.2159680752454891</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1389,13 +1398,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.22</v>
+        <v>7.02</v>
       </c>
       <c r="C11">
-        <v>7.212079363256535</v>
+        <v>6.777389639656067</v>
       </c>
       <c r="D11">
-        <v>-0.007920636743464549</v>
+        <v>-0.2426103603439325</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1403,13 +1412,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.26</v>
+        <v>7.06</v>
       </c>
       <c r="C12">
-        <v>7.236020988084844</v>
+        <v>6.989788902015277</v>
       </c>
       <c r="D12">
-        <v>-0.02397901191515572</v>
+        <v>-0.07021109798472303</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1417,13 +1426,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>7.13</v>
+        <v>7.06</v>
       </c>
       <c r="C13">
-        <v>7.328184430715753</v>
+        <v>6.99071123076049</v>
       </c>
       <c r="D13">
-        <v>0.1981844307157532</v>
+        <v>-0.06928876923950966</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1431,13 +1440,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
       <c r="C14">
-        <v>7.283731472306846</v>
+        <v>7.076412523806444</v>
       </c>
       <c r="D14">
-        <v>0.223731472306846</v>
+        <v>-0.01358747619355594</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1445,13 +1454,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
       <c r="C15">
-        <v>7.337141275512101</v>
+        <v>7.188882476258162</v>
       </c>
       <c r="D15">
-        <v>0.1671412755121011</v>
+        <v>0.008882476258162519</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1459,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.86</v>
+        <v>7.15</v>
       </c>
       <c r="C16">
-        <v>7.248296310940926</v>
+        <v>7.193181676039022</v>
       </c>
       <c r="D16">
-        <v>0.3882963109409259</v>
+        <v>0.04318167603902179</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1473,13 +1482,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.86</v>
+        <v>7.1</v>
       </c>
       <c r="C17">
-        <v>7.252252674348718</v>
+        <v>7.344584449585347</v>
       </c>
       <c r="D17">
-        <v>0.3922526743487174</v>
+        <v>0.2445844495853473</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1487,13 +1496,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.93</v>
+        <v>7.18</v>
       </c>
       <c r="C18">
-        <v>7.328700626316818</v>
+        <v>7.349919909545192</v>
       </c>
       <c r="D18">
-        <v>0.3987006263168187</v>
+        <v>0.1699199095451922</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1501,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.87</v>
+        <v>7.08</v>
       </c>
       <c r="C19">
-        <v>7.25839030312315</v>
+        <v>7.269931606292816</v>
       </c>
       <c r="D19">
-        <v>0.3883903031231499</v>
+        <v>0.1899316062928156</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1515,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C20">
-        <v>7.429759292815094</v>
+        <v>7.300574476285616</v>
       </c>
       <c r="D20">
-        <v>0.4297592928150937</v>
+        <v>0.4005744762856152</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1529,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.95</v>
+        <v>6.98</v>
       </c>
       <c r="C21">
-        <v>7.402463523372239</v>
+        <v>7.426008300409294</v>
       </c>
       <c r="D21">
-        <v>0.4524635233722387</v>
+        <v>0.4460083004092938</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1543,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.94</v>
+        <v>7.04</v>
       </c>
       <c r="C22">
-        <v>7.422413316087649</v>
+        <v>7.523164096320062</v>
       </c>
       <c r="D22">
-        <v>0.4824133160876487</v>
+        <v>0.4831640963200616</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1557,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.95</v>
+        <v>7.09</v>
       </c>
       <c r="C23">
-        <v>7.428303023591798</v>
+        <v>7.470733633521161</v>
       </c>
       <c r="D23">
-        <v>0.4783030235917982</v>
+        <v>0.3807336335211611</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1571,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.04</v>
+        <v>7.21</v>
       </c>
       <c r="C24">
-        <v>7.54215076832217</v>
+        <v>7.531269974047533</v>
       </c>
       <c r="D24">
-        <v>0.5021507683221698</v>
+        <v>0.3212699740475333</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1585,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.07</v>
+        <v>7.24</v>
       </c>
       <c r="C25">
-        <v>7.53467726866397</v>
+        <v>7.471333118837872</v>
       </c>
       <c r="D25">
-        <v>0.4646772686639693</v>
+        <v>0.2313331188378713</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1599,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
       <c r="C26">
-        <v>7.588109884153996</v>
+        <v>7.394974649519718</v>
       </c>
       <c r="D26">
-        <v>0.4481098841539959</v>
+        <v>0.244974649519718</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1613,13 +1622,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.28</v>
+        <v>7.15</v>
       </c>
       <c r="C27">
-        <v>7.567088076171794</v>
+        <v>7.328113910525377</v>
       </c>
       <c r="D27">
-        <v>0.287088076171794</v>
+        <v>0.1781139105253766</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1627,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="C28">
-        <v>7.531504722081324</v>
+        <v>7.218781857095393</v>
       </c>
       <c r="D28">
-        <v>0.3315047220813243</v>
+        <v>0.2687818570953926</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1641,13 +1650,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.25</v>
+        <v>6.95</v>
       </c>
       <c r="C29">
-        <v>7.576692440547525</v>
+        <v>7.177881431939279</v>
       </c>
       <c r="D29">
-        <v>0.3266924405475251</v>
+        <v>0.227881431939279</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1655,13 +1664,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.07</v>
+        <v>7.58</v>
       </c>
       <c r="C30">
-        <v>7.272464251164893</v>
+        <v>7.462911680960789</v>
       </c>
       <c r="D30">
-        <v>0.2024642511648924</v>
+        <v>-0.1170883190392109</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1669,13 +1678,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.99</v>
+        <v>7.72</v>
       </c>
       <c r="C31">
-        <v>7.221408582288175</v>
+        <v>7.584633417000036</v>
       </c>
       <c r="D31">
-        <v>0.2314085822881751</v>
+        <v>-0.1353665829999642</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1683,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.37</v>
+        <v>7.7</v>
       </c>
       <c r="C32">
-        <v>7.429790154192627</v>
+        <v>7.55770919678126</v>
       </c>
       <c r="D32">
-        <v>0.05979015419262712</v>
+        <v>-0.1422908032187404</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1697,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.37</v>
+        <v>7.48</v>
       </c>
       <c r="C33">
-        <v>7.436078729696154</v>
+        <v>7.422141901887799</v>
       </c>
       <c r="D33">
-        <v>0.06607872969615425</v>
+        <v>-0.05785809811220144</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1711,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.38</v>
+        <v>7.3</v>
       </c>
       <c r="C34">
-        <v>7.442750069014064</v>
+        <v>7.403907323643165</v>
       </c>
       <c r="D34">
-        <v>0.0627500690140641</v>
+        <v>0.1039073236431651</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1725,13 +1734,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="C35">
-        <v>7.464961539525833</v>
+        <v>7.442513100737602</v>
       </c>
       <c r="D35">
-        <v>0.07496153952583295</v>
+        <v>0.1125131007376021</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1739,13 +1748,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.27</v>
+        <v>7.28</v>
       </c>
       <c r="C36">
-        <v>7.365898594117176</v>
+        <v>7.314307265684168</v>
       </c>
       <c r="D36">
-        <v>0.09589859411717683</v>
+        <v>0.03430726568416809</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1753,13 +1762,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.26</v>
+        <v>7.19</v>
       </c>
       <c r="C37">
-        <v>7.327004216224767</v>
+        <v>7.235093396092929</v>
       </c>
       <c r="D37">
-        <v>0.06700421622476682</v>
+        <v>0.04509339609292873</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1767,13 +1776,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.25</v>
+        <v>7.44</v>
       </c>
       <c r="C38">
-        <v>7.325291437212226</v>
+        <v>7.438571515393789</v>
       </c>
       <c r="D38">
-        <v>0.07529143721222553</v>
+        <v>-0.001428484606211811</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1781,13 +1790,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="C39">
-        <v>7.252199998706368</v>
+        <v>7.01629699389487</v>
       </c>
       <c r="D39">
-        <v>0.0821999987063684</v>
+        <v>-0.1037030061051301</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1795,13 +1804,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.26</v>
+        <v>7.87</v>
       </c>
       <c r="C40">
-        <v>7.241315343405825</v>
+        <v>7.313792721051775</v>
       </c>
       <c r="D40">
-        <v>-0.01868465659417495</v>
+        <v>-0.5562072789482251</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1809,13 +1818,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="C41">
-        <v>7.297992682950813</v>
+        <v>7.322231307790887</v>
       </c>
       <c r="D41">
-        <v>-0.002007317049186774</v>
+        <v>-0.577768692209113</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1823,13 +1832,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.34</v>
+        <v>8.01</v>
       </c>
       <c r="C42">
-        <v>7.25191600211488</v>
+        <v>7.282461154923733</v>
       </c>
       <c r="D42">
-        <v>-0.08808399788511956</v>
+        <v>-0.7275388450762668</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1837,13 +1846,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.19</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C43">
-        <v>7.15023848209044</v>
+        <v>7.649248377231808</v>
       </c>
       <c r="D43">
-        <v>-0.03976151790956006</v>
+        <v>-0.4607516227681918</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1851,13 +1860,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.06</v>
+        <v>8.4</v>
       </c>
       <c r="C44">
-        <v>7.008619354019537</v>
+        <v>7.879950844710916</v>
       </c>
       <c r="D44">
-        <v>-0.05138064598046288</v>
+        <v>-0.520049155289084</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1865,13 +1874,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.2</v>
+        <v>7.73</v>
       </c>
       <c r="C45">
-        <v>7.088430995294924</v>
+        <v>8.247956036104885</v>
       </c>
       <c r="D45">
-        <v>-0.1115690047050757</v>
+        <v>0.5179560361048843</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1879,13 +1888,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="C46">
-        <v>7.266910881770594</v>
+        <v>8.24519789578963</v>
       </c>
       <c r="D46">
-        <v>-0.4630891182294068</v>
+        <v>0.4951978957896301</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1893,13 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.8</v>
+        <v>7.53</v>
       </c>
       <c r="C47">
-        <v>7.288508241314245</v>
+        <v>8.056464392763857</v>
       </c>
       <c r="D47">
-        <v>-0.5114917586857546</v>
+        <v>0.5264643927638568</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1907,13 +1916,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.95</v>
+        <v>8.25</v>
       </c>
       <c r="C48">
-        <v>7.282797067564939</v>
+        <v>8.189337273477822</v>
       </c>
       <c r="D48">
-        <v>-0.6672029324350612</v>
+        <v>-0.06066272652217819</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1921,13 +1930,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>8.119999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C49">
-        <v>7.809861697379585</v>
+        <v>8.121907337905583</v>
       </c>
       <c r="D49">
-        <v>-0.3101383026204143</v>
+        <v>-0.3280926620944165</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1935,13 +1944,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.72</v>
+        <v>8.44</v>
       </c>
       <c r="C50">
-        <v>7.807663043734383</v>
+        <v>7.903259034570707</v>
       </c>
       <c r="D50">
-        <v>0.08766304373438327</v>
+        <v>-0.5367409654292929</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1949,13 +1958,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.78</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C51">
-        <v>7.826434407545175</v>
+        <v>8.34432407318193</v>
       </c>
       <c r="D51">
-        <v>0.04643440754517503</v>
+        <v>-0.8556759268180691</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1963,13 +1972,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.86</v>
+        <v>9.32</v>
       </c>
       <c r="C52">
-        <v>8.285246006806346</v>
+        <v>8.392893015353888</v>
       </c>
       <c r="D52">
-        <v>0.4252460068063462</v>
+        <v>-0.9271069846461124</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1977,13 +1986,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.75</v>
+        <v>9.31</v>
       </c>
       <c r="C53">
-        <v>8.241729201564752</v>
+        <v>8.337494655347562</v>
       </c>
       <c r="D53">
-        <v>0.4917292015647519</v>
+        <v>-0.9725053446524381</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1991,13 +2000,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.62</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C54">
-        <v>8.124864525820129</v>
+        <v>8.170084859408465</v>
       </c>
       <c r="D54">
-        <v>0.5048645258201292</v>
+        <v>-0.6999151405915338</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2005,13 +2014,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.69</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C55">
-        <v>8.205000046622459</v>
+        <v>8.216252424367656</v>
       </c>
       <c r="D55">
-        <v>0.5150000466224585</v>
+        <v>-0.6737475756323441</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2019,13 +2028,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.76</v>
+        <v>8.84</v>
       </c>
       <c r="C56">
-        <v>8.243571028164725</v>
+        <v>8.16625314685524</v>
       </c>
       <c r="D56">
-        <v>0.4835710281647252</v>
+        <v>-0.6737468531447597</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2033,13 +2042,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.84</v>
+        <v>8.92</v>
       </c>
       <c r="C57">
-        <v>8.19618553912699</v>
+        <v>8.166267124960907</v>
       </c>
       <c r="D57">
-        <v>0.3561855391269901</v>
+        <v>-0.753732875039093</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2047,13 +2056,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.91</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C58">
-        <v>8.295901827421314</v>
+        <v>8.152074074002257</v>
       </c>
       <c r="D58">
-        <v>0.3859018274213142</v>
+        <v>-0.7979259259977418</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2061,13 +2070,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>8.470000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="C59">
-        <v>8.002236116510797</v>
+        <v>7.985751217529983</v>
       </c>
       <c r="D59">
-        <v>-0.4677638834892033</v>
+        <v>-0.4942487824700175</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2075,13 +2084,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>8.470000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C60">
-        <v>7.929938243542788</v>
+        <v>8.071910500209992</v>
       </c>
       <c r="D60">
-        <v>-0.540061756457213</v>
+        <v>-0.568089499790009</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2089,13 +2098,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>9.119999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C61">
-        <v>8.169470964784125</v>
+        <v>8.105796057659759</v>
       </c>
       <c r="D61">
-        <v>-0.9505290352158742</v>
+        <v>-0.03420394234024116</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2103,13 +2112,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>9.09</v>
+        <v>8.02</v>
       </c>
       <c r="C62">
-        <v>8.293504770091539</v>
+        <v>8.033763664700093</v>
       </c>
       <c r="D62">
-        <v>-0.7964952299084604</v>
+        <v>0.01376366470009316</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2117,13 +2126,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>9.220000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C63">
-        <v>8.326870855645685</v>
+        <v>8.0362794009122</v>
       </c>
       <c r="D63">
-        <v>-0.8931291443543152</v>
+        <v>0.006279400912200472</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2131,13 +2140,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>9.23</v>
+        <v>8.01</v>
       </c>
       <c r="C64">
-        <v>8.319100558462186</v>
+        <v>8.060172285321816</v>
       </c>
       <c r="D64">
-        <v>-0.9108994415378149</v>
+        <v>0.05017228532181583</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2145,13 +2154,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>9.210000000000001</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <v>8.338102957250564</v>
+        <v>8.026193187520754</v>
       </c>
       <c r="D65">
-        <v>-0.8718970427494366</v>
+        <v>0.02619318752075372</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2159,13 +2168,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>8.83</v>
+        <v>8.09</v>
       </c>
       <c r="C66">
-        <v>8.192726383476927</v>
+        <v>8.125939109351883</v>
       </c>
       <c r="D66">
-        <v>-0.637273616523073</v>
+        <v>0.03593910935188305</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2173,13 +2182,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>8.949999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="C67">
-        <v>8.173421335217746</v>
+        <v>8.17526622061277</v>
       </c>
       <c r="D67">
-        <v>-0.776578664782253</v>
+        <v>-0.1447337793872308</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2187,13 +2196,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>8.949999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C68">
-        <v>8.171860966611607</v>
+        <v>8.228272059542217</v>
       </c>
       <c r="D68">
-        <v>-0.778139033388392</v>
+        <v>-0.3017279404577824</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2201,13 +2210,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.720000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C69">
-        <v>8.17253864360953</v>
+        <v>8.127799919793599</v>
       </c>
       <c r="D69">
-        <v>-0.5474613563904711</v>
+        <v>-0.2322000802064004</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2215,13 +2224,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.960000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="C70">
-        <v>8.132336245556106</v>
+        <v>8.212928282162071</v>
       </c>
       <c r="D70">
-        <v>-0.8276637544438952</v>
+        <v>-0.3070717178379283</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2229,13 +2238,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.380000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="C71">
-        <v>7.960213176700577</v>
+        <v>8.034014434557974</v>
       </c>
       <c r="D71">
-        <v>-0.4197868232994235</v>
+        <v>-0.2159855654420255</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2243,13 +2252,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>8.140000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="C72">
-        <v>8.107002183280077</v>
+        <v>7.915638812613637</v>
       </c>
       <c r="D72">
-        <v>-0.03299781671992363</v>
+        <v>-0.02436118738636317</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2257,13 +2266,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>8.08</v>
+        <v>7.7</v>
       </c>
       <c r="C73">
-        <v>8.070209876751674</v>
+        <v>7.760928943453076</v>
       </c>
       <c r="D73">
-        <v>-0.009790123248325955</v>
+        <v>0.0609289434530762</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2271,13 +2280,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C74">
-        <v>8.053665200058708</v>
+        <v>8.032792468891756</v>
       </c>
       <c r="D74">
-        <v>0.04366520005870811</v>
+        <v>-0.1072075311082443</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2285,13 +2294,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>8.18</v>
       </c>
       <c r="C75">
-        <v>8.029738973503942</v>
+        <v>8.065790152638542</v>
       </c>
       <c r="D75">
-        <v>0.02973897350394239</v>
+        <v>-0.1142098473614581</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2299,13 +2308,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.300000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="C76">
-        <v>8.195139188670908</v>
+        <v>8.066547704433862</v>
       </c>
       <c r="D76">
-        <v>-0.1048608113290932</v>
+        <v>-0.1034522955661377</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2313,13 +2322,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.59</v>
+        <v>8.18</v>
       </c>
       <c r="C77">
-        <v>8.248563134523417</v>
+        <v>8.187491417470792</v>
       </c>
       <c r="D77">
-        <v>-0.3414368654765827</v>
+        <v>0.007491417470792072</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2327,13 +2336,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.44</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C78">
-        <v>8.194940156170736</v>
+        <v>8.182374593362685</v>
       </c>
       <c r="D78">
-        <v>-0.2450598438292637</v>
+        <v>-0.03762540663731606</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2341,13 +2350,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.52</v>
+        <v>8.18</v>
       </c>
       <c r="C79">
-        <v>8.208578059273837</v>
+        <v>8.144854916234067</v>
       </c>
       <c r="D79">
-        <v>-0.3114219407261629</v>
+        <v>-0.03514508376593284</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2355,13 +2364,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.26</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C80">
-        <v>8.00457322962675</v>
+        <v>8.187705603247107</v>
       </c>
       <c r="D80">
-        <v>-0.2554267703732496</v>
+        <v>0.04770560324710615</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2369,13 +2378,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7.98</v>
+        <v>8.1</v>
       </c>
       <c r="C81">
-        <v>7.900861561381209</v>
+        <v>8.038095906351245</v>
       </c>
       <c r="D81">
-        <v>-0.07913843861879144</v>
+        <v>-0.06190409364875471</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2383,13 +2392,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C82">
-        <v>7.830315079038131</v>
+        <v>8.090576041566138</v>
       </c>
       <c r="D82">
-        <v>0.03031507903813146</v>
+        <v>0.05057604156613849</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2400,10 +2409,10 @@
         <v>7.66</v>
       </c>
       <c r="C83">
-        <v>7.666816908871876</v>
+        <v>7.86619704468118</v>
       </c>
       <c r="D83">
-        <v>0.006816908871876137</v>
+        <v>0.2061970446811801</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2411,13 +2420,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.61</v>
+        <v>7.66</v>
       </c>
       <c r="C84">
-        <v>7.578938975538012</v>
+        <v>7.814886695013</v>
       </c>
       <c r="D84">
-        <v>-0.03106102446198822</v>
+        <v>0.1548866950130003</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2425,13 +2434,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8.15</v>
+        <v>7.68</v>
       </c>
       <c r="C85">
-        <v>8.01382325939618</v>
+        <v>7.913419548017219</v>
       </c>
       <c r="D85">
-        <v>-0.1361767406038208</v>
+        <v>0.2334195480172196</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2439,13 +2448,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.19</v>
+        <v>7.47</v>
       </c>
       <c r="C86">
-        <v>8.167651422689042</v>
+        <v>7.859884913923183</v>
       </c>
       <c r="D86">
-        <v>-0.0223485773109573</v>
+        <v>0.3898849139231828</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2453,13 +2462,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.18</v>
+        <v>7.47</v>
       </c>
       <c r="C87">
-        <v>8.187951383332638</v>
+        <v>7.840935413198422</v>
       </c>
       <c r="D87">
-        <v>0.007951383332638784</v>
+        <v>0.3709354131984224</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2467,13 +2476,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.08</v>
+        <v>7.48</v>
       </c>
       <c r="C88">
-        <v>8.025814680010697</v>
+        <v>7.719892924783434</v>
       </c>
       <c r="D88">
-        <v>-0.05418531998930298</v>
+        <v>0.239892924783434</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2481,13 +2490,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.119999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="C89">
-        <v>8.060725826353401</v>
+        <v>7.630495778202994</v>
       </c>
       <c r="D89">
-        <v>-0.05927417364659782</v>
+        <v>0.1204957782029945</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2495,13 +2504,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.67</v>
+        <v>7.49</v>
       </c>
       <c r="C90">
-        <v>7.905698107376619</v>
+        <v>7.625223813099978</v>
       </c>
       <c r="D90">
-        <v>0.2356981073766189</v>
+        <v>0.1352238130999774</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2509,13 +2518,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.66</v>
+        <v>7.48</v>
       </c>
       <c r="C91">
-        <v>7.85031474111058</v>
+        <v>7.595438571515886</v>
       </c>
       <c r="D91">
-        <v>0.1903147411105799</v>
+        <v>0.1154385715158854</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2523,13 +2532,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.66</v>
+        <v>7.58</v>
       </c>
       <c r="C92">
-        <v>7.84867990851011</v>
+        <v>7.528062248436973</v>
       </c>
       <c r="D92">
-        <v>0.1886799085101103</v>
+        <v>-0.0519377515630266</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2537,13 +2546,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.73</v>
+        <v>7.67</v>
       </c>
       <c r="C93">
-        <v>7.941079959051551</v>
+        <v>7.936643896391039</v>
       </c>
       <c r="D93">
-        <v>0.2110799590515509</v>
+        <v>0.2666438963910389</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2551,13 +2560,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.56</v>
+        <v>7.64</v>
       </c>
       <c r="C94">
-        <v>7.502439606746357</v>
+        <v>7.88585858479721</v>
       </c>
       <c r="D94">
-        <v>-0.05756039325364259</v>
+        <v>0.2458585847972099</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2565,13 +2574,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.55</v>
+        <v>7.63</v>
       </c>
       <c r="C95">
-        <v>7.446598740850799</v>
+        <v>7.91199585754694</v>
       </c>
       <c r="D95">
-        <v>-0.1034012591492006</v>
+        <v>0.2819958575469403</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2579,13 +2588,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.56</v>
+        <v>7.61</v>
       </c>
       <c r="C96">
-        <v>7.525629350795779</v>
+        <v>7.822946443239879</v>
       </c>
       <c r="D96">
-        <v>-0.03437064920422106</v>
+        <v>0.2129464432398791</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2593,13 +2602,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.59</v>
+        <v>7.63</v>
       </c>
       <c r="C97">
-        <v>7.560500244777668</v>
+        <v>7.930107939824018</v>
       </c>
       <c r="D97">
-        <v>-0.02949975522233217</v>
+        <v>0.3001079398240183</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2607,13 +2616,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.63</v>
+        <v>7.37</v>
       </c>
       <c r="C98">
-        <v>7.795268210175646</v>
+        <v>7.627613402780033</v>
       </c>
       <c r="D98">
-        <v>0.165268210175646</v>
+        <v>0.2576134027800325</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2621,13 +2630,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="C99">
-        <v>7.777786738301923</v>
+        <v>7.582941385986005</v>
       </c>
       <c r="D99">
-        <v>0.1777867383019238</v>
+        <v>0.282941385986005</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2635,13 +2644,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="C100">
-        <v>7.753513439797249</v>
+        <v>7.575305863169992</v>
       </c>
       <c r="D100">
-        <v>0.1535134397972495</v>
+        <v>0.2753058631699918</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2649,13 +2658,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="C101">
-        <v>7.911852510832135</v>
+        <v>7.584762545943341</v>
       </c>
       <c r="D101">
-        <v>0.2118525108321352</v>
+        <v>0.2847625459433409</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2663,13 +2672,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.65</v>
+        <v>7.15</v>
       </c>
       <c r="C102">
-        <v>7.919290058407375</v>
+        <v>7.41352233785815</v>
       </c>
       <c r="D102">
-        <v>0.2692900584073747</v>
+        <v>0.2635223378581495</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2677,13 +2686,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.68</v>
+        <v>7.17</v>
       </c>
       <c r="C103">
-        <v>7.945471704272574</v>
+        <v>7.443278839905486</v>
       </c>
       <c r="D103">
-        <v>0.2654717042725743</v>
+        <v>0.273278839905486</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2691,13 +2700,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.64</v>
+        <v>7.19</v>
       </c>
       <c r="C104">
-        <v>7.904453176200059</v>
+        <v>7.414281370250383</v>
       </c>
       <c r="D104">
-        <v>0.2644531762000595</v>
+        <v>0.2242813702503827</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2705,13 +2714,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.61</v>
+        <v>7.16</v>
       </c>
       <c r="C105">
-        <v>7.872035132874924</v>
+        <v>7.427306505911424</v>
       </c>
       <c r="D105">
-        <v>0.2620351328749235</v>
+        <v>0.2673065059114235</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2719,13 +2728,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.61</v>
+        <v>7.17</v>
       </c>
       <c r="C106">
-        <v>7.872024803461851</v>
+        <v>7.436219041381231</v>
       </c>
       <c r="D106">
-        <v>0.2620248034618511</v>
+        <v>0.2662190413812313</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2733,13 +2742,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.61</v>
+        <v>7.18</v>
       </c>
       <c r="C107">
-        <v>7.885066461454548</v>
+        <v>7.51078831900256</v>
       </c>
       <c r="D107">
-        <v>0.2750664614545473</v>
+        <v>0.3307883190025604</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2747,13 +2756,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.64</v>
+        <v>7.6</v>
       </c>
       <c r="C108">
-        <v>7.887920959092289</v>
+        <v>7.600763574826472</v>
       </c>
       <c r="D108">
-        <v>0.2479209590922897</v>
+        <v>0.0007635748264727127</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2761,13 +2770,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="C109">
-        <v>7.787035758085761</v>
+        <v>7.991961978747391</v>
       </c>
       <c r="D109">
-        <v>0.0770357580857608</v>
+        <v>0.1419619787473918</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2775,13 +2784,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.68</v>
+        <v>7.88</v>
       </c>
       <c r="C110">
-        <v>7.964028807383105</v>
+        <v>8.022545139782938</v>
       </c>
       <c r="D110">
-        <v>0.2840288073831054</v>
+        <v>0.1425451397829383</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2789,13 +2798,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.75</v>
+        <v>7.89</v>
       </c>
       <c r="C111">
-        <v>7.91189713744131</v>
+        <v>8.028631327468265</v>
       </c>
       <c r="D111">
-        <v>0.1618971374413096</v>
+        <v>0.1386313274682651</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2803,13 +2812,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.32</v>
+        <v>7.92</v>
       </c>
       <c r="C112">
-        <v>7.593473843354923</v>
+        <v>8.010064893439875</v>
       </c>
       <c r="D112">
-        <v>0.2734738433549229</v>
+        <v>0.09006489343987489</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2817,13 +2826,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.32</v>
+        <v>7.98</v>
       </c>
       <c r="C113">
-        <v>7.576594655893071</v>
+        <v>7.989177817158697</v>
       </c>
       <c r="D113">
-        <v>0.2565946558930712</v>
+        <v>0.009177817158696477</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2831,13 +2840,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.32</v>
+        <v>8.23</v>
       </c>
       <c r="C114">
-        <v>7.556156313591501</v>
+        <v>8.199615159337959</v>
       </c>
       <c r="D114">
-        <v>0.2361563135915006</v>
+        <v>-0.03038484066204106</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2845,13 +2854,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.3</v>
+        <v>8.19</v>
       </c>
       <c r="C115">
-        <v>7.513232473778793</v>
+        <v>8.080631750567147</v>
       </c>
       <c r="D115">
-        <v>0.2132324737787927</v>
+        <v>-0.1093682494328529</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2859,13 +2868,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.26</v>
+        <v>8.17</v>
       </c>
       <c r="C116">
-        <v>7.476418023534814</v>
+        <v>8.101102873384345</v>
       </c>
       <c r="D116">
-        <v>0.2164180235348141</v>
+        <v>-0.06889712661565461</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2873,13 +2882,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.08</v>
+        <v>8.19</v>
       </c>
       <c r="C117">
-        <v>7.527582864815573</v>
+        <v>7.973106487901247</v>
       </c>
       <c r="D117">
-        <v>0.4475828648155726</v>
+        <v>-0.2168935120987525</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2887,13 +2896,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.14</v>
+        <v>8.42</v>
       </c>
       <c r="C118">
-        <v>7.497431945964015</v>
+        <v>8.080848646612029</v>
       </c>
       <c r="D118">
-        <v>0.3574319459640156</v>
+        <v>-0.3391513533879706</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2901,13 +2910,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.28</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C119">
-        <v>7.540957356643435</v>
+        <v>8.147579290819255</v>
       </c>
       <c r="D119">
-        <v>0.2609573566434351</v>
+        <v>-0.3224207091807454</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2915,13 +2924,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.56</v>
+        <v>8.49</v>
       </c>
       <c r="C120">
-        <v>7.595632959120238</v>
+        <v>8.142655074105676</v>
       </c>
       <c r="D120">
-        <v>0.03563295912023801</v>
+        <v>-0.3473449258943244</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2929,13 +2938,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.91</v>
+        <v>8.34</v>
       </c>
       <c r="C121">
-        <v>7.880229928412941</v>
+        <v>8.171538118767238</v>
       </c>
       <c r="D121">
-        <v>-0.02977007158705902</v>
+        <v>-0.1684618812327621</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2943,13 +2952,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.02</v>
+        <v>8.17</v>
       </c>
       <c r="C122">
-        <v>7.959961101199619</v>
+        <v>8.234283364733447</v>
       </c>
       <c r="D122">
-        <v>-0.06003889880038038</v>
+        <v>0.06428336473344665</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2957,13 +2966,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.98</v>
+        <v>7.95</v>
       </c>
       <c r="C123">
-        <v>8.128415324948806</v>
+        <v>7.993570570787305</v>
       </c>
       <c r="D123">
-        <v>0.1484153249488056</v>
+        <v>0.04357057078730442</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2971,13 +2980,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.01</v>
+        <v>8.24</v>
       </c>
       <c r="C124">
-        <v>8.030835902051399</v>
+        <v>8.389424158056581</v>
       </c>
       <c r="D124">
-        <v>0.02083590205139885</v>
+        <v>0.1494241580565809</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2985,13 +2994,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.32</v>
+        <v>8.24</v>
       </c>
       <c r="C125">
-        <v>8.095314535839019</v>
+        <v>8.334892518156789</v>
       </c>
       <c r="D125">
-        <v>-0.2246854641609808</v>
+        <v>0.09489251815678834</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2999,13 +3008,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.41</v>
+        <v>8.35</v>
       </c>
       <c r="C126">
-        <v>8.075972776241649</v>
+        <v>8.445780187507925</v>
       </c>
       <c r="D126">
-        <v>-0.3340272237583513</v>
+        <v>0.09578018750792516</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3013,13 +3022,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.369999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="C127">
-        <v>8.179594282151552</v>
+        <v>8.367668727125032</v>
       </c>
       <c r="D127">
-        <v>-0.1904057178484475</v>
+        <v>0.04766872712503201</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3027,13 +3036,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.34</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C128">
-        <v>8.269769507883618</v>
+        <v>8.263406703942412</v>
       </c>
       <c r="D128">
-        <v>-0.07023049211638188</v>
+        <v>0.1334067039424109</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3041,13 +3050,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.26</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C129">
-        <v>8.178052545009482</v>
+        <v>8.325911604275479</v>
       </c>
       <c r="D129">
-        <v>-0.0819474549905177</v>
+        <v>0.04591160427547969</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3055,13 +3064,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.289999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C130">
-        <v>8.155237248961461</v>
+        <v>8.315820769087914</v>
       </c>
       <c r="D130">
-        <v>-0.1347627510385383</v>
+        <v>0.1058207690879129</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3069,13 +3078,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.01</v>
+        <v>8.52</v>
       </c>
       <c r="C131">
-        <v>8.034022692247904</v>
+        <v>8.54878108482335</v>
       </c>
       <c r="D131">
-        <v>0.02402269224790388</v>
+        <v>0.02878108482335051</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3083,13 +3092,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="C132">
-        <v>8.499904175887634</v>
+        <v>8.646099066778827</v>
       </c>
       <c r="D132">
-        <v>0.09990417588763378</v>
+        <v>0.04609906677882769</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3097,13 +3106,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.390000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="C133">
-        <v>8.486177110050685</v>
+        <v>8.896120740870877</v>
       </c>
       <c r="D133">
-        <v>0.09617711005068408</v>
+        <v>-0.2738792591291226</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3111,13 +3120,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>8.19</v>
+        <v>9.24</v>
       </c>
       <c r="C134">
-        <v>8.303020409896321</v>
+        <v>9.033401433897112</v>
       </c>
       <c r="D134">
-        <v>0.1130204098963219</v>
+        <v>-0.2065985661028886</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3125,13 +3134,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>9.17</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C135">
-        <v>8.901728678939552</v>
+        <v>9.166203380375443</v>
       </c>
       <c r="D135">
-        <v>-0.2682713210604479</v>
+        <v>-0.1937966196245569</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3139,13 +3148,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>10.02</v>
+        <v>10.43</v>
       </c>
       <c r="C136">
-        <v>9.408914617102864</v>
+        <v>9.541138970967239</v>
       </c>
       <c r="D136">
-        <v>-0.6110853828971354</v>
+        <v>-0.8888610290327605</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3153,13 +3162,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>9.58</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C137">
-        <v>9.299724656857622</v>
+        <v>9.252976466018758</v>
       </c>
       <c r="D137">
-        <v>-0.2802753431423781</v>
+        <v>-0.2070235339812427</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3167,13 +3176,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.58</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C138">
-        <v>9.318136091775871</v>
+        <v>9.237944442499472</v>
       </c>
       <c r="D138">
-        <v>-0.2618639082241287</v>
+        <v>-0.1320555575005269</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3181,13 +3190,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.460000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C139">
-        <v>8.322749755516801</v>
+        <v>8.71186689373301</v>
       </c>
       <c r="D139">
-        <v>-0.1372502444831998</v>
+        <v>0.001866893733009078</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3195,13 +3204,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.25</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C140">
-        <v>8.150087856036436</v>
+        <v>8.53083619938845</v>
       </c>
       <c r="D140">
-        <v>-0.0999121439635644</v>
+        <v>-0.1791638006115512</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3209,13 +3218,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>7.63</v>
+        <v>8.49</v>
       </c>
       <c r="C141">
-        <v>8.133860534792435</v>
+        <v>8.369903174827062</v>
       </c>
       <c r="D141">
-        <v>0.5038605347924348</v>
+        <v>-0.1200968251729382</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3223,13 +3232,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>7.76</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C142">
-        <v>8.015784852034233</v>
+        <v>8.291338686716685</v>
       </c>
       <c r="D142">
-        <v>0.2557848520342336</v>
+        <v>-0.07866131328331427</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3240,10 +3249,10 @@
         <v>7.66</v>
       </c>
       <c r="C143">
-        <v>7.910949499285536</v>
+        <v>8.192886066214413</v>
       </c>
       <c r="D143">
-        <v>0.2509494992855359</v>
+        <v>0.532886066214413</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3251,13 +3260,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="C144">
-        <v>7.88140539468194</v>
+        <v>8.15447851869321</v>
       </c>
       <c r="D144">
-        <v>0.08140539468193975</v>
+        <v>0.3144785186932104</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3265,13 +3274,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.8</v>
+        <v>7.76</v>
       </c>
       <c r="C145">
-        <v>7.843678190937462</v>
+        <v>8.005485981286036</v>
       </c>
       <c r="D145">
-        <v>0.04367819093746217</v>
+        <v>0.2454859812860359</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3279,13 +3288,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.09</v>
+        <v>7.71</v>
       </c>
       <c r="C146">
-        <v>8.062818873665714</v>
+        <v>8.008560078012195</v>
       </c>
       <c r="D146">
-        <v>-0.02718112633428582</v>
+        <v>0.2985600780121951</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3293,13 +3302,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.47</v>
+        <v>7.64</v>
       </c>
       <c r="C147">
-        <v>7.682316610151375</v>
+        <v>7.883426296339555</v>
       </c>
       <c r="D147">
-        <v>0.2123166101513752</v>
+        <v>0.243426296339555</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3307,13 +3316,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.7</v>
+        <v>7.66</v>
       </c>
       <c r="C148">
-        <v>7.833992194927738</v>
+        <v>7.869886592131542</v>
       </c>
       <c r="D148">
-        <v>0.1339921949277381</v>
+        <v>0.209886592131542</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3321,13 +3330,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.35</v>
+        <v>7.81</v>
       </c>
       <c r="C149">
-        <v>7.367743674166048</v>
+        <v>7.840225259801685</v>
       </c>
       <c r="D149">
-        <v>0.01774367416604861</v>
+        <v>0.03022525980168567</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3335,13 +3344,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.17</v>
+        <v>8.09</v>
       </c>
       <c r="C150">
-        <v>7.291185124813433</v>
+        <v>8.072210431074364</v>
       </c>
       <c r="D150">
-        <v>0.121185124813433</v>
+        <v>-0.01778956892563599</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3349,13 +3358,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.14</v>
+        <v>7.6</v>
       </c>
       <c r="C151">
-        <v>7.229610501038282</v>
+        <v>7.805346751372068</v>
       </c>
       <c r="D151">
-        <v>0.08961050103828239</v>
+        <v>0.2053467513720681</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3363,13 +3372,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.2</v>
+        <v>7.52</v>
       </c>
       <c r="C152">
-        <v>7.229388764588904</v>
+        <v>7.72421104882521</v>
       </c>
       <c r="D152">
-        <v>0.02938876458890416</v>
+        <v>0.2042110488252105</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3377,13 +3386,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.12</v>
+        <v>7.23</v>
       </c>
       <c r="C153">
-        <v>7.211468284561919</v>
+        <v>7.323998568886085</v>
       </c>
       <c r="D153">
-        <v>0.0914682845619188</v>
+        <v>0.09399856888608493</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3391,13 +3400,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.98</v>
+        <v>7.02</v>
       </c>
       <c r="C154">
-        <v>7.096648351764804</v>
+        <v>7.138267535952683</v>
       </c>
       <c r="D154">
-        <v>0.1166483517648036</v>
+        <v>0.1182675359526835</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3408,10 +3417,10 @@
         <v>7.05</v>
       </c>
       <c r="C155">
-        <v>7.108540594129733</v>
+        <v>7.133053408531096</v>
       </c>
       <c r="D155">
-        <v>0.05854059412973367</v>
+        <v>0.08305340853109655</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3419,13 +3428,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.17</v>
+        <v>7.23</v>
       </c>
       <c r="C156">
-        <v>7.18908397010018</v>
+        <v>7.212368068913153</v>
       </c>
       <c r="D156">
-        <v>0.01908397010017993</v>
+        <v>-0.01763193108684735</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3436,10 +3445,10 @@
         <v>7.29</v>
       </c>
       <c r="C157">
-        <v>7.228794086370424</v>
+        <v>7.264765535971976</v>
       </c>
       <c r="D157">
-        <v>-0.06120591362957573</v>
+        <v>-0.02523446402802421</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3447,13 +3456,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.28</v>
+        <v>7.75</v>
       </c>
       <c r="C158">
-        <v>7.194966520536187</v>
+        <v>7.56602303851503</v>
       </c>
       <c r="D158">
-        <v>-0.08503347946381279</v>
+        <v>-0.1839769614849702</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3461,13 +3470,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.77</v>
+        <v>7.18</v>
       </c>
       <c r="C159">
-        <v>7.544478299660964</v>
+        <v>7.195077725030644</v>
       </c>
       <c r="D159">
-        <v>-0.2255217003390353</v>
+        <v>0.0150777250306442</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3475,13 +3484,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.46</v>
+        <v>7.15</v>
       </c>
       <c r="C160">
-        <v>7.422122527703761</v>
+        <v>7.097437583280423</v>
       </c>
       <c r="D160">
-        <v>-0.0378774722962385</v>
+        <v>-0.05256241671957707</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3489,13 +3498,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.49</v>
+        <v>6.92</v>
       </c>
       <c r="C161">
-        <v>7.375034699869694</v>
+        <v>6.862678573896503</v>
       </c>
       <c r="D161">
-        <v>-0.1149653001303061</v>
+        <v>-0.05732142610349644</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3503,13 +3512,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.16</v>
+        <v>7.23</v>
       </c>
       <c r="C162">
-        <v>7.226828815743577</v>
+        <v>6.62650816593978</v>
       </c>
       <c r="D162">
-        <v>0.0668288157435768</v>
+        <v>-0.6034918340602209</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3517,13 +3526,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.02</v>
+        <v>7.5</v>
       </c>
       <c r="C163">
-        <v>6.708476180519817</v>
+        <v>6.799717644939816</v>
       </c>
       <c r="D163">
-        <v>-0.3115238194801826</v>
+        <v>-0.7002823550601844</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3531,13 +3540,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.03</v>
+        <v>7.47</v>
       </c>
       <c r="C164">
-        <v>6.604389092121135</v>
+        <v>6.72972969642182</v>
       </c>
       <c r="D164">
-        <v>-0.4256109078788652</v>
+        <v>-0.7402703035781801</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3545,13 +3554,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.22</v>
+        <v>6.93</v>
       </c>
       <c r="C165">
-        <v>6.629791294781205</v>
+        <v>6.66062015684165</v>
       </c>
       <c r="D165">
-        <v>-0.590208705218795</v>
+        <v>-0.2693798431583501</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3559,13 +3568,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.17</v>
+        <v>6.98</v>
       </c>
       <c r="C166">
-        <v>6.773282261800935</v>
+        <v>6.690313084861219</v>
       </c>
       <c r="D166">
-        <v>-0.3967177381990652</v>
+        <v>-0.2896869151387813</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3573,13 +3582,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.26</v>
+        <v>6.64</v>
       </c>
       <c r="C167">
-        <v>6.785239173578525</v>
+        <v>6.347778511149985</v>
       </c>
       <c r="D167">
-        <v>-0.4747608264214751</v>
+        <v>-0.2922214888500143</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3587,13 +3596,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.65</v>
+        <v>6.61</v>
       </c>
       <c r="C168">
-        <v>6.330239605953706</v>
+        <v>6.426896680309159</v>
       </c>
       <c r="D168">
-        <v>-0.3197603940462947</v>
+        <v>-0.1831033196908418</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3601,13 +3610,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.68</v>
+        <v>6.52</v>
       </c>
       <c r="C169">
-        <v>6.357741633822359</v>
+        <v>6.350622283429003</v>
       </c>
       <c r="D169">
-        <v>-0.3222583661776408</v>
+        <v>-0.1693777165709962</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3615,13 +3624,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.59</v>
+        <v>6.79</v>
       </c>
       <c r="C170">
-        <v>6.343038964705457</v>
+        <v>6.343820058556118</v>
       </c>
       <c r="D170">
-        <v>-0.2469610352945431</v>
+        <v>-0.4461799414438818</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3629,13 +3638,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.77</v>
+        <v>6.78</v>
       </c>
       <c r="C171">
-        <v>6.30635420451277</v>
+        <v>6.32587074898925</v>
       </c>
       <c r="D171">
-        <v>-0.4636457954872295</v>
+        <v>-0.45412925101075</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3643,13 +3652,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.67</v>
+        <v>6.36</v>
       </c>
       <c r="C172">
-        <v>6.297609034973156</v>
+        <v>6.087268370794079</v>
       </c>
       <c r="D172">
-        <v>-0.3723909650268435</v>
+        <v>-0.2727316292059214</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3657,13 +3666,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.58</v>
+        <v>6.07</v>
       </c>
       <c r="C173">
-        <v>6.250423570900844</v>
+        <v>6.097850261010982</v>
       </c>
       <c r="D173">
-        <v>-0.3295764290991556</v>
+        <v>0.02785026101098165</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3671,13 +3680,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.36</v>
+        <v>6.02</v>
       </c>
       <c r="C174">
-        <v>6.077744988354405</v>
+        <v>6.064974462551764</v>
       </c>
       <c r="D174">
-        <v>-0.2822550116455949</v>
+        <v>0.04497446255176474</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3685,13 +3694,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.06</v>
+        <v>5.96</v>
       </c>
       <c r="C175">
-        <v>6.082400948193735</v>
+        <v>6.013540719108392</v>
       </c>
       <c r="D175">
-        <v>0.02240094819373528</v>
+        <v>0.05354071910839231</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3699,13 +3708,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="C176">
-        <v>6.057149584980369</v>
+        <v>6.059406512190299</v>
       </c>
       <c r="D176">
-        <v>0.3171495849803687</v>
+        <v>0.2794065121902989</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3713,13 +3722,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="C177">
-        <v>6.061521793924161</v>
+        <v>6.057078932340139</v>
       </c>
       <c r="D177">
-        <v>0.3215217939241608</v>
+        <v>0.3070789323401391</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3727,13 +3736,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="C178">
-        <v>6.064511511626252</v>
+        <v>6.041695046829378</v>
       </c>
       <c r="D178">
-        <v>0.314511511626252</v>
+        <v>0.3216950468293778</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3741,13 +3750,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="C179">
-        <v>6.041917790240168</v>
+        <v>6.056697769812229</v>
       </c>
       <c r="D179">
-        <v>0.3219177902401684</v>
+        <v>0.3266977698122284</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3755,13 +3764,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>5.68</v>
+        <v>5.76</v>
       </c>
       <c r="C180">
-        <v>5.952010508468755</v>
+        <v>6.059337973938818</v>
       </c>
       <c r="D180">
-        <v>0.272010508468755</v>
+        <v>0.299337973938818</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3769,13 +3778,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="C181">
-        <v>5.931991709095806</v>
+        <v>6.050402006199266</v>
       </c>
       <c r="D181">
-        <v>0.2819917090958057</v>
+        <v>0.3404020061992661</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3783,13 +3792,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="C182">
-        <v>5.918559729406008</v>
+        <v>5.912243247973326</v>
       </c>
       <c r="D182">
-        <v>0.238559729406008</v>
+        <v>0.2622432479733261</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3797,13 +3806,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5.71</v>
+        <v>5.69</v>
       </c>
       <c r="C183">
-        <v>5.939008072253456</v>
+        <v>5.933524505522953</v>
       </c>
       <c r="D183">
-        <v>0.229008072253456</v>
+        <v>0.2435245055229522</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3811,13 +3820,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.71</v>
+        <v>5.67</v>
       </c>
       <c r="C184">
-        <v>5.935769415740852</v>
+        <v>5.922261810787362</v>
       </c>
       <c r="D184">
-        <v>0.2257694157408521</v>
+        <v>0.2522618107873624</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3825,13 +3834,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="C185">
-        <v>5.891611146895107</v>
+        <v>5.926339782873034</v>
       </c>
       <c r="D185">
-        <v>0.2016111468951065</v>
+        <v>0.2563397828730336</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3839,13 +3848,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="C186">
-        <v>5.890455359824639</v>
+        <v>5.905689431198888</v>
       </c>
       <c r="D186">
-        <v>0.1904553598246386</v>
+        <v>0.1856894311988881</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3853,13 +3862,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.74</v>
+        <v>5.53</v>
       </c>
       <c r="C187">
-        <v>5.879457539575702</v>
+        <v>5.749244242658388</v>
       </c>
       <c r="D187">
-        <v>0.1394575395757016</v>
+        <v>0.2192442426583874</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3867,13 +3876,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.47</v>
+        <v>5.52</v>
       </c>
       <c r="C188">
-        <v>5.651492064547122</v>
+        <v>5.72238820350963</v>
       </c>
       <c r="D188">
-        <v>0.1814920645471227</v>
+        <v>0.2023882035096305</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3881,13 +3890,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C189">
-        <v>5.665886302307683</v>
+        <v>5.667736549485165</v>
       </c>
       <c r="D189">
-        <v>0.1758863023076831</v>
+        <v>0.187736549485165</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3895,13 +3904,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C190">
-        <v>5.638161159047108</v>
+        <v>5.665862214438806</v>
       </c>
       <c r="D190">
-        <v>0.188161159047108</v>
+        <v>0.1758622144388058</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3909,13 +3918,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="C191">
-        <v>5.64370093659039</v>
+        <v>5.665933456225848</v>
       </c>
       <c r="D191">
-        <v>0.2237009365903901</v>
+        <v>0.1759334562258479</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3923,13 +3932,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
       <c r="C192">
-        <v>5.574372563126746</v>
+        <v>5.645494381405933</v>
       </c>
       <c r="D192">
-        <v>0.07437256312674556</v>
+        <v>0.1954943814059327</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3937,13 +3946,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.6</v>
+        <v>5.36</v>
       </c>
       <c r="C193">
-        <v>5.60362979479236</v>
+        <v>5.637480294720695</v>
       </c>
       <c r="D193">
-        <v>0.00362979479236003</v>
+        <v>0.2774802947206947</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3951,13 +3960,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.62</v>
+        <v>5.35</v>
       </c>
       <c r="C194">
-        <v>5.619932389048323</v>
+        <v>5.600230775975203</v>
       </c>
       <c r="D194">
-        <v>-6.761095167728826e-05</v>
+        <v>0.2502307759752034</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3965,13 +3974,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.7</v>
+        <v>5.33</v>
       </c>
       <c r="C195">
-        <v>5.625138682026124</v>
+        <v>5.559312991935561</v>
       </c>
       <c r="D195">
-        <v>-0.07486131797387596</v>
+        <v>0.2293129919355605</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3979,13 +3988,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.58</v>
+        <v>5.52</v>
       </c>
       <c r="C196">
-        <v>5.58353105973017</v>
+        <v>5.587555541224062</v>
       </c>
       <c r="D196">
-        <v>0.003531059730169872</v>
+        <v>0.06755554122406249</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3993,13 +4002,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.82</v>
+        <v>5.51</v>
       </c>
       <c r="C197">
-        <v>5.658364407371874</v>
+        <v>5.564328465610498</v>
       </c>
       <c r="D197">
-        <v>-0.1616355926281265</v>
+        <v>0.05432846561049853</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4007,13 +4016,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="C198">
-        <v>5.666492444722515</v>
+        <v>5.629193416090149</v>
       </c>
       <c r="D198">
-        <v>-0.09350755527748511</v>
+        <v>-0.0608065839098515</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4021,13 +4030,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C199">
-        <v>5.707389769306275</v>
+        <v>5.634583499787699</v>
       </c>
       <c r="D199">
-        <v>-0.1926102306937256</v>
+        <v>0.0345834997876997</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4035,13 +4044,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.83</v>
+        <v>5.56</v>
       </c>
       <c r="C200">
-        <v>5.645610240350569</v>
+        <v>5.585501134101384</v>
       </c>
       <c r="D200">
-        <v>-0.1843897596494308</v>
+        <v>0.02550113410138444</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4049,13 +4058,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.99</v>
+        <v>5.86</v>
       </c>
       <c r="C201">
-        <v>5.654492332929197</v>
+        <v>5.6701757107853</v>
       </c>
       <c r="D201">
-        <v>-0.3355076670708037</v>
+        <v>-0.1898242892147</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4063,13 +4072,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.37</v>
+        <v>5.9</v>
       </c>
       <c r="C202">
-        <v>5.451273170181533</v>
+        <v>5.69275680112523</v>
       </c>
       <c r="D202">
-        <v>0.08127317018153324</v>
+        <v>-0.2072431988747701</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4077,13 +4086,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.3</v>
+        <v>5.89</v>
       </c>
       <c r="C203">
-        <v>5.425985867950159</v>
+        <v>5.655097994481506</v>
       </c>
       <c r="D203">
-        <v>0.1259858679501589</v>
+        <v>-0.2349020055184941</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4091,13 +4100,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.3</v>
+        <v>5.83</v>
       </c>
       <c r="C204">
-        <v>5.430663997508567</v>
+        <v>5.644993098660602</v>
       </c>
       <c r="D204">
-        <v>0.1306639975085675</v>
+        <v>-0.1850069013393982</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4105,13 +4114,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.27</v>
+        <v>5.99</v>
       </c>
       <c r="C205">
-        <v>5.417669416307859</v>
+        <v>5.654846846866017</v>
       </c>
       <c r="D205">
-        <v>0.1476694163078598</v>
+        <v>-0.3351531531339829</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4119,13 +4128,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.27</v>
+        <v>6.03</v>
       </c>
       <c r="C206">
-        <v>5.437152010159002</v>
+        <v>5.658257728585247</v>
       </c>
       <c r="D206">
-        <v>0.1671520101590023</v>
+        <v>-0.3717422714147531</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4133,13 +4142,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.21</v>
+        <v>5.98</v>
       </c>
       <c r="C207">
-        <v>5.486528948308997</v>
+        <v>5.604258446899247</v>
       </c>
       <c r="D207">
-        <v>0.2765289483089974</v>
+        <v>-0.3757415531007533</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4147,13 +4156,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>4.98</v>
+        <v>5.47</v>
       </c>
       <c r="C208">
-        <v>5.400747029501186</v>
+        <v>5.504755703161046</v>
       </c>
       <c r="D208">
-        <v>0.4207470295011859</v>
+        <v>0.03475570316104637</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4161,13 +4170,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>4.98</v>
+        <v>5.32</v>
       </c>
       <c r="C209">
-        <v>5.385218911048625</v>
+        <v>5.427241131783721</v>
       </c>
       <c r="D209">
-        <v>0.4052189110486246</v>
+        <v>0.107241131783721</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4175,13 +4184,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="C210">
-        <v>5.41178800588046</v>
+        <v>5.426937128482396</v>
       </c>
       <c r="D210">
-        <v>0.4017880058804604</v>
+        <v>0.07693712848239631</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4189,13 +4198,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>4.99</v>
+        <v>5.31</v>
       </c>
       <c r="C211">
-        <v>5.41023850009597</v>
+        <v>5.419723482833846</v>
       </c>
       <c r="D211">
-        <v>0.4202385000959694</v>
+        <v>0.1097234828338465</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4203,13 +4212,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C212">
-        <v>5.369155777355743</v>
+        <v>5.407038082275798</v>
       </c>
       <c r="D212">
-        <v>0.3691557773557435</v>
+        <v>0.1570380822757977</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4217,13 +4226,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>5.26</v>
       </c>
       <c r="C213">
-        <v>5.380212494225358</v>
+        <v>5.416549714238106</v>
       </c>
       <c r="D213">
-        <v>0.3802124942253577</v>
+        <v>0.156549714238106</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4231,13 +4240,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.01</v>
+        <v>5.26</v>
       </c>
       <c r="C214">
-        <v>5.367055251238913</v>
+        <v>5.449120779131134</v>
       </c>
       <c r="D214">
-        <v>0.3570552512389131</v>
+        <v>0.1891207791311347</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4245,13 +4254,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="C215">
-        <v>5.414202612055737</v>
+        <v>5.461933119737059</v>
       </c>
       <c r="D215">
-        <v>0.3142026120557375</v>
+        <v>0.2719331197370582</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4259,13 +4268,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="C216">
-        <v>5.415073490665579</v>
+        <v>5.432409621461903</v>
       </c>
       <c r="D216">
-        <v>0.3350734906655788</v>
+        <v>0.4324096214619031</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4273,13 +4282,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.14</v>
+        <v>4.97</v>
       </c>
       <c r="C217">
-        <v>5.4386140799892</v>
+        <v>5.39315736212663</v>
       </c>
       <c r="D217">
-        <v>0.2986140799892008</v>
+        <v>0.4231573621266307</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4287,13 +4296,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.14</v>
+        <v>4.98</v>
       </c>
       <c r="C218">
-        <v>5.383237700541402</v>
+        <v>5.388889115221235</v>
       </c>
       <c r="D218">
-        <v>0.2432377005414024</v>
+        <v>0.4088891152212346</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4301,13 +4310,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.09</v>
+        <v>4.99</v>
       </c>
       <c r="C219">
-        <v>5.33084921519238</v>
+        <v>5.390031321990247</v>
       </c>
       <c r="D219">
-        <v>0.2408492151923802</v>
+        <v>0.4000313219902472</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4315,13 +4324,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="C220">
-        <v>5.27542652242785</v>
+        <v>5.419975550281104</v>
       </c>
       <c r="D220">
-        <v>0.1454265224278499</v>
+        <v>0.4199755502811042</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4329,13 +4338,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.14</v>
+        <v>5.04</v>
       </c>
       <c r="C221">
-        <v>5.304088710686338</v>
+        <v>5.443859260842211</v>
       </c>
       <c r="D221">
-        <v>0.1640887106863387</v>
+        <v>0.4038592608422107</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4343,13 +4352,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.16</v>
+        <v>5.01</v>
       </c>
       <c r="C222">
-        <v>5.314911878839354</v>
+        <v>5.392054451993064</v>
       </c>
       <c r="D222">
-        <v>0.1549118788393535</v>
+        <v>0.3820544519930644</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4357,13 +4366,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="C223">
-        <v>5.313059534621033</v>
+        <v>5.434930102489537</v>
       </c>
       <c r="D223">
-        <v>0.2030595346210324</v>
+        <v>0.284930102489537</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4371,13 +4380,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.14</v>
+        <v>5.13</v>
       </c>
       <c r="C224">
-        <v>5.299963272744296</v>
+        <v>5.430551835441936</v>
       </c>
       <c r="D224">
-        <v>0.1599632727442968</v>
+        <v>0.3005518354419365</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4385,13 +4394,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.13</v>
+        <v>5.09</v>
       </c>
       <c r="C225">
-        <v>5.301633546561686</v>
+        <v>5.298860254122855</v>
       </c>
       <c r="D225">
-        <v>0.1716335465616856</v>
+        <v>0.2088602541228548</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4399,13 +4408,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C226">
-        <v>5.273724990856143</v>
+        <v>5.330686438310743</v>
       </c>
       <c r="D226">
-        <v>0.1737249908561438</v>
+        <v>0.2406864383107434</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4413,13 +4422,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="C227">
-        <v>5.233511893077141</v>
+        <v>5.258561335685841</v>
       </c>
       <c r="D227">
-        <v>0.1635118930771409</v>
+        <v>0.1685613356858413</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4427,13 +4436,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="C228">
-        <v>5.294783593966232</v>
+        <v>5.253120845690741</v>
       </c>
       <c r="D228">
-        <v>0.2147835939662315</v>
+        <v>0.1831208456907403</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4441,13 +4450,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.15</v>
+        <v>5.08</v>
       </c>
       <c r="C229">
-        <v>5.315493755348847</v>
+        <v>5.292437288033088</v>
       </c>
       <c r="D229">
-        <v>0.1654937553488462</v>
+        <v>0.2124372880330876</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4455,13 +4464,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.08</v>
+        <v>5.04</v>
       </c>
       <c r="C230">
-        <v>5.226148121311908</v>
+        <v>5.242474373423129</v>
       </c>
       <c r="D230">
-        <v>0.1461481213119082</v>
+        <v>0.2024743734231294</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4469,13 +4478,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="C231">
-        <v>5.229895237221355</v>
+        <v>5.245145695786998</v>
       </c>
       <c r="D231">
-        <v>0.1698952372213549</v>
+        <v>0.1751456957869975</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4483,13 +4492,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="C232">
-        <v>5.239497346364633</v>
+        <v>5.257437596090912</v>
       </c>
       <c r="D232">
-        <v>0.1494973463646332</v>
+        <v>0.1974375960909125</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4497,13 +4506,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.05</v>
+        <v>5.07</v>
       </c>
       <c r="C233">
-        <v>5.218341346065335</v>
+        <v>5.263082320604718</v>
       </c>
       <c r="D233">
-        <v>0.1683413460653354</v>
+        <v>0.1930823206047174</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4511,13 +4520,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.05</v>
+        <v>5.12</v>
       </c>
       <c r="C234">
-        <v>5.227270663089051</v>
+        <v>5.335095469851633</v>
       </c>
       <c r="D234">
-        <v>0.1772706630890513</v>
+        <v>0.215095469851633</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4525,13 +4534,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>4.95</v>
+        <v>5.14</v>
       </c>
       <c r="C235">
-        <v>5.1018116001545</v>
+        <v>5.332792079859677</v>
       </c>
       <c r="D235">
-        <v>0.1518116001544998</v>
+        <v>0.1927920798596769</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4539,13 +4548,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>4.88</v>
+        <v>5.16</v>
       </c>
       <c r="C236">
-        <v>4.994676004333661</v>
+        <v>5.33110786250866</v>
       </c>
       <c r="D236">
-        <v>0.1146760043336608</v>
+        <v>0.1711078625086602</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4553,13 +4562,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>4.89</v>
+        <v>5.12</v>
       </c>
       <c r="C237">
-        <v>4.983584674220165</v>
+        <v>5.311174311915546</v>
       </c>
       <c r="D237">
-        <v>0.09358467422016492</v>
+        <v>0.191174311915546</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4567,13 +4576,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>4.88</v>
+        <v>5.11</v>
       </c>
       <c r="C238">
-        <v>4.982692733618691</v>
+        <v>5.216919370662134</v>
       </c>
       <c r="D238">
-        <v>0.1026927336186914</v>
+        <v>0.1069193706621334</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4581,13 +4590,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>4.89</v>
+        <v>5.11</v>
       </c>
       <c r="C239">
-        <v>4.980627710258863</v>
+        <v>5.208954133356754</v>
       </c>
       <c r="D239">
-        <v>0.09062771025886374</v>
+        <v>0.09895413335675407</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4595,13 +4604,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>4.93</v>
+        <v>5.06</v>
       </c>
       <c r="C240">
-        <v>4.996314274208727</v>
+        <v>5.215366875922711</v>
       </c>
       <c r="D240">
-        <v>0.06631427420872704</v>
+        <v>0.1553668759227111</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4609,13 +4618,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="C241">
-        <v>5.005052560997806</v>
+        <v>5.209480362455897</v>
       </c>
       <c r="D241">
-        <v>0.05505256099780542</v>
+        <v>0.1594803624558967</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4623,13 +4632,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>4.97</v>
+        <v>5.08</v>
       </c>
       <c r="C242">
-        <v>4.996059855935668</v>
+        <v>5.245484609161768</v>
       </c>
       <c r="D242">
-        <v>0.02605985593566817</v>
+        <v>0.1654846091617683</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4637,13 +4646,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C243">
-        <v>4.977591441470247</v>
+        <v>5.239435678504424</v>
       </c>
       <c r="D243">
-        <v>-0.1224085585297523</v>
+        <v>0.1494356785044237</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4651,13 +4660,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.13</v>
+        <v>5.05</v>
       </c>
       <c r="C244">
-        <v>5.002864751722806</v>
+        <v>5.218284696302564</v>
       </c>
       <c r="D244">
-        <v>-0.1271352482771944</v>
+        <v>0.1682846963025639</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4665,13 +4674,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.15</v>
+        <v>4.98</v>
       </c>
       <c r="C245">
-        <v>5.00060399414911</v>
+        <v>5.119466191680105</v>
       </c>
       <c r="D245">
-        <v>-0.1493960058508907</v>
+        <v>0.1394661916801043</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4679,13 +4688,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.19</v>
+        <v>4.98</v>
       </c>
       <c r="C246">
-        <v>5.041491574949299</v>
+        <v>5.110763035956363</v>
       </c>
       <c r="D246">
-        <v>-0.1485084250507009</v>
+        <v>0.1307630359563623</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4693,13 +4702,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.2</v>
+        <v>4.95</v>
       </c>
       <c r="C247">
-        <v>4.991830905654851</v>
+        <v>5.049817513859044</v>
       </c>
       <c r="D247">
-        <v>-0.2081690943451493</v>
+        <v>0.09981751385904403</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4707,13 +4716,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.21</v>
+        <v>4.93</v>
       </c>
       <c r="C248">
-        <v>5.017601648463087</v>
+        <v>5.038591340030009</v>
       </c>
       <c r="D248">
-        <v>-0.1923983515369132</v>
+        <v>0.1085913400300091</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4721,13 +4730,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.15</v>
+        <v>4.94</v>
       </c>
       <c r="C249">
-        <v>5.07776869822243</v>
+        <v>4.995967462184807</v>
       </c>
       <c r="D249">
-        <v>-0.07223130177757042</v>
+        <v>0.05596746218480675</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4735,13 +4744,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.23</v>
+        <v>5.06</v>
       </c>
       <c r="C250">
-        <v>5.109500619469696</v>
+        <v>5.02368455143153</v>
       </c>
       <c r="D250">
-        <v>-0.1204993805303047</v>
+        <v>-0.03631544856846958</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4749,13 +4758,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.26</v>
+        <v>5.09</v>
       </c>
       <c r="C251">
-        <v>5.152567324958047</v>
+        <v>5.034389920869054</v>
       </c>
       <c r="D251">
-        <v>-0.1074326750419523</v>
+        <v>-0.05561007913094596</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4763,13 +4772,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C252">
-        <v>5.192705338023469</v>
+        <v>4.992365766563981</v>
       </c>
       <c r="D252">
-        <v>-0.1072946619765309</v>
+        <v>-0.107634233436019</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4777,13 +4786,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.25</v>
+        <v>5.14</v>
       </c>
       <c r="C253">
-        <v>5.130709370903071</v>
+        <v>5.006759906725287</v>
       </c>
       <c r="D253">
-        <v>-0.1192906290969287</v>
+        <v>-0.1332400932747131</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4791,13 +4800,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="C254">
-        <v>5.038540895352305</v>
+        <v>5.088856875379135</v>
       </c>
       <c r="D254">
-        <v>-0.151459104647695</v>
+        <v>-0.1411431246208652</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4805,13 +4814,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.17</v>
+        <v>5.23</v>
       </c>
       <c r="C255">
-        <v>5.007820422127343</v>
+        <v>5.092548823074712</v>
       </c>
       <c r="D255">
-        <v>-0.1621795778726565</v>
+        <v>-0.1374511769252882</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4819,13 +4828,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="C256">
-        <v>5.102478222869632</v>
+        <v>5.087550916998858</v>
       </c>
       <c r="D256">
-        <v>-0.1675217771303679</v>
+        <v>-0.142449083001142</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4833,13 +4842,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.33</v>
+        <v>5.25</v>
       </c>
       <c r="C257">
-        <v>5.151702176189016</v>
+        <v>5.100302843525445</v>
       </c>
       <c r="D257">
-        <v>-0.1782978238109845</v>
+        <v>-0.1496971564745548</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4847,13 +4856,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.34</v>
+        <v>5.29</v>
       </c>
       <c r="C258">
-        <v>5.155738687756735</v>
+        <v>5.105685690127298</v>
       </c>
       <c r="D258">
-        <v>-0.1842613122432653</v>
+        <v>-0.1843143098727023</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4861,13 +4870,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="C259">
-        <v>5.131317111992663</v>
+        <v>5.119257171144491</v>
       </c>
       <c r="D259">
-        <v>-0.228682888007337</v>
+        <v>-0.1307428288555093</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4875,13 +4884,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.35</v>
+        <v>5.25</v>
       </c>
       <c r="C260">
-        <v>5.101404863906479</v>
+        <v>5.125112544472745</v>
       </c>
       <c r="D260">
-        <v>-0.2485951360935204</v>
+        <v>-0.1248874555272552</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4889,13 +4898,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.29</v>
+        <v>5.16</v>
       </c>
       <c r="C261">
-        <v>5.103333292041613</v>
+        <v>5.019667305143472</v>
       </c>
       <c r="D261">
-        <v>-0.1866667079583868</v>
+        <v>-0.1403326948565278</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4903,13 +4912,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="C262">
-        <v>5.116944836322618</v>
+        <v>5.10429401024838</v>
       </c>
       <c r="D262">
-        <v>-0.2130551636773816</v>
+        <v>-0.1957059897516196</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4917,13 +4926,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="C263">
-        <v>5.157103215309343</v>
+        <v>5.171537338983794</v>
       </c>
       <c r="D263">
-        <v>-0.1228967846906572</v>
+        <v>-0.2084626610162061</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4931,13 +4940,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C264">
-        <v>5.166747175055331</v>
+        <v>5.164684577137344</v>
       </c>
       <c r="D264">
-        <v>-0.2132528249446688</v>
+        <v>-0.1953154228626559</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4945,13 +4954,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C265">
-        <v>5.170822682814107</v>
+        <v>5.18584047701862</v>
       </c>
       <c r="D265">
-        <v>-0.2091773171858931</v>
+        <v>-0.1741595229813804</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4959,13 +4968,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="C266">
-        <v>5.202789739864004</v>
+        <v>5.175618716873573</v>
       </c>
       <c r="D266">
-        <v>-0.2072102601359962</v>
+        <v>-0.1943812831264271</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4973,13 +4982,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.42</v>
+        <v>5.41</v>
       </c>
       <c r="C267">
-        <v>5.210810030782124</v>
+        <v>5.194447471132908</v>
       </c>
       <c r="D267">
-        <v>-0.209189969217876</v>
+        <v>-0.2155525288670921</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4987,13 +4996,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.65</v>
+        <v>5.41</v>
       </c>
       <c r="C268">
-        <v>5.284325313364594</v>
+        <v>5.204479558969767</v>
       </c>
       <c r="D268">
-        <v>-0.3656746866354066</v>
+        <v>-0.2055204410302336</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5001,13 +5010,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.69</v>
+        <v>5.54</v>
       </c>
       <c r="C269">
-        <v>5.300715137566288</v>
+        <v>5.257065114663452</v>
       </c>
       <c r="D269">
-        <v>-0.3892848624337129</v>
+        <v>-0.2829348853365481</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5015,13 +5024,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="C270">
-        <v>5.338024427456851</v>
+        <v>5.284411305326812</v>
       </c>
       <c r="D270">
-        <v>-0.4019755725431491</v>
+        <v>-0.3655886946731881</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5029,13 +5038,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.52</v>
+        <v>5.68</v>
       </c>
       <c r="C271">
-        <v>5.404546228811222</v>
+        <v>5.294495108949964</v>
       </c>
       <c r="D271">
-        <v>-0.1154537711887773</v>
+        <v>-0.3855048910500356</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5043,13 +5052,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.54</v>
+        <v>5.71</v>
       </c>
       <c r="C272">
-        <v>5.397796493991706</v>
+        <v>5.314026335182972</v>
       </c>
       <c r="D272">
-        <v>-0.1422035060082942</v>
+        <v>-0.3959736648170278</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5057,13 +5066,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.53</v>
+        <v>5.74</v>
       </c>
       <c r="C273">
-        <v>5.374823205105384</v>
+        <v>5.339883374937224</v>
       </c>
       <c r="D273">
-        <v>-0.1551767948946159</v>
+        <v>-0.4001166250627763</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5071,13 +5080,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.49</v>
+        <v>5.72</v>
       </c>
       <c r="C274">
-        <v>5.309511920956814</v>
+        <v>5.390632255346154</v>
       </c>
       <c r="D274">
-        <v>-0.1804880790431866</v>
+        <v>-0.3293677446538457</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5085,13 +5094,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="C275">
-        <v>5.311474211640936</v>
+        <v>5.409152424630267</v>
       </c>
       <c r="D275">
-        <v>-0.1985257883590634</v>
+        <v>-0.1308475753697333</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5099,13 +5108,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="C276">
-        <v>5.326051316637754</v>
+        <v>5.403926757199783</v>
       </c>
       <c r="D276">
-        <v>-0.1539486833622465</v>
+        <v>-0.1260732428002171</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5113,13 +5122,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.47</v>
+        <v>5.55</v>
       </c>
       <c r="C277">
-        <v>5.326048492496327</v>
+        <v>5.406066277573747</v>
       </c>
       <c r="D277">
-        <v>-0.1439515075036732</v>
+        <v>-0.1439337224262527</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5127,13 +5136,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C278">
-        <v>5.353673469906143</v>
+        <v>5.432458078907644</v>
       </c>
       <c r="D278">
-        <v>-0.1963265300938568</v>
+        <v>-0.1275419210923552</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5141,13 +5150,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.56</v>
+        <v>5.52</v>
       </c>
       <c r="C279">
-        <v>5.3578534153354</v>
+        <v>5.405057259528966</v>
       </c>
       <c r="D279">
-        <v>-0.2021465846645993</v>
+        <v>-0.1149427404710339</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5155,13 +5164,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.66</v>
+        <v>5.52</v>
       </c>
       <c r="C280">
-        <v>5.388584515356238</v>
+        <v>5.389936401985339</v>
       </c>
       <c r="D280">
-        <v>-0.2714154846437626</v>
+        <v>-0.1300635980146607</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5169,13 +5178,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.68</v>
+        <v>5.53</v>
       </c>
       <c r="C281">
-        <v>5.375558566935487</v>
+        <v>5.369010428725692</v>
       </c>
       <c r="D281">
-        <v>-0.3044414330645129</v>
+        <v>-0.1609895712743086</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5183,13 +5192,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.68</v>
+        <v>5.55</v>
       </c>
       <c r="C282">
-        <v>5.404516685249728</v>
+        <v>5.345777188232218</v>
       </c>
       <c r="D282">
-        <v>-0.2754833147502715</v>
+        <v>-0.2042228117677816</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5197,13 +5206,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.65</v>
+        <v>5.57</v>
       </c>
       <c r="C283">
-        <v>5.337090493615285</v>
+        <v>5.342719609122676</v>
       </c>
       <c r="D283">
-        <v>-0.3129095063847149</v>
+        <v>-0.2272803908773247</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5211,13 +5220,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="C284">
-        <v>5.344784579932846</v>
+        <v>5.389050800428969</v>
       </c>
       <c r="D284">
-        <v>-0.2952154200671542</v>
+        <v>-0.2709491995710307</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5225,13 +5234,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C285">
-        <v>5.345096555402488</v>
+        <v>5.376137542378634</v>
       </c>
       <c r="D285">
-        <v>-0.3249034445975116</v>
+        <v>-0.3038624576213662</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5242,10 +5251,52 @@
         <v>5.67</v>
       </c>
       <c r="C286">
-        <v>5.360127851201048</v>
+        <v>5.361154045977117</v>
       </c>
       <c r="D286">
-        <v>-0.3098721487989522</v>
+        <v>-0.3088459540228827</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>5.69</v>
+      </c>
+      <c r="C287">
+        <v>5.380245921201817</v>
+      </c>
+      <c r="D287">
+        <v>-0.3097540787981838</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>5.68</v>
+      </c>
+      <c r="C288">
+        <v>5.397916879572636</v>
+      </c>
+      <c r="D288">
+        <v>-0.2820831204273633</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>5.79</v>
+      </c>
+      <c r="C289">
+        <v>5.485395589212703</v>
+      </c>
+      <c r="D289">
+        <v>-0.3046044107872969</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytrain.xlsx
+++ b/temp/Yesterdaytrain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,868 +28,904 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-11 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:59:00</t>
+    <t>2019-06-19 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:05:00</t>
   </si>
   <si>
     <t>2019-06-03 10:31:00</t>
   </si>
   <si>
-    <t>2019-06-03 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-22 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:07:00</t>
+    <t>2019-06-03 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:52:00</t>
   </si>
   <si>
     <t>2019-03-28 14:31:00</t>
   </si>
   <si>
-    <t>2019-03-28 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:50:00</t>
+    <t>2019-03-28 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:45:00</t>
   </si>
   <si>
     <t>2019-03-20 09:38:00</t>
   </si>
   <si>
-    <t>2019-03-19 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:35:00</t>
+    <t>2019-03-19 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-08 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:28:00</t>
   </si>
   <si>
     <t>2019-03-01 13:01:00</t>
   </si>
   <si>
-    <t>2019-02-28 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:23:00</t>
+    <t>2019-03-01 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:19:00</t>
   </si>
   <si>
     <t>2019-02-13 14:56:00</t>
   </si>
   <si>
-    <t>2019-02-13 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 11:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 14:01:00</t>
+    <t>2019-02-13 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:27:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:08:00</t>
   </si>
   <si>
     <t>2018-12-26 13:58:00</t>
   </si>
   <si>
-    <t>2018-12-26 13:46:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 10:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 11:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 13:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 09:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:27:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:19:00</t>
+    <t>2018-12-26 13:48:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:35:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:23:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:02:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 14:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 11:05:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 11:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 10:40:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 09:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:41:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:54:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:52:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:26:00</t>
   </si>
   <si>
     <t>2018-12-14 09:31:00</t>
   </si>
   <si>
-    <t>2018-12-13 14:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:17:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:46:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 14:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 11:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:14:00</t>
+    <t>2018-12-13 10:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:04:00</t>
   </si>
   <si>
     <t>2018-12-07 14:50:00</t>
   </si>
   <si>
-    <t>2018-12-07 13:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 14:51:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 14:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 09:55:00</t>
+    <t>2018-12-07 10:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 09:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:52:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 11:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:28:00</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,13 +1308,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.63</v>
+        <v>6.58</v>
       </c>
       <c r="C2">
-        <v>6.664038205004265</v>
+        <v>6.542223107342831</v>
       </c>
       <c r="D2">
-        <v>0.03403820500426491</v>
+        <v>-0.03777689265716955</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1286,13 +1322,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.39</v>
+        <v>6.61</v>
       </c>
       <c r="C3">
-        <v>6.416948305580982</v>
+        <v>6.499526065612277</v>
       </c>
       <c r="D3">
-        <v>0.02694830558098182</v>
+        <v>-0.1104739343877235</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1300,13 +1336,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.39</v>
+        <v>6.62</v>
       </c>
       <c r="C4">
-        <v>6.404123507858386</v>
+        <v>6.495630728425717</v>
       </c>
       <c r="D4">
-        <v>0.01412350785838612</v>
+        <v>-0.1243692715742828</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1314,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.69</v>
+        <v>6.65</v>
       </c>
       <c r="C5">
-        <v>6.603390758914412</v>
+        <v>6.512020217639388</v>
       </c>
       <c r="D5">
-        <v>-0.0866092410855881</v>
+        <v>-0.1379797823606124</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1328,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="C6">
-        <v>6.536120296611565</v>
+        <v>6.495326566342556</v>
       </c>
       <c r="D6">
-        <v>-0.1038797033884347</v>
+        <v>-0.1346734336574436</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,13 +1378,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.85</v>
+        <v>6.51</v>
       </c>
       <c r="C7">
-        <v>6.658393848830602</v>
+        <v>6.514013859880428</v>
       </c>
       <c r="D7">
-        <v>-0.1916061511693981</v>
+        <v>0.004013859880427795</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1356,13 +1392,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.9</v>
+        <v>6.58</v>
       </c>
       <c r="C8">
-        <v>6.728674922053961</v>
+        <v>6.570530379292506</v>
       </c>
       <c r="D8">
-        <v>-0.1713250779460394</v>
+        <v>-0.009469620707494464</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1370,13 +1406,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="C9">
-        <v>6.757715752861949</v>
+        <v>6.731241597426604</v>
       </c>
       <c r="D9">
-        <v>-0.1822842471380515</v>
+        <v>0.001241597426603569</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1384,13 +1420,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.99</v>
+        <v>6.75</v>
       </c>
       <c r="C10">
-        <v>6.774031924754511</v>
+        <v>6.736030443097781</v>
       </c>
       <c r="D10">
-        <v>-0.2159680752454891</v>
+        <v>-0.0139695569022189</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,13 +1434,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.02</v>
+        <v>6.74</v>
       </c>
       <c r="C11">
-        <v>6.777389639656067</v>
+        <v>6.734486082692265</v>
       </c>
       <c r="D11">
-        <v>-0.2426103603439325</v>
+        <v>-0.005513917307735205</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,13 +1448,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.06</v>
+        <v>6.77</v>
       </c>
       <c r="C12">
-        <v>6.989788902015277</v>
+        <v>6.67049079702682</v>
       </c>
       <c r="D12">
-        <v>-0.07021109798472303</v>
+        <v>-0.09950920297317989</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,13 +1462,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>7.06</v>
+        <v>6.81</v>
       </c>
       <c r="C13">
-        <v>6.99071123076049</v>
+        <v>6.666396429819476</v>
       </c>
       <c r="D13">
-        <v>-0.06928876923950966</v>
+        <v>-0.1436035701805238</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7.09</v>
+        <v>6.61</v>
       </c>
       <c r="C14">
-        <v>7.076412523806444</v>
+        <v>6.699796380739996</v>
       </c>
       <c r="D14">
-        <v>-0.01358747619355594</v>
+        <v>0.08979638073999574</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1454,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.18</v>
+        <v>6.62</v>
       </c>
       <c r="C15">
-        <v>7.188882476258162</v>
+        <v>6.709902658426841</v>
       </c>
       <c r="D15">
-        <v>0.008882476258162519</v>
+        <v>0.08990265842684053</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1468,13 +1504,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>7.15</v>
+        <v>6.64</v>
       </c>
       <c r="C16">
-        <v>7.193181676039022</v>
+        <v>6.718834365181368</v>
       </c>
       <c r="D16">
-        <v>0.04318167603902179</v>
+        <v>0.07883436518136833</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,13 +1518,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C17">
-        <v>7.344584449585347</v>
+        <v>6.657184785226074</v>
       </c>
       <c r="D17">
-        <v>0.2445844495853473</v>
+        <v>0.05718478522607473</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1496,13 +1532,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>7.18</v>
+        <v>6.39</v>
       </c>
       <c r="C18">
-        <v>7.349919909545192</v>
+        <v>6.418746569242924</v>
       </c>
       <c r="D18">
-        <v>0.1699199095451922</v>
+        <v>0.02874656924292474</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1510,13 +1546,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.08</v>
+        <v>6.4</v>
       </c>
       <c r="C19">
-        <v>7.269931606292816</v>
+        <v>6.467268107755756</v>
       </c>
       <c r="D19">
-        <v>0.1899316062928156</v>
+        <v>0.06726810775575576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,13 +1560,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.9</v>
+        <v>6.33</v>
       </c>
       <c r="C20">
-        <v>7.300574476285616</v>
+        <v>6.335159674764046</v>
       </c>
       <c r="D20">
-        <v>0.4005744762856152</v>
+        <v>0.005159674764045441</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.98</v>
+        <v>6.64</v>
       </c>
       <c r="C21">
-        <v>7.426008300409294</v>
+        <v>6.594653045558446</v>
       </c>
       <c r="D21">
-        <v>0.4460083004092938</v>
+        <v>-0.04534695444155368</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.04</v>
+        <v>6.68</v>
       </c>
       <c r="C22">
-        <v>7.523164096320062</v>
+        <v>6.660274514827942</v>
       </c>
       <c r="D22">
-        <v>0.4831640963200616</v>
+        <v>-0.01972548517205741</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1566,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.09</v>
+        <v>6.67</v>
       </c>
       <c r="C23">
-        <v>7.470733633521161</v>
+        <v>6.590092832900381</v>
       </c>
       <c r="D23">
-        <v>0.3807336335211611</v>
+        <v>-0.07990716709961898</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1580,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.21</v>
+        <v>6.5</v>
       </c>
       <c r="C24">
-        <v>7.531269974047533</v>
+        <v>6.584744662091485</v>
       </c>
       <c r="D24">
-        <v>0.3212699740475333</v>
+        <v>0.08474466209148535</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1594,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.24</v>
+        <v>6.55</v>
       </c>
       <c r="C25">
-        <v>7.471333118837872</v>
+        <v>6.590793522487735</v>
       </c>
       <c r="D25">
-        <v>0.2313331188378713</v>
+        <v>0.0407935224877356</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1608,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.15</v>
+        <v>6.62</v>
       </c>
       <c r="C26">
-        <v>7.394974649519718</v>
+        <v>6.612455324705667</v>
       </c>
       <c r="D26">
-        <v>0.244974649519718</v>
+        <v>-0.007544675294333558</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1622,13 +1658,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.15</v>
+        <v>6.85</v>
       </c>
       <c r="C27">
-        <v>7.328113910525377</v>
+        <v>6.726981751208567</v>
       </c>
       <c r="D27">
-        <v>0.1781139105253766</v>
+        <v>-0.1230182487914329</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,13 +1672,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.95</v>
+        <v>6.86</v>
       </c>
       <c r="C28">
-        <v>7.218781857095393</v>
+        <v>6.691103582297633</v>
       </c>
       <c r="D28">
-        <v>0.2687818570953926</v>
+        <v>-0.1688964177023671</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1650,13 +1686,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.95</v>
+        <v>6.91</v>
       </c>
       <c r="C29">
-        <v>7.177881431939279</v>
+        <v>6.704632160351195</v>
       </c>
       <c r="D29">
-        <v>0.227881431939279</v>
+        <v>-0.2053678396488055</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1664,13 +1700,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.58</v>
+        <v>6.99</v>
       </c>
       <c r="C30">
-        <v>7.462911680960789</v>
+        <v>6.790746338327014</v>
       </c>
       <c r="D30">
-        <v>-0.1170883190392109</v>
+        <v>-0.1992536616729863</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1678,13 +1714,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.72</v>
+        <v>6.99</v>
       </c>
       <c r="C31">
-        <v>7.584633417000036</v>
+        <v>6.787031868916313</v>
       </c>
       <c r="D31">
-        <v>-0.1353665829999642</v>
+        <v>-0.2029681310836873</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1692,13 +1728,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.7</v>
+        <v>7.04</v>
       </c>
       <c r="C32">
-        <v>7.55770919678126</v>
+        <v>6.799868365101017</v>
       </c>
       <c r="D32">
-        <v>-0.1422908032187404</v>
+        <v>-0.240131634898983</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1706,13 +1742,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.48</v>
+        <v>7.08</v>
       </c>
       <c r="C33">
-        <v>7.422141901887799</v>
+        <v>7.096490187084821</v>
       </c>
       <c r="D33">
-        <v>-0.05785809811220144</v>
+        <v>0.01649018708482064</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1720,13 +1756,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.3</v>
+        <v>7.17</v>
       </c>
       <c r="C34">
-        <v>7.403907323643165</v>
+        <v>7.18365739724941</v>
       </c>
       <c r="D34">
-        <v>0.1039073236431651</v>
+        <v>0.01365739724940962</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1734,13 +1770,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.33</v>
+        <v>7.17</v>
       </c>
       <c r="C35">
-        <v>7.442513100737602</v>
+        <v>7.21396203589103</v>
       </c>
       <c r="D35">
-        <v>0.1125131007376021</v>
+        <v>0.0439620358910302</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1748,13 +1784,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.28</v>
+        <v>7.1</v>
       </c>
       <c r="C36">
-        <v>7.314307265684168</v>
+        <v>7.380428325109919</v>
       </c>
       <c r="D36">
-        <v>0.03430726568416809</v>
+        <v>0.2804283251099191</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1762,13 +1798,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.19</v>
+        <v>7.07</v>
       </c>
       <c r="C37">
-        <v>7.235093396092929</v>
+        <v>7.277023255365912</v>
       </c>
       <c r="D37">
-        <v>0.04509339609292873</v>
+        <v>0.2070232553659119</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1776,13 +1812,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.44</v>
+        <v>7.18</v>
       </c>
       <c r="C38">
-        <v>7.438571515393789</v>
+        <v>7.369837049533872</v>
       </c>
       <c r="D38">
-        <v>-0.001428484606211811</v>
+        <v>0.1898370495338719</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,13 +1826,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.12</v>
+        <v>7.25</v>
       </c>
       <c r="C39">
-        <v>7.01629699389487</v>
+        <v>7.392567385612902</v>
       </c>
       <c r="D39">
-        <v>-0.1037030061051301</v>
+        <v>0.1425673856129022</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1804,13 +1840,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.87</v>
+        <v>7.22</v>
       </c>
       <c r="C40">
-        <v>7.313792721051775</v>
+        <v>7.39158268259616</v>
       </c>
       <c r="D40">
-        <v>-0.5562072789482251</v>
+        <v>0.1715826825961599</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1818,13 +1854,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.9</v>
+        <v>6.98</v>
       </c>
       <c r="C41">
-        <v>7.322231307790887</v>
+        <v>7.447402332539228</v>
       </c>
       <c r="D41">
-        <v>-0.577768692209113</v>
+        <v>0.4674023325392271</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1832,13 +1868,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>8.01</v>
+        <v>6.97</v>
       </c>
       <c r="C42">
-        <v>7.282461154923733</v>
+        <v>7.419536746338296</v>
       </c>
       <c r="D42">
-        <v>-0.7275388450762668</v>
+        <v>0.4495367463382962</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1846,13 +1882,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>8.109999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C43">
-        <v>7.649248377231808</v>
+        <v>7.311386922714045</v>
       </c>
       <c r="D43">
-        <v>-0.4607516227681918</v>
+        <v>0.411386922714045</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1860,13 +1896,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="C44">
-        <v>7.879950844710916</v>
+        <v>7.312735060816375</v>
       </c>
       <c r="D44">
-        <v>-0.520049155289084</v>
+        <v>0.4627350608163754</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1874,13 +1910,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.73</v>
+        <v>6.89</v>
       </c>
       <c r="C45">
-        <v>8.247956036104885</v>
+        <v>7.338673388476326</v>
       </c>
       <c r="D45">
-        <v>0.5179560361048843</v>
+        <v>0.4486733884763261</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1888,13 +1924,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.75</v>
+        <v>6.97</v>
       </c>
       <c r="C46">
-        <v>8.24519789578963</v>
+        <v>7.501715213474486</v>
       </c>
       <c r="D46">
-        <v>0.4951978957896301</v>
+        <v>0.5317152134744862</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1902,13 +1938,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.53</v>
+        <v>6.89</v>
       </c>
       <c r="C47">
-        <v>8.056464392763857</v>
+        <v>7.394543964815033</v>
       </c>
       <c r="D47">
-        <v>0.5264643927638568</v>
+        <v>0.5045439648150332</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1916,13 +1952,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>8.25</v>
+        <v>7.09</v>
       </c>
       <c r="C48">
-        <v>8.189337273477822</v>
+        <v>7.546915833403266</v>
       </c>
       <c r="D48">
-        <v>-0.06066272652217819</v>
+        <v>0.4569158334032659</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1930,13 +1966,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>8.449999999999999</v>
+        <v>7.27</v>
       </c>
       <c r="C49">
-        <v>8.121907337905583</v>
+        <v>7.562895068442221</v>
       </c>
       <c r="D49">
-        <v>-0.3280926620944165</v>
+        <v>0.2928950684422214</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1944,13 +1980,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>8.44</v>
+        <v>7.25</v>
       </c>
       <c r="C50">
-        <v>7.903259034570707</v>
+        <v>7.597592865237009</v>
       </c>
       <c r="D50">
-        <v>-0.5367409654292929</v>
+        <v>0.3475928652370088</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1958,13 +1994,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>9.199999999999999</v>
+        <v>7.19</v>
       </c>
       <c r="C51">
-        <v>8.34432407318193</v>
+        <v>7.521369035399961</v>
       </c>
       <c r="D51">
-        <v>-0.8556759268180691</v>
+        <v>0.3313690353999608</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1972,13 +2008,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>9.32</v>
+        <v>7.17</v>
       </c>
       <c r="C52">
-        <v>8.392893015353888</v>
+        <v>7.478169584490657</v>
       </c>
       <c r="D52">
-        <v>-0.9271069846461124</v>
+        <v>0.3081695844906571</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1986,13 +2022,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>9.31</v>
+        <v>7.18</v>
       </c>
       <c r="C53">
-        <v>8.337494655347562</v>
+        <v>7.402680928527009</v>
       </c>
       <c r="D53">
-        <v>-0.9725053446524381</v>
+        <v>0.2226809285270095</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2000,13 +2036,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>8.869999999999999</v>
+        <v>7.41</v>
       </c>
       <c r="C54">
-        <v>8.170084859408465</v>
+        <v>7.405506305676073</v>
       </c>
       <c r="D54">
-        <v>-0.6999151405915338</v>
+        <v>-0.004493694323927322</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2014,13 +2050,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>8.890000000000001</v>
+        <v>7.66</v>
       </c>
       <c r="C55">
-        <v>8.216252424367656</v>
+        <v>7.524104985085676</v>
       </c>
       <c r="D55">
-        <v>-0.6737475756323441</v>
+        <v>-0.1358950149143245</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2028,13 +2064,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>8.84</v>
+        <v>7.71</v>
       </c>
       <c r="C56">
-        <v>8.16625314685524</v>
+        <v>7.600482223329549</v>
       </c>
       <c r="D56">
-        <v>-0.6737468531447597</v>
+        <v>-0.1095177766704509</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,13 +2078,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>8.92</v>
+        <v>7.39</v>
       </c>
       <c r="C57">
-        <v>8.166267124960907</v>
+        <v>7.452781016055741</v>
       </c>
       <c r="D57">
-        <v>-0.753732875039093</v>
+        <v>0.06278101605574093</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2056,13 +2092,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>8.949999999999999</v>
+        <v>7.42</v>
       </c>
       <c r="C58">
-        <v>8.152074074002257</v>
+        <v>7.439886458716756</v>
       </c>
       <c r="D58">
-        <v>-0.7979259259977418</v>
+        <v>0.01988645871675576</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2070,13 +2106,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>8.48</v>
+        <v>7.43</v>
       </c>
       <c r="C59">
-        <v>7.985751217529983</v>
+        <v>7.462657766548973</v>
       </c>
       <c r="D59">
-        <v>-0.4942487824700175</v>
+        <v>0.03265776654897312</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2084,13 +2120,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>8.640000000000001</v>
+        <v>7.45</v>
       </c>
       <c r="C60">
-        <v>8.071910500209992</v>
+        <v>7.445495568554292</v>
       </c>
       <c r="D60">
-        <v>-0.568089499790009</v>
+        <v>-0.004504431445708335</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2098,13 +2134,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>8.140000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="C61">
-        <v>8.105796057659759</v>
+        <v>7.401328308882941</v>
       </c>
       <c r="D61">
-        <v>-0.03420394234024116</v>
+        <v>-0.07867169111705952</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2112,13 +2148,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>8.02</v>
+        <v>7.28</v>
       </c>
       <c r="C62">
-        <v>8.033763664700093</v>
+        <v>7.39603354011819</v>
       </c>
       <c r="D62">
-        <v>0.01376366470009316</v>
+        <v>0.11603354011819</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2126,13 +2162,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>8.029999999999999</v>
+        <v>7.31</v>
       </c>
       <c r="C63">
-        <v>8.0362794009122</v>
+        <v>7.429867463682247</v>
       </c>
       <c r="D63">
-        <v>0.006279400912200472</v>
+        <v>0.1198674636822474</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2140,13 +2176,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>8.01</v>
+        <v>7.26</v>
       </c>
       <c r="C64">
-        <v>8.060172285321816</v>
+        <v>7.346326337325979</v>
       </c>
       <c r="D64">
-        <v>0.05017228532181583</v>
+        <v>0.08632633732597927</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2154,13 +2190,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>7.21</v>
       </c>
       <c r="C65">
-        <v>8.026193187520754</v>
+        <v>7.246847952803944</v>
       </c>
       <c r="D65">
-        <v>0.02619318752075372</v>
+        <v>0.03684795280394404</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2168,13 +2204,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>8.09</v>
+        <v>7.22</v>
       </c>
       <c r="C66">
-        <v>8.125939109351883</v>
+        <v>7.246668123809065</v>
       </c>
       <c r="D66">
-        <v>0.03593910935188305</v>
+        <v>0.02666812380906514</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2182,13 +2218,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>8.32</v>
+        <v>7.3</v>
       </c>
       <c r="C67">
-        <v>8.17526622061277</v>
+        <v>7.304957817470528</v>
       </c>
       <c r="D67">
-        <v>-0.1447337793872308</v>
+        <v>0.004957817470527814</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2196,13 +2232,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>8.529999999999999</v>
+        <v>7.15</v>
       </c>
       <c r="C68">
-        <v>8.228272059542217</v>
+        <v>7.028909869795302</v>
       </c>
       <c r="D68">
-        <v>-0.3017279404577824</v>
+        <v>-0.1210901302046983</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2210,13 +2246,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.359999999999999</v>
+        <v>7.54</v>
       </c>
       <c r="C69">
-        <v>8.127799919793599</v>
+        <v>7.163528521712364</v>
       </c>
       <c r="D69">
-        <v>-0.2322000802064004</v>
+        <v>-0.3764714782876357</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2224,13 +2260,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.52</v>
+        <v>7.75</v>
       </c>
       <c r="C70">
-        <v>8.212928282162071</v>
+        <v>7.259495146935355</v>
       </c>
       <c r="D70">
-        <v>-0.3070717178379283</v>
+        <v>-0.4905048530646452</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2238,13 +2274,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.25</v>
+        <v>8.24</v>
       </c>
       <c r="C71">
-        <v>8.034014434557974</v>
+        <v>7.636005420576882</v>
       </c>
       <c r="D71">
-        <v>-0.2159855654420255</v>
+        <v>-0.6039945794231185</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2252,13 +2288,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>7.94</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C72">
-        <v>7.915638812613637</v>
+        <v>7.754952752584129</v>
       </c>
       <c r="D72">
-        <v>-0.02436118738636317</v>
+        <v>-0.465047247415872</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2266,13 +2302,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>7.7</v>
+        <v>7.94</v>
       </c>
       <c r="C73">
-        <v>7.760928943453076</v>
+        <v>7.847907775488925</v>
       </c>
       <c r="D73">
-        <v>0.0609289434530762</v>
+        <v>-0.09209222451107557</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2280,13 +2316,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.140000000000001</v>
+        <v>7.73</v>
       </c>
       <c r="C74">
-        <v>8.032792468891756</v>
+        <v>7.852655562540757</v>
       </c>
       <c r="D74">
-        <v>-0.1072075311082443</v>
+        <v>0.1226555625407562</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2294,13 +2330,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.18</v>
+        <v>7.71</v>
       </c>
       <c r="C75">
-        <v>8.065790152638542</v>
+        <v>7.848981898817038</v>
       </c>
       <c r="D75">
-        <v>-0.1142098473614581</v>
+        <v>0.1389818988170379</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2308,13 +2344,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.17</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C76">
-        <v>8.066547704433862</v>
+        <v>8.082586447200665</v>
       </c>
       <c r="D76">
-        <v>-0.1034522955661377</v>
+        <v>-0.03741355279933423</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,13 +2358,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.18</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C77">
-        <v>8.187491417470792</v>
+        <v>8.226088890622865</v>
       </c>
       <c r="D77">
-        <v>0.007491417470792072</v>
+        <v>-0.07391110937713563</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,13 +2372,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.220000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="C78">
-        <v>8.182374593362685</v>
+        <v>8.404722040144414</v>
       </c>
       <c r="D78">
-        <v>-0.03762540663731606</v>
+        <v>0.5847220401444133</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2350,13 +2386,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.18</v>
+        <v>8.51</v>
       </c>
       <c r="C79">
-        <v>8.144854916234067</v>
+        <v>8.016165932838327</v>
       </c>
       <c r="D79">
-        <v>-0.03514508376593284</v>
+        <v>-0.4938340671616732</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2364,13 +2400,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.140000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="C80">
-        <v>8.187705603247107</v>
+        <v>7.916517430561183</v>
       </c>
       <c r="D80">
-        <v>0.04770560324710615</v>
+        <v>-0.4934825694388172</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2378,13 +2414,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8.1</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C81">
-        <v>8.038095906351245</v>
+        <v>7.904537642552087</v>
       </c>
       <c r="D81">
-        <v>-0.06190409364875471</v>
+        <v>-0.4754623574479142</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2392,13 +2428,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>8.039999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="C82">
-        <v>8.090576041566138</v>
+        <v>8.364927900887803</v>
       </c>
       <c r="D82">
-        <v>0.05057604156613849</v>
+        <v>-0.8250720991121963</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2406,13 +2442,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7.66</v>
+        <v>9.23</v>
       </c>
       <c r="C83">
-        <v>7.86619704468118</v>
+        <v>8.347286498367428</v>
       </c>
       <c r="D83">
-        <v>0.2061970446811801</v>
+        <v>-0.8827135016325727</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2420,13 +2456,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.66</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C84">
-        <v>7.814886695013</v>
+        <v>8.464583665202444</v>
       </c>
       <c r="D84">
-        <v>0.1548866950130003</v>
+        <v>-0.9154163347975572</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2434,13 +2470,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7.68</v>
+        <v>9.27</v>
       </c>
       <c r="C85">
-        <v>7.913419548017219</v>
+        <v>8.299142364634111</v>
       </c>
       <c r="D85">
-        <v>0.2334195480172196</v>
+        <v>-0.9708576353658884</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2448,13 +2484,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7.47</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C86">
-        <v>7.859884913923183</v>
+        <v>8.214256828188326</v>
       </c>
       <c r="D86">
-        <v>0.3898849139231828</v>
+        <v>-0.6457431718116737</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2462,13 +2498,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>7.47</v>
+        <v>8.75</v>
       </c>
       <c r="C87">
-        <v>7.840935413198422</v>
+        <v>8.151393361692605</v>
       </c>
       <c r="D87">
-        <v>0.3709354131984224</v>
+        <v>-0.5986066383073947</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2476,13 +2512,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>7.48</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C88">
-        <v>7.719892924783434</v>
+        <v>8.203544355050369</v>
       </c>
       <c r="D88">
-        <v>0.239892924783434</v>
+        <v>-0.7464556449496307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2490,13 +2526,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>7.51</v>
+        <v>9.01</v>
       </c>
       <c r="C89">
-        <v>7.630495778202994</v>
+        <v>8.17841976974227</v>
       </c>
       <c r="D89">
-        <v>0.1204957782029945</v>
+        <v>-0.83158023025773</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2504,13 +2540,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.49</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C90">
-        <v>7.625223813099978</v>
+        <v>8.143317543853147</v>
       </c>
       <c r="D90">
-        <v>0.1352238130999774</v>
+        <v>-0.8866824561468523</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2518,13 +2554,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.48</v>
+        <v>9.09</v>
       </c>
       <c r="C91">
-        <v>7.595438571515886</v>
+        <v>8.119281033883638</v>
       </c>
       <c r="D91">
-        <v>0.1154385715158854</v>
+        <v>-0.9707189661163618</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2532,13 +2568,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.58</v>
+        <v>9.15</v>
       </c>
       <c r="C92">
-        <v>7.528062248436973</v>
+        <v>8.119639595148346</v>
       </c>
       <c r="D92">
-        <v>-0.0519377515630266</v>
+        <v>-1.030360404851654</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2546,13 +2582,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.67</v>
+        <v>8.06</v>
       </c>
       <c r="C93">
-        <v>7.936643896391039</v>
+        <v>8.099668073532563</v>
       </c>
       <c r="D93">
-        <v>0.2666438963910389</v>
+        <v>0.03966807353256208</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2560,13 +2596,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.64</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C94">
-        <v>7.88585858479721</v>
+        <v>8.054286089029372</v>
       </c>
       <c r="D94">
-        <v>0.2458585847972099</v>
+        <v>0.01428608902937256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2574,13 +2610,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.63</v>
+        <v>8.01</v>
       </c>
       <c r="C95">
-        <v>7.91199585754694</v>
+        <v>8.048937455196693</v>
       </c>
       <c r="D95">
-        <v>0.2819958575469403</v>
+        <v>0.03893745519669345</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2588,13 +2624,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.61</v>
+        <v>8.1</v>
       </c>
       <c r="C96">
-        <v>7.822946443239879</v>
+        <v>8.184710663730005</v>
       </c>
       <c r="D96">
-        <v>0.2129464432398791</v>
+        <v>0.08471066373000546</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2602,13 +2638,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.63</v>
+        <v>8.31</v>
       </c>
       <c r="C97">
-        <v>7.930107939824018</v>
+        <v>8.159210697890149</v>
       </c>
       <c r="D97">
-        <v>0.3001079398240183</v>
+        <v>-0.1507893021098514</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2616,13 +2652,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.37</v>
+        <v>8.43</v>
       </c>
       <c r="C98">
-        <v>7.627613402780033</v>
+        <v>8.166579314638639</v>
       </c>
       <c r="D98">
-        <v>0.2576134027800325</v>
+        <v>-0.2634206853613605</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2630,13 +2666,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.3</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C99">
-        <v>7.582941385986005</v>
+        <v>8.204469578005639</v>
       </c>
       <c r="D99">
-        <v>0.282941385986005</v>
+        <v>-0.3355304219943598</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2644,13 +2680,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.3</v>
+        <v>7.97</v>
       </c>
       <c r="C100">
-        <v>7.575305863169992</v>
+        <v>7.889010022123977</v>
       </c>
       <c r="D100">
-        <v>0.2753058631699918</v>
+        <v>-0.08098997787602258</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2658,13 +2694,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.3</v>
+        <v>7.99</v>
       </c>
       <c r="C101">
-        <v>7.584762545943341</v>
+        <v>7.920776863588517</v>
       </c>
       <c r="D101">
-        <v>0.2847625459433409</v>
+        <v>-0.06922313641148303</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2672,13 +2708,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.15</v>
+        <v>7.67</v>
       </c>
       <c r="C102">
-        <v>7.41352233785815</v>
+        <v>7.72661356321145</v>
       </c>
       <c r="D102">
-        <v>0.2635223378581495</v>
+        <v>0.05661356321145039</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2686,13 +2722,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.17</v>
+        <v>7.55</v>
       </c>
       <c r="C103">
-        <v>7.443278839905486</v>
+        <v>7.538809878831594</v>
       </c>
       <c r="D103">
-        <v>0.273278839905486</v>
+        <v>-0.01119012116840601</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2700,13 +2736,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.19</v>
+        <v>8.15</v>
       </c>
       <c r="C104">
-        <v>7.414281370250383</v>
+        <v>8.132325977183591</v>
       </c>
       <c r="D104">
-        <v>0.2242813702503827</v>
+        <v>-0.01767402281640962</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2714,13 +2750,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.16</v>
+        <v>8.17</v>
       </c>
       <c r="C105">
-        <v>7.427306505911424</v>
+        <v>8.189861609373907</v>
       </c>
       <c r="D105">
-        <v>0.2673065059114235</v>
+        <v>0.01986160937390657</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2728,13 +2764,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.17</v>
+        <v>7.71</v>
       </c>
       <c r="C106">
-        <v>7.436219041381231</v>
+        <v>7.909961800874961</v>
       </c>
       <c r="D106">
-        <v>0.2662190413812313</v>
+        <v>0.1999618008749611</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2742,13 +2778,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.18</v>
+        <v>7.66</v>
       </c>
       <c r="C107">
-        <v>7.51078831900256</v>
+        <v>7.871610949219755</v>
       </c>
       <c r="D107">
-        <v>0.3307883190025604</v>
+        <v>0.2116109492197547</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2756,13 +2792,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.6</v>
+        <v>7.55</v>
       </c>
       <c r="C108">
-        <v>7.600763574826472</v>
+        <v>7.729762299138049</v>
       </c>
       <c r="D108">
-        <v>0.0007635748264727127</v>
+        <v>0.1797622991380496</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2770,13 +2806,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="C109">
-        <v>7.991961978747391</v>
+        <v>7.653967907215585</v>
       </c>
       <c r="D109">
-        <v>0.1419619787473918</v>
+        <v>0.1439679072155853</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2784,13 +2820,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.88</v>
+        <v>7.49</v>
       </c>
       <c r="C110">
-        <v>8.022545139782938</v>
+        <v>7.614537985938926</v>
       </c>
       <c r="D110">
-        <v>0.1425451397829383</v>
+        <v>0.1245379859389262</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,13 +2834,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.89</v>
+        <v>7.5</v>
       </c>
       <c r="C111">
-        <v>8.028631327468265</v>
+        <v>7.567597284802493</v>
       </c>
       <c r="D111">
-        <v>0.1386313274682651</v>
+        <v>0.06759728480249283</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2812,13 +2848,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.92</v>
+        <v>7.55</v>
       </c>
       <c r="C112">
-        <v>8.010064893439875</v>
+        <v>7.517003840521986</v>
       </c>
       <c r="D112">
-        <v>0.09006489343987489</v>
+        <v>-0.03299615947801371</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2826,13 +2862,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.98</v>
+        <v>7.6</v>
       </c>
       <c r="C113">
-        <v>7.989177817158697</v>
+        <v>7.568033058296801</v>
       </c>
       <c r="D113">
-        <v>0.009177817158696477</v>
+        <v>-0.03196694170319869</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2840,13 +2876,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>8.23</v>
+        <v>7.58</v>
       </c>
       <c r="C114">
-        <v>8.199615159337959</v>
+        <v>7.57447226462648</v>
       </c>
       <c r="D114">
-        <v>-0.03038484066204106</v>
+        <v>-0.005527735373520137</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2854,13 +2890,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>8.19</v>
+        <v>7.66</v>
       </c>
       <c r="C115">
-        <v>8.080631750567147</v>
+        <v>7.543788579527342</v>
       </c>
       <c r="D115">
-        <v>-0.1093682494328529</v>
+        <v>-0.1162114204726583</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2868,13 +2904,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>8.17</v>
+        <v>7.65</v>
       </c>
       <c r="C116">
-        <v>8.101102873384345</v>
+        <v>7.920702485917052</v>
       </c>
       <c r="D116">
-        <v>-0.06889712661565461</v>
+        <v>0.2707024859170515</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2882,13 +2918,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>8.19</v>
+        <v>7.62</v>
       </c>
       <c r="C117">
-        <v>7.973106487901247</v>
+        <v>7.8607481066038</v>
       </c>
       <c r="D117">
-        <v>-0.2168935120987525</v>
+        <v>0.2407481066037995</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2896,13 +2932,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>8.42</v>
+        <v>7.71</v>
       </c>
       <c r="C118">
-        <v>8.080848646612029</v>
+        <v>7.982701484786483</v>
       </c>
       <c r="D118">
-        <v>-0.3391513533879706</v>
+        <v>0.2727014847864826</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2910,13 +2946,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>8.470000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="C119">
-        <v>8.147579290819255</v>
+        <v>7.882273228876305</v>
       </c>
       <c r="D119">
-        <v>-0.3224207091807454</v>
+        <v>0.262273228876305</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2924,13 +2960,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>8.49</v>
+        <v>7.65</v>
       </c>
       <c r="C120">
-        <v>8.142655074105676</v>
+        <v>7.883277406534112</v>
       </c>
       <c r="D120">
-        <v>-0.3473449258943244</v>
+        <v>0.2332774065341114</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2938,13 +2974,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>8.34</v>
+        <v>7.67</v>
       </c>
       <c r="C121">
-        <v>8.171538118767238</v>
+        <v>7.928887155474224</v>
       </c>
       <c r="D121">
-        <v>-0.1684618812327621</v>
+        <v>0.2588871554742243</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2952,13 +2988,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.17</v>
+        <v>7.73</v>
       </c>
       <c r="C122">
-        <v>8.234283364733447</v>
+        <v>7.946139907171395</v>
       </c>
       <c r="D122">
-        <v>0.06428336473344665</v>
+        <v>0.216139907171395</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2966,13 +3002,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.95</v>
+        <v>7.4</v>
       </c>
       <c r="C123">
-        <v>7.993570570787305</v>
+        <v>7.660522277180065</v>
       </c>
       <c r="D123">
-        <v>0.04357057078730442</v>
+        <v>0.2605222771800646</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2980,13 +3016,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.24</v>
+        <v>7.36</v>
       </c>
       <c r="C124">
-        <v>8.389424158056581</v>
+        <v>7.662096097920267</v>
       </c>
       <c r="D124">
-        <v>0.1494241580565809</v>
+        <v>0.3020960979202663</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2994,13 +3030,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.24</v>
+        <v>7.38</v>
       </c>
       <c r="C125">
-        <v>8.334892518156789</v>
+        <v>7.645725351592188</v>
       </c>
       <c r="D125">
-        <v>0.09489251815678834</v>
+        <v>0.265725351592188</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3008,13 +3044,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.35</v>
+        <v>7.3</v>
       </c>
       <c r="C126">
-        <v>8.445780187507925</v>
+        <v>7.546024018602647</v>
       </c>
       <c r="D126">
-        <v>0.09578018750792516</v>
+        <v>0.2460240186026468</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,13 +3058,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.32</v>
+        <v>7.1</v>
       </c>
       <c r="C127">
-        <v>8.367668727125032</v>
+        <v>7.362543673780842</v>
       </c>
       <c r="D127">
-        <v>0.04766872712503201</v>
+        <v>0.2625436737808426</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3036,13 +3072,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.130000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="C128">
-        <v>8.263406703942412</v>
+        <v>7.412309419674405</v>
       </c>
       <c r="D128">
-        <v>0.1334067039424109</v>
+        <v>0.2623094196744047</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3050,13 +3086,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.279999999999999</v>
+        <v>7.15</v>
       </c>
       <c r="C129">
-        <v>8.325911604275479</v>
+        <v>7.411434140715328</v>
       </c>
       <c r="D129">
-        <v>0.04591160427547969</v>
+        <v>0.2614341407153278</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3064,13 +3100,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.210000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="C130">
-        <v>8.315820769087914</v>
+        <v>7.485748058612571</v>
       </c>
       <c r="D130">
-        <v>0.1058207690879129</v>
+        <v>0.3457480586125712</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3078,13 +3114,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.52</v>
+        <v>7.23</v>
       </c>
       <c r="C131">
-        <v>8.54878108482335</v>
+        <v>7.532776146671291</v>
       </c>
       <c r="D131">
-        <v>0.02878108482335051</v>
+        <v>0.3027761466712908</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3092,13 +3128,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.6</v>
+        <v>7.21</v>
       </c>
       <c r="C132">
-        <v>8.646099066778827</v>
+        <v>7.527996154153752</v>
       </c>
       <c r="D132">
-        <v>0.04609906677882769</v>
+        <v>0.3179961541537519</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3106,13 +3142,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>9.17</v>
+        <v>7.19</v>
       </c>
       <c r="C133">
-        <v>8.896120740870877</v>
+        <v>7.505971370724024</v>
       </c>
       <c r="D133">
-        <v>-0.2738792591291226</v>
+        <v>0.3159713707240233</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3120,13 +3156,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>9.24</v>
+        <v>7.28</v>
       </c>
       <c r="C134">
-        <v>9.033401433897112</v>
+        <v>7.532969131120638</v>
       </c>
       <c r="D134">
-        <v>-0.2065985661028886</v>
+        <v>0.2529691311206381</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3134,13 +3170,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>9.359999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="C135">
-        <v>9.166203380375443</v>
+        <v>7.803712032222967</v>
       </c>
       <c r="D135">
-        <v>-0.1937966196245569</v>
+        <v>-0.0162879677770329</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3148,13 +3184,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>10.43</v>
+        <v>7.87</v>
       </c>
       <c r="C136">
-        <v>9.541138970967239</v>
+        <v>7.824946718329662</v>
       </c>
       <c r="D136">
-        <v>-0.8888610290327605</v>
+        <v>-0.04505328167033795</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3162,13 +3198,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>9.460000000000001</v>
+        <v>7.92</v>
       </c>
       <c r="C137">
-        <v>9.252976466018758</v>
+        <v>7.878643377931406</v>
       </c>
       <c r="D137">
-        <v>-0.2070235339812427</v>
+        <v>-0.04135662206859347</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3176,13 +3212,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.369999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="C138">
-        <v>9.237944442499472</v>
+        <v>7.966977901283218</v>
       </c>
       <c r="D138">
-        <v>-0.1320555575005269</v>
+        <v>0.126977901283218</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3190,13 +3226,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.710000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C139">
-        <v>8.71186689373301</v>
+        <v>8.14466978067507</v>
       </c>
       <c r="D139">
-        <v>0.001866893733009078</v>
+        <v>-0.05533021932492943</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3204,13 +3240,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.710000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C140">
-        <v>8.53083619938845</v>
+        <v>8.112765496196786</v>
       </c>
       <c r="D140">
-        <v>-0.1791638006115512</v>
+        <v>-0.08723450380321296</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3218,13 +3254,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.49</v>
+        <v>8.23</v>
       </c>
       <c r="C141">
-        <v>8.369903174827062</v>
+        <v>8.016011694017283</v>
       </c>
       <c r="D141">
-        <v>-0.1200968251729382</v>
+        <v>-0.213988305982717</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3235,10 +3271,10 @@
         <v>8.369999999999999</v>
       </c>
       <c r="C142">
-        <v>8.291338686716685</v>
+        <v>8.034240229484428</v>
       </c>
       <c r="D142">
-        <v>-0.07866131328331427</v>
+        <v>-0.3357597705155708</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3246,13 +3282,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.66</v>
+        <v>8.49</v>
       </c>
       <c r="C143">
-        <v>8.192886066214413</v>
+        <v>8.138791292588376</v>
       </c>
       <c r="D143">
-        <v>0.532886066214413</v>
+        <v>-0.3512087074116241</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3260,13 +3296,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.84</v>
+        <v>8.35</v>
       </c>
       <c r="C144">
-        <v>8.15447851869321</v>
+        <v>8.215346384931259</v>
       </c>
       <c r="D144">
-        <v>0.3144785186932104</v>
+        <v>-0.134653615068741</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3274,13 +3310,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.76</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C145">
-        <v>8.005485981286036</v>
+        <v>8.213600885010461</v>
       </c>
       <c r="D145">
-        <v>0.2454859812860359</v>
+        <v>0.003600885010460075</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3288,13 +3324,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.71</v>
+        <v>8.1</v>
       </c>
       <c r="C146">
-        <v>8.008560078012195</v>
+        <v>8.157286925187346</v>
       </c>
       <c r="D146">
-        <v>0.2985600780121951</v>
+        <v>0.05728692518734668</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3302,13 +3338,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.64</v>
+        <v>8.18</v>
       </c>
       <c r="C147">
-        <v>7.883426296339555</v>
+        <v>8.046009744435501</v>
       </c>
       <c r="D147">
-        <v>0.243426296339555</v>
+        <v>-0.1339902555644983</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,13 +3352,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.66</v>
+        <v>8.17</v>
       </c>
       <c r="C148">
-        <v>7.869886592131542</v>
+        <v>8.298262197658197</v>
       </c>
       <c r="D148">
-        <v>0.209886592131542</v>
+        <v>0.1282621976581968</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3330,13 +3366,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.81</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C149">
-        <v>7.840225259801685</v>
+        <v>8.468311840724255</v>
       </c>
       <c r="D149">
-        <v>0.03022525980168567</v>
+        <v>0.09831184072425536</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3344,13 +3380,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>8.09</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C150">
-        <v>8.072210431074364</v>
+        <v>8.373060488914653</v>
       </c>
       <c r="D150">
-        <v>-0.01778956892563599</v>
+        <v>0.003060488914654158</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3358,13 +3394,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.6</v>
+        <v>9.06</v>
       </c>
       <c r="C151">
-        <v>7.805346751372068</v>
+        <v>8.806307897480327</v>
       </c>
       <c r="D151">
-        <v>0.2053467513720681</v>
+        <v>-0.2536921025196737</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3372,13 +3408,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.52</v>
+        <v>9.01</v>
       </c>
       <c r="C152">
-        <v>7.72421104882521</v>
+        <v>8.812599847189695</v>
       </c>
       <c r="D152">
-        <v>0.2042110488252105</v>
+        <v>-0.1974001528103049</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3386,13 +3422,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.23</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C153">
-        <v>7.323998568886085</v>
+        <v>9.133849924773042</v>
       </c>
       <c r="D153">
-        <v>0.09399856888608493</v>
+        <v>-0.6461500752269576</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3400,13 +3436,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.02</v>
+        <v>10.46</v>
       </c>
       <c r="C154">
-        <v>7.138267535952683</v>
+        <v>9.527674885182648</v>
       </c>
       <c r="D154">
-        <v>0.1182675359526835</v>
+        <v>-0.9323251148173526</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3414,13 +3450,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.05</v>
+        <v>9.58</v>
       </c>
       <c r="C155">
-        <v>7.133053408531096</v>
+        <v>9.29748554547928</v>
       </c>
       <c r="D155">
-        <v>0.08305340853109655</v>
+        <v>-0.2825144545207205</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3428,13 +3464,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.23</v>
+        <v>9.34</v>
       </c>
       <c r="C156">
-        <v>7.212368068913153</v>
+        <v>9.219770508300723</v>
       </c>
       <c r="D156">
-        <v>-0.01763193108684735</v>
+        <v>-0.120229491699277</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3442,13 +3478,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.29</v>
+        <v>8.57</v>
       </c>
       <c r="C157">
-        <v>7.264765535971976</v>
+        <v>8.435770032921312</v>
       </c>
       <c r="D157">
-        <v>-0.02523446402802421</v>
+        <v>-0.1342299670786886</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3456,13 +3492,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.75</v>
+        <v>7.54</v>
       </c>
       <c r="C158">
-        <v>7.56602303851503</v>
+        <v>8.01908028993272</v>
       </c>
       <c r="D158">
-        <v>-0.1839769614849702</v>
+        <v>0.4790802899327202</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3470,13 +3506,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.18</v>
+        <v>7.64</v>
       </c>
       <c r="C159">
-        <v>7.195077725030644</v>
+        <v>8.122514372153802</v>
       </c>
       <c r="D159">
-        <v>0.0150777250306442</v>
+        <v>0.4825143721538021</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3484,13 +3520,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.15</v>
+        <v>7.91</v>
       </c>
       <c r="C160">
-        <v>7.097437583280423</v>
+        <v>8.182869978564835</v>
       </c>
       <c r="D160">
-        <v>-0.05256241671957707</v>
+        <v>0.2728699785648345</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3498,13 +3534,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.92</v>
+        <v>7.76</v>
       </c>
       <c r="C161">
-        <v>6.862678573896503</v>
+        <v>8.070608876850017</v>
       </c>
       <c r="D161">
-        <v>-0.05732142610349644</v>
+        <v>0.3106088768500168</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3512,13 +3548,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.23</v>
+        <v>7.88</v>
       </c>
       <c r="C162">
-        <v>6.62650816593978</v>
+        <v>7.851261692187147</v>
       </c>
       <c r="D162">
-        <v>-0.6034918340602209</v>
+        <v>-0.02873830781285314</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3526,13 +3562,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.5</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C163">
-        <v>6.799717644939816</v>
+        <v>8.041960668743858</v>
       </c>
       <c r="D163">
-        <v>-0.7002823550601844</v>
+        <v>0.001960668743858918</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3540,13 +3576,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.47</v>
+        <v>7.58</v>
       </c>
       <c r="C164">
-        <v>6.72972969642182</v>
+        <v>7.799195070324996</v>
       </c>
       <c r="D164">
-        <v>-0.7402703035781801</v>
+        <v>0.2191950703249956</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3554,13 +3590,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.93</v>
+        <v>7.46</v>
       </c>
       <c r="C165">
-        <v>6.66062015684165</v>
+        <v>7.734591195776301</v>
       </c>
       <c r="D165">
-        <v>-0.2693798431583501</v>
+        <v>0.274591195776301</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3568,13 +3604,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.98</v>
+        <v>7.27</v>
       </c>
       <c r="C166">
-        <v>6.690313084861219</v>
+        <v>7.369067307795265</v>
       </c>
       <c r="D166">
-        <v>-0.2896869151387813</v>
+        <v>0.09906730779526551</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,13 +3618,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.64</v>
+        <v>7.23</v>
       </c>
       <c r="C167">
-        <v>6.347778511149985</v>
+        <v>7.329328600082676</v>
       </c>
       <c r="D167">
-        <v>-0.2922214888500143</v>
+        <v>0.09932860008267586</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,13 +3632,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.61</v>
+        <v>7.27</v>
       </c>
       <c r="C168">
-        <v>6.426896680309159</v>
+        <v>7.373486820243966</v>
       </c>
       <c r="D168">
-        <v>-0.1831033196908418</v>
+        <v>0.1034868202439663</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3610,13 +3646,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.52</v>
+        <v>6.99</v>
       </c>
       <c r="C169">
-        <v>6.350622283429003</v>
+        <v>7.097412690461513</v>
       </c>
       <c r="D169">
-        <v>-0.1693777165709962</v>
+        <v>0.1074126904615129</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3624,13 +3660,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.79</v>
+        <v>7.13</v>
       </c>
       <c r="C170">
-        <v>6.343820058556118</v>
+        <v>7.157023293749645</v>
       </c>
       <c r="D170">
-        <v>-0.4461799414438818</v>
+        <v>0.02702329374964485</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3638,13 +3674,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.78</v>
+        <v>7.23</v>
       </c>
       <c r="C171">
-        <v>6.32587074898925</v>
+        <v>7.194327339521419</v>
       </c>
       <c r="D171">
-        <v>-0.45412925101075</v>
+        <v>-0.03567266047858109</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3652,13 +3688,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.36</v>
+        <v>7.3</v>
       </c>
       <c r="C172">
-        <v>6.087268370794079</v>
+        <v>7.219079202976991</v>
       </c>
       <c r="D172">
-        <v>-0.2727316292059214</v>
+        <v>-0.08092079702300836</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3666,13 +3702,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.07</v>
+        <v>7.15</v>
       </c>
       <c r="C173">
-        <v>6.097850261010982</v>
+        <v>7.139206392298706</v>
       </c>
       <c r="D173">
-        <v>0.02785026101098165</v>
+        <v>-0.01079360770129423</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3680,13 +3716,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.02</v>
+        <v>7.2</v>
       </c>
       <c r="C174">
-        <v>6.064974462551764</v>
+        <v>7.1771200765815</v>
       </c>
       <c r="D174">
-        <v>0.04497446255176474</v>
+        <v>-0.02287992341850043</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3694,13 +3730,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>5.96</v>
+        <v>7.18</v>
       </c>
       <c r="C175">
-        <v>6.013540719108392</v>
+        <v>7.15062923422741</v>
       </c>
       <c r="D175">
-        <v>0.05354071910839231</v>
+        <v>-0.02937076577258946</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3708,13 +3744,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>5.78</v>
+        <v>7.78</v>
       </c>
       <c r="C176">
-        <v>6.059406512190299</v>
+        <v>7.486997256654964</v>
       </c>
       <c r="D176">
-        <v>0.2794065121902989</v>
+        <v>-0.2930027433450366</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3722,13 +3758,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>5.75</v>
+        <v>7.67</v>
       </c>
       <c r="C177">
-        <v>6.057078932340139</v>
+        <v>7.522286105944256</v>
       </c>
       <c r="D177">
-        <v>0.3070789323401391</v>
+        <v>-0.1477138940557436</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3736,13 +3772,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>5.72</v>
+        <v>7.15</v>
       </c>
       <c r="C178">
-        <v>6.041695046829378</v>
+        <v>7.149375907018951</v>
       </c>
       <c r="D178">
-        <v>0.3216950468293778</v>
+        <v>-0.0006240929810497065</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3750,13 +3786,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>5.73</v>
+        <v>7.24</v>
       </c>
       <c r="C179">
-        <v>6.056697769812229</v>
+        <v>7.193290986881768</v>
       </c>
       <c r="D179">
-        <v>0.3266977698122284</v>
+        <v>-0.04670901311823261</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3764,13 +3800,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>5.76</v>
+        <v>7.17</v>
       </c>
       <c r="C180">
-        <v>6.059337973938818</v>
+        <v>7.092240045430086</v>
       </c>
       <c r="D180">
-        <v>0.299337973938818</v>
+        <v>-0.07775995456991414</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3778,13 +3814,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>5.71</v>
+        <v>7.09</v>
       </c>
       <c r="C181">
-        <v>6.050402006199266</v>
+        <v>7.053432177736618</v>
       </c>
       <c r="D181">
-        <v>0.3404020061992661</v>
+        <v>-0.03656782226338162</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3792,13 +3828,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>5.65</v>
+        <v>7.08</v>
       </c>
       <c r="C182">
-        <v>5.912243247973326</v>
+        <v>6.807223835985231</v>
       </c>
       <c r="D182">
-        <v>0.2622432479733261</v>
+        <v>-0.2727761640147692</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3806,13 +3842,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5.69</v>
+        <v>7.03</v>
       </c>
       <c r="C183">
-        <v>5.933524505522953</v>
+        <v>6.74844942284196</v>
       </c>
       <c r="D183">
-        <v>0.2435245055229522</v>
+        <v>-0.2815505771580398</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3820,13 +3856,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.67</v>
+        <v>7.02</v>
       </c>
       <c r="C184">
-        <v>5.922261810787362</v>
+        <v>6.710082964774258</v>
       </c>
       <c r="D184">
-        <v>0.2522618107873624</v>
+        <v>-0.3099170352257419</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3834,13 +3870,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.67</v>
+        <v>7.05</v>
       </c>
       <c r="C185">
-        <v>5.926339782873034</v>
+        <v>6.56380313879446</v>
       </c>
       <c r="D185">
-        <v>0.2563397828730336</v>
+        <v>-0.4861968612055403</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3848,13 +3884,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.72</v>
+        <v>6.96</v>
       </c>
       <c r="C186">
-        <v>5.905689431198888</v>
+        <v>6.528536583622539</v>
       </c>
       <c r="D186">
-        <v>0.1856894311988881</v>
+        <v>-0.4314634163774613</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3862,13 +3898,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.53</v>
+        <v>6.98</v>
       </c>
       <c r="C187">
-        <v>5.749244242658388</v>
+        <v>6.519789597033518</v>
       </c>
       <c r="D187">
-        <v>0.2192442426583874</v>
+        <v>-0.4602104029664824</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3876,13 +3912,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.52</v>
+        <v>7.18</v>
       </c>
       <c r="C188">
-        <v>5.72238820350963</v>
+        <v>6.565337900320611</v>
       </c>
       <c r="D188">
-        <v>0.2023882035096305</v>
+        <v>-0.6146620996793883</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3890,13 +3926,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.48</v>
+        <v>7.22</v>
       </c>
       <c r="C189">
-        <v>5.667736549485165</v>
+        <v>6.629240728082082</v>
       </c>
       <c r="D189">
-        <v>0.187736549485165</v>
+        <v>-0.5907592719179178</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3904,13 +3940,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.49</v>
+        <v>7.18</v>
       </c>
       <c r="C190">
-        <v>5.665862214438806</v>
+        <v>6.769448142899685</v>
       </c>
       <c r="D190">
-        <v>0.1758622144388058</v>
+        <v>-0.4105518571003151</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3918,13 +3954,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.49</v>
+        <v>7.03</v>
       </c>
       <c r="C191">
-        <v>5.665933456225848</v>
+        <v>6.598483044511767</v>
       </c>
       <c r="D191">
-        <v>0.1759334562258479</v>
+        <v>-0.4315169554882328</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3932,13 +3968,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.45</v>
+        <v>6.9</v>
       </c>
       <c r="C192">
-        <v>5.645494381405933</v>
+        <v>6.612369516391738</v>
       </c>
       <c r="D192">
-        <v>0.1954943814059327</v>
+        <v>-0.2876304836082619</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3946,13 +3982,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.36</v>
+        <v>6.57</v>
       </c>
       <c r="C193">
-        <v>5.637480294720695</v>
+        <v>6.332846298819077</v>
       </c>
       <c r="D193">
-        <v>0.2774802947206947</v>
+        <v>-0.2371537011809233</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3960,13 +3996,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.35</v>
+        <v>6.77</v>
       </c>
       <c r="C194">
-        <v>5.600230775975203</v>
+        <v>6.340928629449967</v>
       </c>
       <c r="D194">
-        <v>0.2502307759752034</v>
+        <v>-0.4290713705500329</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3974,13 +4010,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.33</v>
+        <v>6.68</v>
       </c>
       <c r="C195">
-        <v>5.559312991935561</v>
+        <v>6.297845192710395</v>
       </c>
       <c r="D195">
-        <v>0.2293129919355605</v>
+        <v>-0.3821548072896048</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3988,13 +4024,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.52</v>
+        <v>6.36</v>
       </c>
       <c r="C196">
-        <v>5.587555541224062</v>
+        <v>6.052244653642162</v>
       </c>
       <c r="D196">
-        <v>0.06755554122406249</v>
+        <v>-0.3077553463578386</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4002,13 +4038,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.51</v>
+        <v>5.98</v>
       </c>
       <c r="C197">
-        <v>5.564328465610498</v>
+        <v>6.042308301892807</v>
       </c>
       <c r="D197">
-        <v>0.05432846561049853</v>
+        <v>0.06230830189280656</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4016,13 +4052,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.69</v>
+        <v>5.94</v>
       </c>
       <c r="C198">
-        <v>5.629193416090149</v>
+        <v>6.040701101874093</v>
       </c>
       <c r="D198">
-        <v>-0.0608065839098515</v>
+        <v>0.1007011018740922</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4030,13 +4066,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C199">
-        <v>5.634583499787699</v>
+        <v>6.07974128252486</v>
       </c>
       <c r="D199">
-        <v>0.0345834997876997</v>
+        <v>0.1797412825248594</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,13 +4080,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.56</v>
+        <v>5.7</v>
       </c>
       <c r="C200">
-        <v>5.585501134101384</v>
+        <v>6.032575529622123</v>
       </c>
       <c r="D200">
-        <v>0.02550113410138444</v>
+        <v>0.3325755296221224</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4058,13 +4094,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.86</v>
+        <v>5.75</v>
       </c>
       <c r="C201">
-        <v>5.6701757107853</v>
+        <v>6.052172590374531</v>
       </c>
       <c r="D201">
-        <v>-0.1898242892147</v>
+        <v>0.3021725903745311</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4072,13 +4108,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.9</v>
+        <v>5.71</v>
       </c>
       <c r="C202">
-        <v>5.69275680112523</v>
+        <v>6.05243562944633</v>
       </c>
       <c r="D202">
-        <v>-0.2072431988747701</v>
+        <v>0.3424356294463298</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4086,13 +4122,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.89</v>
+        <v>5.74</v>
       </c>
       <c r="C203">
-        <v>5.655097994481506</v>
+        <v>6.035991586882072</v>
       </c>
       <c r="D203">
-        <v>-0.2349020055184941</v>
+        <v>0.2959915868820717</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4100,13 +4136,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.83</v>
+        <v>5.73</v>
       </c>
       <c r="C204">
-        <v>5.644993098660602</v>
+        <v>5.939475163624619</v>
       </c>
       <c r="D204">
-        <v>-0.1850069013393982</v>
+        <v>0.2094751636246182</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4114,13 +4150,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.99</v>
+        <v>5.75</v>
       </c>
       <c r="C205">
-        <v>5.654846846866017</v>
+        <v>5.931824841077115</v>
       </c>
       <c r="D205">
-        <v>-0.3351531531339829</v>
+        <v>0.1818248410771153</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4128,13 +4164,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.03</v>
+        <v>5.7</v>
       </c>
       <c r="C206">
-        <v>5.658257728585247</v>
+        <v>5.90239581411412</v>
       </c>
       <c r="D206">
-        <v>-0.3717422714147531</v>
+        <v>0.2023958141141193</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4142,13 +4178,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.98</v>
+        <v>5.72</v>
       </c>
       <c r="C207">
-        <v>5.604258446899247</v>
+        <v>5.895444821109868</v>
       </c>
       <c r="D207">
-        <v>-0.3757415531007533</v>
+        <v>0.1754448211098687</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4156,13 +4192,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.47</v>
+        <v>5.68</v>
       </c>
       <c r="C208">
-        <v>5.504755703161046</v>
+        <v>5.862193708629303</v>
       </c>
       <c r="D208">
-        <v>0.03475570316104637</v>
+        <v>0.1821937086293035</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,13 +4206,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.32</v>
+        <v>5.49</v>
       </c>
       <c r="C209">
-        <v>5.427241131783721</v>
+        <v>5.667851809853441</v>
       </c>
       <c r="D209">
-        <v>0.107241131783721</v>
+        <v>0.1778518098534407</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,13 +4220,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.35</v>
+        <v>5.47</v>
       </c>
       <c r="C210">
-        <v>5.426937128482396</v>
+        <v>5.66058334012797</v>
       </c>
       <c r="D210">
-        <v>0.07693712848239631</v>
+        <v>0.1905833401279704</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4198,13 +4234,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
       <c r="C211">
-        <v>5.419723482833846</v>
+        <v>5.647592167920677</v>
       </c>
       <c r="D211">
-        <v>0.1097234828338465</v>
+        <v>0.1875921679206769</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4212,13 +4248,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.25</v>
+        <v>5.45</v>
       </c>
       <c r="C212">
-        <v>5.407038082275798</v>
+        <v>5.627446110939494</v>
       </c>
       <c r="D212">
-        <v>0.1570380822757977</v>
+        <v>0.1774461109394938</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4226,13 +4262,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.26</v>
+        <v>5.37</v>
       </c>
       <c r="C213">
-        <v>5.416549714238106</v>
+        <v>5.629619380545315</v>
       </c>
       <c r="D213">
-        <v>0.156549714238106</v>
+        <v>0.2596193805453151</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4240,13 +4276,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.26</v>
+        <v>5.4</v>
       </c>
       <c r="C214">
-        <v>5.449120779131134</v>
+        <v>5.647167127368804</v>
       </c>
       <c r="D214">
-        <v>0.1891207791311347</v>
+        <v>0.2471671273688036</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4254,13 +4290,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.19</v>
+        <v>5.31</v>
       </c>
       <c r="C215">
-        <v>5.461933119737059</v>
+        <v>5.558553204851742</v>
       </c>
       <c r="D215">
-        <v>0.2719331197370582</v>
+        <v>0.248553204851742</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4268,13 +4304,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>5.49</v>
       </c>
       <c r="C216">
-        <v>5.432409621461903</v>
+        <v>5.556941812427637</v>
       </c>
       <c r="D216">
-        <v>0.4324096214619031</v>
+        <v>0.06694181242763708</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4282,13 +4318,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>4.97</v>
+        <v>5.49</v>
       </c>
       <c r="C217">
-        <v>5.39315736212663</v>
+        <v>5.571759606188881</v>
       </c>
       <c r="D217">
-        <v>0.4231573621266307</v>
+        <v>0.08175960618888123</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4296,13 +4332,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>4.98</v>
+        <v>5.51</v>
       </c>
       <c r="C218">
-        <v>5.388889115221235</v>
+        <v>5.573716516866029</v>
       </c>
       <c r="D218">
-        <v>0.4088891152212346</v>
+        <v>0.06371651686602942</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4310,13 +4346,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>4.99</v>
+        <v>5.63</v>
       </c>
       <c r="C219">
-        <v>5.390031321990247</v>
+        <v>5.6301083290552</v>
       </c>
       <c r="D219">
-        <v>0.4000313219902472</v>
+        <v>0.0001083290551999738</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4324,13 +4360,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>5.62</v>
       </c>
       <c r="C220">
-        <v>5.419975550281104</v>
+        <v>5.618799673691643</v>
       </c>
       <c r="D220">
-        <v>0.4199755502811042</v>
+        <v>-0.001200326308357091</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,13 +4374,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.04</v>
+        <v>5.85</v>
       </c>
       <c r="C221">
-        <v>5.443859260842211</v>
+        <v>5.684211711462113</v>
       </c>
       <c r="D221">
-        <v>0.4038592608422107</v>
+        <v>-0.165788288537887</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4352,13 +4388,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.01</v>
+        <v>5.97</v>
       </c>
       <c r="C222">
-        <v>5.392054451993064</v>
+        <v>5.60846122968374</v>
       </c>
       <c r="D222">
-        <v>0.3820544519930644</v>
+        <v>-0.36153877031626</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4366,13 +4402,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.15</v>
+        <v>5.83</v>
       </c>
       <c r="C223">
-        <v>5.434930102489537</v>
+        <v>5.620285180985662</v>
       </c>
       <c r="D223">
-        <v>0.284930102489537</v>
+        <v>-0.2097148190143381</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4380,13 +4416,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.13</v>
+        <v>5.92</v>
       </c>
       <c r="C224">
-        <v>5.430551835441936</v>
+        <v>5.644744368366253</v>
       </c>
       <c r="D224">
-        <v>0.3005518354419365</v>
+        <v>-0.2752556316337467</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4394,13 +4430,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.09</v>
+        <v>5.96</v>
       </c>
       <c r="C225">
-        <v>5.298860254122855</v>
+        <v>5.643684636984873</v>
       </c>
       <c r="D225">
-        <v>0.2088602541228548</v>
+        <v>-0.3163153630151267</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4408,13 +4444,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.09</v>
+        <v>6.02</v>
       </c>
       <c r="C226">
-        <v>5.330686438310743</v>
+        <v>5.612922587997921</v>
       </c>
       <c r="D226">
-        <v>0.2406864383107434</v>
+        <v>-0.4070774120020788</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4422,13 +4458,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.09</v>
+        <v>6.09</v>
       </c>
       <c r="C227">
-        <v>5.258561335685841</v>
+        <v>5.624993530002112</v>
       </c>
       <c r="D227">
-        <v>0.1685613356858413</v>
+        <v>-0.4650064699978875</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4436,13 +4472,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.07</v>
+        <v>5.3</v>
       </c>
       <c r="C228">
-        <v>5.253120845690741</v>
+        <v>5.411355022229778</v>
       </c>
       <c r="D228">
-        <v>0.1831208456907403</v>
+        <v>0.1113550222297786</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4450,13 +4486,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.08</v>
+        <v>5.32</v>
       </c>
       <c r="C229">
-        <v>5.292437288033088</v>
+        <v>5.413875752069923</v>
       </c>
       <c r="D229">
-        <v>0.2124372880330876</v>
+        <v>0.09387575206992249</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4464,13 +4500,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.04</v>
+        <v>5.29</v>
       </c>
       <c r="C230">
-        <v>5.242474373423129</v>
+        <v>5.399866190279055</v>
       </c>
       <c r="D230">
-        <v>0.2024743734231294</v>
+        <v>0.109866190279055</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4478,13 +4514,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.07</v>
+        <v>5.27</v>
       </c>
       <c r="C231">
-        <v>5.245145695786998</v>
+        <v>5.42121873612125</v>
       </c>
       <c r="D231">
-        <v>0.1751456957869975</v>
+        <v>0.1512187361212503</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4492,13 +4528,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="C232">
-        <v>5.257437596090912</v>
+        <v>5.483598907344629</v>
       </c>
       <c r="D232">
-        <v>0.1974375960909125</v>
+        <v>0.2735989073446294</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4506,13 +4542,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.07</v>
+        <v>5.18</v>
       </c>
       <c r="C233">
-        <v>5.263082320604718</v>
+        <v>5.460330969018648</v>
       </c>
       <c r="D233">
-        <v>0.1930823206047174</v>
+        <v>0.2803309690186486</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4520,13 +4556,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.12</v>
+        <v>5.15</v>
       </c>
       <c r="C234">
-        <v>5.335095469851633</v>
+        <v>5.471766807362704</v>
       </c>
       <c r="D234">
-        <v>0.215095469851633</v>
+        <v>0.321766807362704</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4534,13 +4570,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.14</v>
+        <v>4.99</v>
       </c>
       <c r="C235">
-        <v>5.332792079859677</v>
+        <v>5.424399032015777</v>
       </c>
       <c r="D235">
-        <v>0.1927920798596769</v>
+        <v>0.4343990320157767</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4548,13 +4584,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.16</v>
+        <v>5.02</v>
       </c>
       <c r="C236">
-        <v>5.33110786250866</v>
+        <v>5.412154479548874</v>
       </c>
       <c r="D236">
-        <v>0.1711078625086602</v>
+        <v>0.3921544795488741</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,13 +4598,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.12</v>
+        <v>5.01</v>
       </c>
       <c r="C237">
-        <v>5.311174311915546</v>
+        <v>5.417063857900133</v>
       </c>
       <c r="D237">
-        <v>0.191174311915546</v>
+        <v>0.4070638579001331</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4576,13 +4612,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.11</v>
+        <v>5.03</v>
       </c>
       <c r="C238">
-        <v>5.216919370662134</v>
+        <v>5.44252908877865</v>
       </c>
       <c r="D238">
-        <v>0.1069193706621334</v>
+        <v>0.4125290887786495</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4590,13 +4626,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.11</v>
+        <v>4.99</v>
       </c>
       <c r="C239">
-        <v>5.208954133356754</v>
+        <v>5.385739519551609</v>
       </c>
       <c r="D239">
-        <v>0.09895413335675407</v>
+        <v>0.3957395195516087</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4604,13 +4640,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.06</v>
+        <v>4.99</v>
       </c>
       <c r="C240">
-        <v>5.215366875922711</v>
+        <v>5.386281028624068</v>
       </c>
       <c r="D240">
-        <v>0.1553668759227111</v>
+        <v>0.3962810286240677</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4618,13 +4654,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="C241">
-        <v>5.209480362455897</v>
+        <v>5.401753283211471</v>
       </c>
       <c r="D241">
-        <v>0.1594803624558967</v>
+        <v>0.3017532832114709</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4632,13 +4668,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.08</v>
+        <v>5.14</v>
       </c>
       <c r="C242">
-        <v>5.245484609161768</v>
+        <v>5.398375009786522</v>
       </c>
       <c r="D242">
-        <v>0.1654846091617683</v>
+        <v>0.2583750097865227</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4649,10 +4685,10 @@
         <v>5.09</v>
       </c>
       <c r="C243">
-        <v>5.239435678504424</v>
+        <v>5.279187650765221</v>
       </c>
       <c r="D243">
-        <v>0.1494356785044237</v>
+        <v>0.1891876507652208</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,13 +4696,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.05</v>
+        <v>5.11</v>
       </c>
       <c r="C244">
-        <v>5.218284696302564</v>
+        <v>5.296567635969967</v>
       </c>
       <c r="D244">
-        <v>0.1682846963025639</v>
+        <v>0.1865676359699666</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4674,13 +4710,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>4.98</v>
+        <v>5.11</v>
       </c>
       <c r="C245">
-        <v>5.119466191680105</v>
+        <v>5.292827333891432</v>
       </c>
       <c r="D245">
-        <v>0.1394661916801043</v>
+        <v>0.1828273338914315</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4688,13 +4724,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>4.98</v>
+        <v>5.11</v>
       </c>
       <c r="C246">
-        <v>5.110763035956363</v>
+        <v>5.278905694213941</v>
       </c>
       <c r="D246">
-        <v>0.1307630359563623</v>
+        <v>0.1689056942139402</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4702,13 +4738,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>4.95</v>
+        <v>5.09</v>
       </c>
       <c r="C247">
-        <v>5.049817513859044</v>
+        <v>5.291775107037064</v>
       </c>
       <c r="D247">
-        <v>0.09981751385904403</v>
+        <v>0.2017751070370641</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4716,13 +4752,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>4.93</v>
+        <v>5.12</v>
       </c>
       <c r="C248">
-        <v>5.038591340030009</v>
+        <v>5.304594974343842</v>
       </c>
       <c r="D248">
-        <v>0.1085913400300091</v>
+        <v>0.1845949743438418</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4730,13 +4766,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>4.94</v>
+        <v>5.13</v>
       </c>
       <c r="C249">
-        <v>4.995967462184807</v>
+        <v>5.303704004984577</v>
       </c>
       <c r="D249">
-        <v>0.05596746218480675</v>
+        <v>0.1737040049845771</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4744,13 +4780,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.06</v>
+        <v>5.1</v>
       </c>
       <c r="C250">
-        <v>5.02368455143153</v>
+        <v>5.274012735946864</v>
       </c>
       <c r="D250">
-        <v>-0.03631544856846958</v>
+        <v>0.1740127359468646</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4758,13 +4794,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.09</v>
+        <v>5.08</v>
       </c>
       <c r="C251">
-        <v>5.034389920869054</v>
+        <v>5.243697734367767</v>
       </c>
       <c r="D251">
-        <v>-0.05561007913094596</v>
+        <v>0.1636977343677666</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4772,13 +4808,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="C252">
-        <v>4.992365766563981</v>
+        <v>5.244439445483633</v>
       </c>
       <c r="D252">
-        <v>-0.107634233436019</v>
+        <v>0.1644394454836329</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4786,13 +4822,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="C253">
-        <v>5.006759906725287</v>
+        <v>5.279001777000478</v>
       </c>
       <c r="D253">
-        <v>-0.1332400932747131</v>
+        <v>0.1790017770004786</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4800,13 +4836,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.23</v>
+        <v>5.09</v>
       </c>
       <c r="C254">
-        <v>5.088856875379135</v>
+        <v>5.300833390077712</v>
       </c>
       <c r="D254">
-        <v>-0.1411431246208652</v>
+        <v>0.2108333900777124</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4814,13 +4850,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.23</v>
+        <v>5.07</v>
       </c>
       <c r="C255">
-        <v>5.092548823074712</v>
+        <v>5.29689616654153</v>
       </c>
       <c r="D255">
-        <v>-0.1374511769252882</v>
+        <v>0.2268961665415299</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4828,13 +4864,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="C256">
-        <v>5.087550916998858</v>
+        <v>5.337924045901373</v>
       </c>
       <c r="D256">
-        <v>-0.142449083001142</v>
+        <v>0.1779240459013733</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4842,13 +4878,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.25</v>
+        <v>5.04</v>
       </c>
       <c r="C257">
-        <v>5.100302843525445</v>
+        <v>5.210996937219696</v>
       </c>
       <c r="D257">
-        <v>-0.1496971564745548</v>
+        <v>0.1709969372196962</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4856,13 +4892,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.29</v>
+        <v>5.05</v>
       </c>
       <c r="C258">
-        <v>5.105685690127298</v>
+        <v>5.202106442387511</v>
       </c>
       <c r="D258">
-        <v>-0.1843143098727023</v>
+        <v>0.1521064423875114</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4870,13 +4906,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.25</v>
+        <v>5.04</v>
       </c>
       <c r="C259">
-        <v>5.119257171144491</v>
+        <v>5.210920740281273</v>
       </c>
       <c r="D259">
-        <v>-0.1307428288555093</v>
+        <v>0.1709207402812734</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4884,13 +4920,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.25</v>
+        <v>5.06</v>
       </c>
       <c r="C260">
-        <v>5.125112544472745</v>
+        <v>5.229406775015124</v>
       </c>
       <c r="D260">
-        <v>-0.1248874555272552</v>
+        <v>0.1694067750151245</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4898,13 +4934,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.16</v>
+        <v>4.96</v>
       </c>
       <c r="C261">
-        <v>5.019667305143472</v>
+        <v>5.102725131858819</v>
       </c>
       <c r="D261">
-        <v>-0.1403326948565278</v>
+        <v>0.1427251318588194</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4912,13 +4948,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.3</v>
+        <v>4.98</v>
       </c>
       <c r="C262">
-        <v>5.10429401024838</v>
+        <v>5.108973218814325</v>
       </c>
       <c r="D262">
-        <v>-0.1957059897516196</v>
+        <v>0.1289732188143242</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4926,13 +4962,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.38</v>
+        <v>4.89</v>
       </c>
       <c r="C263">
-        <v>5.171537338983794</v>
+        <v>4.985915530161059</v>
       </c>
       <c r="D263">
-        <v>-0.2084626610162061</v>
+        <v>0.09591553016105969</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4940,13 +4976,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.36</v>
+        <v>5.15</v>
       </c>
       <c r="C264">
-        <v>5.164684577137344</v>
+        <v>5.00322827161997</v>
       </c>
       <c r="D264">
-        <v>-0.1953154228626559</v>
+        <v>-0.1467717283800303</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4954,13 +4990,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.36</v>
+        <v>5.19</v>
       </c>
       <c r="C265">
-        <v>5.18584047701862</v>
+        <v>5.031053375281123</v>
       </c>
       <c r="D265">
-        <v>-0.1741595229813804</v>
+        <v>-0.1589466247188778</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4968,13 +5004,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.37</v>
+        <v>5.19</v>
       </c>
       <c r="C266">
-        <v>5.175618716873573</v>
+        <v>4.992110548538434</v>
       </c>
       <c r="D266">
-        <v>-0.1943812831264271</v>
+        <v>-0.1978894514615668</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4982,13 +5018,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.41</v>
+        <v>5.24</v>
       </c>
       <c r="C267">
-        <v>5.194447471132908</v>
+        <v>5.139757675608037</v>
       </c>
       <c r="D267">
-        <v>-0.2155525288670921</v>
+        <v>-0.1002423243919628</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,13 +5032,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.41</v>
+        <v>5.23</v>
       </c>
       <c r="C268">
-        <v>5.204479558969767</v>
+        <v>5.093970869308849</v>
       </c>
       <c r="D268">
-        <v>-0.2055204410302336</v>
+        <v>-0.1360291306911519</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5010,13 +5046,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.54</v>
+        <v>5.22</v>
       </c>
       <c r="C269">
-        <v>5.257065114663452</v>
+        <v>5.086848315857597</v>
       </c>
       <c r="D269">
-        <v>-0.2829348853365481</v>
+        <v>-0.133151684142403</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5024,13 +5060,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.65</v>
+        <v>5.24</v>
       </c>
       <c r="C270">
-        <v>5.284411305326812</v>
+        <v>5.09484490187408</v>
       </c>
       <c r="D270">
-        <v>-0.3655886946731881</v>
+        <v>-0.1451550981259198</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5038,13 +5074,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.68</v>
+        <v>5.25</v>
       </c>
       <c r="C271">
-        <v>5.294495108949964</v>
+        <v>5.108316994514047</v>
       </c>
       <c r="D271">
-        <v>-0.3855048910500356</v>
+        <v>-0.1416830054859526</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,13 +5088,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.71</v>
+        <v>5.25</v>
       </c>
       <c r="C272">
-        <v>5.314026335182972</v>
+        <v>5.108758884931615</v>
       </c>
       <c r="D272">
-        <v>-0.3959736648170278</v>
+        <v>-0.141241115068385</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,13 +5102,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.74</v>
+        <v>5.24</v>
       </c>
       <c r="C273">
-        <v>5.339883374937224</v>
+        <v>5.108598139659057</v>
       </c>
       <c r="D273">
-        <v>-0.4001166250627763</v>
+        <v>-0.1314018603409428</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5080,13 +5116,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.72</v>
+        <v>5.27</v>
       </c>
       <c r="C274">
-        <v>5.390632255346154</v>
+        <v>5.10397012627002</v>
       </c>
       <c r="D274">
-        <v>-0.3293677446538457</v>
+        <v>-0.1660298737299799</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5094,13 +5130,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.54</v>
+        <v>5.33</v>
       </c>
       <c r="C275">
-        <v>5.409152424630267</v>
+        <v>5.163525011225759</v>
       </c>
       <c r="D275">
-        <v>-0.1308475753697333</v>
+        <v>-0.1664749887742412</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5108,13 +5144,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.53</v>
+        <v>5.33</v>
       </c>
       <c r="C276">
-        <v>5.403926757199783</v>
+        <v>5.147591174757756</v>
       </c>
       <c r="D276">
-        <v>-0.1260732428002171</v>
+        <v>-0.182408825242244</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5122,13 +5158,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.55</v>
+        <v>5.32</v>
       </c>
       <c r="C277">
-        <v>5.406066277573747</v>
+        <v>5.139167926117241</v>
       </c>
       <c r="D277">
-        <v>-0.1439337224262527</v>
+        <v>-0.1808320738827591</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5136,13 +5172,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.56</v>
+        <v>5.29</v>
       </c>
       <c r="C278">
-        <v>5.432458078907644</v>
+        <v>5.078699840183043</v>
       </c>
       <c r="D278">
-        <v>-0.1275419210923552</v>
+        <v>-0.2113001598169575</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5150,13 +5186,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.52</v>
+        <v>5.34</v>
       </c>
       <c r="C279">
-        <v>5.405057259528966</v>
+        <v>5.1260677392899</v>
       </c>
       <c r="D279">
-        <v>-0.1149427404710339</v>
+        <v>-0.2139322607100995</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5164,13 +5200,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.52</v>
+        <v>5.29</v>
       </c>
       <c r="C280">
-        <v>5.389936401985339</v>
+        <v>5.133863206521185</v>
       </c>
       <c r="D280">
-        <v>-0.1300635980146607</v>
+        <v>-0.1561367934788152</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5178,13 +5214,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.53</v>
+        <v>5.32</v>
       </c>
       <c r="C281">
-        <v>5.369010428725692</v>
+        <v>5.110287318852557</v>
       </c>
       <c r="D281">
-        <v>-0.1609895712743086</v>
+        <v>-0.209712681147443</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5192,13 +5228,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.55</v>
+        <v>5.39</v>
       </c>
       <c r="C282">
-        <v>5.345777188232218</v>
+        <v>5.197148797589022</v>
       </c>
       <c r="D282">
-        <v>-0.2042228117677816</v>
+        <v>-0.1928512024109779</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5206,13 +5242,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.57</v>
+        <v>5.48</v>
       </c>
       <c r="C283">
-        <v>5.342719609122676</v>
+        <v>5.25750554184098</v>
       </c>
       <c r="D283">
-        <v>-0.2272803908773247</v>
+        <v>-0.2224944581590202</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5220,13 +5256,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.66</v>
+        <v>5.52</v>
       </c>
       <c r="C284">
-        <v>5.389050800428969</v>
+        <v>5.262467501097045</v>
       </c>
       <c r="D284">
-        <v>-0.2709491995710307</v>
+        <v>-0.2575324989029548</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5234,13 +5270,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="C285">
-        <v>5.376137542378634</v>
+        <v>5.279986428907228</v>
       </c>
       <c r="D285">
-        <v>-0.3038624576213662</v>
+        <v>-0.3700135710927723</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5248,13 +5284,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="C286">
-        <v>5.361154045977117</v>
+        <v>5.323598410729654</v>
       </c>
       <c r="D286">
-        <v>-0.3088459540228827</v>
+        <v>-0.3664015892703461</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5262,13 +5298,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="C287">
-        <v>5.380245921201817</v>
+        <v>5.317599310022962</v>
       </c>
       <c r="D287">
-        <v>-0.3097540787981838</v>
+        <v>-0.3624006899770373</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5276,13 +5312,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.68</v>
+        <v>5.73</v>
       </c>
       <c r="C288">
-        <v>5.397916879572636</v>
+        <v>5.343513078439348</v>
       </c>
       <c r="D288">
-        <v>-0.2820831204273633</v>
+        <v>-0.3864869215606523</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5290,13 +5326,181 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.79</v>
+        <v>5.72</v>
       </c>
       <c r="C289">
-        <v>5.485395589212703</v>
+        <v>5.39151942776112</v>
       </c>
       <c r="D289">
-        <v>-0.3046044107872969</v>
+        <v>-0.3284805722388793</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>5.54</v>
+      </c>
+      <c r="C290">
+        <v>5.399632908750553</v>
+      </c>
+      <c r="D290">
+        <v>-0.1403670912494466</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
+        <v>5.62</v>
+      </c>
+      <c r="C291">
+        <v>5.406121521064697</v>
+      </c>
+      <c r="D291">
+        <v>-0.2138784789353032</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>5.66</v>
+      </c>
+      <c r="C292">
+        <v>5.390532880869222</v>
+      </c>
+      <c r="D292">
+        <v>-0.2694671191307778</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>5.65</v>
+      </c>
+      <c r="C293">
+        <v>5.33873704983136</v>
+      </c>
+      <c r="D293">
+        <v>-0.3112629501686408</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>5.66</v>
+      </c>
+      <c r="C294">
+        <v>5.344089109353011</v>
+      </c>
+      <c r="D294">
+        <v>-0.3159108906469887</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>5.67</v>
+      </c>
+      <c r="C295">
+        <v>5.350469558798292</v>
+      </c>
+      <c r="D295">
+        <v>-0.3195304412017075</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>5.68</v>
+      </c>
+      <c r="C296">
+        <v>5.40657899007739</v>
+      </c>
+      <c r="D296">
+        <v>-0.2734210099226102</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>5.68</v>
+      </c>
+      <c r="C297">
+        <v>5.369206578862593</v>
+      </c>
+      <c r="D297">
+        <v>-0.310793421137407</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>5.66</v>
+      </c>
+      <c r="C298">
+        <v>5.379928051078726</v>
+      </c>
+      <c r="D298">
+        <v>-0.2800719489212744</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>5.72</v>
+      </c>
+      <c r="C299">
+        <v>5.430892994819186</v>
+      </c>
+      <c r="D299">
+        <v>-0.2891070051808136</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>5.71</v>
+      </c>
+      <c r="C300">
+        <v>5.431940070770042</v>
+      </c>
+      <c r="D300">
+        <v>-0.2780599292299577</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>5.74</v>
+      </c>
+      <c r="C301">
+        <v>5.450146169352871</v>
+      </c>
+      <c r="D301">
+        <v>-0.2898538306471297</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytrain.xlsx
+++ b/temp/Yesterdaytrain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,904 +28,1114 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-19 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 10:01:00</t>
+    <t>2019-07-30 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 09:45:00</t>
   </si>
   <si>
     <t>2019-04-30 14:57:00</t>
   </si>
   <si>
-    <t>2019-04-26 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-08 09:32:00</t>
+    <t>2019-04-30 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:27:00</t>
   </si>
   <si>
     <t>2019-03-07 10:39:00</t>
   </si>
   <si>
-    <t>2019-03-07 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:10:00</t>
+    <t>2019-03-06 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:29:00</t>
   </si>
   <si>
     <t>2019-01-14 13:58:00</t>
   </si>
   <si>
-    <t>2019-01-14 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:27:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:48:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:35:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 11:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:02:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 14:46:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 11:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:40:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 09:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 10:41:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:42:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 10:54:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 10:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 10:26:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 09:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:42:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 14:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:10:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 09:44:00</t>
+    <t>2019-01-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 09:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:13:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:33:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 14:05:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 10:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 14:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:41:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 13:13:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 11:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 11:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 14:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 11:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 09:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:29:00</t>
   </si>
   <si>
     <t>2018-12-06 14:04:00</t>
   </si>
   <si>
-    <t>2018-12-06 13:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 11:01:00</t>
+    <t>2018-12-06 14:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 11:07:00</t>
   </si>
   <si>
     <t>2018-12-06 10:47:00</t>
   </si>
   <si>
-    <t>2018-12-06 10:28:00</t>
+    <t>2018-12-06 10:16:00</t>
+  </si>
+  <si>
+    <t>2018-12-05 09:38:00</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,13 +1518,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.58</v>
+        <v>6.34</v>
       </c>
       <c r="C2">
-        <v>6.542223107342831</v>
+        <v>6.793363255344784</v>
       </c>
       <c r="D2">
-        <v>-0.03777689265716955</v>
+        <v>0.4533632553447839</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1322,13 +1532,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.61</v>
+        <v>6.37</v>
       </c>
       <c r="C3">
-        <v>6.499526065612277</v>
+        <v>6.81145479538561</v>
       </c>
       <c r="D3">
-        <v>-0.1104739343877235</v>
+        <v>0.4414547953856101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1336,13 +1546,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.62</v>
+        <v>6.34</v>
       </c>
       <c r="C4">
-        <v>6.495630728425717</v>
+        <v>6.78329648312129</v>
       </c>
       <c r="D4">
-        <v>-0.1243692715742828</v>
+        <v>0.4432964831212898</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1350,13 +1560,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.65</v>
+        <v>6.35</v>
       </c>
       <c r="C5">
-        <v>6.512020217639388</v>
+        <v>6.800506656284734</v>
       </c>
       <c r="D5">
-        <v>-0.1379797823606124</v>
+        <v>0.4505066562847349</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1364,13 +1574,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.63</v>
+        <v>6.36</v>
       </c>
       <c r="C6">
-        <v>6.495326566342556</v>
+        <v>6.825190684009431</v>
       </c>
       <c r="D6">
-        <v>-0.1346734336574436</v>
+        <v>0.4651906840094302</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1378,13 +1588,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.51</v>
+        <v>6.31</v>
       </c>
       <c r="C7">
-        <v>6.514013859880428</v>
+        <v>6.768975336496267</v>
       </c>
       <c r="D7">
-        <v>0.004013859880427795</v>
+        <v>0.4589753364962679</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1392,13 +1602,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.58</v>
+        <v>6.31</v>
       </c>
       <c r="C8">
-        <v>6.570530379292506</v>
+        <v>6.776109856390694</v>
       </c>
       <c r="D8">
-        <v>-0.009469620707494464</v>
+        <v>0.4661098563906947</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1406,13 +1616,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.73</v>
+        <v>6.14</v>
       </c>
       <c r="C9">
-        <v>6.731241597426604</v>
+        <v>6.750974170723237</v>
       </c>
       <c r="D9">
-        <v>0.001241597426603569</v>
+        <v>0.610974170723237</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1420,13 +1630,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.75</v>
+        <v>6.61</v>
       </c>
       <c r="C10">
-        <v>6.736030443097781</v>
+        <v>6.785840049016564</v>
       </c>
       <c r="D10">
-        <v>-0.0139695569022189</v>
+        <v>0.1758400490165641</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1434,13 +1644,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.74</v>
+        <v>6.66</v>
       </c>
       <c r="C11">
-        <v>6.734486082692265</v>
+        <v>6.823245208529101</v>
       </c>
       <c r="D11">
-        <v>-0.005513917307735205</v>
+        <v>0.1632452085291005</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1448,13 +1658,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.77</v>
+        <v>6.56</v>
       </c>
       <c r="C12">
-        <v>6.67049079702682</v>
+        <v>6.712518373046687</v>
       </c>
       <c r="D12">
-        <v>-0.09950920297317989</v>
+        <v>0.1525183730466875</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1462,13 +1672,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.81</v>
+        <v>6.58</v>
       </c>
       <c r="C13">
-        <v>6.666396429819476</v>
+        <v>6.751935356886979</v>
       </c>
       <c r="D13">
-        <v>-0.1436035701805238</v>
+        <v>0.171935356886979</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1476,13 +1686,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="C14">
-        <v>6.699796380739996</v>
+        <v>6.76288583544395</v>
       </c>
       <c r="D14">
-        <v>0.08979638073999574</v>
+        <v>0.1628858354439506</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1490,13 +1700,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
       <c r="C15">
-        <v>6.709902658426841</v>
+        <v>6.752985751161961</v>
       </c>
       <c r="D15">
-        <v>0.08990265842684053</v>
+        <v>0.1429857511619606</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1504,13 +1714,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.64</v>
+        <v>6.65</v>
       </c>
       <c r="C16">
-        <v>6.718834365181368</v>
+        <v>6.681358463949672</v>
       </c>
       <c r="D16">
-        <v>0.07883436518136833</v>
+        <v>0.03135846394967157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1518,13 +1728,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.6</v>
+        <v>7.03</v>
       </c>
       <c r="C17">
-        <v>6.657184785226074</v>
+        <v>6.819449842449083</v>
       </c>
       <c r="D17">
-        <v>0.05718478522607473</v>
+        <v>-0.2105501575509177</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1532,13 +1742,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.39</v>
+        <v>7.04</v>
       </c>
       <c r="C18">
-        <v>6.418746569242924</v>
+        <v>6.807723239806225</v>
       </c>
       <c r="D18">
-        <v>0.02874656924292474</v>
+        <v>-0.2322767601937752</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1546,13 +1756,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.4</v>
+        <v>7.17</v>
       </c>
       <c r="C19">
-        <v>6.467268107755756</v>
+        <v>6.898736801586929</v>
       </c>
       <c r="D19">
-        <v>0.06726810775575576</v>
+        <v>-0.2712631984130711</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1560,13 +1770,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.33</v>
+        <v>7.17</v>
       </c>
       <c r="C20">
-        <v>6.335159674764046</v>
+        <v>6.897975845973602</v>
       </c>
       <c r="D20">
-        <v>0.005159674764045441</v>
+        <v>-0.2720241540263979</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1574,13 +1784,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.64</v>
+        <v>7.17</v>
       </c>
       <c r="C21">
-        <v>6.594653045558446</v>
+        <v>6.894851260020268</v>
       </c>
       <c r="D21">
-        <v>-0.04534695444155368</v>
+        <v>-0.2751487399797314</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1588,13 +1798,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.68</v>
+        <v>7.18</v>
       </c>
       <c r="C22">
-        <v>6.660274514827942</v>
+        <v>6.90295603090854</v>
       </c>
       <c r="D22">
-        <v>-0.01972548517205741</v>
+        <v>-0.2770439690914595</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1602,13 +1812,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.67</v>
+        <v>7.16</v>
       </c>
       <c r="C23">
-        <v>6.590092832900381</v>
+        <v>6.8848977049986</v>
       </c>
       <c r="D23">
-        <v>-0.07990716709961898</v>
+        <v>-0.2751022950014006</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1616,13 +1826,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.5</v>
+        <v>7.13</v>
       </c>
       <c r="C24">
-        <v>6.584744662091485</v>
+        <v>6.856192843238168</v>
       </c>
       <c r="D24">
-        <v>0.08474466209148535</v>
+        <v>-0.2738071567618316</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1630,13 +1840,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.55</v>
+        <v>7.14</v>
       </c>
       <c r="C25">
-        <v>6.590793522487735</v>
+        <v>6.844915619136974</v>
       </c>
       <c r="D25">
-        <v>0.0407935224877356</v>
+        <v>-0.2950843808630257</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1644,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.62</v>
+        <v>7.17</v>
       </c>
       <c r="C26">
-        <v>6.612455324705667</v>
+        <v>6.806652872128255</v>
       </c>
       <c r="D26">
-        <v>-0.007544675294333558</v>
+        <v>-0.3633471278717453</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1658,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.85</v>
+        <v>7.17</v>
       </c>
       <c r="C27">
-        <v>6.726981751208567</v>
+        <v>6.796439151895249</v>
       </c>
       <c r="D27">
-        <v>-0.1230182487914329</v>
+        <v>-0.3735608481047512</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1672,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.86</v>
+        <v>7.24</v>
       </c>
       <c r="C28">
-        <v>6.691103582297633</v>
+        <v>6.834255063667032</v>
       </c>
       <c r="D28">
-        <v>-0.1688964177023671</v>
+        <v>-0.4057449363329679</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1686,13 +1896,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.91</v>
+        <v>7.23</v>
       </c>
       <c r="C29">
-        <v>6.704632160351195</v>
+        <v>6.829385038245591</v>
       </c>
       <c r="D29">
-        <v>-0.2053678396488055</v>
+        <v>-0.4006149617544095</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1700,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.99</v>
+        <v>7.02</v>
       </c>
       <c r="C30">
-        <v>6.790746338327014</v>
+        <v>6.799257341855578</v>
       </c>
       <c r="D30">
-        <v>-0.1992536616729863</v>
+        <v>-0.2207426581444212</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1714,13 +1924,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.99</v>
+        <v>7.08</v>
       </c>
       <c r="C31">
-        <v>6.787031868916313</v>
+        <v>6.830276339127667</v>
       </c>
       <c r="D31">
-        <v>-0.2029681310836873</v>
+        <v>-0.2497236608723332</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1728,13 +1938,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.04</v>
+        <v>7.09</v>
       </c>
       <c r="C32">
-        <v>6.799868365101017</v>
+        <v>6.840185257850661</v>
       </c>
       <c r="D32">
-        <v>-0.240131634898983</v>
+        <v>-0.2498147421493391</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1742,13 +1952,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.08</v>
+        <v>7.13</v>
       </c>
       <c r="C33">
-        <v>7.096490187084821</v>
+        <v>6.857554945559051</v>
       </c>
       <c r="D33">
-        <v>0.01649018708482064</v>
+        <v>-0.2724450544409489</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1756,13 +1966,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.17</v>
+        <v>7.11</v>
       </c>
       <c r="C34">
-        <v>7.18365739724941</v>
+        <v>6.855501056168479</v>
       </c>
       <c r="D34">
-        <v>0.01365739724940962</v>
+        <v>-0.2544989438315213</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1770,13 +1980,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="C35">
-        <v>7.21396203589103</v>
+        <v>6.902860448411544</v>
       </c>
       <c r="D35">
-        <v>0.0439620358910302</v>
+        <v>0.002860448411543537</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1784,13 +1994,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.1</v>
+        <v>6.89</v>
       </c>
       <c r="C36">
-        <v>7.380428325109919</v>
+        <v>6.820822622535418</v>
       </c>
       <c r="D36">
-        <v>0.2804283251099191</v>
+        <v>-0.06917737746458208</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1798,13 +2008,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.07</v>
+        <v>6.81</v>
       </c>
       <c r="C37">
-        <v>7.277023255365912</v>
+        <v>6.697096297120754</v>
       </c>
       <c r="D37">
-        <v>0.2070232553659119</v>
+        <v>-0.1129037028792457</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1812,13 +2022,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.18</v>
+        <v>6.86</v>
       </c>
       <c r="C38">
-        <v>7.369837049533872</v>
+        <v>6.736023858708244</v>
       </c>
       <c r="D38">
-        <v>0.1898370495338719</v>
+        <v>-0.1239761412917559</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1826,13 +2036,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.25</v>
+        <v>6.93</v>
       </c>
       <c r="C39">
-        <v>7.392567385612902</v>
+        <v>6.768521941788028</v>
       </c>
       <c r="D39">
-        <v>0.1425673856129022</v>
+        <v>-0.1614780582119719</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1840,13 +2050,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.22</v>
+        <v>7.05</v>
       </c>
       <c r="C40">
-        <v>7.39158268259616</v>
+        <v>6.822916137580438</v>
       </c>
       <c r="D40">
-        <v>0.1715826825961599</v>
+        <v>-0.2270838624195619</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1854,13 +2064,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.98</v>
+        <v>7.05</v>
       </c>
       <c r="C41">
-        <v>7.447402332539228</v>
+        <v>6.824353505149815</v>
       </c>
       <c r="D41">
-        <v>0.4674023325392271</v>
+        <v>-0.2256464948501851</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1868,13 +2078,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.97</v>
+        <v>7.07</v>
       </c>
       <c r="C42">
-        <v>7.419536746338296</v>
+        <v>6.833425856745817</v>
       </c>
       <c r="D42">
-        <v>0.4495367463382962</v>
+        <v>-0.2365741432541837</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1882,13 +2092,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.9</v>
+        <v>7.25</v>
       </c>
       <c r="C43">
-        <v>7.311386922714045</v>
+        <v>6.862699742216392</v>
       </c>
       <c r="D43">
-        <v>0.411386922714045</v>
+        <v>-0.3873002577836084</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1896,13 +2106,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.85</v>
+        <v>7.29</v>
       </c>
       <c r="C44">
-        <v>7.312735060816375</v>
+        <v>6.908770314066081</v>
       </c>
       <c r="D44">
-        <v>0.4627350608163754</v>
+        <v>-0.3812296859339188</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1910,13 +2120,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.89</v>
+        <v>7.3</v>
       </c>
       <c r="C45">
-        <v>7.338673388476326</v>
+        <v>6.920545501926928</v>
       </c>
       <c r="D45">
-        <v>0.4486733884763261</v>
+        <v>-0.3794544980730716</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1924,13 +2134,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.97</v>
+        <v>7.51</v>
       </c>
       <c r="C46">
-        <v>7.501715213474486</v>
+        <v>6.965787016705909</v>
       </c>
       <c r="D46">
-        <v>0.5317152134744862</v>
+        <v>-0.5442129832940905</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1938,13 +2148,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.89</v>
+        <v>7.14</v>
       </c>
       <c r="C47">
-        <v>7.394543964815033</v>
+        <v>7.006273691196163</v>
       </c>
       <c r="D47">
-        <v>0.5045439648150332</v>
+        <v>-0.133726308803837</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1952,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.09</v>
+        <v>7.1</v>
       </c>
       <c r="C48">
-        <v>7.546915833403266</v>
+        <v>7.009922451506983</v>
       </c>
       <c r="D48">
-        <v>0.4569158334032659</v>
+        <v>-0.0900775484930163</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1966,13 +2176,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.27</v>
+        <v>7.01</v>
       </c>
       <c r="C49">
-        <v>7.562895068442221</v>
+        <v>6.932966810812863</v>
       </c>
       <c r="D49">
-        <v>0.2928950684422214</v>
+        <v>-0.07703318918713631</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1980,13 +2190,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.25</v>
+        <v>6.99</v>
       </c>
       <c r="C50">
-        <v>7.597592865237009</v>
+        <v>6.894984088916872</v>
       </c>
       <c r="D50">
-        <v>0.3475928652370088</v>
+        <v>-0.09501591108312812</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1994,13 +2204,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
       <c r="C51">
-        <v>7.521369035399961</v>
+        <v>6.99911030025926</v>
       </c>
       <c r="D51">
-        <v>0.3313690353999608</v>
+        <v>-0.1408896997407396</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2008,13 +2218,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="C52">
-        <v>7.478169584490657</v>
+        <v>7.032107472355373</v>
       </c>
       <c r="D52">
-        <v>0.3081695844906571</v>
+        <v>-0.117892527644627</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2022,13 +2232,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.18</v>
+        <v>7.05</v>
       </c>
       <c r="C53">
-        <v>7.402680928527009</v>
+        <v>7.000364318502506</v>
       </c>
       <c r="D53">
-        <v>0.2226809285270095</v>
+        <v>-0.04963568149749342</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2036,13 +2246,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.41</v>
+        <v>7.08</v>
       </c>
       <c r="C54">
-        <v>7.405506305676073</v>
+        <v>7.001589601212978</v>
       </c>
       <c r="D54">
-        <v>-0.004493694323927322</v>
+        <v>-0.07841039878702194</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2050,13 +2260,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.66</v>
+        <v>6.96</v>
       </c>
       <c r="C55">
-        <v>7.524104985085676</v>
+        <v>6.966410211326862</v>
       </c>
       <c r="D55">
-        <v>-0.1358950149143245</v>
+        <v>0.006410211326862481</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2064,13 +2274,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.71</v>
+        <v>6.69</v>
       </c>
       <c r="C56">
-        <v>7.600482223329549</v>
+        <v>6.903248005732132</v>
       </c>
       <c r="D56">
-        <v>-0.1095177766704509</v>
+        <v>0.2132480057321313</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2078,13 +2288,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.39</v>
+        <v>6.69</v>
       </c>
       <c r="C57">
-        <v>7.452781016055741</v>
+        <v>6.896082299222321</v>
       </c>
       <c r="D57">
-        <v>0.06278101605574093</v>
+        <v>0.2060822992223201</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2092,13 +2302,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.42</v>
+        <v>6.69</v>
       </c>
       <c r="C58">
-        <v>7.439886458716756</v>
+        <v>6.924894521660565</v>
       </c>
       <c r="D58">
-        <v>0.01988645871675576</v>
+        <v>0.2348945216605642</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2106,13 +2316,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.43</v>
+        <v>6.64</v>
       </c>
       <c r="C59">
-        <v>7.462657766548973</v>
+        <v>6.889180079518487</v>
       </c>
       <c r="D59">
-        <v>0.03265776654897312</v>
+        <v>0.2491800795184869</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2120,13 +2330,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>7.45</v>
+        <v>6.65</v>
       </c>
       <c r="C60">
-        <v>7.445495568554292</v>
+        <v>6.876012301357268</v>
       </c>
       <c r="D60">
-        <v>-0.004504431445708335</v>
+        <v>0.2260123013572679</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2134,13 +2344,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.48</v>
+        <v>6.67</v>
       </c>
       <c r="C61">
-        <v>7.401328308882941</v>
+        <v>6.903892446127375</v>
       </c>
       <c r="D61">
-        <v>-0.07867169111705952</v>
+        <v>0.233892446127375</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2148,13 +2358,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7.28</v>
+        <v>6.57</v>
       </c>
       <c r="C62">
-        <v>7.39603354011819</v>
+        <v>6.797273898718031</v>
       </c>
       <c r="D62">
-        <v>0.11603354011819</v>
+        <v>0.2272738987180309</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2162,13 +2372,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.31</v>
+        <v>6.56</v>
       </c>
       <c r="C63">
-        <v>7.429867463682247</v>
+        <v>6.759179738849007</v>
       </c>
       <c r="D63">
-        <v>0.1198674636822474</v>
+        <v>0.1991797388490077</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2176,13 +2386,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>7.26</v>
+        <v>6.58</v>
       </c>
       <c r="C64">
-        <v>7.346326337325979</v>
+        <v>6.701355168645247</v>
       </c>
       <c r="D64">
-        <v>0.08632633732597927</v>
+        <v>0.1213551686452474</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2190,13 +2400,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7.21</v>
+        <v>6.53</v>
       </c>
       <c r="C65">
-        <v>7.246847952803944</v>
+        <v>6.632099350967871</v>
       </c>
       <c r="D65">
-        <v>0.03684795280394404</v>
+        <v>0.1020993509678707</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2204,13 +2414,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>7.22</v>
+        <v>6.53</v>
       </c>
       <c r="C66">
-        <v>7.246668123809065</v>
+        <v>6.615485401522187</v>
       </c>
       <c r="D66">
-        <v>0.02666812380906514</v>
+        <v>0.08548540152218642</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2218,13 +2428,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>7.3</v>
+        <v>6.55</v>
       </c>
       <c r="C67">
-        <v>7.304957817470528</v>
+        <v>6.591304886606907</v>
       </c>
       <c r="D67">
-        <v>0.004957817470527814</v>
+        <v>0.04130488660690723</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2232,13 +2442,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>7.15</v>
+        <v>6.57</v>
       </c>
       <c r="C68">
-        <v>7.028909869795302</v>
+        <v>6.592711544873846</v>
       </c>
       <c r="D68">
-        <v>-0.1210901302046983</v>
+        <v>0.02271154487384575</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2246,13 +2456,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>7.54</v>
+        <v>6.57</v>
       </c>
       <c r="C69">
-        <v>7.163528521712364</v>
+        <v>6.588492017703312</v>
       </c>
       <c r="D69">
-        <v>-0.3764714782876357</v>
+        <v>0.01849201770331188</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2260,13 +2470,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>7.75</v>
+        <v>6.55</v>
       </c>
       <c r="C70">
-        <v>7.259495146935355</v>
+        <v>6.591812784889632</v>
       </c>
       <c r="D70">
-        <v>-0.4905048530646452</v>
+        <v>0.04181278488963258</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2274,13 +2484,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.24</v>
+        <v>6.57</v>
       </c>
       <c r="C71">
-        <v>7.636005420576882</v>
+        <v>6.614278064094264</v>
       </c>
       <c r="D71">
-        <v>-0.6039945794231185</v>
+        <v>0.04427806409426349</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2288,13 +2498,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>8.220000000000001</v>
+        <v>6.59</v>
       </c>
       <c r="C72">
-        <v>7.754952752584129</v>
+        <v>6.611621595026794</v>
       </c>
       <c r="D72">
-        <v>-0.465047247415872</v>
+        <v>0.02162159502679462</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2302,13 +2512,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>7.94</v>
+        <v>6.56</v>
       </c>
       <c r="C73">
-        <v>7.847907775488925</v>
+        <v>6.579108061791143</v>
       </c>
       <c r="D73">
-        <v>-0.09209222451107557</v>
+        <v>0.01910806179114388</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2316,13 +2526,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>7.73</v>
+        <v>6.58</v>
       </c>
       <c r="C74">
-        <v>7.852655562540757</v>
+        <v>6.713233576331349</v>
       </c>
       <c r="D74">
-        <v>0.1226555625407562</v>
+        <v>0.1332335763313486</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2330,13 +2540,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>7.71</v>
+        <v>6.54</v>
       </c>
       <c r="C75">
-        <v>7.848981898817038</v>
+        <v>6.663761229926023</v>
       </c>
       <c r="D75">
-        <v>0.1389818988170379</v>
+        <v>0.1237612299260231</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2344,13 +2554,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.119999999999999</v>
+        <v>6.65</v>
       </c>
       <c r="C76">
-        <v>8.082586447200665</v>
+        <v>6.756465254816319</v>
       </c>
       <c r="D76">
-        <v>-0.03741355279933423</v>
+        <v>0.1064652548163183</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2358,13 +2568,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.300000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="C77">
-        <v>8.226088890622865</v>
+        <v>6.653195676417059</v>
       </c>
       <c r="D77">
-        <v>-0.07391110937713563</v>
+        <v>0.08319567641705827</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2372,13 +2582,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>7.82</v>
+        <v>6.56</v>
       </c>
       <c r="C78">
-        <v>8.404722040144414</v>
+        <v>6.643084144611689</v>
       </c>
       <c r="D78">
-        <v>0.5847220401444133</v>
+        <v>0.08308414461168923</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2386,13 +2596,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.51</v>
+        <v>6.55</v>
       </c>
       <c r="C79">
-        <v>8.016165932838327</v>
+        <v>6.61215605879083</v>
       </c>
       <c r="D79">
-        <v>-0.4938340671616732</v>
+        <v>0.06215605879082986</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2400,13 +2610,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.41</v>
+        <v>6.54</v>
       </c>
       <c r="C80">
-        <v>7.916517430561183</v>
+        <v>6.625361994357527</v>
       </c>
       <c r="D80">
-        <v>-0.4934825694388172</v>
+        <v>0.08536199435752678</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2414,13 +2624,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8.380000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="C81">
-        <v>7.904537642552087</v>
+        <v>6.641525983157265</v>
       </c>
       <c r="D81">
-        <v>-0.4754623574479142</v>
+        <v>0.07152598315726433</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2428,13 +2638,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>9.19</v>
+        <v>6.5</v>
       </c>
       <c r="C82">
-        <v>8.364927900887803</v>
+        <v>6.656292095916</v>
       </c>
       <c r="D82">
-        <v>-0.8250720991121963</v>
+        <v>0.1562920959160001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2442,13 +2652,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>9.23</v>
+        <v>6.43</v>
       </c>
       <c r="C83">
-        <v>8.347286498367428</v>
+        <v>6.569474020366076</v>
       </c>
       <c r="D83">
-        <v>-0.8827135016325727</v>
+        <v>0.1394740203660758</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2456,13 +2666,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>9.380000000000001</v>
+        <v>6.64</v>
       </c>
       <c r="C84">
-        <v>8.464583665202444</v>
+        <v>6.574895582312208</v>
       </c>
       <c r="D84">
-        <v>-0.9154163347975572</v>
+        <v>-0.06510441768779174</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2470,13 +2680,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>9.27</v>
+        <v>6.66</v>
       </c>
       <c r="C85">
-        <v>8.299142364634111</v>
+        <v>6.579968749702602</v>
       </c>
       <c r="D85">
-        <v>-0.9708576353658884</v>
+        <v>-0.08003125029739788</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2484,13 +2694,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.859999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="C86">
-        <v>8.214256828188326</v>
+        <v>6.478035692890251</v>
       </c>
       <c r="D86">
-        <v>-0.6457431718116737</v>
+        <v>-0.1119643071097487</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2498,13 +2708,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.75</v>
+        <v>6.64</v>
       </c>
       <c r="C87">
-        <v>8.151393361692605</v>
+        <v>6.452502397414325</v>
       </c>
       <c r="D87">
-        <v>-0.5986066383073947</v>
+        <v>-0.1874976025856743</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2512,13 +2722,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.949999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="C88">
-        <v>8.203544355050369</v>
+        <v>6.470110331546182</v>
       </c>
       <c r="D88">
-        <v>-0.7464556449496307</v>
+        <v>-0.08988966845381796</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2526,13 +2736,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>9.01</v>
+        <v>6.59</v>
       </c>
       <c r="C89">
-        <v>8.17841976974227</v>
+        <v>6.428504158905489</v>
       </c>
       <c r="D89">
-        <v>-0.83158023025773</v>
+        <v>-0.1614958410945109</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2540,13 +2750,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>9.029999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="C90">
-        <v>8.143317543853147</v>
+        <v>6.420004186112584</v>
       </c>
       <c r="D90">
-        <v>-0.8866824561468523</v>
+        <v>-0.1299958138874153</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2554,13 +2764,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>9.09</v>
+        <v>6.72</v>
       </c>
       <c r="C91">
-        <v>8.119281033883638</v>
+        <v>6.639523964090503</v>
       </c>
       <c r="D91">
-        <v>-0.9707189661163618</v>
+        <v>-0.0804760359094967</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2568,13 +2778,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>9.15</v>
+        <v>6.76</v>
       </c>
       <c r="C92">
-        <v>8.119639595148346</v>
+        <v>6.64184964063272</v>
       </c>
       <c r="D92">
-        <v>-1.030360404851654</v>
+        <v>-0.1181503593672799</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2582,13 +2792,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>8.06</v>
+        <v>6.71</v>
       </c>
       <c r="C93">
-        <v>8.099668073532563</v>
+        <v>6.679107604177237</v>
       </c>
       <c r="D93">
-        <v>0.03966807353256208</v>
+        <v>-0.03089239582276271</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2596,13 +2806,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>8.039999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="C94">
-        <v>8.054286089029372</v>
+        <v>6.689200710205367</v>
       </c>
       <c r="D94">
-        <v>0.01428608902937256</v>
+        <v>-0.0007992897946333954</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2610,13 +2820,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>8.01</v>
+        <v>6.74</v>
       </c>
       <c r="C95">
-        <v>8.048937455196693</v>
+        <v>6.717042975448796</v>
       </c>
       <c r="D95">
-        <v>0.03893745519669345</v>
+        <v>-0.02295702455120452</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2624,13 +2834,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>8.1</v>
+        <v>6.71</v>
       </c>
       <c r="C96">
-        <v>8.184710663730005</v>
+        <v>6.660470827194676</v>
       </c>
       <c r="D96">
-        <v>0.08471066373000546</v>
+        <v>-0.04952917280532354</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2638,13 +2848,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>8.31</v>
+        <v>6.72</v>
       </c>
       <c r="C97">
-        <v>8.159210697890149</v>
+        <v>6.67417582043685</v>
       </c>
       <c r="D97">
-        <v>-0.1507893021098514</v>
+        <v>-0.04582417956314977</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2652,13 +2862,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>8.43</v>
+        <v>6.74</v>
       </c>
       <c r="C98">
-        <v>8.166579314638639</v>
+        <v>6.682008719524888</v>
       </c>
       <c r="D98">
-        <v>-0.2634206853613605</v>
+        <v>-0.05799128047511193</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2666,13 +2876,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>8.539999999999999</v>
+        <v>6.72</v>
       </c>
       <c r="C99">
-        <v>8.204469578005639</v>
+        <v>6.62686041334356</v>
       </c>
       <c r="D99">
-        <v>-0.3355304219943598</v>
+        <v>-0.09313958665643973</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2680,13 +2890,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.97</v>
+        <v>6.84</v>
       </c>
       <c r="C100">
-        <v>7.889010022123977</v>
+        <v>6.674319076518676</v>
       </c>
       <c r="D100">
-        <v>-0.08098997787602258</v>
+        <v>-0.1656809234813243</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2694,13 +2904,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.99</v>
+        <v>6.69</v>
       </c>
       <c r="C101">
-        <v>7.920776863588517</v>
+        <v>6.68328722081831</v>
       </c>
       <c r="D101">
-        <v>-0.06922313641148303</v>
+        <v>-0.006712779181690109</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2708,13 +2918,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.67</v>
+        <v>6.69</v>
       </c>
       <c r="C102">
-        <v>7.72661356321145</v>
+        <v>6.706868043750094</v>
       </c>
       <c r="D102">
-        <v>0.05661356321145039</v>
+        <v>0.01686804375009388</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2722,13 +2932,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.55</v>
+        <v>6.67</v>
       </c>
       <c r="C103">
-        <v>7.538809878831594</v>
+        <v>6.668374035540272</v>
       </c>
       <c r="D103">
-        <v>-0.01119012116840601</v>
+        <v>-0.001625964459727847</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2736,13 +2946,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="C104">
-        <v>8.132325977183591</v>
+        <v>6.670382490964466</v>
       </c>
       <c r="D104">
-        <v>-0.01767402281640962</v>
+        <v>0.02038249096446609</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2750,13 +2960,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>8.17</v>
+        <v>6.38</v>
       </c>
       <c r="C105">
-        <v>8.189861609373907</v>
+        <v>6.391663918936007</v>
       </c>
       <c r="D105">
-        <v>0.01986160937390657</v>
+        <v>0.01166391893600682</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2764,13 +2974,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.71</v>
+        <v>6.41</v>
       </c>
       <c r="C106">
-        <v>7.909961800874961</v>
+        <v>6.422308138455979</v>
       </c>
       <c r="D106">
-        <v>0.1999618008749611</v>
+        <v>0.01230813845597911</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2778,13 +2988,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.66</v>
+        <v>6.35</v>
       </c>
       <c r="C107">
-        <v>7.871610949219755</v>
+        <v>6.406144767377214</v>
       </c>
       <c r="D107">
-        <v>0.2116109492197547</v>
+        <v>0.05614476737721485</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2792,13 +3002,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.55</v>
+        <v>6.64</v>
       </c>
       <c r="C108">
-        <v>7.729762299138049</v>
+        <v>6.547671023071383</v>
       </c>
       <c r="D108">
-        <v>0.1797622991380496</v>
+        <v>-0.09232897692861641</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2806,13 +3016,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.51</v>
+        <v>6.66</v>
       </c>
       <c r="C109">
-        <v>7.653967907215585</v>
+        <v>6.552374417208255</v>
       </c>
       <c r="D109">
-        <v>0.1439679072155853</v>
+        <v>-0.1076255827917452</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2820,13 +3030,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.49</v>
+        <v>6.65</v>
       </c>
       <c r="C110">
-        <v>7.614537985938926</v>
+        <v>6.513126281146628</v>
       </c>
       <c r="D110">
-        <v>0.1245379859389262</v>
+        <v>-0.136873718853372</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2834,13 +3044,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.5</v>
+        <v>6.56</v>
       </c>
       <c r="C111">
-        <v>7.567597284802493</v>
+        <v>6.544490655614852</v>
       </c>
       <c r="D111">
-        <v>0.06759728480249283</v>
+        <v>-0.01550934438514773</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2848,13 +3058,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.55</v>
+        <v>6.58</v>
       </c>
       <c r="C112">
-        <v>7.517003840521986</v>
+        <v>6.548908211652173</v>
       </c>
       <c r="D112">
-        <v>-0.03299615947801371</v>
+        <v>-0.031091788347827</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2862,13 +3072,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.6</v>
+        <v>6.58</v>
       </c>
       <c r="C113">
-        <v>7.568033058296801</v>
+        <v>6.561557639641673</v>
       </c>
       <c r="D113">
-        <v>-0.03196694170319869</v>
+        <v>-0.01844236035832747</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2876,13 +3086,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.58</v>
+        <v>6.72</v>
       </c>
       <c r="C114">
-        <v>7.57447226462648</v>
+        <v>6.624793966558841</v>
       </c>
       <c r="D114">
-        <v>-0.005527735373520137</v>
+        <v>-0.09520603344115841</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2890,13 +3100,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.66</v>
+        <v>6.87</v>
       </c>
       <c r="C115">
-        <v>7.543788579527342</v>
+        <v>6.753267210863803</v>
       </c>
       <c r="D115">
-        <v>-0.1162114204726583</v>
+        <v>-0.1167327891361971</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2904,13 +3114,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.65</v>
+        <v>7.06</v>
       </c>
       <c r="C116">
-        <v>7.920702485917052</v>
+        <v>7.186981646854856</v>
       </c>
       <c r="D116">
-        <v>0.2707024859170515</v>
+        <v>0.1269816468548566</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2918,13 +3128,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.62</v>
+        <v>7.18</v>
       </c>
       <c r="C117">
-        <v>7.8607481066038</v>
+        <v>7.181164317722684</v>
       </c>
       <c r="D117">
-        <v>0.2407481066037995</v>
+        <v>0.001164317722683883</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2932,13 +3142,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.71</v>
+        <v>7.24</v>
       </c>
       <c r="C118">
-        <v>7.982701484786483</v>
+        <v>7.244250195056243</v>
       </c>
       <c r="D118">
-        <v>0.2727014847864826</v>
+        <v>0.004250195056243022</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2946,13 +3156,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.62</v>
+        <v>7.21</v>
       </c>
       <c r="C119">
-        <v>7.882273228876305</v>
+        <v>7.273298032466706</v>
       </c>
       <c r="D119">
-        <v>0.262273228876305</v>
+        <v>0.06329803246670629</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2960,13 +3170,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.65</v>
+        <v>7.06</v>
       </c>
       <c r="C120">
-        <v>7.883277406534112</v>
+        <v>7.19742373865268</v>
       </c>
       <c r="D120">
-        <v>0.2332774065341114</v>
+        <v>0.1374237386526804</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2974,13 +3184,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.67</v>
+        <v>7.09</v>
       </c>
       <c r="C121">
-        <v>7.928887155474224</v>
+        <v>7.167440228089476</v>
       </c>
       <c r="D121">
-        <v>0.2588871554742243</v>
+        <v>0.07744022808947637</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2988,13 +3198,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.73</v>
+        <v>7.12</v>
       </c>
       <c r="C122">
-        <v>7.946139907171395</v>
+        <v>7.138509031327186</v>
       </c>
       <c r="D122">
-        <v>0.216139907171395</v>
+        <v>0.01850903132718607</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3002,13 +3212,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.4</v>
+        <v>7.13</v>
       </c>
       <c r="C123">
-        <v>7.660522277180065</v>
+        <v>7.087038900128634</v>
       </c>
       <c r="D123">
-        <v>0.2605222771800646</v>
+        <v>-0.04296109987136632</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3016,13 +3226,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.36</v>
+        <v>7.05</v>
       </c>
       <c r="C124">
-        <v>7.662096097920267</v>
+        <v>7.102785170227048</v>
       </c>
       <c r="D124">
-        <v>0.3020960979202663</v>
+        <v>0.05278517022704854</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3030,13 +3240,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>7.38</v>
+        <v>6.86</v>
       </c>
       <c r="C125">
-        <v>7.645725351592188</v>
+        <v>7.244781500947883</v>
       </c>
       <c r="D125">
-        <v>0.265725351592188</v>
+        <v>0.3847815009478825</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3044,13 +3254,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>7.3</v>
+        <v>6.82</v>
       </c>
       <c r="C126">
-        <v>7.546024018602647</v>
+        <v>7.26417876662654</v>
       </c>
       <c r="D126">
-        <v>0.2460240186026468</v>
+        <v>0.44417876662654</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3058,13 +3268,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>7.1</v>
+        <v>6.89</v>
       </c>
       <c r="C127">
-        <v>7.362543673780842</v>
+        <v>7.344296740900035</v>
       </c>
       <c r="D127">
-        <v>0.2625436737808426</v>
+        <v>0.4542967409000358</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3072,13 +3282,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>7.15</v>
+        <v>6.96</v>
       </c>
       <c r="C128">
-        <v>7.412309419674405</v>
+        <v>7.421402982003893</v>
       </c>
       <c r="D128">
-        <v>0.2623094196744047</v>
+        <v>0.461402982003893</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3086,13 +3296,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>7.15</v>
+        <v>6.96</v>
       </c>
       <c r="C129">
-        <v>7.411434140715328</v>
+        <v>7.434729251314988</v>
       </c>
       <c r="D129">
-        <v>0.2614341407153278</v>
+        <v>0.4747292513149883</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3100,13 +3310,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>7.14</v>
+        <v>7</v>
       </c>
       <c r="C130">
-        <v>7.485748058612571</v>
+        <v>7.482360417887253</v>
       </c>
       <c r="D130">
-        <v>0.3457480586125712</v>
+        <v>0.4823604178872527</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3114,13 +3324,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7.23</v>
+        <v>7</v>
       </c>
       <c r="C131">
-        <v>7.532776146671291</v>
+        <v>7.464543262982766</v>
       </c>
       <c r="D131">
-        <v>0.3027761466712908</v>
+        <v>0.4645432629827662</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3128,13 +3338,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>7.21</v>
+        <v>7.16</v>
       </c>
       <c r="C132">
-        <v>7.527996154153752</v>
+        <v>7.455620154131824</v>
       </c>
       <c r="D132">
-        <v>0.3179961541537519</v>
+        <v>0.2956201541318242</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3142,13 +3352,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>7.19</v>
+        <v>7.21</v>
       </c>
       <c r="C133">
-        <v>7.505971370724024</v>
+        <v>7.474626912357246</v>
       </c>
       <c r="D133">
-        <v>0.3159713707240233</v>
+        <v>0.2646269123572456</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3156,13 +3366,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>7.28</v>
+        <v>7.1</v>
       </c>
       <c r="C134">
-        <v>7.532969131120638</v>
+        <v>7.276557215802931</v>
       </c>
       <c r="D134">
-        <v>0.2529691311206381</v>
+        <v>0.1765572158029309</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3170,13 +3380,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>7.82</v>
+        <v>7.17</v>
       </c>
       <c r="C135">
-        <v>7.803712032222967</v>
+        <v>7.490493446026188</v>
       </c>
       <c r="D135">
-        <v>-0.0162879677770329</v>
+        <v>0.3204934460261883</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3184,13 +3394,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>7.87</v>
+        <v>7.24</v>
       </c>
       <c r="C136">
-        <v>7.824946718329662</v>
+        <v>7.424974613359171</v>
       </c>
       <c r="D136">
-        <v>-0.04505328167033795</v>
+        <v>0.184974613359171</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3198,13 +3408,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>7.92</v>
+        <v>7.16</v>
       </c>
       <c r="C137">
-        <v>7.878643377931406</v>
+        <v>7.354657417239301</v>
       </c>
       <c r="D137">
-        <v>-0.04135662206859347</v>
+        <v>0.1946574172393012</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3212,13 +3422,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>7.84</v>
+        <v>7.3</v>
       </c>
       <c r="C138">
-        <v>7.966977901283218</v>
+        <v>7.341990173569402</v>
       </c>
       <c r="D138">
-        <v>0.126977901283218</v>
+        <v>0.0419901735694026</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3226,13 +3436,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.199999999999999</v>
+        <v>7.38</v>
       </c>
       <c r="C139">
-        <v>8.14466978067507</v>
+        <v>7.415163433339024</v>
       </c>
       <c r="D139">
-        <v>-0.05533021932492943</v>
+        <v>0.03516343333902405</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3240,13 +3450,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C140">
-        <v>8.112765496196786</v>
+        <v>7.433073672401846</v>
       </c>
       <c r="D140">
-        <v>-0.08723450380321296</v>
+        <v>0.03307367240184522</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3254,13 +3464,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.23</v>
+        <v>7.4</v>
       </c>
       <c r="C141">
-        <v>8.016011694017283</v>
+        <v>7.425377071195116</v>
       </c>
       <c r="D141">
-        <v>-0.213988305982717</v>
+        <v>0.02537707119511534</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3268,13 +3478,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>8.369999999999999</v>
+        <v>7.29</v>
       </c>
       <c r="C142">
-        <v>8.034240229484428</v>
+        <v>7.21664575078294</v>
       </c>
       <c r="D142">
-        <v>-0.3357597705155708</v>
+        <v>-0.07335424921705958</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3282,13 +3492,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>8.49</v>
+        <v>7.32</v>
       </c>
       <c r="C143">
-        <v>8.138791292588376</v>
+        <v>7.244191598364769</v>
       </c>
       <c r="D143">
-        <v>-0.3512087074116241</v>
+        <v>-0.07580840163523117</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3296,13 +3506,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>8.35</v>
+        <v>7.38</v>
       </c>
       <c r="C144">
-        <v>8.215346384931259</v>
+        <v>7.32924946624741</v>
       </c>
       <c r="D144">
-        <v>-0.134653615068741</v>
+        <v>-0.05075053375258953</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3310,13 +3520,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>8.210000000000001</v>
+        <v>7.35</v>
       </c>
       <c r="C145">
-        <v>8.213600885010461</v>
+        <v>7.322446442669524</v>
       </c>
       <c r="D145">
-        <v>0.003600885010460075</v>
+        <v>-0.02755355733047526</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3324,13 +3534,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.1</v>
+        <v>7.29</v>
       </c>
       <c r="C146">
-        <v>8.157286925187346</v>
+        <v>7.098490366833514</v>
       </c>
       <c r="D146">
-        <v>0.05728692518734668</v>
+        <v>-0.1915096331664863</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3338,13 +3548,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>8.18</v>
+        <v>7.89</v>
       </c>
       <c r="C147">
-        <v>8.046009744435501</v>
+        <v>7.218688683718788</v>
       </c>
       <c r="D147">
-        <v>-0.1339902555644983</v>
+        <v>-0.6713113162812121</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3352,13 +3562,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>8.17</v>
+        <v>7.88</v>
       </c>
       <c r="C148">
-        <v>8.298262197658197</v>
+        <v>7.24426558772585</v>
       </c>
       <c r="D148">
-        <v>0.1282621976581968</v>
+        <v>-0.6357344122741502</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3366,13 +3576,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>8.369999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="C149">
-        <v>8.468311840724255</v>
+        <v>7.274955495465101</v>
       </c>
       <c r="D149">
-        <v>0.09831184072425536</v>
+        <v>-0.6550445045348985</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3380,13 +3590,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>8.369999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="C150">
-        <v>8.373060488914653</v>
+        <v>7.714420472416029</v>
       </c>
       <c r="D150">
-        <v>0.003060488914654158</v>
+        <v>-0.4455795275839707</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3394,13 +3604,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>9.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C151">
-        <v>8.806307897480327</v>
+        <v>7.728037866139501</v>
       </c>
       <c r="D151">
-        <v>-0.2536921025196737</v>
+        <v>-0.3819621338604984</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3408,13 +3618,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>9.01</v>
+        <v>7.7</v>
       </c>
       <c r="C152">
-        <v>8.812599847189695</v>
+        <v>7.8506709540954</v>
       </c>
       <c r="D152">
-        <v>-0.1974001528103049</v>
+        <v>0.1506709540953999</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3422,13 +3632,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>9.779999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="C153">
-        <v>9.133849924773042</v>
+        <v>7.868870856209571</v>
       </c>
       <c r="D153">
-        <v>-0.6461500752269576</v>
+        <v>-0.1111291437904294</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3436,13 +3646,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>10.46</v>
+        <v>8.23</v>
       </c>
       <c r="C154">
-        <v>9.527674885182648</v>
+        <v>8.222959069510367</v>
       </c>
       <c r="D154">
-        <v>-0.9323251148173526</v>
+        <v>-0.007040930489633723</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3450,13 +3660,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>9.58</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C155">
-        <v>9.29748554547928</v>
+        <v>8.018630973163333</v>
       </c>
       <c r="D155">
-        <v>-0.2825144545207205</v>
+        <v>-0.03136902683666776</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3464,13 +3674,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>9.34</v>
+        <v>7.82</v>
       </c>
       <c r="C156">
-        <v>9.219770508300723</v>
+        <v>8.408883491201475</v>
       </c>
       <c r="D156">
-        <v>-0.120229491699277</v>
+        <v>0.5888834912014751</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3478,13 +3688,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>8.57</v>
+        <v>7.61</v>
       </c>
       <c r="C157">
-        <v>8.435770032921312</v>
+        <v>8.13252241001635</v>
       </c>
       <c r="D157">
-        <v>-0.1342299670786886</v>
+        <v>0.5225224100163492</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3492,13 +3702,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.54</v>
+        <v>7.85</v>
       </c>
       <c r="C158">
-        <v>8.01908028993272</v>
+        <v>8.285469308179991</v>
       </c>
       <c r="D158">
-        <v>0.4790802899327202</v>
+        <v>0.4354693081799912</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3506,13 +3716,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.64</v>
+        <v>7.69</v>
       </c>
       <c r="C159">
-        <v>8.122514372153802</v>
+        <v>8.170079822891989</v>
       </c>
       <c r="D159">
-        <v>0.4825143721538021</v>
+        <v>0.4800798228919883</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3520,13 +3730,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.91</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C160">
-        <v>8.182869978564835</v>
+        <v>8.079778232488369</v>
       </c>
       <c r="D160">
-        <v>0.2728699785648345</v>
+        <v>-0.2802217675116303</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3534,13 +3744,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.76</v>
+        <v>8.44</v>
       </c>
       <c r="C161">
-        <v>8.070608876850017</v>
+        <v>8.037389042546497</v>
       </c>
       <c r="D161">
-        <v>0.3106088768500168</v>
+        <v>-0.4026109574535024</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3548,13 +3758,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.88</v>
+        <v>8.98</v>
       </c>
       <c r="C162">
-        <v>7.851261692187147</v>
+        <v>8.215720861257275</v>
       </c>
       <c r="D162">
-        <v>-0.02873830781285314</v>
+        <v>-0.7642791387427259</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3562,13 +3772,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>8.039999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C163">
-        <v>8.041960668743858</v>
+        <v>8.48753378986143</v>
       </c>
       <c r="D163">
-        <v>0.001960668743858918</v>
+        <v>-0.7124662101385688</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3576,13 +3786,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.58</v>
+        <v>9.24</v>
       </c>
       <c r="C164">
-        <v>7.799195070324996</v>
+        <v>8.511359688113647</v>
       </c>
       <c r="D164">
-        <v>0.2191950703249956</v>
+        <v>-0.7286403118863536</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3590,13 +3800,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.46</v>
+        <v>9.25</v>
       </c>
       <c r="C165">
-        <v>7.734591195776301</v>
+        <v>8.478664050972554</v>
       </c>
       <c r="D165">
-        <v>0.274591195776301</v>
+        <v>-0.7713359490274456</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3604,13 +3814,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.27</v>
+        <v>8.99</v>
       </c>
       <c r="C166">
-        <v>7.369067307795265</v>
+        <v>8.353902258993426</v>
       </c>
       <c r="D166">
-        <v>0.09906730779526551</v>
+        <v>-0.6360977410065747</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3618,13 +3828,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.23</v>
+        <v>8.6</v>
       </c>
       <c r="C167">
-        <v>7.329328600082676</v>
+        <v>8.212156282619436</v>
       </c>
       <c r="D167">
-        <v>0.09932860008267586</v>
+        <v>-0.387843717380564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3632,13 +3842,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.27</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C168">
-        <v>7.373486820243966</v>
+        <v>8.21955102332927</v>
       </c>
       <c r="D168">
-        <v>0.1034868202439663</v>
+        <v>-0.4804489766707292</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3646,13 +3856,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.99</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C169">
-        <v>7.097412690461513</v>
+        <v>8.162127166214397</v>
       </c>
       <c r="D169">
-        <v>0.1074126904615129</v>
+        <v>-0.7078728337856024</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3660,13 +3870,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.13</v>
+        <v>8.99</v>
       </c>
       <c r="C170">
-        <v>7.157023293749645</v>
+        <v>8.235534241636074</v>
       </c>
       <c r="D170">
-        <v>0.02702329374964485</v>
+        <v>-0.754465758363926</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3674,13 +3884,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.23</v>
+        <v>8.51</v>
       </c>
       <c r="C171">
-        <v>7.194327339521419</v>
+        <v>8.077059291683948</v>
       </c>
       <c r="D171">
-        <v>-0.03567266047858109</v>
+        <v>-0.4329407083160515</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3688,13 +3898,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.3</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C172">
-        <v>7.219079202976991</v>
+        <v>7.949251932218673</v>
       </c>
       <c r="D172">
-        <v>-0.08092079702300836</v>
+        <v>-0.2707480677813274</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3702,13 +3912,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.15</v>
+        <v>8.31</v>
       </c>
       <c r="C173">
-        <v>7.139206392298706</v>
+        <v>8.018997560730337</v>
       </c>
       <c r="D173">
-        <v>-0.01079360770129423</v>
+        <v>-0.2910024392696631</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3716,13 +3926,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="C174">
-        <v>7.1771200765815</v>
+        <v>8.030255247068609</v>
       </c>
       <c r="D174">
-        <v>-0.02287992341850043</v>
+        <v>-0.5697447529313902</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3730,13 +3940,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.18</v>
+        <v>8.43</v>
       </c>
       <c r="C175">
-        <v>7.15062923422741</v>
+        <v>7.97324254720177</v>
       </c>
       <c r="D175">
-        <v>-0.02937076577258946</v>
+        <v>-0.4567574527982297</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3744,13 +3954,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.78</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C176">
-        <v>7.486997256654964</v>
+        <v>7.992855445694897</v>
       </c>
       <c r="D176">
-        <v>-0.2930027433450366</v>
+        <v>-0.5571445543051032</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3758,13 +3968,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.67</v>
+        <v>8</v>
       </c>
       <c r="C177">
-        <v>7.522286105944256</v>
+        <v>7.747540281587315</v>
       </c>
       <c r="D177">
-        <v>-0.1477138940557436</v>
+        <v>-0.2524597184126849</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3772,13 +3982,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>7.15</v>
+        <v>7.98</v>
       </c>
       <c r="C178">
-        <v>7.149375907018951</v>
+        <v>7.760438400904294</v>
       </c>
       <c r="D178">
-        <v>-0.0006240929810497065</v>
+        <v>-0.2195615990957061</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3786,13 +3996,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>7.24</v>
+        <v>7.96</v>
       </c>
       <c r="C179">
-        <v>7.193290986881768</v>
+        <v>7.759739427146887</v>
       </c>
       <c r="D179">
-        <v>-0.04670901311823261</v>
+        <v>-0.2002605728531126</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3800,13 +4010,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>7.17</v>
+        <v>7.94</v>
       </c>
       <c r="C180">
-        <v>7.092240045430086</v>
+        <v>7.730896105362883</v>
       </c>
       <c r="D180">
-        <v>-0.07775995456991414</v>
+        <v>-0.2091038946371171</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3814,13 +4024,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>7.09</v>
+        <v>7.9</v>
       </c>
       <c r="C181">
-        <v>7.053432177736618</v>
+        <v>7.702960086452744</v>
       </c>
       <c r="D181">
-        <v>-0.03656782226338162</v>
+        <v>-0.1970399135472567</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3828,13 +4038,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7.08</v>
+        <v>7.8</v>
       </c>
       <c r="C182">
-        <v>6.807223835985231</v>
+        <v>7.647675801387549</v>
       </c>
       <c r="D182">
-        <v>-0.2727761640147692</v>
+        <v>-0.1523241986124511</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3842,13 +4052,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>7.03</v>
+        <v>7.63</v>
       </c>
       <c r="C183">
-        <v>6.74844942284196</v>
+        <v>7.552474080981599</v>
       </c>
       <c r="D183">
-        <v>-0.2815505771580398</v>
+        <v>-0.07752591901840056</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3856,13 +4066,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>7.02</v>
+        <v>7.65</v>
       </c>
       <c r="C184">
-        <v>6.710082964774258</v>
+        <v>7.438781180320309</v>
       </c>
       <c r="D184">
-        <v>-0.3099170352257419</v>
+        <v>-0.2112188196796909</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3870,13 +4080,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>7.05</v>
+        <v>7.61</v>
       </c>
       <c r="C185">
-        <v>6.56380313879446</v>
+        <v>7.495930246185655</v>
       </c>
       <c r="D185">
-        <v>-0.4861968612055403</v>
+        <v>-0.1140697538143449</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3884,13 +4094,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.96</v>
+        <v>8.09</v>
       </c>
       <c r="C186">
-        <v>6.528536583622539</v>
+        <v>7.834079410371539</v>
       </c>
       <c r="D186">
-        <v>-0.4314634163774613</v>
+        <v>-0.2559205896284604</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3898,13 +4108,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.98</v>
+        <v>8.1</v>
       </c>
       <c r="C187">
-        <v>6.519789597033518</v>
+        <v>7.843785292443038</v>
       </c>
       <c r="D187">
-        <v>-0.4602104029664824</v>
+        <v>-0.2562147075569614</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3912,13 +4122,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>7.18</v>
+        <v>8.27</v>
       </c>
       <c r="C188">
-        <v>6.565337900320611</v>
+        <v>8.09565399885739</v>
       </c>
       <c r="D188">
-        <v>-0.6146620996793883</v>
+        <v>-0.1743460011426095</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3926,13 +4136,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>7.22</v>
+        <v>8.19</v>
       </c>
       <c r="C189">
-        <v>6.629240728082082</v>
+        <v>8.060896054914132</v>
       </c>
       <c r="D189">
-        <v>-0.5907592719179178</v>
+        <v>-0.129103945085868</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3940,13 +4150,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>7.18</v>
+        <v>8.17</v>
       </c>
       <c r="C190">
-        <v>6.769448142899685</v>
+        <v>7.979826356336072</v>
       </c>
       <c r="D190">
-        <v>-0.4105518571003151</v>
+        <v>-0.1901736436639281</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3954,13 +4164,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>7.03</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C191">
-        <v>6.598483044511767</v>
+        <v>7.967153524248851</v>
       </c>
       <c r="D191">
-        <v>-0.4315169554882328</v>
+        <v>-0.1628464757511496</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3968,13 +4178,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.9</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C192">
-        <v>6.612369516391738</v>
+        <v>8.044390439464404</v>
       </c>
       <c r="D192">
-        <v>-0.2876304836082619</v>
+        <v>-0.2456095605355948</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3982,13 +4192,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.57</v>
+        <v>7.67</v>
       </c>
       <c r="C193">
-        <v>6.332846298819077</v>
+        <v>7.804902757163664</v>
       </c>
       <c r="D193">
-        <v>-0.2371537011809233</v>
+        <v>0.1349027571636645</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3996,13 +4206,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.77</v>
+        <v>7.55</v>
       </c>
       <c r="C194">
-        <v>6.340928629449967</v>
+        <v>7.813556074196998</v>
       </c>
       <c r="D194">
-        <v>-0.4290713705500329</v>
+        <v>0.2635560741969982</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4010,13 +4220,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.68</v>
+        <v>7.52</v>
       </c>
       <c r="C195">
-        <v>6.297845192710395</v>
+        <v>7.800510424143657</v>
       </c>
       <c r="D195">
-        <v>-0.3821548072896048</v>
+        <v>0.2805104241436576</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4024,13 +4234,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.36</v>
+        <v>7.5</v>
       </c>
       <c r="C196">
-        <v>6.052244653642162</v>
+        <v>7.720000683409002</v>
       </c>
       <c r="D196">
-        <v>-0.3077553463578386</v>
+        <v>0.220000683409002</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4038,13 +4248,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.98</v>
+        <v>7.48</v>
       </c>
       <c r="C197">
-        <v>6.042308301892807</v>
+        <v>7.686520604656272</v>
       </c>
       <c r="D197">
-        <v>0.06230830189280656</v>
+        <v>0.206520604656272</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4052,13 +4262,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.94</v>
+        <v>7.65</v>
       </c>
       <c r="C198">
-        <v>6.040701101874093</v>
+        <v>8.048330824786078</v>
       </c>
       <c r="D198">
-        <v>0.1007011018740922</v>
+        <v>0.3983308247860773</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4066,13 +4276,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.9</v>
+        <v>7.69</v>
       </c>
       <c r="C199">
-        <v>6.07974128252486</v>
+        <v>8.09719458159854</v>
       </c>
       <c r="D199">
-        <v>0.1797412825248594</v>
+        <v>0.4071945815985396</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4080,13 +4290,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.7</v>
+        <v>7.69</v>
       </c>
       <c r="C200">
-        <v>6.032575529622123</v>
+        <v>8.176737992051169</v>
       </c>
       <c r="D200">
-        <v>0.3325755296221224</v>
+        <v>0.486737992051169</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4094,13 +4304,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.75</v>
+        <v>7.62</v>
       </c>
       <c r="C201">
-        <v>6.052172590374531</v>
+        <v>7.990311553443036</v>
       </c>
       <c r="D201">
-        <v>0.3021725903745311</v>
+        <v>0.3703115534430363</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4108,13 +4318,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.71</v>
+        <v>7.64</v>
       </c>
       <c r="C202">
-        <v>6.05243562944633</v>
+        <v>7.983808567557603</v>
       </c>
       <c r="D202">
-        <v>0.3424356294463298</v>
+        <v>0.3438085675576037</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4122,13 +4332,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.74</v>
+        <v>7.62</v>
       </c>
       <c r="C203">
-        <v>6.035991586882072</v>
+        <v>7.96635079799004</v>
       </c>
       <c r="D203">
-        <v>0.2959915868820717</v>
+        <v>0.3463507979900395</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4136,13 +4346,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.73</v>
+        <v>7.73</v>
       </c>
       <c r="C204">
-        <v>5.939475163624619</v>
+        <v>8.011159191362022</v>
       </c>
       <c r="D204">
-        <v>0.2094751636246182</v>
+        <v>0.2811591913620219</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4150,13 +4360,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.75</v>
+        <v>7.62</v>
       </c>
       <c r="C205">
-        <v>5.931824841077115</v>
+        <v>7.893292239486805</v>
       </c>
       <c r="D205">
-        <v>0.1818248410771153</v>
+        <v>0.2732922394868051</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4164,13 +4374,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.7</v>
+        <v>7.64</v>
       </c>
       <c r="C206">
-        <v>5.90239581411412</v>
+        <v>7.897431197241159</v>
       </c>
       <c r="D206">
-        <v>0.2023958141141193</v>
+        <v>0.2574311972411589</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4178,13 +4388,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.72</v>
+        <v>7.62</v>
       </c>
       <c r="C207">
-        <v>5.895444821109868</v>
+        <v>7.815711948630942</v>
       </c>
       <c r="D207">
-        <v>0.1754448211098687</v>
+        <v>0.195711948630942</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4192,13 +4402,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.68</v>
+        <v>7.54</v>
       </c>
       <c r="C208">
-        <v>5.862193708629303</v>
+        <v>7.737750945533727</v>
       </c>
       <c r="D208">
-        <v>0.1821937086293035</v>
+        <v>0.197750945533727</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4206,13 +4416,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.49</v>
+        <v>7.59</v>
       </c>
       <c r="C209">
-        <v>5.667851809853441</v>
+        <v>7.868756024310628</v>
       </c>
       <c r="D209">
-        <v>0.1778518098534407</v>
+        <v>0.2787560243106286</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4220,13 +4430,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.47</v>
+        <v>7.64</v>
       </c>
       <c r="C210">
-        <v>5.66058334012797</v>
+        <v>7.86894693328886</v>
       </c>
       <c r="D210">
-        <v>0.1905833401279704</v>
+        <v>0.2289469332888601</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4234,13 +4444,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.46</v>
+        <v>7.63</v>
       </c>
       <c r="C211">
-        <v>5.647592167920677</v>
+        <v>7.835722870961466</v>
       </c>
       <c r="D211">
-        <v>0.1875921679206769</v>
+        <v>0.2057228709614662</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4248,13 +4458,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.45</v>
+        <v>7.68</v>
       </c>
       <c r="C212">
-        <v>5.627446110939494</v>
+        <v>7.966431519324787</v>
       </c>
       <c r="D212">
-        <v>0.1774461109394938</v>
+        <v>0.2864315193247871</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4262,13 +4472,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.37</v>
+        <v>7.7</v>
       </c>
       <c r="C213">
-        <v>5.629619380545315</v>
+        <v>7.971758894230452</v>
       </c>
       <c r="D213">
-        <v>0.2596193805453151</v>
+        <v>0.2717588942304516</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4276,13 +4486,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.4</v>
+        <v>7.71</v>
       </c>
       <c r="C214">
-        <v>5.647167127368804</v>
+        <v>7.969068821707919</v>
       </c>
       <c r="D214">
-        <v>0.2471671273688036</v>
+        <v>0.2590688217079187</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4290,13 +4500,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.31</v>
+        <v>7.65</v>
       </c>
       <c r="C215">
-        <v>5.558553204851742</v>
+        <v>7.940876599593266</v>
       </c>
       <c r="D215">
-        <v>0.248553204851742</v>
+        <v>0.2908765995932656</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4304,13 +4514,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.49</v>
+        <v>7.69</v>
       </c>
       <c r="C216">
-        <v>5.556941812427637</v>
+        <v>7.975411366231621</v>
       </c>
       <c r="D216">
-        <v>0.06694181242763708</v>
+        <v>0.2854113662316209</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4318,13 +4528,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.49</v>
+        <v>7.73</v>
       </c>
       <c r="C217">
-        <v>5.571759606188881</v>
+        <v>8.023411070679529</v>
       </c>
       <c r="D217">
-        <v>0.08175960618888123</v>
+        <v>0.2934110706795288</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4332,13 +4542,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.51</v>
+        <v>7.4</v>
       </c>
       <c r="C218">
-        <v>5.573716516866029</v>
+        <v>7.613845808940417</v>
       </c>
       <c r="D218">
-        <v>0.06371651686602942</v>
+        <v>0.2138458089404169</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4346,13 +4556,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.63</v>
+        <v>7.3</v>
       </c>
       <c r="C219">
-        <v>5.6301083290552</v>
+        <v>7.565185858609607</v>
       </c>
       <c r="D219">
-        <v>0.0001083290551999738</v>
+        <v>0.2651858586096072</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4360,13 +4570,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.62</v>
+        <v>7.25</v>
       </c>
       <c r="C220">
-        <v>5.618799673691643</v>
+        <v>7.406346652570222</v>
       </c>
       <c r="D220">
-        <v>-0.001200326308357091</v>
+        <v>0.156346652570222</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4374,13 +4584,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.85</v>
+        <v>7.4</v>
       </c>
       <c r="C221">
-        <v>5.684211711462113</v>
+        <v>7.602909689768633</v>
       </c>
       <c r="D221">
-        <v>-0.165788288537887</v>
+        <v>0.2029096897686324</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4388,13 +4598,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.97</v>
+        <v>8.02</v>
       </c>
       <c r="C222">
-        <v>5.60846122968374</v>
+        <v>7.979741887272897</v>
       </c>
       <c r="D222">
-        <v>-0.36153877031626</v>
+        <v>-0.04025811272710289</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4402,13 +4612,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.83</v>
+        <v>7.85</v>
       </c>
       <c r="C223">
-        <v>5.620285180985662</v>
+        <v>7.952118526680461</v>
       </c>
       <c r="D223">
-        <v>-0.2097148190143381</v>
+        <v>0.102118526680461</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4416,13 +4626,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.92</v>
+        <v>7.88</v>
       </c>
       <c r="C224">
-        <v>5.644744368366253</v>
+        <v>7.915068965373345</v>
       </c>
       <c r="D224">
-        <v>-0.2752556316337467</v>
+        <v>0.0350689653733447</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4430,13 +4640,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.96</v>
+        <v>7.88</v>
       </c>
       <c r="C225">
-        <v>5.643684636984873</v>
+        <v>7.883457393666366</v>
       </c>
       <c r="D225">
-        <v>-0.3163153630151267</v>
+        <v>0.003457393666366215</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4444,13 +4654,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.02</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C226">
-        <v>5.612922587997921</v>
+        <v>8.165401834653085</v>
       </c>
       <c r="D226">
-        <v>-0.4070774120020788</v>
+        <v>-0.04459816534691541</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4458,13 +4668,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.09</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C227">
-        <v>5.624993530002112</v>
+        <v>8.149948062310724</v>
       </c>
       <c r="D227">
-        <v>-0.4650064699978875</v>
+        <v>-0.06005193768927697</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4472,13 +4682,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.3</v>
+        <v>8.26</v>
       </c>
       <c r="C228">
-        <v>5.411355022229778</v>
+        <v>8.036588868580342</v>
       </c>
       <c r="D228">
-        <v>0.1113550222297786</v>
+        <v>-0.2234111314196578</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4486,13 +4696,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.32</v>
+        <v>8.42</v>
       </c>
       <c r="C229">
-        <v>5.413875752069923</v>
+        <v>8.087988497501197</v>
       </c>
       <c r="D229">
-        <v>0.09387575206992249</v>
+        <v>-0.3320115024988031</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4500,13 +4710,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.29</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C230">
-        <v>5.399866190279055</v>
+        <v>8.225645727313992</v>
       </c>
       <c r="D230">
-        <v>0.109866190279055</v>
+        <v>-0.144354272686007</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4514,13 +4724,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.27</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C231">
-        <v>5.42121873612125</v>
+        <v>8.170759595893426</v>
       </c>
       <c r="D231">
-        <v>0.1512187361212503</v>
+        <v>-0.03924040410657526</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4528,13 +4738,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.21</v>
+        <v>8.19</v>
       </c>
       <c r="C232">
-        <v>5.483598907344629</v>
+        <v>8.163129431090052</v>
       </c>
       <c r="D232">
-        <v>0.2735989073446294</v>
+        <v>-0.02687056890994732</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4542,13 +4752,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.18</v>
+        <v>7.9</v>
       </c>
       <c r="C233">
-        <v>5.460330969018648</v>
+        <v>7.923918443989845</v>
       </c>
       <c r="D233">
-        <v>0.2803309690186486</v>
+        <v>0.023918443989845</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4556,13 +4766,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.15</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C234">
-        <v>5.471766807362704</v>
+        <v>8.475747554607938</v>
       </c>
       <c r="D234">
-        <v>0.321766807362704</v>
+        <v>0.08574755460793781</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4570,13 +4780,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>4.99</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C235">
-        <v>5.424399032015777</v>
+        <v>8.301668615921489</v>
       </c>
       <c r="D235">
-        <v>0.4343990320157767</v>
+        <v>0.09166861592148834</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4584,13 +4794,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.02</v>
+        <v>8.24</v>
       </c>
       <c r="C236">
-        <v>5.412154479548874</v>
+        <v>8.333973026699315</v>
       </c>
       <c r="D236">
-        <v>0.3921544795488741</v>
+        <v>0.09397302669931484</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4598,13 +4808,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.01</v>
+        <v>10.1</v>
       </c>
       <c r="C237">
-        <v>5.417063857900133</v>
+        <v>9.407133687505553</v>
       </c>
       <c r="D237">
-        <v>0.4070638579001331</v>
+        <v>-0.6928663124944467</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4612,13 +4822,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.03</v>
+        <v>10.01</v>
       </c>
       <c r="C238">
-        <v>5.44252908877865</v>
+        <v>9.517550630548413</v>
       </c>
       <c r="D238">
-        <v>0.4125290887786495</v>
+        <v>-0.4924493694515863</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4626,13 +4836,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>4.99</v>
+        <v>9.58</v>
       </c>
       <c r="C239">
-        <v>5.385739519551609</v>
+        <v>9.368017179852174</v>
       </c>
       <c r="D239">
-        <v>0.3957395195516087</v>
+        <v>-0.211982820147826</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4640,13 +4850,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>4.99</v>
+        <v>7.62</v>
       </c>
       <c r="C240">
-        <v>5.386281028624068</v>
+        <v>8.16587053626348</v>
       </c>
       <c r="D240">
-        <v>0.3962810286240677</v>
+        <v>0.5458705362634797</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4654,13 +4864,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.1</v>
+        <v>7.64</v>
       </c>
       <c r="C241">
-        <v>5.401753283211471</v>
+        <v>8.176938438975409</v>
       </c>
       <c r="D241">
-        <v>0.3017532832114709</v>
+        <v>0.536938438975409</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4668,13 +4878,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.14</v>
+        <v>7.7</v>
       </c>
       <c r="C242">
-        <v>5.398375009786522</v>
+        <v>8.02713974111872</v>
       </c>
       <c r="D242">
-        <v>0.2583750097865227</v>
+        <v>0.32713974111872</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4682,13 +4892,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.09</v>
+        <v>7.76</v>
       </c>
       <c r="C243">
-        <v>5.279187650765221</v>
+        <v>8.08687747429121</v>
       </c>
       <c r="D243">
-        <v>0.1891876507652208</v>
+        <v>0.3268774742912104</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4696,13 +4906,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.11</v>
+        <v>7.74</v>
       </c>
       <c r="C244">
-        <v>5.296567635969967</v>
+        <v>8.061525663992111</v>
       </c>
       <c r="D244">
-        <v>0.1865676359699666</v>
+        <v>0.3215256639921105</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4710,13 +4920,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.11</v>
+        <v>7.8</v>
       </c>
       <c r="C245">
-        <v>5.292827333891432</v>
+        <v>7.876727221297977</v>
       </c>
       <c r="D245">
-        <v>0.1828273338914315</v>
+        <v>0.07672722129797727</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4724,13 +4934,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.11</v>
+        <v>7.82</v>
       </c>
       <c r="C246">
-        <v>5.278905694213941</v>
+        <v>7.893106849021863</v>
       </c>
       <c r="D246">
-        <v>0.1689056942139402</v>
+        <v>0.07310684902186271</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4738,13 +4948,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.09</v>
+        <v>7.57</v>
       </c>
       <c r="C247">
-        <v>5.291775107037064</v>
+        <v>7.735295936893629</v>
       </c>
       <c r="D247">
-        <v>0.2017751070370641</v>
+        <v>0.1652959368936289</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4752,13 +4962,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.12</v>
+        <v>7.57</v>
       </c>
       <c r="C248">
-        <v>5.304594974343842</v>
+        <v>7.760356161265899</v>
       </c>
       <c r="D248">
-        <v>0.1845949743438418</v>
+        <v>0.1903561612658988</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4766,13 +4976,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.13</v>
+        <v>7.51</v>
       </c>
       <c r="C249">
-        <v>5.303704004984577</v>
+        <v>7.759752997264999</v>
       </c>
       <c r="D249">
-        <v>0.1737040049845771</v>
+        <v>0.2497529972649994</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4780,13 +4990,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.1</v>
+        <v>7.44</v>
       </c>
       <c r="C250">
-        <v>5.274012735946864</v>
+        <v>7.673623934666737</v>
       </c>
       <c r="D250">
-        <v>0.1740127359468646</v>
+        <v>0.2336239346667366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4794,13 +5004,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.08</v>
+        <v>7.69</v>
       </c>
       <c r="C251">
-        <v>5.243697734367767</v>
+        <v>7.696208164168534</v>
       </c>
       <c r="D251">
-        <v>0.1636977343677666</v>
+        <v>0.00620816416853387</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4808,13 +5018,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.08</v>
+        <v>7.22</v>
       </c>
       <c r="C252">
-        <v>5.244439445483633</v>
+        <v>7.366467083200916</v>
       </c>
       <c r="D252">
-        <v>0.1644394454836329</v>
+        <v>0.1464670832009158</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4822,13 +5032,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.1</v>
+        <v>7.25</v>
       </c>
       <c r="C253">
-        <v>5.279001777000478</v>
+        <v>7.36124144970555</v>
       </c>
       <c r="D253">
-        <v>0.1790017770004786</v>
+        <v>0.1112414497055498</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4836,13 +5046,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.09</v>
+        <v>7.05</v>
       </c>
       <c r="C254">
-        <v>5.300833390077712</v>
+        <v>7.079324049047295</v>
       </c>
       <c r="D254">
-        <v>0.2108333900777124</v>
+        <v>0.02932404904729502</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4850,13 +5060,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.07</v>
+        <v>7.18</v>
       </c>
       <c r="C255">
-        <v>5.29689616654153</v>
+        <v>7.241227161868466</v>
       </c>
       <c r="D255">
-        <v>0.2268961665415299</v>
+        <v>0.06122716186846677</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4864,13 +5074,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.16</v>
+        <v>7.26</v>
       </c>
       <c r="C256">
-        <v>5.337924045901373</v>
+        <v>7.262583313746938</v>
       </c>
       <c r="D256">
-        <v>0.1779240459013733</v>
+        <v>0.002583313746938209</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4878,13 +5088,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.04</v>
+        <v>7.19</v>
       </c>
       <c r="C257">
-        <v>5.210996937219696</v>
+        <v>7.122766817477104</v>
       </c>
       <c r="D257">
-        <v>0.1709969372196962</v>
+        <v>-0.06723318252289623</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4892,13 +5102,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.05</v>
+        <v>7.31</v>
       </c>
       <c r="C258">
-        <v>5.202106442387511</v>
+        <v>7.190355590166999</v>
       </c>
       <c r="D258">
-        <v>0.1521064423875114</v>
+        <v>-0.1196444098330005</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4906,13 +5116,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.04</v>
+        <v>7.24</v>
       </c>
       <c r="C259">
-        <v>5.210920740281273</v>
+        <v>7.225709738996463</v>
       </c>
       <c r="D259">
-        <v>0.1709207402812734</v>
+        <v>-0.01429026100353692</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4920,13 +5130,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.06</v>
+        <v>7.18</v>
       </c>
       <c r="C260">
-        <v>5.229406775015124</v>
+        <v>7.064069377370877</v>
       </c>
       <c r="D260">
-        <v>0.1694067750151245</v>
+        <v>-0.115930622629123</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4934,13 +5144,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>4.96</v>
+        <v>6.96</v>
       </c>
       <c r="C261">
-        <v>5.102725131858819</v>
+        <v>6.819320243920376</v>
       </c>
       <c r="D261">
-        <v>0.1427251318588194</v>
+        <v>-0.1406797560796242</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4948,13 +5158,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>4.98</v>
+        <v>6.9</v>
       </c>
       <c r="C262">
-        <v>5.108973218814325</v>
+        <v>6.796875245850535</v>
       </c>
       <c r="D262">
-        <v>0.1289732188143242</v>
+        <v>-0.1031247541494649</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4962,13 +5172,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>4.89</v>
+        <v>7.11</v>
       </c>
       <c r="C263">
-        <v>4.985915530161059</v>
+        <v>6.571784226970233</v>
       </c>
       <c r="D263">
-        <v>0.09591553016105969</v>
+        <v>-0.5382157730297674</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4976,13 +5186,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.15</v>
+        <v>7.3</v>
       </c>
       <c r="C264">
-        <v>5.00322827161997</v>
+        <v>6.594980180641998</v>
       </c>
       <c r="D264">
-        <v>-0.1467717283800303</v>
+        <v>-0.705019819358002</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4990,13 +5200,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.19</v>
+        <v>6.93</v>
       </c>
       <c r="C265">
-        <v>5.031053375281123</v>
+        <v>6.611677484734142</v>
       </c>
       <c r="D265">
-        <v>-0.1589466247188778</v>
+        <v>-0.3183225152658578</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5004,13 +5214,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.19</v>
+        <v>6.89</v>
       </c>
       <c r="C266">
-        <v>4.992110548538434</v>
+        <v>6.596003860752917</v>
       </c>
       <c r="D266">
-        <v>-0.1978894514615668</v>
+        <v>-0.2939961392470831</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5018,13 +5228,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.24</v>
+        <v>7.04</v>
       </c>
       <c r="C267">
-        <v>5.139757675608037</v>
+        <v>6.505543554995138</v>
       </c>
       <c r="D267">
-        <v>-0.1002423243919628</v>
+        <v>-0.5344564450048619</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5032,13 +5242,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.23</v>
+        <v>6.93</v>
       </c>
       <c r="C268">
-        <v>5.093970869308849</v>
+        <v>6.567189295007355</v>
       </c>
       <c r="D268">
-        <v>-0.1360291306911519</v>
+        <v>-0.3628107049926443</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5046,13 +5256,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.22</v>
+        <v>6.98</v>
       </c>
       <c r="C269">
-        <v>5.086848315857597</v>
+        <v>6.522593958771311</v>
       </c>
       <c r="D269">
-        <v>-0.133151684142403</v>
+        <v>-0.4574060412286896</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5060,13 +5270,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.24</v>
+        <v>6.63</v>
       </c>
       <c r="C270">
-        <v>5.09484490187408</v>
+        <v>6.296427278383534</v>
       </c>
       <c r="D270">
-        <v>-0.1451550981259198</v>
+        <v>-0.3335727216164663</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5074,13 +5284,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.25</v>
+        <v>6.67</v>
       </c>
       <c r="C271">
-        <v>5.108316994514047</v>
+        <v>6.293514340442351</v>
       </c>
       <c r="D271">
-        <v>-0.1416830054859526</v>
+        <v>-0.3764856595576491</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5088,13 +5298,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.25</v>
+        <v>6.61</v>
       </c>
       <c r="C272">
-        <v>5.108758884931615</v>
+        <v>6.285065210012013</v>
       </c>
       <c r="D272">
-        <v>-0.141241115068385</v>
+        <v>-0.3249347899879869</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5102,13 +5312,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.24</v>
+        <v>6.61</v>
       </c>
       <c r="C273">
-        <v>5.108598139659057</v>
+        <v>6.399825219745174</v>
       </c>
       <c r="D273">
-        <v>-0.1314018603409428</v>
+        <v>-0.2101747802548264</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5116,13 +5326,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.27</v>
+        <v>6.64</v>
       </c>
       <c r="C274">
-        <v>5.10397012627002</v>
+        <v>6.429393095934322</v>
       </c>
       <c r="D274">
-        <v>-0.1660298737299799</v>
+        <v>-0.2106069040656777</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5130,13 +5340,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.33</v>
+        <v>6.81</v>
       </c>
       <c r="C275">
-        <v>5.163525011225759</v>
+        <v>6.349973287573257</v>
       </c>
       <c r="D275">
-        <v>-0.1664749887742412</v>
+        <v>-0.4600267124267425</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5144,13 +5354,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.33</v>
+        <v>6.8</v>
       </c>
       <c r="C276">
-        <v>5.147591174757756</v>
+        <v>6.303467555696364</v>
       </c>
       <c r="D276">
-        <v>-0.182408825242244</v>
+        <v>-0.4965324443036359</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5158,13 +5368,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.32</v>
+        <v>6.74</v>
       </c>
       <c r="C277">
-        <v>5.139167926117241</v>
+        <v>6.278164713908338</v>
       </c>
       <c r="D277">
-        <v>-0.1808320738827591</v>
+        <v>-0.4618352860916621</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5172,13 +5382,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.29</v>
+        <v>6.36</v>
       </c>
       <c r="C278">
-        <v>5.078699840183043</v>
+        <v>6.028630149886653</v>
       </c>
       <c r="D278">
-        <v>-0.2113001598169575</v>
+        <v>-0.3313698501133473</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5186,13 +5396,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.34</v>
+        <v>5.75</v>
       </c>
       <c r="C279">
-        <v>5.1260677392899</v>
+        <v>6.034844170167465</v>
       </c>
       <c r="D279">
-        <v>-0.2139322607100995</v>
+        <v>0.2848441701674647</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5200,13 +5410,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.29</v>
+        <v>5.7</v>
       </c>
       <c r="C280">
-        <v>5.133863206521185</v>
+        <v>6.002632492513682</v>
       </c>
       <c r="D280">
-        <v>-0.1561367934788152</v>
+        <v>0.3026324925136823</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5214,13 +5424,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.32</v>
+        <v>5.7</v>
       </c>
       <c r="C281">
-        <v>5.110287318852557</v>
+        <v>6.031107738146685</v>
       </c>
       <c r="D281">
-        <v>-0.209712681147443</v>
+        <v>0.3311077381466845</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5228,13 +5438,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.39</v>
+        <v>5.69</v>
       </c>
       <c r="C282">
-        <v>5.197148797589022</v>
+        <v>6.014843812830983</v>
       </c>
       <c r="D282">
-        <v>-0.1928512024109779</v>
+        <v>0.3248438128309825</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5242,13 +5452,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.48</v>
+        <v>5.74</v>
       </c>
       <c r="C283">
-        <v>5.25750554184098</v>
+        <v>5.913731373127306</v>
       </c>
       <c r="D283">
-        <v>-0.2224944581590202</v>
+        <v>0.173731373127306</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5256,13 +5466,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C284">
-        <v>5.262467501097045</v>
+        <v>5.744306956121547</v>
       </c>
       <c r="D284">
-        <v>-0.2575324989029548</v>
+        <v>0.2143069561215469</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5270,13 +5480,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.65</v>
+        <v>5.43</v>
       </c>
       <c r="C285">
-        <v>5.279986428907228</v>
+        <v>5.575885422994271</v>
       </c>
       <c r="D285">
-        <v>-0.3700135710927723</v>
+        <v>0.1458854229942714</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5284,13 +5494,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.69</v>
+        <v>5.61</v>
       </c>
       <c r="C286">
-        <v>5.323598410729654</v>
+        <v>5.608601388938394</v>
       </c>
       <c r="D286">
-        <v>-0.3664015892703461</v>
+        <v>-0.001398611061606658</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5301,10 +5511,10 @@
         <v>5.68</v>
       </c>
       <c r="C287">
-        <v>5.317599310022962</v>
+        <v>5.598611438764176</v>
       </c>
       <c r="D287">
-        <v>-0.3624006899770373</v>
+        <v>-0.08138856123582361</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5312,13 +5522,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.73</v>
+        <v>5.56</v>
       </c>
       <c r="C288">
-        <v>5.343513078439348</v>
+        <v>5.576647088368227</v>
       </c>
       <c r="D288">
-        <v>-0.3864869215606523</v>
+        <v>0.01664708836822726</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5326,13 +5536,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.72</v>
+        <v>5.87</v>
       </c>
       <c r="C289">
-        <v>5.39151942776112</v>
+        <v>5.730497207019698</v>
       </c>
       <c r="D289">
-        <v>-0.3284805722388793</v>
+        <v>-0.1395027929803021</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5340,13 +5550,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.54</v>
+        <v>5.98</v>
       </c>
       <c r="C290">
-        <v>5.399632908750553</v>
+        <v>5.62690241901035</v>
       </c>
       <c r="D290">
-        <v>-0.1403670912494466</v>
+        <v>-0.3530975809896502</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5354,13 +5564,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.62</v>
+        <v>5.8</v>
       </c>
       <c r="C291">
-        <v>5.406121521064697</v>
+        <v>5.611836441601128</v>
       </c>
       <c r="D291">
-        <v>-0.2138784789353032</v>
+        <v>-0.1881635583988714</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5368,13 +5578,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>5.66</v>
+        <v>5.76</v>
       </c>
       <c r="C292">
-        <v>5.390532880869222</v>
+        <v>5.564401871270934</v>
       </c>
       <c r="D292">
-        <v>-0.2694671191307778</v>
+        <v>-0.195598128729066</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5382,13 +5592,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>5.65</v>
+        <v>5.31</v>
       </c>
       <c r="C293">
-        <v>5.33873704983136</v>
+        <v>5.418251736442563</v>
       </c>
       <c r="D293">
-        <v>-0.3112629501686408</v>
+        <v>0.108251736442563</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5396,13 +5606,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>5.66</v>
+        <v>5.27</v>
       </c>
       <c r="C294">
-        <v>5.344089109353011</v>
+        <v>5.447129909622546</v>
       </c>
       <c r="D294">
-        <v>-0.3159108906469887</v>
+        <v>0.177129909622546</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5410,13 +5620,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>5.67</v>
+        <v>5.18</v>
       </c>
       <c r="C295">
-        <v>5.350469558798292</v>
+        <v>5.454260229111989</v>
       </c>
       <c r="D295">
-        <v>-0.3195304412017075</v>
+        <v>0.2742602291119898</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5424,13 +5634,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>5.68</v>
+        <v>5.17</v>
       </c>
       <c r="C296">
-        <v>5.40657899007739</v>
+        <v>5.485189469141322</v>
       </c>
       <c r="D296">
-        <v>-0.2734210099226102</v>
+        <v>0.3151894691413224</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5438,13 +5648,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>5.68</v>
+        <v>5.17</v>
       </c>
       <c r="C297">
-        <v>5.369206578862593</v>
+        <v>5.471860546230478</v>
       </c>
       <c r="D297">
-        <v>-0.310793421137407</v>
+        <v>0.3018605462304782</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5452,13 +5662,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>5.66</v>
+        <v>5.13</v>
       </c>
       <c r="C298">
-        <v>5.379928051078726</v>
+        <v>5.464441002845281</v>
       </c>
       <c r="D298">
-        <v>-0.2800719489212744</v>
+        <v>0.3344410028452813</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5466,13 +5676,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>5.72</v>
+        <v>4.98</v>
       </c>
       <c r="C299">
-        <v>5.430892994819186</v>
+        <v>5.442580819665785</v>
       </c>
       <c r="D299">
-        <v>-0.2891070051808136</v>
+        <v>0.4625808196657841</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5480,13 +5690,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>5.71</v>
+        <v>4.97</v>
       </c>
       <c r="C300">
-        <v>5.431940070770042</v>
+        <v>5.409001306749736</v>
       </c>
       <c r="D300">
-        <v>-0.2780599292299577</v>
+        <v>0.439001306749736</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5494,13 +5704,993 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>5.74</v>
+        <v>5.02</v>
       </c>
       <c r="C301">
-        <v>5.450146169352871</v>
+        <v>5.474039525799435</v>
       </c>
       <c r="D301">
-        <v>-0.2898538306471297</v>
+        <v>0.454039525799435</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>4.99</v>
+      </c>
+      <c r="C302">
+        <v>5.436987894118779</v>
+      </c>
+      <c r="D302">
+        <v>0.446987894118779</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>5.08</v>
+      </c>
+      <c r="C303">
+        <v>5.463741306562171</v>
+      </c>
+      <c r="D303">
+        <v>0.3837413065621709</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>5.08</v>
+      </c>
+      <c r="C304">
+        <v>5.470415998710098</v>
+      </c>
+      <c r="D304">
+        <v>0.3904159987100977</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>5.14</v>
+      </c>
+      <c r="C305">
+        <v>5.502448510381226</v>
+      </c>
+      <c r="D305">
+        <v>0.3624485103812258</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>5.11</v>
+      </c>
+      <c r="C306">
+        <v>5.382473049839034</v>
+      </c>
+      <c r="D306">
+        <v>0.272473049839034</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>5.11</v>
+      </c>
+      <c r="C307">
+        <v>5.372052141365712</v>
+      </c>
+      <c r="D307">
+        <v>0.2620521413657118</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>5.09</v>
+      </c>
+      <c r="C308">
+        <v>5.376162299255697</v>
+      </c>
+      <c r="D308">
+        <v>0.2861622992556967</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>5.07</v>
+      </c>
+      <c r="C309">
+        <v>5.297518879698505</v>
+      </c>
+      <c r="D309">
+        <v>0.227518879698505</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>5.09</v>
+      </c>
+      <c r="C310">
+        <v>5.302250904145582</v>
+      </c>
+      <c r="D310">
+        <v>0.2122509041455825</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>5.06</v>
+      </c>
+      <c r="C311">
+        <v>5.330807518123472</v>
+      </c>
+      <c r="D311">
+        <v>0.2708075181234726</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>5.08</v>
+      </c>
+      <c r="C312">
+        <v>5.350433464213091</v>
+      </c>
+      <c r="D312">
+        <v>0.2704334642130908</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>5.04</v>
+      </c>
+      <c r="C313">
+        <v>5.312376052689087</v>
+      </c>
+      <c r="D313">
+        <v>0.2723760526890873</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314">
+        <v>5.05</v>
+      </c>
+      <c r="C314">
+        <v>5.27184466059273</v>
+      </c>
+      <c r="D314">
+        <v>0.2218446605927298</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315">
+        <v>5.08</v>
+      </c>
+      <c r="C315">
+        <v>5.31891657731522</v>
+      </c>
+      <c r="D315">
+        <v>0.2389165773152202</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316">
+        <v>5.15</v>
+      </c>
+      <c r="C316">
+        <v>5.362772723787182</v>
+      </c>
+      <c r="D316">
+        <v>0.2127727237871815</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317">
+        <v>5.14</v>
+      </c>
+      <c r="C317">
+        <v>5.365363530362162</v>
+      </c>
+      <c r="D317">
+        <v>0.2253635303621619</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318">
+        <v>5.07</v>
+      </c>
+      <c r="C318">
+        <v>5.242867420221772</v>
+      </c>
+      <c r="D318">
+        <v>0.1728674202217713</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>5.08</v>
+      </c>
+      <c r="C319">
+        <v>5.260304504852993</v>
+      </c>
+      <c r="D319">
+        <v>0.1803045048529928</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>5.06</v>
+      </c>
+      <c r="C320">
+        <v>5.269606253943484</v>
+      </c>
+      <c r="D320">
+        <v>0.209606253943484</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>5.04</v>
+      </c>
+      <c r="C321">
+        <v>5.243029289242294</v>
+      </c>
+      <c r="D321">
+        <v>0.203029289242294</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>5.07</v>
+      </c>
+      <c r="C322">
+        <v>5.254882183245861</v>
+      </c>
+      <c r="D322">
+        <v>0.1848821832458611</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>5.07</v>
+      </c>
+      <c r="C323">
+        <v>5.253127025546967</v>
+      </c>
+      <c r="D323">
+        <v>0.183127025546967</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324">
+        <v>4.98</v>
+      </c>
+      <c r="C324">
+        <v>5.169543408333836</v>
+      </c>
+      <c r="D324">
+        <v>0.1895434083338357</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325">
+        <v>4.95</v>
+      </c>
+      <c r="C325">
+        <v>5.025578017364813</v>
+      </c>
+      <c r="D325">
+        <v>0.07557801736481284</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326">
+        <v>5.1</v>
+      </c>
+      <c r="C326">
+        <v>5.061755222041498</v>
+      </c>
+      <c r="D326">
+        <v>-0.03824477795850179</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327">
+        <v>5.14</v>
+      </c>
+      <c r="C327">
+        <v>4.996862226466104</v>
+      </c>
+      <c r="D327">
+        <v>-0.1431377735338959</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328">
+        <v>5.16</v>
+      </c>
+      <c r="C328">
+        <v>5.006692322668226</v>
+      </c>
+      <c r="D328">
+        <v>-0.1533076773317745</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329">
+        <v>5.15</v>
+      </c>
+      <c r="C329">
+        <v>5.058244468476668</v>
+      </c>
+      <c r="D329">
+        <v>-0.09175553152333205</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330">
+        <v>5.2</v>
+      </c>
+      <c r="C330">
+        <v>5.036053105583742</v>
+      </c>
+      <c r="D330">
+        <v>-0.1639468944162585</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331">
+        <v>5.22</v>
+      </c>
+      <c r="C331">
+        <v>4.99660659037685</v>
+      </c>
+      <c r="D331">
+        <v>-0.2233934096231502</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332">
+        <v>5.17</v>
+      </c>
+      <c r="C332">
+        <v>5.092471881919418</v>
+      </c>
+      <c r="D332">
+        <v>-0.0775281180805818</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333">
+        <v>5.18</v>
+      </c>
+      <c r="C333">
+        <v>5.104382690972274</v>
+      </c>
+      <c r="D333">
+        <v>-0.07561730902772545</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334">
+        <v>5.24</v>
+      </c>
+      <c r="C334">
+        <v>5.12661179673338</v>
+      </c>
+      <c r="D334">
+        <v>-0.11338820326662</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335">
+        <v>5.24</v>
+      </c>
+      <c r="C335">
+        <v>5.082386038265284</v>
+      </c>
+      <c r="D335">
+        <v>-0.1576139617347163</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336">
+        <v>5.24</v>
+      </c>
+      <c r="C336">
+        <v>5.100103465744291</v>
+      </c>
+      <c r="D336">
+        <v>-0.1398965342557092</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337">
+        <v>5.24</v>
+      </c>
+      <c r="C337">
+        <v>5.085039988304961</v>
+      </c>
+      <c r="D337">
+        <v>-0.1549600116950396</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338">
+        <v>5.34</v>
+      </c>
+      <c r="C338">
+        <v>5.139943884269369</v>
+      </c>
+      <c r="D338">
+        <v>-0.2000561157306304</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339">
+        <v>5.35</v>
+      </c>
+      <c r="C339">
+        <v>5.159357283952564</v>
+      </c>
+      <c r="D339">
+        <v>-0.190642716047436</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340">
+        <v>5.34</v>
+      </c>
+      <c r="C340">
+        <v>5.157600086048308</v>
+      </c>
+      <c r="D340">
+        <v>-0.1823999139516914</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341">
+        <v>5.3</v>
+      </c>
+      <c r="C341">
+        <v>5.103812808827178</v>
+      </c>
+      <c r="D341">
+        <v>-0.1961871911728217</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342">
+        <v>5.28</v>
+      </c>
+      <c r="C342">
+        <v>5.106056686569428</v>
+      </c>
+      <c r="D342">
+        <v>-0.1739433134305726</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343">
+        <v>5.3</v>
+      </c>
+      <c r="C343">
+        <v>5.122249824014538</v>
+      </c>
+      <c r="D343">
+        <v>-0.1777501759854623</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344">
+        <v>5.33</v>
+      </c>
+      <c r="C344">
+        <v>5.131074276738917</v>
+      </c>
+      <c r="D344">
+        <v>-0.198925723261083</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345">
+        <v>5.27</v>
+      </c>
+      <c r="C345">
+        <v>5.144935848452866</v>
+      </c>
+      <c r="D345">
+        <v>-0.125064151547134</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346">
+        <v>5.24</v>
+      </c>
+      <c r="C346">
+        <v>5.072345168901625</v>
+      </c>
+      <c r="D346">
+        <v>-0.1676548310983748</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347">
+        <v>5.26</v>
+      </c>
+      <c r="C347">
+        <v>5.0977465808722</v>
+      </c>
+      <c r="D347">
+        <v>-0.1622534191277998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348">
+        <v>5.29</v>
+      </c>
+      <c r="C348">
+        <v>5.100584261664199</v>
+      </c>
+      <c r="D348">
+        <v>-0.1894157383358008</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349">
+        <v>5.34</v>
+      </c>
+      <c r="C349">
+        <v>5.132233073614525</v>
+      </c>
+      <c r="D349">
+        <v>-0.2077669263854753</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350">
+        <v>5.33</v>
+      </c>
+      <c r="C350">
+        <v>5.087420522034541</v>
+      </c>
+      <c r="D350">
+        <v>-0.2425794779654593</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351">
+        <v>5.5</v>
+      </c>
+      <c r="C351">
+        <v>5.224656989409454</v>
+      </c>
+      <c r="D351">
+        <v>-0.2753430105905457</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352">
+        <v>5.48</v>
+      </c>
+      <c r="C352">
+        <v>5.219080577427475</v>
+      </c>
+      <c r="D352">
+        <v>-0.2609194225725258</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353">
+        <v>5.55</v>
+      </c>
+      <c r="C353">
+        <v>5.22563276823568</v>
+      </c>
+      <c r="D353">
+        <v>-0.3243672317643194</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354">
+        <v>5.49</v>
+      </c>
+      <c r="C354">
+        <v>5.135110672836861</v>
+      </c>
+      <c r="D354">
+        <v>-0.3548893271631393</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355">
+        <v>5.5</v>
+      </c>
+      <c r="C355">
+        <v>5.132362573701089</v>
+      </c>
+      <c r="D355">
+        <v>-0.3676374262989111</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356">
+        <v>5.49</v>
+      </c>
+      <c r="C356">
+        <v>5.292518255737559</v>
+      </c>
+      <c r="D356">
+        <v>-0.1974817442624417</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357">
+        <v>5.51</v>
+      </c>
+      <c r="C357">
+        <v>5.249312160054822</v>
+      </c>
+      <c r="D357">
+        <v>-0.2606878399451782</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358">
+        <v>5.48</v>
+      </c>
+      <c r="C358">
+        <v>5.301154564217248</v>
+      </c>
+      <c r="D358">
+        <v>-0.178845435782752</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359">
+        <v>5.48</v>
+      </c>
+      <c r="C359">
+        <v>5.309466719977954</v>
+      </c>
+      <c r="D359">
+        <v>-0.1705332800220463</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360">
+        <v>5.55</v>
+      </c>
+      <c r="C360">
+        <v>5.321518003319806</v>
+      </c>
+      <c r="D360">
+        <v>-0.2284819966801939</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361">
+        <v>5.56</v>
+      </c>
+      <c r="C361">
+        <v>5.32472158385647</v>
+      </c>
+      <c r="D361">
+        <v>-0.2352784161435295</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362">
+        <v>5.55</v>
+      </c>
+      <c r="C362">
+        <v>5.319790791557378</v>
+      </c>
+      <c r="D362">
+        <v>-0.2302092084426217</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363">
+        <v>5.56</v>
+      </c>
+      <c r="C363">
+        <v>5.344817750529621</v>
+      </c>
+      <c r="D363">
+        <v>-0.215182249470379</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364">
+        <v>5.66</v>
+      </c>
+      <c r="C364">
+        <v>5.320228154280333</v>
+      </c>
+      <c r="D364">
+        <v>-0.3397718457196675</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365">
+        <v>5.68</v>
+      </c>
+      <c r="C365">
+        <v>5.336604182507718</v>
+      </c>
+      <c r="D365">
+        <v>-0.343395817492282</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366">
+        <v>5.67</v>
+      </c>
+      <c r="C366">
+        <v>5.338310298824524</v>
+      </c>
+      <c r="D366">
+        <v>-0.3316897011754758</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367">
+        <v>5.68</v>
+      </c>
+      <c r="C367">
+        <v>5.360793873074128</v>
+      </c>
+      <c r="D367">
+        <v>-0.3192061269258719</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368">
+        <v>5.71</v>
+      </c>
+      <c r="C368">
+        <v>5.398405390583914</v>
+      </c>
+      <c r="D368">
+        <v>-0.311594609416086</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369">
+        <v>5.71</v>
+      </c>
+      <c r="C369">
+        <v>5.402611348589601</v>
+      </c>
+      <c r="D369">
+        <v>-0.3073886514103989</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370">
+        <v>5.77</v>
+      </c>
+      <c r="C370">
+        <v>5.439422575683185</v>
+      </c>
+      <c r="D370">
+        <v>-0.3305774243168145</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371">
+        <v>5.69</v>
+      </c>
+      <c r="C371">
+        <v>5.421781097473223</v>
+      </c>
+      <c r="D371">
+        <v>-0.2682189025267778</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytrain.xlsx
+++ b/temp/Yesterdaytrain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,1093 +28,1114 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-07-30 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-29 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-29 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-07-29 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-29 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-07-25 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-22 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-07-10 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-10 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-10 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-05 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-05 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-05 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-27 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-27 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-27 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-25 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-25 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-21 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 10:20:00</t>
+    <t>2019-08-01 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 09:54:00</t>
   </si>
   <si>
     <t>2019-06-18 14:25:00</t>
   </si>
   <si>
-    <t>2019-06-18 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:19:00</t>
+    <t>2019-06-18 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 10:44:00</t>
   </si>
   <si>
     <t>2019-06-13 14:16:00</t>
   </si>
   <si>
-    <t>2019-06-13 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:38:00</t>
+    <t>2019-06-13 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:02:00</t>
   </si>
   <si>
     <t>2019-04-23 14:03:00</t>
   </si>
   <si>
-    <t>2019-04-23 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:54:00</t>
+    <t>2019-04-23 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-22 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:44:00</t>
   </si>
   <si>
     <t>2019-04-15 10:19:00</t>
   </si>
   <si>
-    <t>2019-04-15 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 10:31:00</t>
+    <t>2019-04-15 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 10:58:00</t>
   </si>
   <si>
     <t>2019-04-01 10:02:00</t>
   </si>
   <si>
-    <t>2019-04-01 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:19:00</t>
+    <t>2019-03-29 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:52:00</t>
   </si>
   <si>
     <t>2019-03-21 14:11:00</t>
   </si>
   <si>
-    <t>2019-03-21 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 11:19:00</t>
+    <t>2019-03-21 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:54:00</t>
   </si>
   <si>
     <t>2019-02-28 10:27:00</t>
   </si>
   <si>
-    <t>2019-02-28 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:04:00</t>
+    <t>2019-02-28 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 09:33:00</t>
   </si>
   <si>
     <t>2019-01-21 13:57:00</t>
   </si>
   <si>
-    <t>2019-01-21 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:06:00</t>
+    <t>2019-01-21 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:06:00</t>
   </si>
   <si>
     <t>2019-01-18 11:01:00</t>
   </si>
   <si>
-    <t>2019-01-17 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 09:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 11:13:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:33:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 14:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 11:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 10:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 14:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:31:00</t>
+    <t>2019-01-18 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 11:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 10:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:42:00</t>
   </si>
   <si>
     <t>2018-12-24 13:24:00</t>
   </si>
   <si>
-    <t>2018-12-21 14:41:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:13:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 14:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:10:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 11:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 10:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:38:00</t>
+    <t>2018-12-24 10:40:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:32:00</t>
   </si>
   <si>
     <t>2018-12-17 10:57:00</t>
   </si>
   <si>
-    <t>2018-12-17 10:18:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 10:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:36:00</t>
+    <t>2018-12-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:13:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:17:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 11:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 09:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 13:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:15:00</t>
   </si>
   <si>
     <t>2018-12-11 14:04:00</t>
   </si>
   <si>
+    <t>2018-12-11 11:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 14:51:00</t>
+  </si>
+  <si>
     <t>2018-12-10 13:46:00</t>
   </si>
   <si>
     <t>2018-12-10 13:15:00</t>
   </si>
   <si>
-    <t>2018-12-10 13:14:00</t>
-  </si>
-  <si>
     <t>2018-12-10 10:18:00</t>
   </si>
   <si>
-    <t>2018-12-07 10:29:00</t>
+    <t>2018-12-07 10:58:00</t>
   </si>
   <si>
     <t>2018-12-06 14:04:00</t>
@@ -1123,19 +1144,10 @@
     <t>2018-12-06 14:01:00</t>
   </si>
   <si>
-    <t>2018-12-06 13:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 11:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 10:47:00</t>
+    <t>2018-12-06 10:28:00</t>
   </si>
   <si>
     <t>2018-12-06 10:16:00</t>
-  </si>
-  <si>
-    <t>2018-12-05 09:38:00</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,13 +1530,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.34</v>
+        <v>6.23</v>
       </c>
       <c r="C2">
-        <v>6.793363255344784</v>
+        <v>6.689761183895865</v>
       </c>
       <c r="D2">
-        <v>0.4533632553447839</v>
+        <v>0.4597611838958651</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1532,13 +1544,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.37</v>
+        <v>6.29</v>
       </c>
       <c r="C3">
-        <v>6.81145479538561</v>
+        <v>6.732693744862011</v>
       </c>
       <c r="D3">
-        <v>0.4414547953856101</v>
+        <v>0.4426937448620105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1546,13 +1558,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.34</v>
+        <v>6.31</v>
       </c>
       <c r="C4">
-        <v>6.78329648312129</v>
+        <v>6.58248255447744</v>
       </c>
       <c r="D4">
-        <v>0.4432964831212898</v>
+        <v>0.2724825544774401</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1560,13 +1572,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.35</v>
+        <v>6.28</v>
       </c>
       <c r="C5">
-        <v>6.800506656284734</v>
+        <v>6.5623696806445</v>
       </c>
       <c r="D5">
-        <v>0.4505066562847349</v>
+        <v>0.2823696806445</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1574,13 +1586,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.36</v>
+        <v>6.27</v>
       </c>
       <c r="C6">
-        <v>6.825190684009431</v>
+        <v>6.553137754199372</v>
       </c>
       <c r="D6">
-        <v>0.4651906840094302</v>
+        <v>0.2831377541993723</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1588,13 +1600,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.31</v>
+        <v>6.28</v>
       </c>
       <c r="C7">
-        <v>6.768975336496267</v>
+        <v>6.536965317044486</v>
       </c>
       <c r="D7">
-        <v>0.4589753364962679</v>
+        <v>0.2569653170444859</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1602,13 +1614,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.31</v>
+        <v>6.27</v>
       </c>
       <c r="C8">
-        <v>6.776109856390694</v>
+        <v>6.537319957001194</v>
       </c>
       <c r="D8">
-        <v>0.4661098563906947</v>
+        <v>0.2673199570011944</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1616,13 +1628,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.14</v>
+        <v>6.27</v>
       </c>
       <c r="C9">
-        <v>6.750974170723237</v>
+        <v>6.531653732283881</v>
       </c>
       <c r="D9">
-        <v>0.610974170723237</v>
+        <v>0.2616537322838814</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1630,13 +1642,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.61</v>
+        <v>6.36</v>
       </c>
       <c r="C10">
-        <v>6.785840049016564</v>
+        <v>6.676057062007884</v>
       </c>
       <c r="D10">
-        <v>0.1758400490165641</v>
+        <v>0.316057062007884</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1644,13 +1656,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.66</v>
+        <v>6.31</v>
       </c>
       <c r="C11">
-        <v>6.823245208529101</v>
+        <v>6.631600342807102</v>
       </c>
       <c r="D11">
-        <v>0.1632452085291005</v>
+        <v>0.3216003428071019</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1658,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.56</v>
+        <v>6.32</v>
       </c>
       <c r="C12">
-        <v>6.712518373046687</v>
+        <v>6.678474745063521</v>
       </c>
       <c r="D12">
-        <v>0.1525183730466875</v>
+        <v>0.3584747450635204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1672,13 +1684,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.58</v>
+        <v>6.31</v>
       </c>
       <c r="C13">
-        <v>6.751935356886979</v>
+        <v>6.699202244501364</v>
       </c>
       <c r="D13">
-        <v>0.171935356886979</v>
+        <v>0.3892022445013641</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1686,13 +1698,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.6</v>
+        <v>6.33</v>
       </c>
       <c r="C14">
-        <v>6.76288583544395</v>
+        <v>6.671481801474722</v>
       </c>
       <c r="D14">
-        <v>0.1628858354439506</v>
+        <v>0.3414818014747221</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1700,13 +1712,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.61</v>
+        <v>6.65</v>
       </c>
       <c r="C15">
-        <v>6.752985751161961</v>
+        <v>6.760276413688413</v>
       </c>
       <c r="D15">
-        <v>0.1429857511619606</v>
+        <v>0.1102764136884131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1717,10 +1729,10 @@
         <v>6.65</v>
       </c>
       <c r="C16">
-        <v>6.681358463949672</v>
+        <v>6.732479148794195</v>
       </c>
       <c r="D16">
-        <v>0.03135846394967157</v>
+        <v>0.08247914879419493</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1728,13 +1740,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>7.03</v>
+        <v>6.65</v>
       </c>
       <c r="C17">
-        <v>6.819449842449083</v>
+        <v>6.745142859859807</v>
       </c>
       <c r="D17">
-        <v>-0.2105501575509177</v>
+        <v>0.09514285985980653</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1742,13 +1754,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>7.04</v>
+        <v>6.66</v>
       </c>
       <c r="C18">
-        <v>6.807723239806225</v>
+        <v>6.757845958065171</v>
       </c>
       <c r="D18">
-        <v>-0.2322767601937752</v>
+        <v>0.09784595806517071</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1756,13 +1768,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.17</v>
+        <v>6.66</v>
       </c>
       <c r="C19">
-        <v>6.898736801586929</v>
+        <v>6.738206020172899</v>
       </c>
       <c r="D19">
-        <v>-0.2712631984130711</v>
+        <v>0.07820602017289868</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1770,13 +1782,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.17</v>
+        <v>6.61</v>
       </c>
       <c r="C20">
-        <v>6.897975845973602</v>
+        <v>6.690621181955446</v>
       </c>
       <c r="D20">
-        <v>-0.2720241540263979</v>
+        <v>0.08062118195544521</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1784,13 +1796,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7.17</v>
+        <v>6.62</v>
       </c>
       <c r="C21">
-        <v>6.894851260020268</v>
+        <v>6.585495022384699</v>
       </c>
       <c r="D21">
-        <v>-0.2751487399797314</v>
+        <v>-0.0345049776153008</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1798,13 +1810,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.18</v>
+        <v>6.59</v>
       </c>
       <c r="C22">
-        <v>6.90295603090854</v>
+        <v>6.574671617052206</v>
       </c>
       <c r="D22">
-        <v>-0.2770439690914595</v>
+        <v>-0.01532838294779371</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1812,13 +1824,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.16</v>
+        <v>6.6</v>
       </c>
       <c r="C23">
-        <v>6.8848977049986</v>
+        <v>6.587535973126191</v>
       </c>
       <c r="D23">
-        <v>-0.2751022950014006</v>
+        <v>-0.01246402687380854</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1826,13 +1838,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.13</v>
+        <v>6.58</v>
       </c>
       <c r="C24">
-        <v>6.856192843238168</v>
+        <v>6.576958704079559</v>
       </c>
       <c r="D24">
-        <v>-0.2738071567618316</v>
+        <v>-0.003041295920440668</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1840,13 +1852,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.14</v>
+        <v>6.63</v>
       </c>
       <c r="C25">
-        <v>6.844915619136974</v>
+        <v>6.586526019407658</v>
       </c>
       <c r="D25">
-        <v>-0.2950843808630257</v>
+        <v>-0.04347398059234209</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1854,13 +1866,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.17</v>
+        <v>7.04</v>
       </c>
       <c r="C26">
-        <v>6.806652872128255</v>
+        <v>6.773008825814149</v>
       </c>
       <c r="D26">
-        <v>-0.3633471278717453</v>
+        <v>-0.2669911741858506</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1868,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.17</v>
+        <v>7.16</v>
       </c>
       <c r="C27">
-        <v>6.796439151895249</v>
+        <v>6.714068562609817</v>
       </c>
       <c r="D27">
-        <v>-0.3735608481047512</v>
+        <v>-0.4459314373901835</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1882,13 +1894,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.24</v>
+        <v>7.13</v>
       </c>
       <c r="C28">
-        <v>6.834255063667032</v>
+        <v>6.744608316240583</v>
       </c>
       <c r="D28">
-        <v>-0.4057449363329679</v>
+        <v>-0.3853916837594173</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1896,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.23</v>
+        <v>7.18</v>
       </c>
       <c r="C29">
-        <v>6.829385038245591</v>
+        <v>6.764769212918277</v>
       </c>
       <c r="D29">
-        <v>-0.4006149617544095</v>
+        <v>-0.4152307870817227</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1910,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.02</v>
+        <v>7.04</v>
       </c>
       <c r="C30">
-        <v>6.799257341855578</v>
+        <v>6.742693998963584</v>
       </c>
       <c r="D30">
-        <v>-0.2207426581444212</v>
+        <v>-0.2973060010364161</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1924,13 +1936,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="C31">
-        <v>6.830276339127667</v>
+        <v>6.767073195873274</v>
       </c>
       <c r="D31">
-        <v>-0.2497236608723332</v>
+        <v>-0.2929268041267257</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1941,10 +1953,10 @@
         <v>7.09</v>
       </c>
       <c r="C32">
-        <v>6.840185257850661</v>
+        <v>6.7902519132412</v>
       </c>
       <c r="D32">
-        <v>-0.2498147421493391</v>
+        <v>-0.2997480867587994</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1952,13 +1964,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.13</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>6.857554945559051</v>
+        <v>6.724176755498173</v>
       </c>
       <c r="D33">
-        <v>-0.2724450544409489</v>
+        <v>-0.2758232445018267</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1966,13 +1978,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.11</v>
+        <v>6.88</v>
       </c>
       <c r="C34">
-        <v>6.855501056168479</v>
+        <v>6.817694461900351</v>
       </c>
       <c r="D34">
-        <v>-0.2544989438315213</v>
+        <v>-0.06230553809964867</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1980,13 +1992,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="C35">
-        <v>6.902860448411544</v>
+        <v>6.84956341562322</v>
       </c>
       <c r="D35">
-        <v>0.002860448411543537</v>
+        <v>-0.10043658437678</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1994,13 +2006,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>6.820822622535418</v>
+        <v>6.877024483682974</v>
       </c>
       <c r="D36">
-        <v>-0.06917737746458208</v>
+        <v>-0.1229755163170259</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2008,13 +2020,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.81</v>
+        <v>6.93</v>
       </c>
       <c r="C37">
-        <v>6.697096297120754</v>
+        <v>6.870308516132448</v>
       </c>
       <c r="D37">
-        <v>-0.1129037028792457</v>
+        <v>-0.05969148386755219</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2022,13 +2034,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.86</v>
+        <v>6.93</v>
       </c>
       <c r="C38">
-        <v>6.736023858708244</v>
+        <v>6.797167728190261</v>
       </c>
       <c r="D38">
-        <v>-0.1239761412917559</v>
+        <v>-0.1328322718097388</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2036,13 +2048,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="C39">
-        <v>6.768521941788028</v>
+        <v>6.716968593467914</v>
       </c>
       <c r="D39">
-        <v>-0.1614780582119719</v>
+        <v>-0.1230314065320863</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2050,13 +2062,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.05</v>
+        <v>6.83</v>
       </c>
       <c r="C40">
-        <v>6.822916137580438</v>
+        <v>6.679813401781897</v>
       </c>
       <c r="D40">
-        <v>-0.2270838624195619</v>
+        <v>-0.1501865982181032</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2064,13 +2076,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.05</v>
+        <v>6.91</v>
       </c>
       <c r="C41">
-        <v>6.824353505149815</v>
+        <v>6.730922223172406</v>
       </c>
       <c r="D41">
-        <v>-0.2256464948501851</v>
+        <v>-0.1790777768275946</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2078,13 +2090,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.07</v>
+        <v>6.92</v>
       </c>
       <c r="C42">
-        <v>6.833425856745817</v>
+        <v>6.774048199300185</v>
       </c>
       <c r="D42">
-        <v>-0.2365741432541837</v>
+        <v>-0.1459518006998151</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2092,13 +2104,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.25</v>
+        <v>6.89</v>
       </c>
       <c r="C43">
-        <v>6.862699742216392</v>
+        <v>6.776094061038305</v>
       </c>
       <c r="D43">
-        <v>-0.3873002577836084</v>
+        <v>-0.113905938961695</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2106,13 +2118,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.29</v>
+        <v>7.03</v>
       </c>
       <c r="C44">
-        <v>6.908770314066081</v>
+        <v>6.770022509679705</v>
       </c>
       <c r="D44">
-        <v>-0.3812296859339188</v>
+        <v>-0.2599774903202956</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2120,13 +2132,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.3</v>
+        <v>7.04</v>
       </c>
       <c r="C45">
-        <v>6.920545501926928</v>
+        <v>6.795712215967211</v>
       </c>
       <c r="D45">
-        <v>-0.3794544980730716</v>
+        <v>-0.2442877840327888</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2134,13 +2146,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.51</v>
+        <v>7.03</v>
       </c>
       <c r="C46">
-        <v>6.965787016705909</v>
+        <v>6.840605728874968</v>
       </c>
       <c r="D46">
-        <v>-0.5442129832940905</v>
+        <v>-0.1893942711250318</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2148,13 +2160,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.14</v>
+        <v>7.08</v>
       </c>
       <c r="C47">
-        <v>7.006273691196163</v>
+        <v>6.834831922845592</v>
       </c>
       <c r="D47">
-        <v>-0.133726308803837</v>
+        <v>-0.2451680771544078</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2162,13 +2174,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.1</v>
+        <v>7.03</v>
       </c>
       <c r="C48">
-        <v>7.009922451506983</v>
+        <v>6.732024712783175</v>
       </c>
       <c r="D48">
-        <v>-0.0900775484930163</v>
+        <v>-0.2979752872168255</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2176,13 +2188,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.01</v>
+        <v>7.21</v>
       </c>
       <c r="C49">
-        <v>6.932966810812863</v>
+        <v>6.77528055387561</v>
       </c>
       <c r="D49">
-        <v>-0.07703318918713631</v>
+        <v>-0.4347194461243902</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2190,13 +2202,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.99</v>
+        <v>7.59</v>
       </c>
       <c r="C50">
-        <v>6.894984088916872</v>
+        <v>7.03995462214795</v>
       </c>
       <c r="D50">
-        <v>-0.09501591108312812</v>
+        <v>-0.55004537785205</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2204,13 +2216,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.14</v>
+        <v>7.32</v>
       </c>
       <c r="C51">
-        <v>6.99911030025926</v>
+        <v>7.000856424304973</v>
       </c>
       <c r="D51">
-        <v>-0.1408896997407396</v>
+        <v>-0.3191435756950272</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2218,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.15</v>
+        <v>7.22</v>
       </c>
       <c r="C52">
-        <v>7.032107472355373</v>
+        <v>6.956984857393119</v>
       </c>
       <c r="D52">
-        <v>-0.117892527644627</v>
+        <v>-0.2630151426068803</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2232,13 +2244,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.05</v>
+        <v>7.11</v>
       </c>
       <c r="C53">
-        <v>7.000364318502506</v>
+        <v>6.906868885931607</v>
       </c>
       <c r="D53">
-        <v>-0.04963568149749342</v>
+        <v>-0.2031311140683929</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2246,13 +2258,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.08</v>
+        <v>7.02</v>
       </c>
       <c r="C54">
-        <v>7.001589601212978</v>
+        <v>6.888712065442701</v>
       </c>
       <c r="D54">
-        <v>-0.07841039878702194</v>
+        <v>-0.1312879345572986</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2260,13 +2272,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.96</v>
+        <v>7.06</v>
       </c>
       <c r="C55">
-        <v>6.966410211326862</v>
+        <v>6.893798050079263</v>
       </c>
       <c r="D55">
-        <v>0.006410211326862481</v>
+        <v>-0.1662019499207368</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2274,13 +2286,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.69</v>
+        <v>6.99</v>
       </c>
       <c r="C56">
-        <v>6.903248005732132</v>
+        <v>6.929398750875438</v>
       </c>
       <c r="D56">
-        <v>0.2132480057321313</v>
+        <v>-0.060601249124562</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2288,13 +2300,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="C57">
-        <v>6.896082299222321</v>
+        <v>6.869652885578851</v>
       </c>
       <c r="D57">
-        <v>0.2060822992223201</v>
+        <v>0.1696528855788504</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2302,13 +2314,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="C58">
-        <v>6.924894521660565</v>
+        <v>6.817282677311563</v>
       </c>
       <c r="D58">
-        <v>0.2348945216605642</v>
+        <v>0.07728267731156269</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2316,13 +2328,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.64</v>
+        <v>6.74</v>
       </c>
       <c r="C59">
-        <v>6.889180079518487</v>
+        <v>6.826627425245657</v>
       </c>
       <c r="D59">
-        <v>0.2491800795184869</v>
+        <v>0.08662742524565648</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2330,13 +2342,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
       <c r="C60">
-        <v>6.876012301357268</v>
+        <v>6.767870624267691</v>
       </c>
       <c r="D60">
-        <v>0.2260123013572679</v>
+        <v>0.1278706242676915</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2344,13 +2356,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="C61">
-        <v>6.903892446127375</v>
+        <v>6.767487556768436</v>
       </c>
       <c r="D61">
-        <v>0.233892446127375</v>
+        <v>0.1174875567684355</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2358,13 +2370,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="C62">
-        <v>6.797273898718031</v>
+        <v>6.842682968584398</v>
       </c>
       <c r="D62">
-        <v>0.2272738987180309</v>
+        <v>0.1826829685843974</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2372,13 +2384,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.56</v>
+        <v>6.6</v>
       </c>
       <c r="C63">
-        <v>6.759179738849007</v>
+        <v>6.835244855774735</v>
       </c>
       <c r="D63">
-        <v>0.1991797388490077</v>
+        <v>0.2352448557747353</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2386,13 +2398,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.58</v>
+        <v>6.51</v>
       </c>
       <c r="C64">
-        <v>6.701355168645247</v>
+        <v>6.646941532428639</v>
       </c>
       <c r="D64">
-        <v>0.1213551686452474</v>
+        <v>0.1369415324286392</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2400,13 +2412,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.53</v>
+        <v>6.46</v>
       </c>
       <c r="C65">
-        <v>6.632099350967871</v>
+        <v>6.620100761997318</v>
       </c>
       <c r="D65">
-        <v>0.1020993509678707</v>
+        <v>0.1601007619973185</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2414,13 +2426,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
       <c r="C66">
-        <v>6.615485401522187</v>
+        <v>6.579530319137668</v>
       </c>
       <c r="D66">
-        <v>0.08548540152218642</v>
+        <v>0.06953031913766861</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2428,13 +2440,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="C67">
-        <v>6.591304886606907</v>
+        <v>6.593106996615901</v>
       </c>
       <c r="D67">
-        <v>0.04130488660690723</v>
+        <v>0.05310699661590057</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2442,13 +2454,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
       <c r="C68">
-        <v>6.592711544873846</v>
+        <v>6.629262995902313</v>
       </c>
       <c r="D68">
-        <v>0.02271154487384575</v>
+        <v>0.02926299590231363</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2456,13 +2468,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="C69">
-        <v>6.588492017703312</v>
+        <v>6.617535828690438</v>
       </c>
       <c r="D69">
-        <v>0.01849201770331188</v>
+        <v>0.06753582869043839</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2470,13 +2482,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.55</v>
+        <v>6.71</v>
       </c>
       <c r="C70">
-        <v>6.591812784889632</v>
+        <v>6.688554742004533</v>
       </c>
       <c r="D70">
-        <v>0.04181278488963258</v>
+        <v>-0.0214452579954667</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2484,13 +2496,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.57</v>
+        <v>6.67</v>
       </c>
       <c r="C71">
-        <v>6.614278064094264</v>
+        <v>6.736611044649584</v>
       </c>
       <c r="D71">
-        <v>0.04427806409426349</v>
+        <v>0.06661104464958445</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2498,13 +2510,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.59</v>
+        <v>6.55</v>
       </c>
       <c r="C72">
-        <v>6.611621595026794</v>
+        <v>6.699807603657702</v>
       </c>
       <c r="D72">
-        <v>0.02162159502679462</v>
+        <v>0.1498076036577025</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2512,13 +2524,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C73">
-        <v>6.579108061791143</v>
+        <v>6.78061545953497</v>
       </c>
       <c r="D73">
-        <v>0.01910806179114388</v>
+        <v>0.1706154595349698</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2526,13 +2538,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="C74">
-        <v>6.713233576331349</v>
+        <v>6.762103566175129</v>
       </c>
       <c r="D74">
-        <v>0.1332335763313486</v>
+        <v>0.1621035661751291</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2540,13 +2552,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.54</v>
+        <v>6.63</v>
       </c>
       <c r="C75">
-        <v>6.663761229926023</v>
+        <v>6.783999098418316</v>
       </c>
       <c r="D75">
-        <v>0.1237612299260231</v>
+        <v>0.1539990984183159</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2557,10 +2569,10 @@
         <v>6.65</v>
       </c>
       <c r="C76">
-        <v>6.756465254816319</v>
+        <v>6.775572918955322</v>
       </c>
       <c r="D76">
-        <v>0.1064652548163183</v>
+        <v>0.1255729189553216</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2568,13 +2580,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="C77">
-        <v>6.653195676417059</v>
+        <v>6.769123675303869</v>
       </c>
       <c r="D77">
-        <v>0.08319567641705827</v>
+        <v>0.1591236753038689</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2582,13 +2594,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="C78">
-        <v>6.643084144611689</v>
+        <v>6.534124868770761</v>
       </c>
       <c r="D78">
-        <v>0.08308414461168923</v>
+        <v>-0.03587513122923891</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2596,13 +2608,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
       <c r="C79">
-        <v>6.61215605879083</v>
+        <v>6.59435256097635</v>
       </c>
       <c r="D79">
-        <v>0.06215605879082986</v>
+        <v>-0.03564743902365031</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2610,13 +2622,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.54</v>
+        <v>6.59</v>
       </c>
       <c r="C80">
-        <v>6.625361994357527</v>
+        <v>6.492244853946969</v>
       </c>
       <c r="D80">
-        <v>0.08536199435752678</v>
+        <v>-0.09775514605303126</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2624,13 +2636,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="C81">
-        <v>6.641525983157265</v>
+        <v>6.515497723621189</v>
       </c>
       <c r="D81">
-        <v>0.07152598315726433</v>
+        <v>-0.1445022763788115</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2638,13 +2650,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.5</v>
+        <v>6.57</v>
       </c>
       <c r="C82">
-        <v>6.656292095916</v>
+        <v>6.397663479722325</v>
       </c>
       <c r="D82">
-        <v>0.1562920959160001</v>
+        <v>-0.1723365202776757</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2652,13 +2664,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.43</v>
+        <v>6.57</v>
       </c>
       <c r="C83">
-        <v>6.569474020366076</v>
+        <v>6.397131497344808</v>
       </c>
       <c r="D83">
-        <v>0.1394740203660758</v>
+        <v>-0.1728685026551924</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2666,13 +2678,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.64</v>
+        <v>6.68</v>
       </c>
       <c r="C84">
-        <v>6.574895582312208</v>
+        <v>6.507750499248263</v>
       </c>
       <c r="D84">
-        <v>-0.06510441768779174</v>
+        <v>-0.1722495007517368</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2680,13 +2692,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
       <c r="C85">
-        <v>6.579968749702602</v>
+        <v>6.679352518775009</v>
       </c>
       <c r="D85">
-        <v>-0.08003125029739788</v>
+        <v>-0.06064748122499086</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2694,13 +2706,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.59</v>
+        <v>6.72</v>
       </c>
       <c r="C86">
-        <v>6.478035692890251</v>
+        <v>6.673894142870895</v>
       </c>
       <c r="D86">
-        <v>-0.1119643071097487</v>
+        <v>-0.04610585712910442</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2708,13 +2720,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.64</v>
+        <v>6.69</v>
       </c>
       <c r="C87">
-        <v>6.452502397414325</v>
+        <v>6.615066285169326</v>
       </c>
       <c r="D87">
-        <v>-0.1874976025856743</v>
+        <v>-0.07493371483067435</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2722,13 +2734,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.56</v>
+        <v>6.77</v>
       </c>
       <c r="C88">
-        <v>6.470110331546182</v>
+        <v>6.633680588492241</v>
       </c>
       <c r="D88">
-        <v>-0.08988966845381796</v>
+        <v>-0.1363194115077588</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2736,13 +2748,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="C89">
-        <v>6.428504158905489</v>
+        <v>6.717136679973531</v>
       </c>
       <c r="D89">
-        <v>-0.1614958410945109</v>
+        <v>0.02713667997353042</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2750,13 +2762,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.55</v>
+        <v>6.64</v>
       </c>
       <c r="C90">
-        <v>6.420004186112584</v>
+        <v>6.671557079317942</v>
       </c>
       <c r="D90">
-        <v>-0.1299958138874153</v>
+        <v>0.03155707931794183</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2764,13 +2776,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.72</v>
+        <v>6.58</v>
       </c>
       <c r="C91">
-        <v>6.639523964090503</v>
+        <v>6.565629307073723</v>
       </c>
       <c r="D91">
-        <v>-0.0804760359094967</v>
+        <v>-0.0143706929262768</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2778,13 +2790,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.76</v>
+        <v>6.49</v>
       </c>
       <c r="C92">
-        <v>6.64184964063272</v>
+        <v>6.488923991062539</v>
       </c>
       <c r="D92">
-        <v>-0.1181503593672799</v>
+        <v>-0.001076008937460848</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2792,13 +2804,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.71</v>
+        <v>6.33</v>
       </c>
       <c r="C93">
-        <v>6.679107604177237</v>
+        <v>6.429176170352849</v>
       </c>
       <c r="D93">
-        <v>-0.03089239582276271</v>
+        <v>0.09917617035284909</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2806,13 +2818,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.69</v>
+        <v>6.39</v>
       </c>
       <c r="C94">
-        <v>6.689200710205367</v>
+        <v>6.40941609867845</v>
       </c>
       <c r="D94">
-        <v>-0.0007992897946333954</v>
+        <v>0.01941609867844996</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2820,13 +2832,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.74</v>
+        <v>6.69</v>
       </c>
       <c r="C95">
-        <v>6.717042975448796</v>
+        <v>6.530289566964364</v>
       </c>
       <c r="D95">
-        <v>-0.02295702455120452</v>
+        <v>-0.1597104330356363</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2834,13 +2846,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.71</v>
+        <v>6.64</v>
       </c>
       <c r="C96">
-        <v>6.660470827194676</v>
+        <v>6.477015698798467</v>
       </c>
       <c r="D96">
-        <v>-0.04952917280532354</v>
+        <v>-0.1629843012015328</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2848,13 +2860,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.72</v>
+        <v>6.62</v>
       </c>
       <c r="C97">
-        <v>6.67417582043685</v>
+        <v>6.569758733389759</v>
       </c>
       <c r="D97">
-        <v>-0.04582417956314977</v>
+        <v>-0.0502412666102412</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2862,13 +2874,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.74</v>
+        <v>6.63</v>
       </c>
       <c r="C98">
-        <v>6.682008719524888</v>
+        <v>6.594744644886428</v>
       </c>
       <c r="D98">
-        <v>-0.05799128047511193</v>
+        <v>-0.0352553551135717</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2876,13 +2888,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.72</v>
+        <v>6.93</v>
       </c>
       <c r="C99">
-        <v>6.62686041334356</v>
+        <v>6.819552611526341</v>
       </c>
       <c r="D99">
-        <v>-0.09313958665643973</v>
+        <v>-0.1104473884736583</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2890,13 +2902,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.84</v>
+        <v>7.11</v>
       </c>
       <c r="C100">
-        <v>6.674319076518676</v>
+        <v>7.105201904137767</v>
       </c>
       <c r="D100">
-        <v>-0.1656809234813243</v>
+        <v>-0.004798095862232898</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2904,13 +2916,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.69</v>
+        <v>7.1</v>
       </c>
       <c r="C101">
-        <v>6.68328722081831</v>
+        <v>7.1460467776853</v>
       </c>
       <c r="D101">
-        <v>-0.006712779181690109</v>
+        <v>0.04604677768530063</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2918,13 +2930,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.69</v>
+        <v>7.06</v>
       </c>
       <c r="C102">
-        <v>6.706868043750094</v>
+        <v>7.146688222274132</v>
       </c>
       <c r="D102">
-        <v>0.01686804375009388</v>
+        <v>0.08668822227413209</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2932,13 +2944,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.67</v>
+        <v>7.06</v>
       </c>
       <c r="C103">
-        <v>6.668374035540272</v>
+        <v>7.179221389750858</v>
       </c>
       <c r="D103">
-        <v>-0.001625964459727847</v>
+        <v>0.1192213897508587</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2946,13 +2958,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.65</v>
+        <v>7.18</v>
       </c>
       <c r="C104">
-        <v>6.670382490964466</v>
+        <v>7.218269534189772</v>
       </c>
       <c r="D104">
-        <v>0.02038249096446609</v>
+        <v>0.03826953418977208</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2960,13 +2972,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.38</v>
+        <v>7.22</v>
       </c>
       <c r="C105">
-        <v>6.391663918936007</v>
+        <v>7.208841408382061</v>
       </c>
       <c r="D105">
-        <v>0.01166391893600682</v>
+        <v>-0.01115859161793864</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2974,13 +2986,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.41</v>
+        <v>7.13</v>
       </c>
       <c r="C106">
-        <v>6.422308138455979</v>
+        <v>7.211346406976618</v>
       </c>
       <c r="D106">
-        <v>0.01230813845597911</v>
+        <v>0.08134640697661766</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2988,13 +3000,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.35</v>
+        <v>6.96</v>
       </c>
       <c r="C107">
-        <v>6.406144767377214</v>
+        <v>7.466191646946986</v>
       </c>
       <c r="D107">
-        <v>0.05614476737721485</v>
+        <v>0.506191646946986</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3002,13 +3014,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.64</v>
+        <v>6.92</v>
       </c>
       <c r="C108">
-        <v>6.547671023071383</v>
+        <v>7.34025992546415</v>
       </c>
       <c r="D108">
-        <v>-0.09232897692861641</v>
+        <v>0.4202599254641504</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3016,13 +3028,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.66</v>
+        <v>6.96</v>
       </c>
       <c r="C109">
-        <v>6.552374417208255</v>
+        <v>7.4773348615386</v>
       </c>
       <c r="D109">
-        <v>-0.1076255827917452</v>
+        <v>0.5173348615386004</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3030,13 +3042,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>6.65</v>
+        <v>7.19</v>
       </c>
       <c r="C110">
-        <v>6.513126281146628</v>
+        <v>7.522390115114834</v>
       </c>
       <c r="D110">
-        <v>-0.136873718853372</v>
+        <v>0.3323901151148334</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3044,13 +3056,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.56</v>
+        <v>7.21</v>
       </c>
       <c r="C111">
-        <v>6.544490655614852</v>
+        <v>7.504955537587912</v>
       </c>
       <c r="D111">
-        <v>-0.01550934438514773</v>
+        <v>0.2949555375879118</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3058,13 +3070,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.58</v>
+        <v>7.18</v>
       </c>
       <c r="C112">
-        <v>6.548908211652173</v>
+        <v>7.439907354976012</v>
       </c>
       <c r="D112">
-        <v>-0.031091788347827</v>
+        <v>0.2599073549760123</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3072,13 +3084,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.58</v>
+        <v>7.21</v>
       </c>
       <c r="C113">
-        <v>6.561557639641673</v>
+        <v>7.479288757021375</v>
       </c>
       <c r="D113">
-        <v>-0.01844236035832747</v>
+        <v>0.2692887570213749</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3086,13 +3098,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.72</v>
+        <v>7.2</v>
       </c>
       <c r="C114">
-        <v>6.624793966558841</v>
+        <v>7.457315278189454</v>
       </c>
       <c r="D114">
-        <v>-0.09520603344115841</v>
+        <v>0.2573152781894539</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3100,13 +3112,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.87</v>
+        <v>7.26</v>
       </c>
       <c r="C115">
-        <v>6.753267210863803</v>
+        <v>7.516177287919635</v>
       </c>
       <c r="D115">
-        <v>-0.1167327891361971</v>
+        <v>0.2561772879196349</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3114,13 +3126,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.06</v>
+        <v>7.28</v>
       </c>
       <c r="C116">
-        <v>7.186981646854856</v>
+        <v>7.497204024961115</v>
       </c>
       <c r="D116">
-        <v>0.1269816468548566</v>
+        <v>0.2172040249611147</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3128,13 +3140,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.18</v>
+        <v>7.23</v>
       </c>
       <c r="C117">
-        <v>7.181164317722684</v>
+        <v>7.560960408334892</v>
       </c>
       <c r="D117">
-        <v>0.001164317722683883</v>
+        <v>0.3309604083348914</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3142,13 +3154,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.24</v>
+        <v>7.19</v>
       </c>
       <c r="C118">
-        <v>7.244250195056243</v>
+        <v>7.485298667814352</v>
       </c>
       <c r="D118">
-        <v>0.004250195056243022</v>
+        <v>0.2952986678143521</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3156,13 +3168,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.21</v>
+        <v>7.19</v>
       </c>
       <c r="C119">
-        <v>7.273298032466706</v>
+        <v>7.436998226767179</v>
       </c>
       <c r="D119">
-        <v>0.06329803246670629</v>
+        <v>0.2469982267671789</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3170,13 +3182,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.06</v>
+        <v>7.02</v>
       </c>
       <c r="C120">
-        <v>7.19742373865268</v>
+        <v>7.28225209592521</v>
       </c>
       <c r="D120">
-        <v>0.1374237386526804</v>
+        <v>0.2622520959252101</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3184,13 +3196,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.09</v>
+        <v>7.6</v>
       </c>
       <c r="C121">
-        <v>7.167440228089476</v>
+        <v>7.52008815448493</v>
       </c>
       <c r="D121">
-        <v>0.07744022808947637</v>
+        <v>-0.07991184551506958</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3198,13 +3210,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.12</v>
+        <v>7.68</v>
       </c>
       <c r="C122">
-        <v>7.138509031327186</v>
+        <v>7.563558663855395</v>
       </c>
       <c r="D122">
-        <v>0.01850903132718607</v>
+        <v>-0.1164413361446046</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3212,13 +3224,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.13</v>
+        <v>7.66</v>
       </c>
       <c r="C123">
-        <v>7.087038900128634</v>
+        <v>7.546616088331844</v>
       </c>
       <c r="D123">
-        <v>-0.04296109987136632</v>
+        <v>-0.1133839116681559</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3226,13 +3238,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.05</v>
+        <v>7.35</v>
       </c>
       <c r="C124">
-        <v>7.102785170227048</v>
+        <v>7.54054231281918</v>
       </c>
       <c r="D124">
-        <v>0.05278517022704854</v>
+        <v>0.1905423128191801</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3240,13 +3252,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.86</v>
+        <v>7.37</v>
       </c>
       <c r="C125">
-        <v>7.244781500947883</v>
+        <v>7.532679281393516</v>
       </c>
       <c r="D125">
-        <v>0.3847815009478825</v>
+        <v>0.1626792813935154</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3254,13 +3266,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.82</v>
+        <v>7.42</v>
       </c>
       <c r="C126">
-        <v>7.26417876662654</v>
+        <v>7.572166666945901</v>
       </c>
       <c r="D126">
-        <v>0.44417876662654</v>
+        <v>0.1521666669459014</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3268,13 +3280,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.89</v>
+        <v>7.42</v>
       </c>
       <c r="C127">
-        <v>7.344296740900035</v>
+        <v>7.574957854034198</v>
       </c>
       <c r="D127">
-        <v>0.4542967409000358</v>
+        <v>0.1549578540341985</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3282,13 +3294,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.96</v>
+        <v>7.48</v>
       </c>
       <c r="C128">
-        <v>7.421402982003893</v>
+        <v>7.550873025064139</v>
       </c>
       <c r="D128">
-        <v>0.461402982003893</v>
+        <v>0.07087302506413895</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3296,13 +3308,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.96</v>
+        <v>7.33</v>
       </c>
       <c r="C129">
-        <v>7.434729251314988</v>
+        <v>7.577746045310549</v>
       </c>
       <c r="D129">
-        <v>0.4747292513149883</v>
+        <v>0.2477460453105484</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3310,13 +3322,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>7.29</v>
       </c>
       <c r="C130">
-        <v>7.482360417887253</v>
+        <v>7.521954808285794</v>
       </c>
       <c r="D130">
-        <v>0.4823604178872527</v>
+        <v>0.2319548082857938</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3324,13 +3336,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>7.29</v>
       </c>
       <c r="C131">
-        <v>7.464543262982766</v>
+        <v>7.519719035188703</v>
       </c>
       <c r="D131">
-        <v>0.4645432629827662</v>
+        <v>0.2297190351887028</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3338,13 +3350,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>7.16</v>
+        <v>7.27</v>
       </c>
       <c r="C132">
-        <v>7.455620154131824</v>
+        <v>7.456362448815583</v>
       </c>
       <c r="D132">
-        <v>0.2956201541318242</v>
+        <v>0.1863624488155837</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3352,13 +3364,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>7.21</v>
+        <v>7.17</v>
       </c>
       <c r="C133">
-        <v>7.474626912357246</v>
+        <v>7.387653262215827</v>
       </c>
       <c r="D133">
-        <v>0.2646269123572456</v>
+        <v>0.2176532622158271</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3366,13 +3378,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>7.1</v>
+        <v>7.19</v>
       </c>
       <c r="C134">
-        <v>7.276557215802931</v>
+        <v>7.418893287645729</v>
       </c>
       <c r="D134">
-        <v>0.1765572158029309</v>
+        <v>0.2288932876457288</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3380,13 +3392,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
       <c r="C135">
-        <v>7.490493446026188</v>
+        <v>7.341244403502553</v>
       </c>
       <c r="D135">
-        <v>0.3204934460261883</v>
+        <v>0.1612444035025531</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3394,13 +3406,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
       <c r="C136">
-        <v>7.424974613359171</v>
+        <v>7.305853153250456</v>
       </c>
       <c r="D136">
-        <v>0.184974613359171</v>
+        <v>-0.004146846749543798</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3408,13 +3420,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>7.16</v>
+        <v>7.33</v>
       </c>
       <c r="C137">
-        <v>7.354657417239301</v>
+        <v>7.358042731932922</v>
       </c>
       <c r="D137">
-        <v>0.1946574172393012</v>
+        <v>0.02804273193292151</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3422,13 +3434,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>7.3</v>
+        <v>7.28</v>
       </c>
       <c r="C138">
-        <v>7.341990173569402</v>
+        <v>7.043974081424392</v>
       </c>
       <c r="D138">
-        <v>0.0419901735694026</v>
+        <v>-0.2360259185756082</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3436,13 +3448,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>7.38</v>
+        <v>7.26</v>
       </c>
       <c r="C139">
-        <v>7.415163433339024</v>
+        <v>7.070451194810421</v>
       </c>
       <c r="D139">
-        <v>0.03516343333902405</v>
+        <v>-0.1895488051895784</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3450,13 +3462,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>7.4</v>
+        <v>7.26</v>
       </c>
       <c r="C140">
-        <v>7.433073672401846</v>
+        <v>7.066255521403732</v>
       </c>
       <c r="D140">
-        <v>0.03307367240184522</v>
+        <v>-0.1937444785962681</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3464,13 +3476,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>7.4</v>
+        <v>7.16</v>
       </c>
       <c r="C141">
-        <v>7.425377071195116</v>
+        <v>7.065155195827916</v>
       </c>
       <c r="D141">
-        <v>0.02537707119511534</v>
+        <v>-0.09484480417208463</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3478,13 +3490,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>7.29</v>
+        <v>7.23</v>
       </c>
       <c r="C142">
-        <v>7.21664575078294</v>
+        <v>7.021711855664104</v>
       </c>
       <c r="D142">
-        <v>-0.07335424921705958</v>
+        <v>-0.2082881443358966</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3492,13 +3504,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="C143">
-        <v>7.244191598364769</v>
+        <v>7.031463393554158</v>
       </c>
       <c r="D143">
-        <v>-0.07580840163523117</v>
+        <v>-0.2185366064458423</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3506,13 +3518,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.38</v>
+        <v>7.55</v>
       </c>
       <c r="C144">
-        <v>7.32924946624741</v>
+        <v>6.984576063013878</v>
       </c>
       <c r="D144">
-        <v>-0.05075053375258953</v>
+        <v>-0.5654239369861216</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3520,13 +3532,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.35</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C145">
-        <v>7.322446442669524</v>
+        <v>7.107332922397842</v>
       </c>
       <c r="D145">
-        <v>-0.02755355733047526</v>
+        <v>-0.9426670776021586</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3534,13 +3546,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.29</v>
+        <v>7.96</v>
       </c>
       <c r="C146">
-        <v>7.098490366833514</v>
+        <v>7.816495818222816</v>
       </c>
       <c r="D146">
-        <v>-0.1915096331664863</v>
+        <v>-0.1435041817771836</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3548,13 +3560,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.89</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C147">
-        <v>7.218688683718788</v>
+        <v>7.773369434293294</v>
       </c>
       <c r="D147">
-        <v>-0.6713113162812121</v>
+        <v>-0.2566305657067049</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3562,13 +3574,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.88</v>
+        <v>7.58</v>
       </c>
       <c r="C148">
-        <v>7.24426558772585</v>
+        <v>7.743561777965261</v>
       </c>
       <c r="D148">
-        <v>-0.6357344122741502</v>
+        <v>0.1635617779652607</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3576,13 +3588,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.93</v>
+        <v>8.1</v>
       </c>
       <c r="C149">
-        <v>7.274955495465101</v>
+        <v>8.024216457709748</v>
       </c>
       <c r="D149">
-        <v>-0.6550445045348985</v>
+        <v>-0.0757835422902513</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3590,13 +3602,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>8.16</v>
+        <v>7.84</v>
       </c>
       <c r="C150">
-        <v>7.714420472416029</v>
+        <v>8.318785795463885</v>
       </c>
       <c r="D150">
-        <v>-0.4455795275839707</v>
+        <v>0.4787857954638852</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3604,13 +3616,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>8.109999999999999</v>
+        <v>7.61</v>
       </c>
       <c r="C151">
-        <v>7.728037866139501</v>
+        <v>8.116046791183422</v>
       </c>
       <c r="D151">
-        <v>-0.3819621338604984</v>
+        <v>0.5060467911834214</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3618,13 +3630,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.7</v>
+        <v>7.79</v>
       </c>
       <c r="C152">
-        <v>7.8506709540954</v>
+        <v>8.277701337074372</v>
       </c>
       <c r="D152">
-        <v>0.1506709540953999</v>
+        <v>0.4877013370743724</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3632,13 +3644,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.98</v>
+        <v>7.82</v>
       </c>
       <c r="C153">
-        <v>7.868870856209571</v>
+        <v>8.272623193809903</v>
       </c>
       <c r="D153">
-        <v>-0.1111291437904294</v>
+        <v>0.4526231938099023</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3646,13 +3658,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>8.23</v>
+        <v>7.68</v>
       </c>
       <c r="C154">
-        <v>8.222959069510367</v>
+        <v>8.13383198285937</v>
       </c>
       <c r="D154">
-        <v>-0.007040930489633723</v>
+        <v>0.45383198285937</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3660,13 +3672,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>8.050000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="C155">
-        <v>8.018630973163333</v>
+        <v>8.164163750541771</v>
       </c>
       <c r="D155">
-        <v>-0.03136902683666776</v>
+        <v>0.5441637505417711</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3674,13 +3686,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.82</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C156">
-        <v>8.408883491201475</v>
+        <v>8.099656622461605</v>
       </c>
       <c r="D156">
-        <v>0.5888834912014751</v>
+        <v>-0.4403433775383938</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3688,13 +3700,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.61</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C157">
-        <v>8.13252241001635</v>
+        <v>8.054859506073893</v>
       </c>
       <c r="D157">
-        <v>0.5225224100163492</v>
+        <v>-0.3951404939261067</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3702,13 +3714,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.85</v>
+        <v>9.06</v>
       </c>
       <c r="C158">
-        <v>8.285469308179991</v>
+        <v>8.157047322227157</v>
       </c>
       <c r="D158">
-        <v>0.4354693081799912</v>
+        <v>-0.9029526777728432</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3716,13 +3728,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.69</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C159">
-        <v>8.170079822891989</v>
+        <v>8.231079701743223</v>
       </c>
       <c r="D159">
-        <v>0.4800798228919883</v>
+        <v>-0.8789202982567765</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3730,13 +3742,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>8.359999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="C160">
-        <v>8.079778232488369</v>
+        <v>8.399444689963609</v>
       </c>
       <c r="D160">
-        <v>-0.2802217675116303</v>
+        <v>-0.4205553100363915</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3744,13 +3756,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>8.44</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>8.037389042546497</v>
+        <v>8.400223015643423</v>
       </c>
       <c r="D161">
-        <v>-0.4026109574535024</v>
+        <v>-0.599776984356577</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3758,13 +3770,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>8.98</v>
+        <v>8.99</v>
       </c>
       <c r="C162">
-        <v>8.215720861257275</v>
+        <v>8.267237885385629</v>
       </c>
       <c r="D162">
-        <v>-0.7642791387427259</v>
+        <v>-0.7227621146143708</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3772,13 +3784,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>9.199999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="C163">
-        <v>8.48753378986143</v>
+        <v>8.089294945854054</v>
       </c>
       <c r="D163">
-        <v>-0.7124662101385688</v>
+        <v>-0.4207050541459463</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3786,13 +3798,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>9.24</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C164">
-        <v>8.511359688113647</v>
+        <v>8.18814032036185</v>
       </c>
       <c r="D164">
-        <v>-0.7286403118863536</v>
+        <v>-0.4518596796381509</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3800,13 +3812,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>9.25</v>
+        <v>8.16</v>
       </c>
       <c r="C165">
-        <v>8.478664050972554</v>
+        <v>8.054185088997961</v>
       </c>
       <c r="D165">
-        <v>-0.7713359490274456</v>
+        <v>-0.1058149110020388</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3814,13 +3826,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>8.99</v>
+        <v>8.07</v>
       </c>
       <c r="C166">
-        <v>8.353902258993426</v>
+        <v>7.989077314137883</v>
       </c>
       <c r="D166">
-        <v>-0.6360977410065747</v>
+        <v>-0.08092268586211748</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3828,13 +3840,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>8.6</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C167">
-        <v>8.212156282619436</v>
+        <v>7.936148971920395</v>
       </c>
       <c r="D167">
-        <v>-0.387843717380564</v>
+        <v>-0.1138510280796057</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3842,13 +3854,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>8.699999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="C168">
-        <v>8.21955102332927</v>
+        <v>7.928166964500691</v>
       </c>
       <c r="D168">
-        <v>-0.4804489766707292</v>
+        <v>-0.09183303549930866</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3856,13 +3868,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>8.869999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="C169">
-        <v>8.162127166214397</v>
+        <v>7.983437235227909</v>
       </c>
       <c r="D169">
-        <v>-0.7078728337856024</v>
+        <v>-0.1065627647720904</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3870,13 +3882,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>8.99</v>
+        <v>8.24</v>
       </c>
       <c r="C170">
-        <v>8.235534241636074</v>
+        <v>7.932586806155885</v>
       </c>
       <c r="D170">
-        <v>-0.754465758363926</v>
+        <v>-0.3074131938441154</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3884,13 +3896,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>8.51</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C171">
-        <v>8.077059291683948</v>
+        <v>8.008036301446882</v>
       </c>
       <c r="D171">
-        <v>-0.4329407083160515</v>
+        <v>-0.2919636985531184</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3898,13 +3910,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>8.220000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C172">
-        <v>7.949251932218673</v>
+        <v>7.967712269747262</v>
       </c>
       <c r="D172">
-        <v>-0.2707480677813274</v>
+        <v>-0.3322877302527383</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3912,13 +3924,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>8.31</v>
+        <v>8.35</v>
       </c>
       <c r="C173">
-        <v>8.018997560730337</v>
+        <v>7.995469248497886</v>
       </c>
       <c r="D173">
-        <v>-0.2910024392696631</v>
+        <v>-0.3545307515021134</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3926,13 +3938,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>8.6</v>
+        <v>8.52</v>
       </c>
       <c r="C174">
-        <v>8.030255247068609</v>
+        <v>7.969921112775018</v>
       </c>
       <c r="D174">
-        <v>-0.5697447529313902</v>
+        <v>-0.5500788872249815</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3940,13 +3952,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>8.43</v>
+        <v>7.98</v>
       </c>
       <c r="C175">
-        <v>7.97324254720177</v>
+        <v>7.776264890303326</v>
       </c>
       <c r="D175">
-        <v>-0.4567574527982297</v>
+        <v>-0.203735109696674</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3954,13 +3966,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>8.550000000000001</v>
+        <v>7.69</v>
       </c>
       <c r="C176">
-        <v>7.992855445694897</v>
+        <v>7.554771126291301</v>
       </c>
       <c r="D176">
-        <v>-0.5571445543051032</v>
+        <v>-0.1352288737086997</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3968,13 +3980,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>8</v>
+        <v>8.09</v>
       </c>
       <c r="C177">
-        <v>7.747540281587315</v>
+        <v>7.840082539259799</v>
       </c>
       <c r="D177">
-        <v>-0.2524597184126849</v>
+        <v>-0.2499174607402006</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3982,13 +3994,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>7.98</v>
+        <v>8.15</v>
       </c>
       <c r="C178">
-        <v>7.760438400904294</v>
+        <v>7.902084685991244</v>
       </c>
       <c r="D178">
-        <v>-0.2195615990957061</v>
+        <v>-0.2479153140087567</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3996,13 +4008,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>7.96</v>
+        <v>8.27</v>
       </c>
       <c r="C179">
-        <v>7.759739427146887</v>
+        <v>8.073568958905899</v>
       </c>
       <c r="D179">
-        <v>-0.2002605728531126</v>
+        <v>-0.196431041094101</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4010,13 +4022,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>7.94</v>
+        <v>8.17</v>
       </c>
       <c r="C180">
-        <v>7.730896105362883</v>
+        <v>8.013441723203762</v>
       </c>
       <c r="D180">
-        <v>-0.2091038946371171</v>
+        <v>-0.1565582767962379</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4024,13 +4036,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>7.9</v>
+        <v>8.18</v>
       </c>
       <c r="C181">
-        <v>7.702960086452744</v>
+        <v>7.932790639471944</v>
       </c>
       <c r="D181">
-        <v>-0.1970399135472567</v>
+        <v>-0.2472093605280561</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4038,13 +4050,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7.8</v>
+        <v>8.26</v>
       </c>
       <c r="C182">
-        <v>7.647675801387549</v>
+        <v>7.993932448590829</v>
       </c>
       <c r="D182">
-        <v>-0.1523241986124511</v>
+        <v>-0.2660675514091713</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4052,13 +4064,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>7.63</v>
+        <v>7.68</v>
       </c>
       <c r="C183">
-        <v>7.552474080981599</v>
+        <v>7.815684006313485</v>
       </c>
       <c r="D183">
-        <v>-0.07752591901840056</v>
+        <v>0.1356840063134852</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4066,13 +4078,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>7.65</v>
+        <v>7.68</v>
       </c>
       <c r="C184">
-        <v>7.438781180320309</v>
+        <v>7.851161568617456</v>
       </c>
       <c r="D184">
-        <v>-0.2112188196796909</v>
+        <v>0.1711615686174559</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4080,13 +4092,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>7.61</v>
+        <v>7.5</v>
       </c>
       <c r="C185">
-        <v>7.495930246185655</v>
+        <v>7.767928903247053</v>
       </c>
       <c r="D185">
-        <v>-0.1140697538143449</v>
+        <v>0.2679289032470527</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4094,13 +4106,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>8.09</v>
+        <v>7.53</v>
       </c>
       <c r="C186">
-        <v>7.834079410371539</v>
+        <v>7.771622539349576</v>
       </c>
       <c r="D186">
-        <v>-0.2559205896284604</v>
+        <v>0.2416225393495761</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4108,13 +4120,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="C187">
-        <v>7.843785292443038</v>
+        <v>7.708339754458483</v>
       </c>
       <c r="D187">
-        <v>-0.2562147075569614</v>
+        <v>0.2083397544584829</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4122,13 +4134,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>8.27</v>
+        <v>7.49</v>
       </c>
       <c r="C188">
-        <v>8.09565399885739</v>
+        <v>7.758176457900247</v>
       </c>
       <c r="D188">
-        <v>-0.1743460011426095</v>
+        <v>0.268176457900247</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4136,13 +4148,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>8.19</v>
+        <v>7.5</v>
       </c>
       <c r="C189">
-        <v>8.060896054914132</v>
+        <v>7.686783398226336</v>
       </c>
       <c r="D189">
-        <v>-0.129103945085868</v>
+        <v>0.1867833982263365</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4150,13 +4162,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>8.17</v>
+        <v>7.53</v>
       </c>
       <c r="C190">
-        <v>7.979826356336072</v>
+        <v>7.667070291039882</v>
       </c>
       <c r="D190">
-        <v>-0.1901736436639281</v>
+        <v>0.1370702910398816</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4164,13 +4176,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>8.130000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="C191">
-        <v>7.967153524248851</v>
+        <v>7.753951442780969</v>
       </c>
       <c r="D191">
-        <v>-0.1628464757511496</v>
+        <v>0.1139514427809694</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4178,13 +4190,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>8.289999999999999</v>
+        <v>7.63</v>
       </c>
       <c r="C192">
-        <v>8.044390439464404</v>
+        <v>8.073000100914545</v>
       </c>
       <c r="D192">
-        <v>-0.2456095605355948</v>
+        <v>0.4430001009145448</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4192,13 +4204,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>7.67</v>
+        <v>7.64</v>
       </c>
       <c r="C193">
-        <v>7.804902757163664</v>
+        <v>7.988371099018537</v>
       </c>
       <c r="D193">
-        <v>0.1349027571636645</v>
+        <v>0.3483710990185376</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4206,13 +4218,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>7.55</v>
+        <v>7.62</v>
       </c>
       <c r="C194">
-        <v>7.813556074196998</v>
+        <v>7.930375533569591</v>
       </c>
       <c r="D194">
-        <v>0.2635560741969982</v>
+        <v>0.3103755335695908</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4220,13 +4232,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>7.52</v>
+        <v>7.69</v>
       </c>
       <c r="C195">
-        <v>7.800510424143657</v>
+        <v>7.955711271852942</v>
       </c>
       <c r="D195">
-        <v>0.2805104241436576</v>
+        <v>0.2657112718529415</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4234,13 +4246,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>7.5</v>
+        <v>7.61</v>
       </c>
       <c r="C196">
-        <v>7.720000683409002</v>
+        <v>7.894520432982143</v>
       </c>
       <c r="D196">
-        <v>0.220000683409002</v>
+        <v>0.2845204329821431</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4248,13 +4260,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>7.48</v>
+        <v>7.6</v>
       </c>
       <c r="C197">
-        <v>7.686520604656272</v>
+        <v>7.835414247020069</v>
       </c>
       <c r="D197">
-        <v>0.206520604656272</v>
+        <v>0.2354142470200697</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4265,10 +4277,10 @@
         <v>7.65</v>
       </c>
       <c r="C198">
-        <v>8.048330824786078</v>
+        <v>7.812557303801205</v>
       </c>
       <c r="D198">
-        <v>0.3983308247860773</v>
+        <v>0.1625573038012051</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4276,13 +4288,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="C199">
-        <v>8.09719458159854</v>
+        <v>7.860596103203092</v>
       </c>
       <c r="D199">
-        <v>0.4071945815985396</v>
+        <v>0.1905961032030925</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4290,13 +4302,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="C200">
-        <v>8.176737992051169</v>
+        <v>7.890899891583229</v>
       </c>
       <c r="D200">
-        <v>0.486737992051169</v>
+        <v>0.1908998915832285</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4304,13 +4316,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>7.62</v>
+        <v>7.73</v>
       </c>
       <c r="C201">
-        <v>7.990311553443036</v>
+        <v>7.888276796397233</v>
       </c>
       <c r="D201">
-        <v>0.3703115534430363</v>
+        <v>0.1582767963972325</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4318,13 +4330,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>7.64</v>
+        <v>7.69</v>
       </c>
       <c r="C202">
-        <v>7.983808567557603</v>
+        <v>7.891396062908323</v>
       </c>
       <c r="D202">
-        <v>0.3438085675576037</v>
+        <v>0.2013960629083229</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4335,10 +4347,10 @@
         <v>7.62</v>
       </c>
       <c r="C203">
-        <v>7.96635079799004</v>
+        <v>7.922228667081535</v>
       </c>
       <c r="D203">
-        <v>0.3463507979900395</v>
+        <v>0.3022286670815344</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4346,13 +4358,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="C204">
-        <v>8.011159191362022</v>
+        <v>7.965139002766988</v>
       </c>
       <c r="D204">
-        <v>0.2811591913620219</v>
+        <v>0.305139002766988</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4360,13 +4372,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>7.62</v>
+        <v>7.69</v>
       </c>
       <c r="C205">
-        <v>7.893292239486805</v>
+        <v>7.954395504299746</v>
       </c>
       <c r="D205">
-        <v>0.2732922394868051</v>
+        <v>0.2643955042997455</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4374,13 +4386,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>7.64</v>
+        <v>7.32</v>
       </c>
       <c r="C206">
-        <v>7.897431197241159</v>
+        <v>7.43292788694031</v>
       </c>
       <c r="D206">
-        <v>0.2574311972411589</v>
+        <v>0.1129278869403096</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4388,13 +4400,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>7.62</v>
+        <v>7.25</v>
       </c>
       <c r="C207">
-        <v>7.815711948630942</v>
+        <v>7.349819095013991</v>
       </c>
       <c r="D207">
-        <v>0.195711948630942</v>
+        <v>0.09981909501399056</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4402,13 +4414,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>7.54</v>
+        <v>7.13</v>
       </c>
       <c r="C208">
-        <v>7.737750945533727</v>
+        <v>7.275576412847461</v>
       </c>
       <c r="D208">
-        <v>0.197750945533727</v>
+        <v>0.1455764128474613</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4416,13 +4428,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>7.59</v>
+        <v>7.12</v>
       </c>
       <c r="C209">
-        <v>7.868756024310628</v>
+        <v>7.273997299120569</v>
       </c>
       <c r="D209">
-        <v>0.2787560243106286</v>
+        <v>0.1539972991205687</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4430,13 +4442,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>7.64</v>
+        <v>7.16</v>
       </c>
       <c r="C210">
-        <v>7.86894693328886</v>
+        <v>7.312137730825131</v>
       </c>
       <c r="D210">
-        <v>0.2289469332888601</v>
+        <v>0.1521377308251308</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4444,13 +4456,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>7.63</v>
+        <v>7.24</v>
       </c>
       <c r="C211">
-        <v>7.835722870961466</v>
+        <v>7.378406067906799</v>
       </c>
       <c r="D211">
-        <v>0.2057228709614662</v>
+        <v>0.1384060679067991</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4458,13 +4470,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>7.68</v>
+        <v>7.1</v>
       </c>
       <c r="C212">
-        <v>7.966431519324787</v>
+        <v>7.482400081725166</v>
       </c>
       <c r="D212">
-        <v>0.2864315193247871</v>
+        <v>0.3824000817251667</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4472,13 +4484,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>7.7</v>
+        <v>7.38</v>
       </c>
       <c r="C213">
-        <v>7.971758894230452</v>
+        <v>7.508077601349016</v>
       </c>
       <c r="D213">
-        <v>0.2717588942304516</v>
+        <v>0.1280776013490161</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4486,13 +4498,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>7.71</v>
+        <v>7.56</v>
       </c>
       <c r="C214">
-        <v>7.969068821707919</v>
+        <v>7.538258510393365</v>
       </c>
       <c r="D214">
-        <v>0.2590688217079187</v>
+        <v>-0.0217414896066348</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4500,13 +4512,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>7.65</v>
+        <v>7.94</v>
       </c>
       <c r="C215">
-        <v>7.940876599593266</v>
+        <v>7.851261588369923</v>
       </c>
       <c r="D215">
-        <v>0.2908765995932656</v>
+        <v>-0.0887384116300769</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4514,13 +4526,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>7.69</v>
+        <v>7.91</v>
       </c>
       <c r="C216">
-        <v>7.975411366231621</v>
+        <v>7.963231329677115</v>
       </c>
       <c r="D216">
-        <v>0.2854113662316209</v>
+        <v>0.05323132967711519</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4528,13 +4540,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>7.73</v>
+        <v>8.27</v>
       </c>
       <c r="C217">
-        <v>8.023411070679529</v>
+        <v>8.248584825705812</v>
       </c>
       <c r="D217">
-        <v>0.2934110706795288</v>
+        <v>-0.02141517429418727</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4542,13 +4554,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>7.4</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C218">
-        <v>7.613845808940417</v>
+        <v>8.175936427505107</v>
       </c>
       <c r="D218">
-        <v>0.2138458089404169</v>
+        <v>-0.03406357249489389</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4556,13 +4568,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C219">
-        <v>7.565185858609607</v>
+        <v>8.073412046259957</v>
       </c>
       <c r="D219">
-        <v>0.2651858586096072</v>
+        <v>-0.1265879537400423</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4570,13 +4582,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>7.25</v>
+        <v>8.17</v>
       </c>
       <c r="C220">
-        <v>7.406346652570222</v>
+        <v>8.062984292197481</v>
       </c>
       <c r="D220">
-        <v>0.156346652570222</v>
+        <v>-0.1070157078025193</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4584,13 +4596,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>7.4</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C221">
-        <v>7.602909689768633</v>
+        <v>8.014497683132209</v>
       </c>
       <c r="D221">
-        <v>0.2029096897686324</v>
+        <v>-0.1955023168677918</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4598,13 +4610,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>8.02</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C222">
-        <v>7.979741887272897</v>
+        <v>8.068732953968411</v>
       </c>
       <c r="D222">
-        <v>-0.04025811272710289</v>
+        <v>-0.2112670460315886</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4612,13 +4624,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>7.85</v>
+        <v>8.34</v>
       </c>
       <c r="C223">
-        <v>7.952118526680461</v>
+        <v>7.965116957494963</v>
       </c>
       <c r="D223">
-        <v>0.102118526680461</v>
+        <v>-0.3748830425050373</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4626,13 +4638,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>7.88</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C224">
-        <v>7.915068965373345</v>
+        <v>8.26325015271301</v>
       </c>
       <c r="D224">
-        <v>0.0350689653733447</v>
+        <v>-0.126749847286991</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4640,13 +4652,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>7.88</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C225">
-        <v>7.883457393666366</v>
+        <v>8.27460910743638</v>
       </c>
       <c r="D225">
-        <v>0.003457393666366215</v>
+        <v>-0.08539089256361976</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4654,13 +4666,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>8.210000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="C226">
-        <v>8.165401834653085</v>
+        <v>8.260951939991362</v>
       </c>
       <c r="D226">
-        <v>-0.04459816534691541</v>
+        <v>-0.08904806000863807</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4668,13 +4680,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>8.210000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C227">
-        <v>8.149948062310724</v>
+        <v>8.11393977477411</v>
       </c>
       <c r="D227">
-        <v>-0.06005193768927697</v>
+        <v>-0.0860602252258893</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4682,13 +4694,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>8.26</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C228">
-        <v>8.036588868580342</v>
+        <v>7.991033169755558</v>
       </c>
       <c r="D228">
-        <v>-0.2234111314196578</v>
+        <v>-0.1389668302444429</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4696,13 +4708,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>8.42</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C229">
-        <v>8.087988497501197</v>
+        <v>7.883541224439614</v>
       </c>
       <c r="D229">
-        <v>-0.3320115024988031</v>
+        <v>-0.1464587755603857</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4710,13 +4722,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>8.369999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="C230">
-        <v>8.225645727313992</v>
+        <v>8.236593582273048</v>
       </c>
       <c r="D230">
-        <v>-0.144354272686007</v>
+        <v>0.006593582273048071</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4724,13 +4736,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>8.210000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="C231">
-        <v>8.170759595893426</v>
+        <v>8.257886555086376</v>
       </c>
       <c r="D231">
-        <v>-0.03924040410657526</v>
+        <v>0.06788655508637653</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4738,13 +4750,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>8.19</v>
+        <v>8.35</v>
       </c>
       <c r="C232">
-        <v>8.163129431090052</v>
+        <v>8.344345543151711</v>
       </c>
       <c r="D232">
-        <v>-0.02687056890994732</v>
+        <v>-0.005654456848288802</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4752,13 +4764,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>7.9</v>
+        <v>8.35</v>
       </c>
       <c r="C233">
-        <v>7.923918443989845</v>
+        <v>8.43456903147635</v>
       </c>
       <c r="D233">
-        <v>0.023918443989845</v>
+        <v>0.08456903147635053</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4766,13 +4778,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>8.390000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C234">
-        <v>8.475747554607938</v>
+        <v>8.330351514113048</v>
       </c>
       <c r="D234">
-        <v>0.08574755460793781</v>
+        <v>0.2003515141130467</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4780,13 +4792,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>8.210000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C235">
-        <v>8.301668615921489</v>
+        <v>8.579371171149848</v>
       </c>
       <c r="D235">
-        <v>0.09166861592148834</v>
+        <v>0.1593711711498482</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4794,13 +4806,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>8.24</v>
+        <v>9.33</v>
       </c>
       <c r="C236">
-        <v>8.333973026699315</v>
+        <v>9.217884852655683</v>
       </c>
       <c r="D236">
-        <v>0.09397302669931484</v>
+        <v>-0.1121151473443174</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4808,13 +4820,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>10.1</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C237">
-        <v>9.407133687505553</v>
+        <v>8.575480534907374</v>
       </c>
       <c r="D237">
-        <v>-0.6928663124944467</v>
+        <v>0.1154805349073733</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4822,13 +4834,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>10.01</v>
+        <v>8.57</v>
       </c>
       <c r="C238">
-        <v>9.517550630548413</v>
+        <v>8.463198503303033</v>
       </c>
       <c r="D238">
-        <v>-0.4924493694515863</v>
+        <v>-0.106801496696967</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4836,13 +4848,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>9.58</v>
+        <v>7.73</v>
       </c>
       <c r="C239">
-        <v>9.368017179852174</v>
+        <v>8.33222287532115</v>
       </c>
       <c r="D239">
-        <v>-0.211982820147826</v>
+        <v>0.60222287532115</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4850,13 +4862,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>7.62</v>
+        <v>7.67</v>
       </c>
       <c r="C240">
-        <v>8.16587053626348</v>
+        <v>8.318465419834752</v>
       </c>
       <c r="D240">
-        <v>0.5458705362634797</v>
+        <v>0.6484654198347517</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4864,13 +4876,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="C241">
-        <v>8.176938438975409</v>
+        <v>8.117508962098054</v>
       </c>
       <c r="D241">
-        <v>0.536938438975409</v>
+        <v>0.347508962098054</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4878,13 +4890,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>7.7</v>
+        <v>7.64</v>
       </c>
       <c r="C242">
-        <v>8.02713974111872</v>
+        <v>7.920029052922623</v>
       </c>
       <c r="D242">
-        <v>0.32713974111872</v>
+        <v>0.2800290529226235</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4892,13 +4904,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="C243">
-        <v>8.08687747429121</v>
+        <v>7.928283253171547</v>
       </c>
       <c r="D243">
-        <v>0.3268774742912104</v>
+        <v>0.2882832531715476</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4906,13 +4918,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>7.74</v>
+        <v>7.8</v>
       </c>
       <c r="C244">
-        <v>8.061525663992111</v>
+        <v>7.914348118969493</v>
       </c>
       <c r="D244">
-        <v>0.3215256639921105</v>
+        <v>0.1143481189694935</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4920,13 +4932,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C245">
-        <v>7.876727221297977</v>
+        <v>8.011457207414608</v>
       </c>
       <c r="D245">
-        <v>0.07672722129797727</v>
+        <v>-0.02854279258539094</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4934,13 +4946,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>7.82</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C246">
-        <v>7.893106849021863</v>
+        <v>8.010135468320609</v>
       </c>
       <c r="D246">
-        <v>0.07310684902186271</v>
+        <v>-0.0198645316793904</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4948,13 +4960,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>7.57</v>
+        <v>7.54</v>
       </c>
       <c r="C247">
-        <v>7.735295936893629</v>
+        <v>7.740867627252919</v>
       </c>
       <c r="D247">
-        <v>0.1652959368936289</v>
+        <v>0.2008676272529186</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4962,13 +4974,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>7.57</v>
+        <v>7.75</v>
       </c>
       <c r="C248">
-        <v>7.760356161265899</v>
+        <v>7.794165560756993</v>
       </c>
       <c r="D248">
-        <v>0.1903561612658988</v>
+        <v>0.04416556075699329</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4976,13 +4988,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>7.51</v>
+        <v>7.53</v>
       </c>
       <c r="C249">
-        <v>7.759752997264999</v>
+        <v>7.761483000038393</v>
       </c>
       <c r="D249">
-        <v>0.2497529972649994</v>
+        <v>0.2314830000383932</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4990,13 +5002,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>7.44</v>
+        <v>7.27</v>
       </c>
       <c r="C250">
-        <v>7.673623934666737</v>
+        <v>7.383600736767518</v>
       </c>
       <c r="D250">
-        <v>0.2336239346667366</v>
+        <v>0.1136007367675189</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5004,13 +5016,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>7.69</v>
+        <v>7.04</v>
       </c>
       <c r="C251">
-        <v>7.696208164168534</v>
+        <v>7.113361473027902</v>
       </c>
       <c r="D251">
-        <v>0.00620816416853387</v>
+        <v>0.07336147302790152</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5018,13 +5030,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>7.22</v>
+        <v>7.02</v>
       </c>
       <c r="C252">
-        <v>7.366467083200916</v>
+        <v>7.113416469909514</v>
       </c>
       <c r="D252">
-        <v>0.1464670832009158</v>
+        <v>0.09341646990951435</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5032,13 +5044,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>7.25</v>
+        <v>7.02</v>
       </c>
       <c r="C253">
-        <v>7.36124144970555</v>
+        <v>7.087660606145939</v>
       </c>
       <c r="D253">
-        <v>0.1112414497055498</v>
+        <v>0.06766060614593972</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5046,13 +5058,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="C254">
-        <v>7.079324049047295</v>
+        <v>7.1239926587712</v>
       </c>
       <c r="D254">
-        <v>0.02932404904729502</v>
+        <v>0.09399265877119944</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5063,10 +5075,10 @@
         <v>7.18</v>
       </c>
       <c r="C255">
-        <v>7.241227161868466</v>
+        <v>7.270651167097008</v>
       </c>
       <c r="D255">
-        <v>0.06122716186846677</v>
+        <v>0.09065116709700849</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5074,13 +5086,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>7.26</v>
+        <v>7.21</v>
       </c>
       <c r="C256">
-        <v>7.262583313746938</v>
+        <v>7.206363140261336</v>
       </c>
       <c r="D256">
-        <v>0.002583313746938209</v>
+        <v>-0.003636859738664455</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5088,13 +5100,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
       <c r="C257">
-        <v>7.122766817477104</v>
+        <v>7.139759864627934</v>
       </c>
       <c r="D257">
-        <v>-0.06723318252289623</v>
+        <v>-0.0002401353720653532</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5102,13 +5114,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>7.31</v>
+        <v>7.2</v>
       </c>
       <c r="C258">
-        <v>7.190355590166999</v>
+        <v>7.173932163424898</v>
       </c>
       <c r="D258">
-        <v>-0.1196444098330005</v>
+        <v>-0.02606783657510192</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5116,13 +5128,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>7.24</v>
+        <v>7.36</v>
       </c>
       <c r="C259">
-        <v>7.225709738996463</v>
+        <v>7.263335413352125</v>
       </c>
       <c r="D259">
-        <v>-0.01429026100353692</v>
+        <v>-0.09666458664787569</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5130,13 +5142,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>7.18</v>
+        <v>7.32</v>
       </c>
       <c r="C260">
-        <v>7.064069377370877</v>
+        <v>7.199779397219118</v>
       </c>
       <c r="D260">
-        <v>-0.115930622629123</v>
+        <v>-0.1202206027808819</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5144,13 +5156,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>6.96</v>
+        <v>7.74</v>
       </c>
       <c r="C261">
-        <v>6.819320243920376</v>
+        <v>7.444099123503137</v>
       </c>
       <c r="D261">
-        <v>-0.1406797560796242</v>
+        <v>-0.2959008764968631</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5158,13 +5170,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>6.9</v>
+        <v>7.72</v>
       </c>
       <c r="C262">
-        <v>6.796875245850535</v>
+        <v>7.473237373418534</v>
       </c>
       <c r="D262">
-        <v>-0.1031247541494649</v>
+        <v>-0.2467626265814662</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5172,13 +5184,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>7.11</v>
+        <v>7.78</v>
       </c>
       <c r="C263">
-        <v>6.571784226970233</v>
+        <v>7.444239069042152</v>
       </c>
       <c r="D263">
-        <v>-0.5382157730297674</v>
+        <v>-0.3357609309578482</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5186,13 +5198,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="C264">
-        <v>6.594980180641998</v>
+        <v>7.296170174542218</v>
       </c>
       <c r="D264">
-        <v>-0.705019819358002</v>
+        <v>-0.2938298254577818</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5200,13 +5212,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>6.93</v>
+        <v>7.18</v>
       </c>
       <c r="C265">
-        <v>6.611677484734142</v>
+        <v>7.093802268677638</v>
       </c>
       <c r="D265">
-        <v>-0.3183225152658578</v>
+        <v>-0.08619773132236208</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5214,13 +5226,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>6.89</v>
+        <v>7.27</v>
       </c>
       <c r="C266">
-        <v>6.596003860752917</v>
+        <v>7.092189075649102</v>
       </c>
       <c r="D266">
-        <v>-0.2939961392470831</v>
+        <v>-0.1778109243508981</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5228,13 +5240,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>7.04</v>
+        <v>7.16</v>
       </c>
       <c r="C267">
-        <v>6.505543554995138</v>
+        <v>6.79313911782318</v>
       </c>
       <c r="D267">
-        <v>-0.5344564450048619</v>
+        <v>-0.3668608821768204</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5242,13 +5254,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>6.93</v>
+        <v>7.08</v>
       </c>
       <c r="C268">
-        <v>6.567189295007355</v>
+        <v>6.607707437303218</v>
       </c>
       <c r="D268">
-        <v>-0.3628107049926443</v>
+        <v>-0.472292562696782</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5256,13 +5268,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>6.98</v>
+        <v>7.04</v>
       </c>
       <c r="C269">
-        <v>6.522593958771311</v>
+        <v>6.512182373834039</v>
       </c>
       <c r="D269">
-        <v>-0.4574060412286896</v>
+        <v>-0.5278176261659606</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5270,13 +5282,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>6.63</v>
+        <v>7.25</v>
       </c>
       <c r="C270">
-        <v>6.296427278383534</v>
+        <v>6.627784673734962</v>
       </c>
       <c r="D270">
-        <v>-0.3335727216164663</v>
+        <v>-0.6222153262650378</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5284,13 +5296,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>6.67</v>
+        <v>7.55</v>
       </c>
       <c r="C271">
-        <v>6.293514340442351</v>
+        <v>6.709493370780192</v>
       </c>
       <c r="D271">
-        <v>-0.3764856595576491</v>
+        <v>-0.8405066292198082</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5298,13 +5310,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>6.61</v>
+        <v>7.01</v>
       </c>
       <c r="C272">
-        <v>6.285065210012013</v>
+        <v>6.612314039966111</v>
       </c>
       <c r="D272">
-        <v>-0.3249347899879869</v>
+        <v>-0.3976859600338889</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5312,13 +5324,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>6.61</v>
+        <v>6.95</v>
       </c>
       <c r="C273">
-        <v>6.399825219745174</v>
+        <v>6.56773403715598</v>
       </c>
       <c r="D273">
-        <v>-0.2101747802548264</v>
+        <v>-0.3822659628440199</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5326,13 +5338,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>6.64</v>
+        <v>6.95</v>
       </c>
       <c r="C274">
-        <v>6.429393095934322</v>
+        <v>6.490025747914653</v>
       </c>
       <c r="D274">
-        <v>-0.2106069040656777</v>
+        <v>-0.4599742520853471</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5340,13 +5352,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>6.81</v>
+        <v>6.63</v>
       </c>
       <c r="C275">
-        <v>6.349973287573257</v>
+        <v>6.244900445507773</v>
       </c>
       <c r="D275">
-        <v>-0.4600267124267425</v>
+        <v>-0.3850995544922267</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5354,13 +5366,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>6.8</v>
+        <v>6.63</v>
       </c>
       <c r="C276">
-        <v>6.303467555696364</v>
+        <v>6.25627636031684</v>
       </c>
       <c r="D276">
-        <v>-0.4965324443036359</v>
+        <v>-0.3737236396831598</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5368,13 +5380,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C277">
-        <v>6.278164713908338</v>
+        <v>6.226343557886604</v>
       </c>
       <c r="D277">
-        <v>-0.4618352860916621</v>
+        <v>-0.3236564421133963</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5382,13 +5394,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>6.36</v>
+        <v>6.77</v>
       </c>
       <c r="C278">
-        <v>6.028630149886653</v>
+        <v>6.238194819180648</v>
       </c>
       <c r="D278">
-        <v>-0.3313698501133473</v>
+        <v>-0.5318051808193518</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5396,13 +5408,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.75</v>
+        <v>6.21</v>
       </c>
       <c r="C279">
-        <v>6.034844170167465</v>
+        <v>5.927993610426859</v>
       </c>
       <c r="D279">
-        <v>0.2848441701674647</v>
+        <v>-0.2820063895731408</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5410,13 +5422,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.7</v>
+        <v>6.25</v>
       </c>
       <c r="C280">
-        <v>6.002632492513682</v>
+        <v>5.975974847331787</v>
       </c>
       <c r="D280">
-        <v>0.3026324925136823</v>
+        <v>-0.2740251526682131</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5424,13 +5436,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.7</v>
+        <v>5.96</v>
       </c>
       <c r="C281">
-        <v>6.031107738146685</v>
+        <v>5.974235608180002</v>
       </c>
       <c r="D281">
-        <v>0.3311077381466845</v>
+        <v>0.01423560818000169</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5438,13 +5450,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.69</v>
+        <v>5.97</v>
       </c>
       <c r="C282">
-        <v>6.014843812830983</v>
+        <v>5.988138557074374</v>
       </c>
       <c r="D282">
-        <v>0.3248438128309825</v>
+        <v>0.01813855707437462</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5452,13 +5464,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="C283">
-        <v>5.913731373127306</v>
+        <v>6.03483432483331</v>
       </c>
       <c r="D283">
-        <v>0.173731373127306</v>
+        <v>0.3248343248333097</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5466,13 +5478,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.53</v>
+        <v>5.73</v>
       </c>
       <c r="C284">
-        <v>5.744306956121547</v>
+        <v>6.014511216245888</v>
       </c>
       <c r="D284">
-        <v>0.2143069561215469</v>
+        <v>0.284511216245888</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5480,13 +5492,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.43</v>
+        <v>5.65</v>
       </c>
       <c r="C285">
-        <v>5.575885422994271</v>
+        <v>5.909866893378672</v>
       </c>
       <c r="D285">
-        <v>0.1458854229942714</v>
+        <v>0.2598668933786721</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5494,13 +5506,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.61</v>
+        <v>5.65</v>
       </c>
       <c r="C286">
-        <v>5.608601388938394</v>
+        <v>5.943168678822757</v>
       </c>
       <c r="D286">
-        <v>-0.001398611061606658</v>
+        <v>0.2931686788227568</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5508,13 +5520,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.68</v>
+        <v>5.74</v>
       </c>
       <c r="C287">
-        <v>5.598611438764176</v>
+        <v>5.918029653277498</v>
       </c>
       <c r="D287">
-        <v>-0.08138856123582361</v>
+        <v>0.1780296532774974</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5522,13 +5534,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.56</v>
+        <v>5.79</v>
       </c>
       <c r="C288">
-        <v>5.576647088368227</v>
+        <v>5.885004512633544</v>
       </c>
       <c r="D288">
-        <v>0.01664708836822726</v>
+        <v>0.09500451263354392</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5536,13 +5548,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.87</v>
+        <v>5.49</v>
       </c>
       <c r="C289">
-        <v>5.730497207019698</v>
+        <v>5.671037376636186</v>
       </c>
       <c r="D289">
-        <v>-0.1395027929803021</v>
+        <v>0.1810373766361861</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5550,13 +5562,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.98</v>
+        <v>5.43</v>
       </c>
       <c r="C290">
-        <v>5.62690241901035</v>
+        <v>5.616308368144925</v>
       </c>
       <c r="D290">
-        <v>-0.3530975809896502</v>
+        <v>0.1863083681449256</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5564,13 +5576,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.8</v>
+        <v>5.38</v>
       </c>
       <c r="C291">
-        <v>5.611836441601128</v>
+        <v>5.605666205060994</v>
       </c>
       <c r="D291">
-        <v>-0.1881635583988714</v>
+        <v>0.2256662050609943</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5578,13 +5590,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>5.76</v>
+        <v>5.49</v>
       </c>
       <c r="C292">
-        <v>5.564401871270934</v>
+        <v>5.567262748554334</v>
       </c>
       <c r="D292">
-        <v>-0.195598128729066</v>
+        <v>0.07726274855433335</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5592,13 +5604,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>5.31</v>
+        <v>5.6</v>
       </c>
       <c r="C293">
-        <v>5.418251736442563</v>
+        <v>5.601668150137328</v>
       </c>
       <c r="D293">
-        <v>0.108251736442563</v>
+        <v>0.001668150137327906</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5606,13 +5618,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>5.27</v>
+        <v>5.65</v>
       </c>
       <c r="C294">
-        <v>5.447129909622546</v>
+        <v>5.584111471075647</v>
       </c>
       <c r="D294">
-        <v>0.177129909622546</v>
+        <v>-0.06588852892435337</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5620,13 +5632,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>5.18</v>
+        <v>5.65</v>
       </c>
       <c r="C295">
-        <v>5.454260229111989</v>
+        <v>5.570529228759765</v>
       </c>
       <c r="D295">
-        <v>0.2742602291119898</v>
+        <v>-0.07947077124023583</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5634,13 +5646,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>5.17</v>
+        <v>5.83</v>
       </c>
       <c r="C296">
-        <v>5.485189469141322</v>
+        <v>5.649119179415375</v>
       </c>
       <c r="D296">
-        <v>0.3151894691413224</v>
+        <v>-0.1808808205846253</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5648,13 +5660,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>5.17</v>
+        <v>5.89</v>
       </c>
       <c r="C297">
-        <v>5.471860546230478</v>
+        <v>5.673323158723941</v>
       </c>
       <c r="D297">
-        <v>0.3018605462304782</v>
+        <v>-0.2166768412760582</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5662,13 +5674,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>5.13</v>
+        <v>5.98</v>
       </c>
       <c r="C298">
-        <v>5.464441002845281</v>
+        <v>5.661335347219256</v>
       </c>
       <c r="D298">
-        <v>0.3344410028452813</v>
+        <v>-0.3186646527807442</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5676,13 +5688,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>4.98</v>
+        <v>5.54</v>
       </c>
       <c r="C299">
-        <v>5.442580819665785</v>
+        <v>5.55729156590106</v>
       </c>
       <c r="D299">
-        <v>0.4625808196657841</v>
+        <v>0.01729156590105951</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5690,13 +5702,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>4.97</v>
+        <v>5.27</v>
       </c>
       <c r="C300">
-        <v>5.409001306749736</v>
+        <v>5.457869880664965</v>
       </c>
       <c r="D300">
-        <v>0.439001306749736</v>
+        <v>0.187869880664965</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5704,13 +5716,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
       <c r="C301">
-        <v>5.474039525799435</v>
+        <v>5.469522484109874</v>
       </c>
       <c r="D301">
-        <v>0.454039525799435</v>
+        <v>0.2695224841098742</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5718,13 +5730,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>4.99</v>
+        <v>5.17</v>
       </c>
       <c r="C302">
-        <v>5.436987894118779</v>
+        <v>5.47664558242784</v>
       </c>
       <c r="D302">
-        <v>0.446987894118779</v>
+        <v>0.3066455824278398</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5732,13 +5744,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>5.08</v>
+        <v>5.05</v>
       </c>
       <c r="C303">
-        <v>5.463741306562171</v>
+        <v>5.489471290938668</v>
       </c>
       <c r="D303">
-        <v>0.3837413065621709</v>
+        <v>0.439471290938668</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5746,13 +5758,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>5.08</v>
+        <v>4.99</v>
       </c>
       <c r="C304">
-        <v>5.470415998710098</v>
+        <v>5.451464195557373</v>
       </c>
       <c r="D304">
-        <v>0.3904159987100977</v>
+        <v>0.4614641955573733</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5760,13 +5772,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>5.14</v>
+        <v>4.98</v>
       </c>
       <c r="C305">
-        <v>5.502448510381226</v>
+        <v>5.459068140243086</v>
       </c>
       <c r="D305">
-        <v>0.3624485103812258</v>
+        <v>0.4790681402430854</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5774,13 +5786,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>5.11</v>
+        <v>4.96</v>
       </c>
       <c r="C306">
-        <v>5.382473049839034</v>
+        <v>5.429977063007033</v>
       </c>
       <c r="D306">
-        <v>0.272473049839034</v>
+        <v>0.4699770630070326</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5788,13 +5800,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>5.11</v>
+        <v>4.97</v>
       </c>
       <c r="C307">
-        <v>5.372052141365712</v>
+        <v>5.420069924116909</v>
       </c>
       <c r="D307">
-        <v>0.2620521413657118</v>
+        <v>0.4500699241169093</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5802,13 +5814,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>5.09</v>
+        <v>4.96</v>
       </c>
       <c r="C308">
-        <v>5.376162299255697</v>
+        <v>5.418215620794826</v>
       </c>
       <c r="D308">
-        <v>0.2861622992556967</v>
+        <v>0.4582156207948263</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5816,13 +5828,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>5.07</v>
+        <v>4.98</v>
       </c>
       <c r="C309">
-        <v>5.297518879698505</v>
+        <v>5.431904813405748</v>
       </c>
       <c r="D309">
-        <v>0.227518879698505</v>
+        <v>0.451904813405748</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5830,13 +5842,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>5.09</v>
+        <v>4.99</v>
       </c>
       <c r="C310">
-        <v>5.302250904145582</v>
+        <v>5.460709985203811</v>
       </c>
       <c r="D310">
-        <v>0.2122509041455825</v>
+        <v>0.4707099852038104</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5844,13 +5856,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>5.06</v>
+        <v>4.99</v>
       </c>
       <c r="C311">
-        <v>5.330807518123472</v>
+        <v>5.450299511585832</v>
       </c>
       <c r="D311">
-        <v>0.2708075181234726</v>
+        <v>0.4602995115858315</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5858,13 +5870,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>5.08</v>
+        <v>4.99</v>
       </c>
       <c r="C312">
-        <v>5.350433464213091</v>
+        <v>5.476559499122058</v>
       </c>
       <c r="D312">
-        <v>0.2704334642130908</v>
+        <v>0.4865594991220581</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5872,13 +5884,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>5.04</v>
+        <v>4.99</v>
       </c>
       <c r="C313">
-        <v>5.312376052689087</v>
+        <v>5.475269695914217</v>
       </c>
       <c r="D313">
-        <v>0.2723760526890873</v>
+        <v>0.4852696959142166</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5886,13 +5898,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>5.05</v>
+        <v>4.98</v>
       </c>
       <c r="C314">
-        <v>5.27184466059273</v>
+        <v>5.451664472382798</v>
       </c>
       <c r="D314">
-        <v>0.2218446605927298</v>
+        <v>0.4716644723827974</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5900,13 +5912,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="C315">
-        <v>5.31891657731522</v>
+        <v>5.490537565405742</v>
       </c>
       <c r="D315">
-        <v>0.2389165773152202</v>
+        <v>0.4005375654057426</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5914,13 +5926,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="C316">
-        <v>5.362772723787182</v>
+        <v>5.466145726897808</v>
       </c>
       <c r="D316">
-        <v>0.2127727237871815</v>
+        <v>0.3961457268978075</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5931,10 +5943,10 @@
         <v>5.14</v>
       </c>
       <c r="C317">
-        <v>5.365363530362162</v>
+        <v>5.494148336004014</v>
       </c>
       <c r="D317">
-        <v>0.2253635303621619</v>
+        <v>0.3541483360040143</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5942,13 +5954,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C318">
-        <v>5.242867420221772</v>
+        <v>5.409737423759468</v>
       </c>
       <c r="D318">
-        <v>0.1728674202217713</v>
+        <v>0.2597374237594678</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5956,13 +5968,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>5.08</v>
+        <v>5.13</v>
       </c>
       <c r="C319">
-        <v>5.260304504852993</v>
+        <v>5.397791016931517</v>
       </c>
       <c r="D319">
-        <v>0.1803045048529928</v>
+        <v>0.2677910169315174</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5970,13 +5982,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>5.06</v>
+        <v>5.1</v>
       </c>
       <c r="C320">
-        <v>5.269606253943484</v>
+        <v>5.336662287362646</v>
       </c>
       <c r="D320">
-        <v>0.209606253943484</v>
+        <v>0.2366622873626465</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5984,13 +5996,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>5.04</v>
+        <v>5.11</v>
       </c>
       <c r="C321">
-        <v>5.243029289242294</v>
+        <v>5.337670630048957</v>
       </c>
       <c r="D321">
-        <v>0.203029289242294</v>
+        <v>0.2276706300489568</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5998,13 +6010,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="C322">
-        <v>5.254882183245861</v>
+        <v>5.300261670473547</v>
       </c>
       <c r="D322">
-        <v>0.1848821832458611</v>
+        <v>0.2202616704735467</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6012,13 +6024,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="C323">
-        <v>5.253127025546967</v>
+        <v>5.331151764732175</v>
       </c>
       <c r="D323">
-        <v>0.183127025546967</v>
+        <v>0.2511517647321746</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6026,13 +6038,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>4.98</v>
+        <v>5.13</v>
       </c>
       <c r="C324">
-        <v>5.169543408333836</v>
+        <v>5.380943722109586</v>
       </c>
       <c r="D324">
-        <v>0.1895434083338357</v>
+        <v>0.2509437221095858</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6040,13 +6052,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>4.95</v>
+        <v>5.13</v>
       </c>
       <c r="C325">
-        <v>5.025578017364813</v>
+        <v>5.384401105786196</v>
       </c>
       <c r="D325">
-        <v>0.07557801736481284</v>
+        <v>0.2544011057861963</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6057,10 +6069,10 @@
         <v>5.1</v>
       </c>
       <c r="C326">
-        <v>5.061755222041498</v>
+        <v>5.325136020894161</v>
       </c>
       <c r="D326">
-        <v>-0.03824477795850179</v>
+        <v>0.2251360208941611</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6068,13 +6080,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="C327">
-        <v>4.996862226466104</v>
+        <v>5.24503299272703</v>
       </c>
       <c r="D327">
-        <v>-0.1431377735338959</v>
+        <v>0.1650329927270295</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6082,13 +6094,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="C328">
-        <v>5.006692322668226</v>
+        <v>5.262862910088654</v>
       </c>
       <c r="D328">
-        <v>-0.1533076773317745</v>
+        <v>0.2028629100886548</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6096,13 +6108,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="C329">
-        <v>5.058244468476668</v>
+        <v>5.263895400156946</v>
       </c>
       <c r="D329">
-        <v>-0.09175553152333205</v>
+        <v>0.2138954001569466</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6110,13 +6122,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>5.2</v>
+        <v>5.05</v>
       </c>
       <c r="C330">
-        <v>5.036053105583742</v>
+        <v>5.234910930205712</v>
       </c>
       <c r="D330">
-        <v>-0.1639468944162585</v>
+        <v>0.1849109302057119</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6124,13 +6136,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>5.22</v>
+        <v>5.06</v>
       </c>
       <c r="C331">
-        <v>4.99660659037685</v>
+        <v>5.240846466258906</v>
       </c>
       <c r="D331">
-        <v>-0.2233934096231502</v>
+        <v>0.1808464662589069</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6138,13 +6150,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>5.17</v>
+        <v>4.98</v>
       </c>
       <c r="C332">
-        <v>5.092471881919418</v>
+        <v>5.143314519326976</v>
       </c>
       <c r="D332">
-        <v>-0.0775281180805818</v>
+        <v>0.1633145193269758</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6152,13 +6164,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>5.18</v>
+        <v>4.97</v>
       </c>
       <c r="C333">
-        <v>5.104382690972274</v>
+        <v>5.116838142514561</v>
       </c>
       <c r="D333">
-        <v>-0.07561730902772545</v>
+        <v>0.1468381425145617</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6166,13 +6178,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>5.24</v>
+        <v>4.97</v>
       </c>
       <c r="C334">
-        <v>5.12661179673338</v>
+        <v>5.106701554078453</v>
       </c>
       <c r="D334">
-        <v>-0.11338820326662</v>
+        <v>0.1367015540784537</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6180,13 +6192,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>5.24</v>
+        <v>4.98</v>
       </c>
       <c r="C335">
-        <v>5.082386038265284</v>
+        <v>5.127776120224471</v>
       </c>
       <c r="D335">
-        <v>-0.1576139617347163</v>
+        <v>0.1477761202244707</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6194,13 +6206,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>5.24</v>
+        <v>4.97</v>
       </c>
       <c r="C336">
-        <v>5.100103465744291</v>
+        <v>5.106279296777589</v>
       </c>
       <c r="D336">
-        <v>-0.1398965342557092</v>
+        <v>0.1362792967775892</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6208,13 +6220,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>5.24</v>
+        <v>4.89</v>
       </c>
       <c r="C337">
-        <v>5.085039988304961</v>
+        <v>5.03886481871076</v>
       </c>
       <c r="D337">
-        <v>-0.1549600116950396</v>
+        <v>0.1488648187107602</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6222,13 +6234,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>5.34</v>
+        <v>5.09</v>
       </c>
       <c r="C338">
-        <v>5.139943884269369</v>
+        <v>5.00974756253463</v>
       </c>
       <c r="D338">
-        <v>-0.2000561157306304</v>
+        <v>-0.08025243746536947</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6236,13 +6248,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>5.35</v>
+        <v>5.13</v>
       </c>
       <c r="C339">
-        <v>5.159357283952564</v>
+        <v>5.007005189439526</v>
       </c>
       <c r="D339">
-        <v>-0.190642716047436</v>
+        <v>-0.1229948105604741</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6250,13 +6262,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>5.34</v>
+        <v>5.22</v>
       </c>
       <c r="C340">
-        <v>5.157600086048308</v>
+        <v>5.025256591623351</v>
       </c>
       <c r="D340">
-        <v>-0.1823999139516914</v>
+        <v>-0.1947434083766488</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6264,13 +6276,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="C341">
-        <v>5.103812808827178</v>
+        <v>5.050879141820163</v>
       </c>
       <c r="D341">
-        <v>-0.1961871911728217</v>
+        <v>-0.009120858179836766</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6278,13 +6290,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>5.28</v>
+        <v>5.13</v>
       </c>
       <c r="C342">
-        <v>5.106056686569428</v>
+        <v>5.066540113531711</v>
       </c>
       <c r="D342">
-        <v>-0.1739433134305726</v>
+        <v>-0.06345988646828893</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6292,13 +6304,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>5.3</v>
+        <v>5.23</v>
       </c>
       <c r="C343">
-        <v>5.122249824014538</v>
+        <v>5.126497769627343</v>
       </c>
       <c r="D343">
-        <v>-0.1777501759854623</v>
+        <v>-0.1035022303726576</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6306,13 +6318,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>5.33</v>
+        <v>5.26</v>
       </c>
       <c r="C344">
-        <v>5.131074276738917</v>
+        <v>5.167386488155215</v>
       </c>
       <c r="D344">
-        <v>-0.198925723261083</v>
+        <v>-0.09261351184478528</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6320,13 +6332,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="C345">
-        <v>5.144935848452866</v>
+        <v>5.078719155316178</v>
       </c>
       <c r="D345">
-        <v>-0.125064151547134</v>
+        <v>-0.1512808446838223</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6334,13 +6346,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>5.24</v>
+        <v>5.25</v>
       </c>
       <c r="C346">
-        <v>5.072345168901625</v>
+        <v>5.078339893348943</v>
       </c>
       <c r="D346">
-        <v>-0.1676548310983748</v>
+        <v>-0.171660106651057</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6348,13 +6360,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="C347">
-        <v>5.0977465808722</v>
+        <v>5.096197270533475</v>
       </c>
       <c r="D347">
-        <v>-0.1622534191277998</v>
+        <v>-0.1538027294665252</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6362,13 +6374,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="C348">
-        <v>5.100584261664199</v>
+        <v>5.115493096402077</v>
       </c>
       <c r="D348">
-        <v>-0.1894157383358008</v>
+        <v>-0.1445069035979225</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6379,10 +6391,10 @@
         <v>5.34</v>
       </c>
       <c r="C349">
-        <v>5.132233073614525</v>
+        <v>5.163303831426991</v>
       </c>
       <c r="D349">
-        <v>-0.2077669263854753</v>
+        <v>-0.1766961685730086</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6390,13 +6402,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="C350">
-        <v>5.087420522034541</v>
+        <v>5.152420944184154</v>
       </c>
       <c r="D350">
-        <v>-0.2425794779654593</v>
+        <v>-0.1675790558158461</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6404,13 +6416,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>5.5</v>
+        <v>5.32</v>
       </c>
       <c r="C351">
-        <v>5.224656989409454</v>
+        <v>5.154172175300501</v>
       </c>
       <c r="D351">
-        <v>-0.2753430105905457</v>
+        <v>-0.1658278246994991</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6418,13 +6430,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>5.48</v>
+        <v>5.32</v>
       </c>
       <c r="C352">
-        <v>5.219080577427475</v>
+        <v>5.118403806681594</v>
       </c>
       <c r="D352">
-        <v>-0.2609194225725258</v>
+        <v>-0.2015961933184061</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6432,13 +6444,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>5.55</v>
+        <v>5.33</v>
       </c>
       <c r="C353">
-        <v>5.22563276823568</v>
+        <v>5.101951449183768</v>
       </c>
       <c r="D353">
-        <v>-0.3243672317643194</v>
+        <v>-0.228048550816232</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6446,13 +6458,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>5.49</v>
+        <v>5.43</v>
       </c>
       <c r="C354">
-        <v>5.135110672836861</v>
+        <v>5.219424135125908</v>
       </c>
       <c r="D354">
-        <v>-0.3548893271631393</v>
+        <v>-0.2105758648740919</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6460,13 +6472,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="C355">
-        <v>5.132362573701089</v>
+        <v>5.251688662843015</v>
       </c>
       <c r="D355">
-        <v>-0.3676374262989111</v>
+        <v>-0.2783113371569854</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6474,13 +6486,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>5.49</v>
+        <v>5.55</v>
       </c>
       <c r="C356">
-        <v>5.292518255737559</v>
+        <v>5.244166052962709</v>
       </c>
       <c r="D356">
-        <v>-0.1974817442624417</v>
+        <v>-0.3058339470372911</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6488,13 +6500,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>5.51</v>
+        <v>5.73</v>
       </c>
       <c r="C357">
-        <v>5.249312160054822</v>
+        <v>5.287008572368718</v>
       </c>
       <c r="D357">
-        <v>-0.2606878399451782</v>
+        <v>-0.4429914276312825</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6502,13 +6514,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>5.48</v>
+        <v>5.55</v>
       </c>
       <c r="C358">
-        <v>5.301154564217248</v>
+        <v>5.360145794982551</v>
       </c>
       <c r="D358">
-        <v>-0.178845435782752</v>
+        <v>-0.1898542050174488</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6516,13 +6528,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>5.48</v>
+        <v>5.55</v>
       </c>
       <c r="C359">
-        <v>5.309466719977954</v>
+        <v>5.364281260484002</v>
       </c>
       <c r="D359">
-        <v>-0.1705332800220463</v>
+        <v>-0.1857187395159983</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6530,13 +6542,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C360">
-        <v>5.321518003319806</v>
+        <v>5.386321566940849</v>
       </c>
       <c r="D360">
-        <v>-0.2284819966801939</v>
+        <v>-0.173678433059151</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6544,13 +6556,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="C361">
-        <v>5.32472158385647</v>
+        <v>5.369996321626068</v>
       </c>
       <c r="D361">
-        <v>-0.2352784161435295</v>
+        <v>-0.1700036783739316</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6558,13 +6570,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="C362">
-        <v>5.319790791557378</v>
+        <v>5.259104425094911</v>
       </c>
       <c r="D362">
-        <v>-0.2302092084426217</v>
+        <v>-0.2408955749050889</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6572,13 +6584,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>5.56</v>
+        <v>5.53</v>
       </c>
       <c r="C363">
-        <v>5.344817750529621</v>
+        <v>5.356981554195068</v>
       </c>
       <c r="D363">
-        <v>-0.215182249470379</v>
+        <v>-0.1730184458049324</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6586,13 +6598,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>5.66</v>
+        <v>5.49</v>
       </c>
       <c r="C364">
-        <v>5.320228154280333</v>
+        <v>5.328724739322731</v>
       </c>
       <c r="D364">
-        <v>-0.3397718457196675</v>
+        <v>-0.1612752606772689</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6600,13 +6612,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>5.68</v>
+        <v>5.48</v>
       </c>
       <c r="C365">
-        <v>5.336604182507718</v>
+        <v>5.322637187277766</v>
       </c>
       <c r="D365">
-        <v>-0.343395817492282</v>
+        <v>-0.1573628127222344</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6614,13 +6626,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>5.67</v>
+        <v>5.51</v>
       </c>
       <c r="C366">
-        <v>5.338310298824524</v>
+        <v>5.326679996254214</v>
       </c>
       <c r="D366">
-        <v>-0.3316897011754758</v>
+        <v>-0.1833200037457861</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6628,13 +6640,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>5.68</v>
+        <v>5.54</v>
       </c>
       <c r="C367">
-        <v>5.360793873074128</v>
+        <v>5.310712061050631</v>
       </c>
       <c r="D367">
-        <v>-0.3192061269258719</v>
+        <v>-0.2292879389493692</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6642,13 +6654,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>5.71</v>
+        <v>5.55</v>
       </c>
       <c r="C368">
-        <v>5.398405390583914</v>
+        <v>5.326705265030823</v>
       </c>
       <c r="D368">
-        <v>-0.311594609416086</v>
+        <v>-0.2232947349691772</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6656,13 +6668,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>5.71</v>
+        <v>5.56</v>
       </c>
       <c r="C369">
-        <v>5.402611348589601</v>
+        <v>5.33098441700769</v>
       </c>
       <c r="D369">
-        <v>-0.3073886514103989</v>
+        <v>-0.22901558299231</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6670,13 +6682,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>5.77</v>
+        <v>5.56</v>
       </c>
       <c r="C370">
-        <v>5.439422575683185</v>
+        <v>5.351837215639985</v>
       </c>
       <c r="D370">
-        <v>-0.3305774243168145</v>
+        <v>-0.2081627843600149</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6684,13 +6696,69 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>5.69</v>
+        <v>5.63</v>
       </c>
       <c r="C371">
-        <v>5.421781097473223</v>
+        <v>5.301255386400451</v>
       </c>
       <c r="D371">
-        <v>-0.2682189025267778</v>
+        <v>-0.3287446135995484</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372">
+        <v>5.68</v>
+      </c>
+      <c r="C372">
+        <v>5.343277374586259</v>
+      </c>
+      <c r="D372">
+        <v>-0.3367226254137403</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373">
+        <v>5.67</v>
+      </c>
+      <c r="C373">
+        <v>5.345859926386626</v>
+      </c>
+      <c r="D373">
+        <v>-0.3241400736133739</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374">
+        <v>5.74</v>
+      </c>
+      <c r="C374">
+        <v>5.433104844559895</v>
+      </c>
+      <c r="D374">
+        <v>-0.3068951554401051</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B375">
+        <v>5.77</v>
+      </c>
+      <c r="C375">
+        <v>5.449628906778305</v>
+      </c>
+      <c r="D375">
+        <v>-0.3203710932216941</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytrain.xlsx
+++ b/temp/Yesterdaytrain.xlsx
@@ -1994,10 +1994,10 @@
         <v>7.03</v>
       </c>
       <c r="C6">
-        <v>6.091704708702903</v>
+        <v>6.091704708702904</v>
       </c>
       <c r="D6">
-        <v>-0.9382952912970968</v>
+        <v>-0.9382952912970959</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2008,10 +2008,10 @@
         <v>6.73</v>
       </c>
       <c r="C7">
-        <v>6.255424754008459</v>
+        <v>6.25542475400846</v>
       </c>
       <c r="D7">
-        <v>-0.4745752459915415</v>
+        <v>-0.4745752459915407</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>6.250539285636703</v>
       </c>
       <c r="D8">
-        <v>-0.5494607143632964</v>
+        <v>-0.5494607143632972</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2036,10 +2036,10 @@
         <v>6.4</v>
       </c>
       <c r="C9">
-        <v>6.233476019557092</v>
+        <v>6.233476019557095</v>
       </c>
       <c r="D9">
-        <v>-0.1665239804429079</v>
+        <v>-0.1665239804429053</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2050,10 +2050,10 @@
         <v>6.17</v>
       </c>
       <c r="C10">
-        <v>6.111668106969553</v>
+        <v>6.111668106969554</v>
       </c>
       <c r="D10">
-        <v>-0.05833189303044684</v>
+        <v>-0.05833189303044595</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2078,10 +2078,10 @@
         <v>6.19</v>
       </c>
       <c r="C12">
-        <v>6.14405806176218</v>
+        <v>6.144058061762181</v>
       </c>
       <c r="D12">
-        <v>-0.04594193823782078</v>
+        <v>-0.04594193823781989</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2176,10 +2176,10 @@
         <v>6.12</v>
       </c>
       <c r="C19">
-        <v>5.95469618991357</v>
+        <v>5.954696189913569</v>
       </c>
       <c r="D19">
-        <v>-0.1653038100864306</v>
+        <v>-0.1653038100864315</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2190,10 +2190,10 @@
         <v>5.83</v>
       </c>
       <c r="C20">
-        <v>5.817019116267332</v>
+        <v>5.817019116267333</v>
       </c>
       <c r="D20">
-        <v>-0.01298088373266815</v>
+        <v>-0.01298088373266726</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2204,10 +2204,10 @@
         <v>5.82</v>
       </c>
       <c r="C21">
-        <v>5.833066520278357</v>
+        <v>5.833066520278359</v>
       </c>
       <c r="D21">
-        <v>0.01306652027835664</v>
+        <v>0.01306652027835842</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2218,10 +2218,10 @@
         <v>5.94</v>
       </c>
       <c r="C22">
-        <v>5.85385436290831</v>
+        <v>5.853854362908311</v>
       </c>
       <c r="D22">
-        <v>-0.08614563709169065</v>
+        <v>-0.08614563709168976</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2232,10 +2232,10 @@
         <v>5.97</v>
       </c>
       <c r="C23">
-        <v>5.90443326074206</v>
+        <v>5.904433260742061</v>
       </c>
       <c r="D23">
-        <v>-0.06556673925793977</v>
+        <v>-0.06556673925793888</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2260,10 +2260,10 @@
         <v>5.92</v>
       </c>
       <c r="C25">
-        <v>5.956386013981269</v>
+        <v>5.95638601398127</v>
       </c>
       <c r="D25">
-        <v>0.03638601398126884</v>
+        <v>0.03638601398126973</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2274,10 +2274,10 @@
         <v>5.92</v>
       </c>
       <c r="C26">
-        <v>5.957446054192244</v>
+        <v>5.957446054192245</v>
       </c>
       <c r="D26">
-        <v>0.03744605419224367</v>
+        <v>0.03744605419224545</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2288,10 +2288,10 @@
         <v>5.94</v>
       </c>
       <c r="C27">
-        <v>5.968337090926984</v>
+        <v>5.968337090926986</v>
       </c>
       <c r="D27">
-        <v>0.02833709092698378</v>
+        <v>0.02833709092698555</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2302,10 +2302,10 @@
         <v>5.95</v>
       </c>
       <c r="C28">
-        <v>5.986283174836567</v>
+        <v>5.986283174836568</v>
       </c>
       <c r="D28">
-        <v>0.03628317483656662</v>
+        <v>0.03628317483656751</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2316,10 +2316,10 @@
         <v>5.99</v>
       </c>
       <c r="C29">
-        <v>5.955433007643949</v>
+        <v>5.95543300764395</v>
       </c>
       <c r="D29">
-        <v>-0.03456699235605143</v>
+        <v>-0.03456699235605054</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2333,7 +2333,7 @@
         <v>5.978653858748642</v>
       </c>
       <c r="D30">
-        <v>-0.03134614125135826</v>
+        <v>-0.03134614125135737</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2344,10 +2344,10 @@
         <v>6.04</v>
       </c>
       <c r="C31">
-        <v>6.011770180878474</v>
+        <v>6.011770180878475</v>
       </c>
       <c r="D31">
-        <v>-0.02822981912152578</v>
+        <v>-0.02822981912152489</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2358,10 +2358,10 @@
         <v>5.99</v>
       </c>
       <c r="C32">
-        <v>6.022533133063738</v>
+        <v>6.02253313306374</v>
       </c>
       <c r="D32">
-        <v>0.03253313306373773</v>
+        <v>0.03253313306373951</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2372,10 +2372,10 @@
         <v>6.05</v>
       </c>
       <c r="C33">
-        <v>6.029206525545862</v>
+        <v>6.029206525545863</v>
       </c>
       <c r="D33">
-        <v>-0.02079347445413759</v>
+        <v>-0.02079347445413671</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2386,10 +2386,10 @@
         <v>6.03</v>
       </c>
       <c r="C34">
-        <v>6.054090085607161</v>
+        <v>6.054090085607164</v>
       </c>
       <c r="D34">
-        <v>0.02409008560716064</v>
+        <v>0.0240900856071633</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2400,10 +2400,10 @@
         <v>6.02</v>
       </c>
       <c r="C35">
-        <v>6.079057094646416</v>
+        <v>6.079057094646417</v>
       </c>
       <c r="D35">
-        <v>0.05905709464641618</v>
+        <v>0.05905709464641706</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2414,10 +2414,10 @@
         <v>6.03</v>
       </c>
       <c r="C36">
-        <v>6.042647291208938</v>
+        <v>6.042647291208939</v>
       </c>
       <c r="D36">
-        <v>0.01264729120893726</v>
+        <v>0.01264729120893904</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2428,10 +2428,10 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>6.063474340768351</v>
+        <v>6.063474340768352</v>
       </c>
       <c r="D37">
-        <v>0.06347434076835068</v>
+        <v>0.06347434076835157</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2442,10 +2442,10 @@
         <v>5.97</v>
       </c>
       <c r="C38">
-        <v>6.009435159525054</v>
+        <v>6.009435159525055</v>
       </c>
       <c r="D38">
-        <v>0.03943515952505461</v>
+        <v>0.0394351595250555</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2456,10 +2456,10 @@
         <v>6.05</v>
       </c>
       <c r="C39">
-        <v>6.036907869555953</v>
+        <v>6.036907869555954</v>
       </c>
       <c r="D39">
-        <v>-0.013092130444047</v>
+        <v>-0.01309213044404611</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2470,10 +2470,10 @@
         <v>6.05</v>
       </c>
       <c r="C40">
-        <v>6.043290998384174</v>
+        <v>6.043290998384175</v>
       </c>
       <c r="D40">
-        <v>-0.006709001615825549</v>
+        <v>-0.006709001615824661</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2498,10 +2498,10 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>6.009982186349442</v>
+        <v>6.009982186349443</v>
       </c>
       <c r="D42">
-        <v>0.009982186349442479</v>
+        <v>0.009982186349443367</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2512,10 +2512,10 @@
         <v>5.9</v>
       </c>
       <c r="C43">
-        <v>5.985911171088964</v>
+        <v>5.985911171088965</v>
       </c>
       <c r="D43">
-        <v>0.08591117108896373</v>
+        <v>0.08591117108896462</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2526,10 +2526,10 @@
         <v>5.91</v>
       </c>
       <c r="C44">
-        <v>6.028365092289605</v>
+        <v>6.028365092289607</v>
       </c>
       <c r="D44">
-        <v>0.1183650922896051</v>
+        <v>0.1183650922896069</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2540,10 +2540,10 @@
         <v>5.9</v>
       </c>
       <c r="C45">
-        <v>6.002475679208975</v>
+        <v>6.002475679208977</v>
       </c>
       <c r="D45">
-        <v>0.1024756792089745</v>
+        <v>0.1024756792089763</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2554,10 +2554,10 @@
         <v>5.85</v>
       </c>
       <c r="C46">
-        <v>5.983088063716106</v>
+        <v>5.983088063716107</v>
       </c>
       <c r="D46">
-        <v>0.133088063716106</v>
+        <v>0.1330880637161078</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2568,10 +2568,10 @@
         <v>5.84</v>
       </c>
       <c r="C47">
-        <v>6.030307563473567</v>
+        <v>6.030307563473568</v>
       </c>
       <c r="D47">
-        <v>0.1903075634735671</v>
+        <v>0.190307563473568</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2582,10 +2582,10 @@
         <v>5.75</v>
       </c>
       <c r="C48">
-        <v>6.108685961766837</v>
+        <v>6.108685961766838</v>
       </c>
       <c r="D48">
-        <v>0.3586859617668372</v>
+        <v>0.3586859617668381</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2596,10 +2596,10 @@
         <v>6.05</v>
       </c>
       <c r="C49">
-        <v>6.242675072755065</v>
+        <v>6.242675072755067</v>
       </c>
       <c r="D49">
-        <v>0.1926750727550655</v>
+        <v>0.1926750727550672</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2610,10 +2610,10 @@
         <v>6.08</v>
       </c>
       <c r="C50">
-        <v>6.262880913937571</v>
+        <v>6.262880913937573</v>
       </c>
       <c r="D50">
-        <v>0.1828809139375709</v>
+        <v>0.1828809139375727</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2624,10 +2624,10 @@
         <v>6.15</v>
       </c>
       <c r="C51">
-        <v>6.236150647588083</v>
+        <v>6.236150647588084</v>
       </c>
       <c r="D51">
-        <v>0.08615064758808266</v>
+        <v>0.08615064758808355</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2638,10 +2638,10 @@
         <v>6.23</v>
       </c>
       <c r="C52">
-        <v>6.315182943971521</v>
+        <v>6.315182943971522</v>
       </c>
       <c r="D52">
-        <v>0.08518294397152015</v>
+        <v>0.08518294397152193</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2652,10 +2652,10 @@
         <v>6.29</v>
       </c>
       <c r="C53">
-        <v>6.276246021138967</v>
+        <v>6.276246021138968</v>
       </c>
       <c r="D53">
-        <v>-0.01375397886103258</v>
+        <v>-0.01375397886103169</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2666,10 +2666,10 @@
         <v>6.41</v>
       </c>
       <c r="C54">
-        <v>6.407063284957402</v>
+        <v>6.407063284957403</v>
       </c>
       <c r="D54">
-        <v>-0.002936715042598514</v>
+        <v>-0.002936715042597626</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2680,10 +2680,10 @@
         <v>6.41</v>
       </c>
       <c r="C55">
-        <v>6.394401701278373</v>
+        <v>6.394401701278374</v>
       </c>
       <c r="D55">
-        <v>-0.01559829872162677</v>
+        <v>-0.01559829872162588</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2694,10 +2694,10 @@
         <v>6.47</v>
       </c>
       <c r="C56">
-        <v>6.392774659444021</v>
+        <v>6.392774659444023</v>
       </c>
       <c r="D56">
-        <v>-0.07722534055597841</v>
+        <v>-0.07722534055597663</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2708,10 +2708,10 @@
         <v>6.45</v>
       </c>
       <c r="C57">
-        <v>6.393637802536818</v>
+        <v>6.39363780253682</v>
       </c>
       <c r="D57">
-        <v>-0.05636219746318183</v>
+        <v>-0.05636219746318005</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2722,10 +2722,10 @@
         <v>6.44</v>
       </c>
       <c r="C58">
-        <v>6.474531927896472</v>
+        <v>6.474531927896474</v>
       </c>
       <c r="D58">
-        <v>0.03453192789647197</v>
+        <v>0.03453192789647375</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2736,10 +2736,10 @@
         <v>6.49</v>
       </c>
       <c r="C59">
-        <v>6.488357790077498</v>
+        <v>6.488357790077499</v>
       </c>
       <c r="D59">
-        <v>-0.001642209922501969</v>
+        <v>-0.001642209922501081</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2750,10 +2750,10 @@
         <v>6.5</v>
       </c>
       <c r="C60">
-        <v>6.477544338287186</v>
+        <v>6.477544338287188</v>
       </c>
       <c r="D60">
-        <v>-0.02245566171281421</v>
+        <v>-0.02245566171281244</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2764,10 +2764,10 @@
         <v>6.51</v>
       </c>
       <c r="C61">
-        <v>6.484465039249272</v>
+        <v>6.484465039249273</v>
       </c>
       <c r="D61">
-        <v>-0.02553496075072825</v>
+        <v>-0.02553496075072648</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2778,10 +2778,10 @@
         <v>6.5</v>
       </c>
       <c r="C62">
-        <v>6.493614985921178</v>
+        <v>6.49361498592118</v>
       </c>
       <c r="D62">
-        <v>-0.006385014078821527</v>
+        <v>-0.006385014078819751</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2792,10 +2792,10 @@
         <v>6.73</v>
       </c>
       <c r="C63">
-        <v>6.607245287848218</v>
+        <v>6.607245287848219</v>
       </c>
       <c r="D63">
-        <v>-0.1227547121517825</v>
+        <v>-0.1227547121517816</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2806,10 +2806,10 @@
         <v>6.69</v>
       </c>
       <c r="C64">
-        <v>6.587324022273068</v>
+        <v>6.587324022273071</v>
       </c>
       <c r="D64">
-        <v>-0.1026759777269319</v>
+        <v>-0.1026759777269293</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2820,10 +2820,10 @@
         <v>6.5</v>
       </c>
       <c r="C65">
-        <v>6.611728104905912</v>
+        <v>6.611728104905914</v>
       </c>
       <c r="D65">
-        <v>0.1117281049059118</v>
+        <v>0.1117281049059136</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2834,10 +2834,10 @@
         <v>6.48</v>
       </c>
       <c r="C66">
-        <v>6.614201339210344</v>
+        <v>6.614201339210346</v>
       </c>
       <c r="D66">
-        <v>0.1342013392103434</v>
+        <v>0.1342013392103452</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2848,10 +2848,10 @@
         <v>6.4</v>
       </c>
       <c r="C67">
-        <v>6.60127513993235</v>
+        <v>6.601275139932352</v>
       </c>
       <c r="D67">
-        <v>0.20127513993235</v>
+        <v>0.2012751399323518</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2862,10 +2862,10 @@
         <v>6.42</v>
       </c>
       <c r="C68">
-        <v>6.619268304405668</v>
+        <v>6.619268304405669</v>
       </c>
       <c r="D68">
-        <v>0.1992683044056678</v>
+        <v>0.1992683044056696</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2876,10 +2876,10 @@
         <v>6.45</v>
       </c>
       <c r="C69">
-        <v>6.606383588964449</v>
+        <v>6.606383588964451</v>
       </c>
       <c r="D69">
-        <v>0.1563835889644487</v>
+        <v>0.1563835889644505</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2890,10 +2890,10 @@
         <v>6.47</v>
       </c>
       <c r="C70">
-        <v>6.607569374888162</v>
+        <v>6.607569374888164</v>
       </c>
       <c r="D70">
-        <v>0.1375693748881623</v>
+        <v>0.1375693748881641</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2904,10 +2904,10 @@
         <v>6.46</v>
       </c>
       <c r="C71">
-        <v>6.580400711986734</v>
+        <v>6.580400711986735</v>
       </c>
       <c r="D71">
-        <v>0.1204007119867345</v>
+        <v>0.1204007119867354</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2918,10 +2918,10 @@
         <v>6.53</v>
       </c>
       <c r="C72">
-        <v>6.61780052177797</v>
+        <v>6.617800521777972</v>
       </c>
       <c r="D72">
-        <v>0.08780052177796982</v>
+        <v>0.0878005217779716</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2932,10 +2932,10 @@
         <v>6.62</v>
       </c>
       <c r="C73">
-        <v>6.607725214809428</v>
+        <v>6.607725214809431</v>
       </c>
       <c r="D73">
-        <v>-0.01227478519057179</v>
+        <v>-0.01227478519056913</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2946,10 +2946,10 @@
         <v>6.44</v>
       </c>
       <c r="C74">
-        <v>6.490182172756349</v>
+        <v>6.49018217275635</v>
       </c>
       <c r="D74">
-        <v>0.05018217275634829</v>
+        <v>0.05018217275635006</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2960,10 +2960,10 @@
         <v>6.38</v>
       </c>
       <c r="C75">
-        <v>6.462507351130891</v>
+        <v>6.462507351130893</v>
       </c>
       <c r="D75">
-        <v>0.08250735113089114</v>
+        <v>0.08250735113089291</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2974,10 +2974,10 @@
         <v>6.4</v>
       </c>
       <c r="C76">
-        <v>6.276733486708009</v>
+        <v>6.27673348670801</v>
       </c>
       <c r="D76">
-        <v>-0.1232665132919912</v>
+        <v>-0.1232665132919903</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2988,10 +2988,10 @@
         <v>6.45</v>
       </c>
       <c r="C77">
-        <v>6.264355669417763</v>
+        <v>6.264355669417765</v>
       </c>
       <c r="D77">
-        <v>-0.1856443305822371</v>
+        <v>-0.1856443305822353</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3002,10 +3002,10 @@
         <v>6.62</v>
       </c>
       <c r="C78">
-        <v>6.143524886677341</v>
+        <v>6.143524886677342</v>
       </c>
       <c r="D78">
-        <v>-0.4764751133226595</v>
+        <v>-0.4764751133226586</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3030,10 +3030,10 @@
         <v>6.59</v>
       </c>
       <c r="C80">
-        <v>6.144827547273244</v>
+        <v>6.144827547273245</v>
       </c>
       <c r="D80">
-        <v>-0.445172452726756</v>
+        <v>-0.4451724527267551</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3047,7 +3047,7 @@
         <v>6.227842590710337</v>
       </c>
       <c r="D81">
-        <v>-0.4421574092896634</v>
+        <v>-0.4421574092896625</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3058,10 +3058,10 @@
         <v>6.46</v>
       </c>
       <c r="C82">
-        <v>6.093745583822149</v>
+        <v>6.093745583822148</v>
       </c>
       <c r="D82">
-        <v>-0.3662544161778509</v>
+        <v>-0.3662544161778518</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3114,10 +3114,10 @@
         <v>6.24</v>
       </c>
       <c r="C86">
-        <v>6.131824100619992</v>
+        <v>6.131824100619993</v>
       </c>
       <c r="D86">
-        <v>-0.1081758993800079</v>
+        <v>-0.108175899380007</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3128,10 +3128,10 @@
         <v>6.27</v>
       </c>
       <c r="C87">
-        <v>6.1247493986463</v>
+        <v>6.124749398646297</v>
       </c>
       <c r="D87">
-        <v>-0.1452506013537</v>
+        <v>-0.1452506013537027</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3156,10 +3156,10 @@
         <v>6.29</v>
       </c>
       <c r="C89">
-        <v>6.129805833235764</v>
+        <v>6.129805833235765</v>
       </c>
       <c r="D89">
-        <v>-0.1601941667642359</v>
+        <v>-0.160194166764235</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3212,10 +3212,10 @@
         <v>6.03</v>
       </c>
       <c r="C93">
-        <v>6.266910238067924</v>
+        <v>6.266910238067925</v>
       </c>
       <c r="D93">
-        <v>0.2369102380679236</v>
+        <v>0.2369102380679244</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3226,10 +3226,10 @@
         <v>6.03</v>
       </c>
       <c r="C94">
-        <v>6.226128135130589</v>
+        <v>6.22612813513059</v>
       </c>
       <c r="D94">
-        <v>0.1961281351305892</v>
+        <v>0.1961281351305901</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3240,10 +3240,10 @@
         <v>5.97</v>
       </c>
       <c r="C95">
-        <v>6.28966242784694</v>
+        <v>6.289662427846941</v>
       </c>
       <c r="D95">
-        <v>0.3196624278469402</v>
+        <v>0.3196624278469411</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3254,10 +3254,10 @@
         <v>5.99</v>
       </c>
       <c r="C96">
-        <v>6.27155248035275</v>
+        <v>6.271552480352752</v>
       </c>
       <c r="D96">
-        <v>0.28155248035275</v>
+        <v>0.2815524803527518</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3268,10 +3268,10 @@
         <v>5.98</v>
       </c>
       <c r="C97">
-        <v>6.274830268232434</v>
+        <v>6.274830268232435</v>
       </c>
       <c r="D97">
-        <v>0.2948302682324337</v>
+        <v>0.2948302682324346</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3282,10 +3282,10 @@
         <v>6.01</v>
       </c>
       <c r="C98">
-        <v>6.297821767355798</v>
+        <v>6.297821767355799</v>
       </c>
       <c r="D98">
-        <v>0.2878217673557986</v>
+        <v>0.2878217673557995</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3296,10 +3296,10 @@
         <v>5.99</v>
       </c>
       <c r="C99">
-        <v>6.289160677423181</v>
+        <v>6.289160677423182</v>
       </c>
       <c r="D99">
-        <v>0.2991606774231803</v>
+        <v>0.2991606774231821</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3310,10 +3310,10 @@
         <v>5.99</v>
       </c>
       <c r="C100">
-        <v>6.303317350642133</v>
+        <v>6.303317350642134</v>
       </c>
       <c r="D100">
-        <v>0.3133173506421327</v>
+        <v>0.3133173506421336</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3324,10 +3324,10 @@
         <v>6.02</v>
       </c>
       <c r="C101">
-        <v>6.29047142593222</v>
+        <v>6.290471425932222</v>
       </c>
       <c r="D101">
-        <v>0.2704714259322207</v>
+        <v>0.2704714259322225</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3338,10 +3338,10 @@
         <v>6.06</v>
       </c>
       <c r="C102">
-        <v>6.329221555248234</v>
+        <v>6.329221555248236</v>
       </c>
       <c r="D102">
-        <v>0.2692215552482349</v>
+        <v>0.2692215552482367</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3352,10 +3352,10 @@
         <v>6.07</v>
       </c>
       <c r="C103">
-        <v>6.31227399641335</v>
+        <v>6.312273996413352</v>
       </c>
       <c r="D103">
-        <v>0.24227399641335</v>
+        <v>0.2422739964133518</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3366,10 +3366,10 @@
         <v>6.09</v>
       </c>
       <c r="C104">
-        <v>6.339107185433474</v>
+        <v>6.339107185433477</v>
       </c>
       <c r="D104">
-        <v>0.2491071854334743</v>
+        <v>0.249107185433477</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3380,10 +3380,10 @@
         <v>6.1</v>
       </c>
       <c r="C105">
-        <v>6.363381756947514</v>
+        <v>6.363381756947516</v>
       </c>
       <c r="D105">
-        <v>0.2633817569475143</v>
+        <v>0.2633817569475161</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3394,10 +3394,10 @@
         <v>6.09</v>
       </c>
       <c r="C106">
-        <v>6.392900455286537</v>
+        <v>6.39290045528654</v>
       </c>
       <c r="D106">
-        <v>0.3029004552865375</v>
+        <v>0.3029004552865402</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3408,10 +3408,10 @@
         <v>6.17</v>
       </c>
       <c r="C107">
-        <v>6.450851840383108</v>
+        <v>6.450851840383111</v>
       </c>
       <c r="D107">
-        <v>0.2808518403831082</v>
+        <v>0.2808518403831108</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3422,10 +3422,10 @@
         <v>6.1</v>
       </c>
       <c r="C108">
-        <v>6.454656830346209</v>
+        <v>6.454656830346211</v>
       </c>
       <c r="D108">
-        <v>0.354656830346209</v>
+        <v>0.3546568303462116</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3436,10 +3436,10 @@
         <v>6.12</v>
       </c>
       <c r="C109">
-        <v>6.251429369415887</v>
+        <v>6.251429369415889</v>
       </c>
       <c r="D109">
-        <v>0.131429369415887</v>
+        <v>0.1314293694158888</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3450,10 +3450,10 @@
         <v>5.86</v>
       </c>
       <c r="C110">
-        <v>6.139265701899517</v>
+        <v>6.139265701899519</v>
       </c>
       <c r="D110">
-        <v>0.2792657018995168</v>
+        <v>0.2792657018995186</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3464,10 +3464,10 @@
         <v>5.83</v>
       </c>
       <c r="C111">
-        <v>6.11711988016654</v>
+        <v>6.117119880166542</v>
       </c>
       <c r="D111">
-        <v>0.2871198801665402</v>
+        <v>0.287119880166542</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3492,10 +3492,10 @@
         <v>5.8</v>
       </c>
       <c r="C113">
-        <v>6.112051787047125</v>
+        <v>6.112051787047127</v>
       </c>
       <c r="D113">
-        <v>0.3120517870471256</v>
+        <v>0.3120517870471273</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3506,10 +3506,10 @@
         <v>5.76</v>
       </c>
       <c r="C114">
-        <v>6.085610103797804</v>
+        <v>6.085610103797806</v>
       </c>
       <c r="D114">
-        <v>0.3256101037978043</v>
+        <v>0.3256101037978061</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3520,10 +3520,10 @@
         <v>5.69</v>
       </c>
       <c r="C115">
-        <v>6.046145434043193</v>
+        <v>6.046145434043194</v>
       </c>
       <c r="D115">
-        <v>0.3561454340431931</v>
+        <v>0.356145434043194</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3551,7 +3551,7 @@
         <v>6.000445038650398</v>
       </c>
       <c r="D117">
-        <v>0.3604450386503979</v>
+        <v>0.3604450386503988</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3562,10 +3562,10 @@
         <v>5.57</v>
       </c>
       <c r="C118">
-        <v>5.950023864768946</v>
+        <v>5.950023864768947</v>
       </c>
       <c r="D118">
-        <v>0.3800238647689458</v>
+        <v>0.3800238647689467</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3590,10 +3590,10 @@
         <v>5.6</v>
       </c>
       <c r="C120">
-        <v>5.957409250943068</v>
+        <v>5.95740925094307</v>
       </c>
       <c r="D120">
-        <v>0.3574092509430686</v>
+        <v>0.3574092509430704</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3604,10 +3604,10 @@
         <v>5.8</v>
       </c>
       <c r="C121">
-        <v>6.097204959705541</v>
+        <v>6.097204959705543</v>
       </c>
       <c r="D121">
-        <v>0.2972049597055415</v>
+        <v>0.2972049597055433</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3618,10 +3618,10 @@
         <v>5.83</v>
       </c>
       <c r="C122">
-        <v>6.074492731245318</v>
+        <v>6.07449273124532</v>
       </c>
       <c r="D122">
-        <v>0.2444927312453178</v>
+        <v>0.2444927312453196</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3632,10 +3632,10 @@
         <v>5.84</v>
       </c>
       <c r="C123">
-        <v>6.089528820308694</v>
+        <v>6.089528820308695</v>
       </c>
       <c r="D123">
-        <v>0.2495288203086945</v>
+        <v>0.2495288203086954</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3646,10 +3646,10 @@
         <v>5.86</v>
       </c>
       <c r="C124">
-        <v>6.065636540157171</v>
+        <v>6.065636540157172</v>
       </c>
       <c r="D124">
-        <v>0.2056365401571707</v>
+        <v>0.2056365401571716</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3660,10 +3660,10 @@
         <v>5.86</v>
       </c>
       <c r="C125">
-        <v>6.077247391969345</v>
+        <v>6.077247391969347</v>
       </c>
       <c r="D125">
-        <v>0.2172473919693445</v>
+        <v>0.2172473919693463</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3674,10 +3674,10 @@
         <v>6.04</v>
       </c>
       <c r="C126">
-        <v>6.028825799782981</v>
+        <v>6.028825799782983</v>
       </c>
       <c r="D126">
-        <v>-0.01117420021701854</v>
+        <v>-0.01117420021701676</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3688,10 +3688,10 @@
         <v>6.07</v>
       </c>
       <c r="C127">
-        <v>6.031369102831866</v>
+        <v>6.031369102831869</v>
       </c>
       <c r="D127">
-        <v>-0.03863089716813395</v>
+        <v>-0.03863089716813128</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3702,10 +3702,10 @@
         <v>5.84</v>
       </c>
       <c r="C128">
-        <v>6.015611861386403</v>
+        <v>6.015611861386405</v>
       </c>
       <c r="D128">
-        <v>0.1756118613864031</v>
+        <v>0.1756118613864048</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3716,10 +3716,10 @@
         <v>5.66</v>
       </c>
       <c r="C129">
-        <v>6.100247656768276</v>
+        <v>6.100247656768277</v>
       </c>
       <c r="D129">
-        <v>0.4402476567682756</v>
+        <v>0.4402476567682765</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3733,7 +3733,7 @@
         <v>6.163055804860408</v>
       </c>
       <c r="D130">
-        <v>0.4730558048604072</v>
+        <v>0.4730558048604081</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3744,10 +3744,10 @@
         <v>5.69</v>
       </c>
       <c r="C131">
-        <v>6.167074856109675</v>
+        <v>6.167074856109678</v>
       </c>
       <c r="D131">
-        <v>0.4770748561096747</v>
+        <v>0.4770748561096774</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3758,10 +3758,10 @@
         <v>5.68</v>
       </c>
       <c r="C132">
-        <v>6.177738883509588</v>
+        <v>6.17773888350959</v>
       </c>
       <c r="D132">
-        <v>0.4977388835095882</v>
+        <v>0.4977388835095899</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3814,10 +3814,10 @@
         <v>6.05</v>
       </c>
       <c r="C136">
-        <v>6.352392406971442</v>
+        <v>6.352392406971443</v>
       </c>
       <c r="D136">
-        <v>0.3023924069714425</v>
+        <v>0.3023924069714434</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3828,10 +3828,10 @@
         <v>6.08</v>
       </c>
       <c r="C137">
-        <v>6.34082146091105</v>
+        <v>6.340821460911051</v>
       </c>
       <c r="D137">
-        <v>0.2608214609110497</v>
+        <v>0.2608214609110506</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3842,10 +3842,10 @@
         <v>6.08</v>
       </c>
       <c r="C138">
-        <v>6.523394332392731</v>
+        <v>6.523394332392733</v>
       </c>
       <c r="D138">
-        <v>0.4433943323927307</v>
+        <v>0.4433943323927325</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3856,10 +3856,10 @@
         <v>6.1</v>
       </c>
       <c r="C139">
-        <v>6.517916911009513</v>
+        <v>6.517916911009515</v>
       </c>
       <c r="D139">
-        <v>0.4179169110095131</v>
+        <v>0.4179169110095149</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3873,7 +3873,7 @@
         <v>6.560870433894769</v>
       </c>
       <c r="D140">
-        <v>0.3108704338947685</v>
+        <v>0.3108704338947694</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3884,10 +3884,10 @@
         <v>6.26</v>
       </c>
       <c r="C141">
-        <v>6.573881215672892</v>
+        <v>6.573881215672896</v>
       </c>
       <c r="D141">
-        <v>0.3138812156728923</v>
+        <v>0.3138812156728958</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3898,10 +3898,10 @@
         <v>6.32</v>
       </c>
       <c r="C142">
-        <v>6.594561836286154</v>
+        <v>6.594561836286155</v>
       </c>
       <c r="D142">
-        <v>0.2745618362861535</v>
+        <v>0.2745618362861544</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3912,10 +3912,10 @@
         <v>6.27</v>
       </c>
       <c r="C143">
-        <v>6.582013190292587</v>
+        <v>6.582013190292588</v>
       </c>
       <c r="D143">
-        <v>0.3120131902925873</v>
+        <v>0.3120131902925882</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3940,10 +3940,10 @@
         <v>6.38</v>
       </c>
       <c r="C145">
-        <v>6.626242969701396</v>
+        <v>6.626242969701397</v>
       </c>
       <c r="D145">
-        <v>0.2462429697013961</v>
+        <v>0.246242969701397</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3954,10 +3954,10 @@
         <v>6.34</v>
       </c>
       <c r="C146">
-        <v>6.638557156618851</v>
+        <v>6.638557156618853</v>
       </c>
       <c r="D146">
-        <v>0.298557156618851</v>
+        <v>0.2985571566188527</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3968,10 +3968,10 @@
         <v>6.31</v>
       </c>
       <c r="C147">
-        <v>6.656878744136216</v>
+        <v>6.656878744136217</v>
       </c>
       <c r="D147">
-        <v>0.346878744136216</v>
+        <v>0.3468787441362178</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3982,10 +3982,10 @@
         <v>6.62</v>
       </c>
       <c r="C148">
-        <v>6.723638991342152</v>
+        <v>6.723638991342153</v>
       </c>
       <c r="D148">
-        <v>0.1036389913421516</v>
+        <v>0.1036389913421525</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3996,10 +3996,10 @@
         <v>6.6</v>
       </c>
       <c r="C149">
-        <v>6.738896032345839</v>
+        <v>6.738896032345841</v>
       </c>
       <c r="D149">
-        <v>0.1388960323458397</v>
+        <v>0.1388960323458415</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4010,10 +4010,10 @@
         <v>6.59</v>
       </c>
       <c r="C150">
-        <v>6.701321436227299</v>
+        <v>6.7013214362273</v>
       </c>
       <c r="D150">
-        <v>0.111321436227299</v>
+        <v>0.1113214362272998</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4024,10 +4024,10 @@
         <v>6.66</v>
       </c>
       <c r="C151">
-        <v>6.707865019409566</v>
+        <v>6.707865019409567</v>
       </c>
       <c r="D151">
-        <v>0.04786501940956622</v>
+        <v>0.04786501940956711</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4038,10 +4038,10 @@
         <v>6.63</v>
       </c>
       <c r="C152">
-        <v>6.693531380133512</v>
+        <v>6.693531380133511</v>
       </c>
       <c r="D152">
-        <v>0.06353138013351245</v>
+        <v>0.06353138013351156</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4052,10 +4052,10 @@
         <v>6.61</v>
       </c>
       <c r="C153">
-        <v>6.697411723713028</v>
+        <v>6.697411723713029</v>
       </c>
       <c r="D153">
-        <v>0.08741172371302763</v>
+        <v>0.08741172371302852</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4066,10 +4066,10 @@
         <v>6.6</v>
       </c>
       <c r="C154">
-        <v>6.691792100484833</v>
+        <v>6.691792100484835</v>
       </c>
       <c r="D154">
-        <v>0.09179210048483366</v>
+        <v>0.09179210048483544</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4083,7 +4083,7 @@
         <v>6.699255740093776</v>
       </c>
       <c r="D155">
-        <v>0.1092557400937757</v>
+        <v>0.1092557400937766</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4094,10 +4094,10 @@
         <v>6.6</v>
       </c>
       <c r="C156">
-        <v>6.704289564836487</v>
+        <v>6.704289564836486</v>
       </c>
       <c r="D156">
-        <v>0.1042895648364874</v>
+        <v>0.1042895648364865</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4136,10 +4136,10 @@
         <v>6.55</v>
       </c>
       <c r="C159">
-        <v>6.485991673230663</v>
+        <v>6.485991673230664</v>
       </c>
       <c r="D159">
-        <v>-0.06400832676933721</v>
+        <v>-0.06400832676933632</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4164,10 +4164,10 @@
         <v>6.56</v>
       </c>
       <c r="C161">
-        <v>6.493293412183339</v>
+        <v>6.49329341218334</v>
       </c>
       <c r="D161">
-        <v>-0.06670658781666017</v>
+        <v>-0.06670658781665928</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4178,10 +4178,10 @@
         <v>6.59</v>
       </c>
       <c r="C162">
-        <v>6.500088434278998</v>
+        <v>6.500088434278997</v>
       </c>
       <c r="D162">
-        <v>-0.08991156572100234</v>
+        <v>-0.08991156572100323</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4192,10 +4192,10 @@
         <v>7.1</v>
       </c>
       <c r="C163">
-        <v>6.713946641370216</v>
+        <v>6.713946641370217</v>
       </c>
       <c r="D163">
-        <v>-0.3860533586297832</v>
+        <v>-0.3860533586297823</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4206,10 +4206,10 @@
         <v>7.17</v>
       </c>
       <c r="C164">
-        <v>6.722381380061448</v>
+        <v>6.722381380061449</v>
       </c>
       <c r="D164">
-        <v>-0.4476186199385515</v>
+        <v>-0.4476186199385506</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4220,10 +4220,10 @@
         <v>7.17</v>
       </c>
       <c r="C165">
-        <v>6.726957629241814</v>
+        <v>6.726957629241816</v>
       </c>
       <c r="D165">
-        <v>-0.4430423707581861</v>
+        <v>-0.4430423707581843</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4248,10 +4248,10 @@
         <v>7.17</v>
       </c>
       <c r="C167">
-        <v>6.7177093290838</v>
+        <v>6.717709329083801</v>
       </c>
       <c r="D167">
-        <v>-0.4522906709161996</v>
+        <v>-0.4522906709161987</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4290,10 +4290,10 @@
         <v>7.06</v>
       </c>
       <c r="C170">
-        <v>6.745959185345668</v>
+        <v>6.745959185345666</v>
       </c>
       <c r="D170">
-        <v>-0.3140408146543319</v>
+        <v>-0.3140408146543336</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4318,10 +4318,10 @@
         <v>7.08</v>
       </c>
       <c r="C172">
-        <v>6.72141391997502</v>
+        <v>6.721413919975021</v>
       </c>
       <c r="D172">
-        <v>-0.3585860800249803</v>
+        <v>-0.3585860800249794</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4332,10 +4332,10 @@
         <v>6.82</v>
       </c>
       <c r="C173">
-        <v>6.622694934957368</v>
+        <v>6.62269493495737</v>
       </c>
       <c r="D173">
-        <v>-0.1973050650426318</v>
+        <v>-0.19730506504263</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4346,10 +4346,10 @@
         <v>6.69</v>
       </c>
       <c r="C174">
-        <v>6.559715338954884</v>
+        <v>6.559715338954885</v>
       </c>
       <c r="D174">
-        <v>-0.130284661045116</v>
+        <v>-0.1302846610451152</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4360,10 +4360,10 @@
         <v>7.05</v>
       </c>
       <c r="C175">
-        <v>6.680488949392585</v>
+        <v>6.680488949392587</v>
       </c>
       <c r="D175">
-        <v>-0.3695110506074144</v>
+        <v>-0.3695110506074126</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4374,10 +4374,10 @@
         <v>7.06</v>
       </c>
       <c r="C176">
-        <v>6.703355630089434</v>
+        <v>6.703355630089435</v>
       </c>
       <c r="D176">
-        <v>-0.3566443699105655</v>
+        <v>-0.3566443699105646</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4430,10 +4430,10 @@
         <v>7.06</v>
       </c>
       <c r="C180">
-        <v>6.903189061903224</v>
+        <v>6.903189061903226</v>
       </c>
       <c r="D180">
-        <v>-0.1568109380967755</v>
+        <v>-0.1568109380967737</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4458,10 +4458,10 @@
         <v>7.12</v>
       </c>
       <c r="C182">
-        <v>6.953476236810389</v>
+        <v>6.953476236810391</v>
       </c>
       <c r="D182">
-        <v>-0.1665237631896108</v>
+        <v>-0.166523763189609</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4472,10 +4472,10 @@
         <v>7.15</v>
       </c>
       <c r="C183">
-        <v>6.972101547772723</v>
+        <v>6.972101547772726</v>
       </c>
       <c r="D183">
-        <v>-0.1778984522272777</v>
+        <v>-0.1778984522272742</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4486,10 +4486,10 @@
         <v>7.1</v>
       </c>
       <c r="C184">
-        <v>6.979138362513146</v>
+        <v>6.979138362513148</v>
       </c>
       <c r="D184">
-        <v>-0.1208616374868532</v>
+        <v>-0.1208616374868514</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4500,10 +4500,10 @@
         <v>6.94</v>
       </c>
       <c r="C185">
-        <v>6.891771894117201</v>
+        <v>6.891771894117203</v>
       </c>
       <c r="D185">
-        <v>-0.04822810588279935</v>
+        <v>-0.04822810588279758</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4514,10 +4514,10 @@
         <v>6.69</v>
       </c>
       <c r="C186">
-        <v>6.893713137515465</v>
+        <v>6.893713137515467</v>
       </c>
       <c r="D186">
-        <v>0.2037131375154644</v>
+        <v>0.2037131375154662</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4528,10 +4528,10 @@
         <v>6.7</v>
       </c>
       <c r="C187">
-        <v>6.882510379797304</v>
+        <v>6.882510379797306</v>
       </c>
       <c r="D187">
-        <v>0.1825103797973036</v>
+        <v>0.1825103797973053</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4542,10 +4542,10 @@
         <v>6.73</v>
       </c>
       <c r="C188">
-        <v>6.878060469465386</v>
+        <v>6.878060469465388</v>
       </c>
       <c r="D188">
-        <v>0.1480604694653858</v>
+        <v>0.1480604694653875</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4556,10 +4556,10 @@
         <v>6.63</v>
       </c>
       <c r="C189">
-        <v>6.8575148795331</v>
+        <v>6.857514879533102</v>
       </c>
       <c r="D189">
-        <v>0.2275148795330999</v>
+        <v>0.2275148795331017</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4570,10 +4570,10 @@
         <v>6.62</v>
       </c>
       <c r="C190">
-        <v>6.831265047361678</v>
+        <v>6.83126504736168</v>
       </c>
       <c r="D190">
-        <v>0.2112650473616782</v>
+        <v>0.2112650473616799</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4584,10 +4584,10 @@
         <v>6.63</v>
       </c>
       <c r="C191">
-        <v>6.841358370438591</v>
+        <v>6.841358370438592</v>
       </c>
       <c r="D191">
-        <v>0.2113583704385906</v>
+        <v>0.2113583704385924</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4598,10 +4598,10 @@
         <v>6.68</v>
       </c>
       <c r="C192">
-        <v>6.827944709513626</v>
+        <v>6.827944709513628</v>
       </c>
       <c r="D192">
-        <v>0.1479447095136264</v>
+        <v>0.1479447095136281</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4612,10 +4612,10 @@
         <v>6.72</v>
       </c>
       <c r="C193">
-        <v>6.874636400107943</v>
+        <v>6.874636400107945</v>
       </c>
       <c r="D193">
-        <v>0.1546364001079432</v>
+        <v>0.154636400107945</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4626,10 +4626,10 @@
         <v>6.46</v>
       </c>
       <c r="C194">
-        <v>6.565404897933573</v>
+        <v>6.565404897933575</v>
       </c>
       <c r="D194">
-        <v>0.1054048979335729</v>
+        <v>0.1054048979335747</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4640,10 +4640,10 @@
         <v>6.54</v>
       </c>
       <c r="C195">
-        <v>6.573366645755066</v>
+        <v>6.573366645755068</v>
       </c>
       <c r="D195">
-        <v>0.03336664575506632</v>
+        <v>0.03336664575506809</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4654,10 +4654,10 @@
         <v>6.58</v>
       </c>
       <c r="C196">
-        <v>6.598113265551566</v>
+        <v>6.598113265551567</v>
       </c>
       <c r="D196">
-        <v>0.01811326555156612</v>
+        <v>0.018113265551567</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4685,7 +4685,7 @@
         <v>6.552010291127464</v>
       </c>
       <c r="D198">
-        <v>-0.0179897088725367</v>
+        <v>-0.01798970887253581</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4696,10 +4696,10 @@
         <v>6.56</v>
       </c>
       <c r="C199">
-        <v>6.51139370696244</v>
+        <v>6.511393706962441</v>
       </c>
       <c r="D199">
-        <v>-0.04860629303755992</v>
+        <v>-0.04860629303755815</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4710,10 +4710,10 @@
         <v>6.62</v>
       </c>
       <c r="C200">
-        <v>6.550730698742674</v>
+        <v>6.550730698742676</v>
       </c>
       <c r="D200">
-        <v>-0.069269301257326</v>
+        <v>-0.06926930125732422</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4738,10 +4738,10 @@
         <v>6.62</v>
       </c>
       <c r="C202">
-        <v>6.613344437031597</v>
+        <v>6.613344437031599</v>
       </c>
       <c r="D202">
-        <v>-0.006655562968402862</v>
+        <v>-0.006655562968401085</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4752,10 +4752,10 @@
         <v>6.63</v>
       </c>
       <c r="C203">
-        <v>6.596421989652257</v>
+        <v>6.596421989652258</v>
       </c>
       <c r="D203">
-        <v>-0.03357801034774255</v>
+        <v>-0.03357801034774166</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4766,10 +4766,10 @@
         <v>6.66</v>
       </c>
       <c r="C204">
-        <v>6.597391540066712</v>
+        <v>6.597391540066714</v>
       </c>
       <c r="D204">
-        <v>-0.0626084599332879</v>
+        <v>-0.06260845993328612</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4780,10 +4780,10 @@
         <v>6.62</v>
       </c>
       <c r="C205">
-        <v>6.583754792692946</v>
+        <v>6.583754792692948</v>
       </c>
       <c r="D205">
-        <v>-0.03624520730705427</v>
+        <v>-0.0362452073070525</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4794,10 +4794,10 @@
         <v>6.42</v>
       </c>
       <c r="C206">
-        <v>6.398379655991442</v>
+        <v>6.398379655991444</v>
       </c>
       <c r="D206">
-        <v>-0.02162034400855806</v>
+        <v>-0.02162034400855628</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4811,7 +4811,7 @@
         <v>6.483183026798677</v>
       </c>
       <c r="D207">
-        <v>-0.1368169732013227</v>
+        <v>-0.1368169732013236</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4822,10 +4822,10 @@
         <v>6.64</v>
       </c>
       <c r="C208">
-        <v>6.475565349786862</v>
+        <v>6.475565349786863</v>
       </c>
       <c r="D208">
-        <v>-0.1644346502131375</v>
+        <v>-0.1644346502131366</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4836,10 +4836,10 @@
         <v>6.67</v>
       </c>
       <c r="C209">
-        <v>6.394658102574631</v>
+        <v>6.394658102574632</v>
       </c>
       <c r="D209">
-        <v>-0.2753418974253687</v>
+        <v>-0.2753418974253679</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4850,10 +4850,10 @@
         <v>6.56</v>
       </c>
       <c r="C210">
-        <v>6.364552217266731</v>
+        <v>6.364552217266732</v>
       </c>
       <c r="D210">
-        <v>-0.1954477827332681</v>
+        <v>-0.1954477827332672</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4864,10 +4864,10 @@
         <v>6.53</v>
       </c>
       <c r="C211">
-        <v>6.269034569373994</v>
+        <v>6.269034569373995</v>
       </c>
       <c r="D211">
-        <v>-0.2609654306260065</v>
+        <v>-0.2609654306260056</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4878,10 +4878,10 @@
         <v>6.74</v>
       </c>
       <c r="C212">
-        <v>6.329050408864907</v>
+        <v>6.329050408864909</v>
       </c>
       <c r="D212">
-        <v>-0.4109495911350933</v>
+        <v>-0.4109495911350916</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4892,10 +4892,10 @@
         <v>6.67</v>
       </c>
       <c r="C213">
-        <v>6.374865723520163</v>
+        <v>6.374865723520164</v>
       </c>
       <c r="D213">
-        <v>-0.2951342764798373</v>
+        <v>-0.2951342764798364</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4906,10 +4906,10 @@
         <v>6.68</v>
       </c>
       <c r="C214">
-        <v>6.388742115623647</v>
+        <v>6.388742115623649</v>
       </c>
       <c r="D214">
-        <v>-0.2912578843763525</v>
+        <v>-0.2912578843763507</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4920,10 +4920,10 @@
         <v>6.74</v>
       </c>
       <c r="C215">
-        <v>6.479052322672579</v>
+        <v>6.47905232267258</v>
       </c>
       <c r="D215">
-        <v>-0.2609476773274215</v>
+        <v>-0.2609476773274206</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4948,10 +4948,10 @@
         <v>6.7</v>
       </c>
       <c r="C217">
-        <v>6.548348420165262</v>
+        <v>6.548348420165263</v>
       </c>
       <c r="D217">
-        <v>-0.1516515798347378</v>
+        <v>-0.1516515798347369</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4962,10 +4962,10 @@
         <v>6.64</v>
       </c>
       <c r="C218">
-        <v>6.557775631047535</v>
+        <v>6.557775631047536</v>
       </c>
       <c r="D218">
-        <v>-0.0822243689524651</v>
+        <v>-0.08222436895246332</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4976,10 +4976,10 @@
         <v>6.54</v>
       </c>
       <c r="C219">
-        <v>6.395542739845118</v>
+        <v>6.39554273984512</v>
       </c>
       <c r="D219">
-        <v>-0.1444572601548817</v>
+        <v>-0.1444572601548799</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4990,10 +4990,10 @@
         <v>6.39</v>
       </c>
       <c r="C220">
-        <v>6.295251715937492</v>
+        <v>6.295251715937494</v>
       </c>
       <c r="D220">
-        <v>-0.09474828406250779</v>
+        <v>-0.09474828406250602</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5018,10 +5018,10 @@
         <v>6.51</v>
       </c>
       <c r="C222">
-        <v>6.362776642513002</v>
+        <v>6.362776642513004</v>
       </c>
       <c r="D222">
-        <v>-0.1472233574869977</v>
+        <v>-0.1472233574869959</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5032,10 +5032,10 @@
         <v>6.52</v>
       </c>
       <c r="C223">
-        <v>6.489531683198691</v>
+        <v>6.489531683198689</v>
       </c>
       <c r="D223">
-        <v>-0.03046831680130868</v>
+        <v>-0.03046831680131046</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5046,10 +5046,10 @@
         <v>6.63</v>
       </c>
       <c r="C224">
-        <v>6.547832654836041</v>
+        <v>6.547832654836042</v>
       </c>
       <c r="D224">
-        <v>-0.08216734516395885</v>
+        <v>-0.08216734516395796</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5116,10 +5116,10 @@
         <v>7.06</v>
       </c>
       <c r="C229">
-        <v>7.08099749039705</v>
+        <v>7.080997490397052</v>
       </c>
       <c r="D229">
-        <v>0.02099749039705046</v>
+        <v>0.02099749039705223</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5144,10 +5144,10 @@
         <v>7.16</v>
       </c>
       <c r="C231">
-        <v>7.034026171248299</v>
+        <v>7.034026171248301</v>
       </c>
       <c r="D231">
-        <v>-0.1259738287517012</v>
+        <v>-0.1259738287516994</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5158,10 +5158,10 @@
         <v>7.09</v>
       </c>
       <c r="C232">
-        <v>7.186330280429465</v>
+        <v>7.186330280429467</v>
       </c>
       <c r="D232">
-        <v>0.09633028042946545</v>
+        <v>0.09633028042946723</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5172,10 +5172,10 @@
         <v>7.08</v>
       </c>
       <c r="C233">
-        <v>7.109569401213107</v>
+        <v>7.109569401213109</v>
       </c>
       <c r="D233">
-        <v>0.02956940121310669</v>
+        <v>0.02956940121310847</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5186,10 +5186,10 @@
         <v>7.1</v>
       </c>
       <c r="C234">
-        <v>7.183523941540646</v>
+        <v>7.183523941540648</v>
       </c>
       <c r="D234">
-        <v>0.0835239415406468</v>
+        <v>0.08352394154064857</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5200,10 +5200,10 @@
         <v>7.11</v>
       </c>
       <c r="C235">
-        <v>7.182043758813044</v>
+        <v>7.182043758813045</v>
       </c>
       <c r="D235">
-        <v>0.07204375881304337</v>
+        <v>0.07204375881304514</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5214,10 +5214,10 @@
         <v>7.11</v>
       </c>
       <c r="C236">
-        <v>7.13092462956932</v>
+        <v>7.130924629569324</v>
       </c>
       <c r="D236">
-        <v>0.02092462956932017</v>
+        <v>0.02092462956932373</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5228,10 +5228,10 @@
         <v>6.89</v>
       </c>
       <c r="C237">
-        <v>7.281719374890796</v>
+        <v>7.281719374890794</v>
       </c>
       <c r="D237">
-        <v>0.3917193748907959</v>
+        <v>0.3917193748907941</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5270,10 +5270,10 @@
         <v>6.91</v>
       </c>
       <c r="C240">
-        <v>7.266363431127862</v>
+        <v>7.266363431127863</v>
       </c>
       <c r="D240">
-        <v>0.3563634311278614</v>
+        <v>0.3563634311278632</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5284,10 +5284,10 @@
         <v>7</v>
       </c>
       <c r="C241">
-        <v>7.407876813595492</v>
+        <v>7.407876813595494</v>
       </c>
       <c r="D241">
-        <v>0.4078768135954922</v>
+        <v>0.407876813595494</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5298,10 +5298,10 @@
         <v>6.91</v>
       </c>
       <c r="C242">
-        <v>7.358210005914523</v>
+        <v>7.358210005914525</v>
       </c>
       <c r="D242">
-        <v>0.4482100059145226</v>
+        <v>0.4482100059145244</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5340,10 +5340,10 @@
         <v>6.94</v>
       </c>
       <c r="C245">
-        <v>7.330792047446255</v>
+        <v>7.330792047446256</v>
       </c>
       <c r="D245">
-        <v>0.3907920474462543</v>
+        <v>0.3907920474462561</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5354,10 +5354,10 @@
         <v>6.97</v>
       </c>
       <c r="C246">
-        <v>7.366981256499261</v>
+        <v>7.366981256499263</v>
       </c>
       <c r="D246">
-        <v>0.3969812564992612</v>
+        <v>0.396981256499263</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5396,10 +5396,10 @@
         <v>7.25</v>
       </c>
       <c r="C249">
-        <v>7.595591819467285</v>
+        <v>7.595591819467287</v>
       </c>
       <c r="D249">
-        <v>0.3455918194672849</v>
+        <v>0.3455918194672867</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5424,10 +5424,10 @@
         <v>7.25</v>
       </c>
       <c r="C251">
-        <v>7.59893779239458</v>
+        <v>7.598937792394582</v>
       </c>
       <c r="D251">
-        <v>0.3489377923945804</v>
+        <v>0.3489377923945822</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5452,10 +5452,10 @@
         <v>7.25</v>
       </c>
       <c r="C253">
-        <v>7.571965688348578</v>
+        <v>7.57196568834858</v>
       </c>
       <c r="D253">
-        <v>0.3219656883485777</v>
+        <v>0.3219656883485795</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5480,10 +5480,10 @@
         <v>7.04</v>
       </c>
       <c r="C255">
-        <v>7.330387427953895</v>
+        <v>7.330387427953897</v>
       </c>
       <c r="D255">
-        <v>0.2903874279538954</v>
+        <v>0.2903874279538972</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5494,10 +5494,10 @@
         <v>6.92</v>
       </c>
       <c r="C256">
-        <v>7.333319809668294</v>
+        <v>7.333319809668295</v>
       </c>
       <c r="D256">
-        <v>0.4133198096682937</v>
+        <v>0.4133198096682955</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5536,10 +5536,10 @@
         <v>7.38</v>
       </c>
       <c r="C259">
-        <v>7.680511564080921</v>
+        <v>7.680511564080923</v>
       </c>
       <c r="D259">
-        <v>0.3005115640809208</v>
+        <v>0.3005115640809226</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5550,10 +5550,10 @@
         <v>7.39</v>
       </c>
       <c r="C260">
-        <v>7.677679066662759</v>
+        <v>7.677679066662761</v>
       </c>
       <c r="D260">
-        <v>0.2876790666627596</v>
+        <v>0.2876790666627613</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5578,10 +5578,10 @@
         <v>7.27</v>
       </c>
       <c r="C262">
-        <v>7.516040263762211</v>
+        <v>7.516040263762213</v>
       </c>
       <c r="D262">
-        <v>0.2460402637622119</v>
+        <v>0.2460402637622137</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5592,10 +5592,10 @@
         <v>7.21</v>
       </c>
       <c r="C263">
-        <v>7.516590672384402</v>
+        <v>7.5165906723844</v>
       </c>
       <c r="D263">
-        <v>0.3065906723844023</v>
+        <v>0.3065906723844005</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5690,10 +5690,10 @@
         <v>7.73</v>
       </c>
       <c r="C270">
-        <v>7.090970754686597</v>
+        <v>7.090970754686599</v>
       </c>
       <c r="D270">
-        <v>-0.6390292453134032</v>
+        <v>-0.6390292453134014</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5718,10 +5718,10 @@
         <v>7.83</v>
       </c>
       <c r="C272">
-        <v>7.129074089971039</v>
+        <v>7.129074089971041</v>
       </c>
       <c r="D272">
-        <v>-0.7009259100289613</v>
+        <v>-0.7009259100289595</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5774,10 +5774,10 @@
         <v>8.18</v>
       </c>
       <c r="C276">
-        <v>7.859680341092852</v>
+        <v>7.859680341092854</v>
       </c>
       <c r="D276">
-        <v>-0.320319658907148</v>
+        <v>-0.3203196589071462</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5816,10 +5816,10 @@
         <v>7.81</v>
       </c>
       <c r="C279">
-        <v>8.094705821189407</v>
+        <v>8.094705821189411</v>
       </c>
       <c r="D279">
-        <v>0.2847058211894078</v>
+        <v>0.2847058211894113</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5844,10 +5844,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C281">
-        <v>8.334910047334915</v>
+        <v>8.334910047334919</v>
       </c>
       <c r="D281">
-        <v>-0.6150899526650839</v>
+        <v>-0.6150899526650804</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5858,10 +5858,10 @@
         <v>8.720000000000001</v>
       </c>
       <c r="C282">
-        <v>8.327934192813167</v>
+        <v>8.327934192813171</v>
       </c>
       <c r="D282">
-        <v>-0.3920658071868335</v>
+        <v>-0.3920658071868299</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5872,10 +5872,10 @@
         <v>9</v>
       </c>
       <c r="C283">
-        <v>8.288385460188206</v>
+        <v>8.288385460188209</v>
       </c>
       <c r="D283">
-        <v>-0.7116145398117943</v>
+        <v>-0.7116145398117908</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5900,10 +5900,10 @@
         <v>8.67</v>
       </c>
       <c r="C285">
-        <v>8.164351654795574</v>
+        <v>8.164351654795578</v>
       </c>
       <c r="D285">
-        <v>-0.5056483452044258</v>
+        <v>-0.5056483452044223</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5914,10 +5914,10 @@
         <v>8.41</v>
       </c>
       <c r="C286">
-        <v>8.107581372218817</v>
+        <v>8.107581372218821</v>
       </c>
       <c r="D286">
-        <v>-0.3024186277811829</v>
+        <v>-0.3024186277811793</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5942,10 +5942,10 @@
         <v>8</v>
       </c>
       <c r="C288">
-        <v>8.042712561333666</v>
+        <v>8.042712561333669</v>
       </c>
       <c r="D288">
-        <v>0.04271256133366563</v>
+        <v>0.04271256133366919</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5956,10 +5956,10 @@
         <v>8.09</v>
       </c>
       <c r="C289">
-        <v>8.092297162062565</v>
+        <v>8.092297162062568</v>
       </c>
       <c r="D289">
-        <v>0.002297162062564695</v>
+        <v>0.002297162062568248</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5970,10 +5970,10 @@
         <v>8.289999999999999</v>
       </c>
       <c r="C290">
-        <v>8.106317498199942</v>
+        <v>8.106317498199946</v>
       </c>
       <c r="D290">
-        <v>-0.1836825018000567</v>
+        <v>-0.1836825018000532</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5984,10 +5984,10 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C291">
-        <v>8.11370545401946</v>
+        <v>8.113705454019463</v>
       </c>
       <c r="D291">
-        <v>-0.516294545980541</v>
+        <v>-0.5162945459805375</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5998,10 +5998,10 @@
         <v>8.380000000000001</v>
       </c>
       <c r="C292">
-        <v>8.123070178763086</v>
+        <v>8.12307017876309</v>
       </c>
       <c r="D292">
-        <v>-0.2569298212369144</v>
+        <v>-0.2569298212369109</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6026,10 +6026,10 @@
         <v>8.380000000000001</v>
       </c>
       <c r="C294">
-        <v>8.15337867648503</v>
+        <v>8.153378676485033</v>
       </c>
       <c r="D294">
-        <v>-0.226621323514971</v>
+        <v>-0.2266213235149674</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6054,10 +6054,10 @@
         <v>7.62</v>
       </c>
       <c r="C296">
-        <v>7.775906806428293</v>
+        <v>7.775906806428291</v>
       </c>
       <c r="D296">
-        <v>0.1559068064282929</v>
+        <v>0.1559068064282911</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6082,10 +6082,10 @@
         <v>8.1</v>
       </c>
       <c r="C298">
-        <v>8.010028465182813</v>
+        <v>8.010028465182817</v>
       </c>
       <c r="D298">
-        <v>-0.08997153481718634</v>
+        <v>-0.08997153481718279</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6110,10 +6110,10 @@
         <v>8.1</v>
       </c>
       <c r="C300">
-        <v>7.886291552811028</v>
+        <v>7.88629155281103</v>
       </c>
       <c r="D300">
-        <v>-0.2137084471889716</v>
+        <v>-0.2137084471889699</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6124,10 +6124,10 @@
         <v>7.54</v>
       </c>
       <c r="C301">
-        <v>7.789261154893137</v>
+        <v>7.789261154893141</v>
       </c>
       <c r="D301">
-        <v>0.2492611548931372</v>
+        <v>0.2492611548931407</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6138,10 +6138,10 @@
         <v>7.5</v>
       </c>
       <c r="C302">
-        <v>7.782040265176208</v>
+        <v>7.782040265176209</v>
       </c>
       <c r="D302">
-        <v>0.2820402651762075</v>
+        <v>0.2820402651762093</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6152,10 +6152,10 @@
         <v>7.5</v>
       </c>
       <c r="C303">
-        <v>7.720537536622126</v>
+        <v>7.720537536622127</v>
       </c>
       <c r="D303">
-        <v>0.2205375366221256</v>
+        <v>0.2205375366221274</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6180,10 +6180,10 @@
         <v>7.61</v>
       </c>
       <c r="C305">
-        <v>7.832157465506417</v>
+        <v>7.832157465506419</v>
       </c>
       <c r="D305">
-        <v>0.2221574655064167</v>
+        <v>0.2221574655064185</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6194,10 +6194,10 @@
         <v>7.6</v>
       </c>
       <c r="C306">
-        <v>7.820694198486373</v>
+        <v>7.820694198486374</v>
       </c>
       <c r="D306">
-        <v>0.2206941984863731</v>
+        <v>0.2206941984863748</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6250,10 +6250,10 @@
         <v>7.66</v>
       </c>
       <c r="C310">
-        <v>8.220005702801348</v>
+        <v>8.220005702801352</v>
       </c>
       <c r="D310">
-        <v>0.5600057028013481</v>
+        <v>0.5600057028013516</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6292,10 +6292,10 @@
         <v>7.65</v>
       </c>
       <c r="C313">
-        <v>7.917807112938992</v>
+        <v>7.917807112938994</v>
       </c>
       <c r="D313">
-        <v>0.2678071129389918</v>
+        <v>0.2678071129389936</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6306,10 +6306,10 @@
         <v>7.65</v>
       </c>
       <c r="C314">
-        <v>7.953111602928908</v>
+        <v>7.953111602928909</v>
       </c>
       <c r="D314">
-        <v>0.3031116029289072</v>
+        <v>0.3031116029289089</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6320,10 +6320,10 @@
         <v>7.63</v>
       </c>
       <c r="C315">
-        <v>7.942719274580061</v>
+        <v>7.942719274580063</v>
       </c>
       <c r="D315">
-        <v>0.3127192745800613</v>
+        <v>0.3127192745800631</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6348,10 +6348,10 @@
         <v>7.67</v>
       </c>
       <c r="C317">
-        <v>8.020334102128569</v>
+        <v>8.020334102128565</v>
       </c>
       <c r="D317">
-        <v>0.3503341021285689</v>
+        <v>0.3503341021285653</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6376,10 +6376,10 @@
         <v>7.71</v>
       </c>
       <c r="C319">
-        <v>7.955586501376971</v>
+        <v>7.955586501376973</v>
       </c>
       <c r="D319">
-        <v>0.2455865013769714</v>
+        <v>0.2455865013769731</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6418,10 +6418,10 @@
         <v>7.65</v>
       </c>
       <c r="C322">
-        <v>7.952825085481053</v>
+        <v>7.952825085481055</v>
       </c>
       <c r="D322">
-        <v>0.3028250854810528</v>
+        <v>0.3028250854810546</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6460,10 +6460,10 @@
         <v>7.34</v>
       </c>
       <c r="C325">
-        <v>7.567795462794849</v>
+        <v>7.567795462794851</v>
       </c>
       <c r="D325">
-        <v>0.2277954627948491</v>
+        <v>0.2277954627948509</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6474,10 +6474,10 @@
         <v>7.2</v>
       </c>
       <c r="C326">
-        <v>7.454770115224901</v>
+        <v>7.454770115224899</v>
       </c>
       <c r="D326">
-        <v>0.2547701152249005</v>
+        <v>0.2547701152248987</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6516,10 +6516,10 @@
         <v>7.4</v>
       </c>
       <c r="C329">
-        <v>7.647197278257363</v>
+        <v>7.647197278257365</v>
       </c>
       <c r="D329">
-        <v>0.2471972782573628</v>
+        <v>0.2471972782573646</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6586,10 +6586,10 @@
         <v>7.88</v>
       </c>
       <c r="C334">
-        <v>8.034455050499339</v>
+        <v>8.034455050499343</v>
       </c>
       <c r="D334">
-        <v>0.1544550504993394</v>
+        <v>0.1544550504993429</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6600,10 +6600,10 @@
         <v>8.380000000000001</v>
       </c>
       <c r="C335">
-        <v>8.343569232342691</v>
+        <v>8.343569232342695</v>
       </c>
       <c r="D335">
-        <v>-0.03643076765730946</v>
+        <v>-0.03643076765730591</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6614,10 +6614,10 @@
         <v>8.24</v>
       </c>
       <c r="C336">
-        <v>8.221450835784218</v>
+        <v>8.221450835784221</v>
       </c>
       <c r="D336">
-        <v>-0.01854916421578245</v>
+        <v>-0.0185491642157789</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6642,10 +6642,10 @@
         <v>8.289999999999999</v>
       </c>
       <c r="C338">
-        <v>8.225895318636436</v>
+        <v>8.225895318636439</v>
       </c>
       <c r="D338">
-        <v>-0.06410468136356329</v>
+        <v>-0.06410468136355973</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6670,10 +6670,10 @@
         <v>8.279999999999999</v>
       </c>
       <c r="C340">
-        <v>8.146625757209556</v>
+        <v>8.146625757209559</v>
       </c>
       <c r="D340">
-        <v>-0.1333742427904436</v>
+        <v>-0.1333742427904401</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6684,10 +6684,10 @@
         <v>8.220000000000001</v>
       </c>
       <c r="C341">
-        <v>8.062475413826636</v>
+        <v>8.062475413826633</v>
       </c>
       <c r="D341">
-        <v>-0.1575245861733645</v>
+        <v>-0.1575245861733681</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6754,10 +6754,10 @@
         <v>8.17</v>
       </c>
       <c r="C346">
-        <v>8.015000916889161</v>
+        <v>8.015000916889164</v>
       </c>
       <c r="D346">
-        <v>-0.1549990831108392</v>
+        <v>-0.1549990831108357</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6768,10 +6768,10 @@
         <v>8.02</v>
       </c>
       <c r="C347">
-        <v>7.920519736691156</v>
+        <v>7.920519736691157</v>
       </c>
       <c r="D347">
-        <v>-0.09948026330884385</v>
+        <v>-0.09948026330884208</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6782,10 +6782,10 @@
         <v>8</v>
       </c>
       <c r="C348">
-        <v>7.860562522604449</v>
+        <v>7.860562522604451</v>
       </c>
       <c r="D348">
-        <v>-0.1394374773955507</v>
+        <v>-0.1394374773955489</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6796,10 +6796,10 @@
         <v>8.24</v>
       </c>
       <c r="C349">
-        <v>8.267546717911525</v>
+        <v>8.267546717911529</v>
       </c>
       <c r="D349">
-        <v>0.02754671791152496</v>
+        <v>0.02754671791152852</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6824,10 +6824,10 @@
         <v>8.27</v>
       </c>
       <c r="C351">
-        <v>8.272268887789689</v>
+        <v>8.272268887789693</v>
       </c>
       <c r="D351">
-        <v>0.0022688877896897</v>
+        <v>0.002268887789693252</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6852,10 +6852,10 @@
         <v>9.19</v>
       </c>
       <c r="C353">
-        <v>8.808915838390604</v>
+        <v>8.808915838390607</v>
       </c>
       <c r="D353">
-        <v>-0.3810841616093956</v>
+        <v>-0.3810841616093921</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6866,10 +6866,10 @@
         <v>9.58</v>
       </c>
       <c r="C354">
-        <v>8.97649195405727</v>
+        <v>8.976491954057273</v>
       </c>
       <c r="D354">
-        <v>-0.6035080459427302</v>
+        <v>-0.6035080459427267</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6880,10 +6880,10 @@
         <v>8.4</v>
       </c>
       <c r="C355">
-        <v>8.326179503663692</v>
+        <v>8.326179503663695</v>
       </c>
       <c r="D355">
-        <v>-0.07382049633630849</v>
+        <v>-0.07382049633630494</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6894,10 +6894,10 @@
         <v>7.72</v>
       </c>
       <c r="C356">
-        <v>8.30385720410273</v>
+        <v>8.303857204102734</v>
       </c>
       <c r="D356">
-        <v>0.5838572041027303</v>
+        <v>0.5838572041027339</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6908,10 +6908,10 @@
         <v>7.73</v>
       </c>
       <c r="C357">
-        <v>8.30517562883054</v>
+        <v>8.305175628830543</v>
       </c>
       <c r="D357">
-        <v>0.5751756288305394</v>
+        <v>0.575175628830543</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6922,10 +6922,10 @@
         <v>7.63</v>
       </c>
       <c r="C358">
-        <v>8.209044621137156</v>
+        <v>8.20904462113716</v>
       </c>
       <c r="D358">
-        <v>0.5790446211371565</v>
+        <v>0.57904462113716</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6978,10 +6978,10 @@
         <v>7.67</v>
       </c>
       <c r="C362">
-        <v>7.887720999582409</v>
+        <v>7.88772099958241</v>
       </c>
       <c r="D362">
-        <v>0.2177209995824088</v>
+        <v>0.2177209995824105</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6992,10 +6992,10 @@
         <v>7.64</v>
       </c>
       <c r="C363">
-        <v>7.857877851238524</v>
+        <v>7.857877851238526</v>
       </c>
       <c r="D363">
-        <v>0.2178778512385247</v>
+        <v>0.2178778512385264</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7034,10 +7034,10 @@
         <v>7.59</v>
       </c>
       <c r="C366">
-        <v>7.8056006618524</v>
+        <v>7.805600661852401</v>
       </c>
       <c r="D366">
-        <v>0.2156006618523998</v>
+        <v>0.2156006618524016</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7062,10 +7062,10 @@
         <v>7.58</v>
       </c>
       <c r="C368">
-        <v>7.755876729745819</v>
+        <v>7.755876729745821</v>
       </c>
       <c r="D368">
-        <v>0.175876729745819</v>
+        <v>0.1758767297458208</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7146,10 +7146,10 @@
         <v>7.05</v>
       </c>
       <c r="C374">
-        <v>7.240231522449084</v>
+        <v>7.240231522449085</v>
       </c>
       <c r="D374">
-        <v>0.1902315224490838</v>
+        <v>0.1902315224490856</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7160,10 +7160,10 @@
         <v>7.06</v>
       </c>
       <c r="C375">
-        <v>7.240702285396812</v>
+        <v>7.240702285396813</v>
       </c>
       <c r="D375">
-        <v>0.1807022853968121</v>
+        <v>0.1807022853968139</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7174,10 +7174,10 @@
         <v>7.06</v>
       </c>
       <c r="C376">
-        <v>7.229163959533332</v>
+        <v>7.22916395953333</v>
       </c>
       <c r="D376">
-        <v>0.1691639595333321</v>
+        <v>0.1691639595333303</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7188,10 +7188,10 @@
         <v>7.05</v>
       </c>
       <c r="C377">
-        <v>7.234910995900271</v>
+        <v>7.234910995900273</v>
       </c>
       <c r="D377">
-        <v>0.184910995900271</v>
+        <v>0.1849109959002728</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7216,10 +7216,10 @@
         <v>7.2</v>
       </c>
       <c r="C379">
-        <v>7.272282509059075</v>
+        <v>7.272282509059077</v>
       </c>
       <c r="D379">
-        <v>0.07228250905907529</v>
+        <v>0.07228250905907707</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7230,10 +7230,10 @@
         <v>7.74</v>
       </c>
       <c r="C380">
-        <v>7.488597950803674</v>
+        <v>7.488597950803675</v>
       </c>
       <c r="D380">
-        <v>-0.2514020491963267</v>
+        <v>-0.2514020491963249</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7244,10 +7244,10 @@
         <v>7.27</v>
       </c>
       <c r="C381">
-        <v>7.156591569091879</v>
+        <v>7.156591569091881</v>
       </c>
       <c r="D381">
-        <v>-0.1134084309081205</v>
+        <v>-0.1134084309081187</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7286,10 +7286,10 @@
         <v>7.02</v>
       </c>
       <c r="C384">
-        <v>6.552014060131575</v>
+        <v>6.552014060131576</v>
       </c>
       <c r="D384">
-        <v>-0.4679859398684245</v>
+        <v>-0.4679859398684236</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7328,10 +7328,10 @@
         <v>7.15</v>
       </c>
       <c r="C387">
-        <v>6.558564288045725</v>
+        <v>6.558564288045726</v>
       </c>
       <c r="D387">
-        <v>-0.5914357119542757</v>
+        <v>-0.5914357119542748</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7370,10 +7370,10 @@
         <v>7.48</v>
       </c>
       <c r="C390">
-        <v>6.60683743766248</v>
+        <v>6.606837437662483</v>
       </c>
       <c r="D390">
-        <v>-0.8731625623375203</v>
+        <v>-0.8731625623375177</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7384,10 +7384,10 @@
         <v>6.81</v>
       </c>
       <c r="C391">
-        <v>6.42097169779256</v>
+        <v>6.420971697792562</v>
       </c>
       <c r="D391">
-        <v>-0.3890283022074392</v>
+        <v>-0.3890283022074374</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7398,10 +7398,10 @@
         <v>6.59</v>
       </c>
       <c r="C392">
-        <v>6.297252948111711</v>
+        <v>6.297252948111713</v>
       </c>
       <c r="D392">
-        <v>-0.2927470518882886</v>
+        <v>-0.2927470518882869</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7412,10 +7412,10 @@
         <v>6.6</v>
       </c>
       <c r="C393">
-        <v>6.305921512387505</v>
+        <v>6.305921512387507</v>
       </c>
       <c r="D393">
-        <v>-0.2940784876124942</v>
+        <v>-0.2940784876124924</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7426,10 +7426,10 @@
         <v>6.8</v>
       </c>
       <c r="C394">
-        <v>6.254798553924776</v>
+        <v>6.254798553924778</v>
       </c>
       <c r="D394">
-        <v>-0.5452014460752235</v>
+        <v>-0.5452014460752217</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7443,7 +7443,7 @@
         <v>6.20953613728553</v>
       </c>
       <c r="D395">
-        <v>-0.5504638627144702</v>
+        <v>-0.5504638627144693</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7454,10 +7454,10 @@
         <v>6.74</v>
       </c>
       <c r="C396">
-        <v>6.188236579394341</v>
+        <v>6.188236579394343</v>
       </c>
       <c r="D396">
-        <v>-0.551763420605659</v>
+        <v>-0.5517634206056572</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7468,10 +7468,10 @@
         <v>6.33</v>
       </c>
       <c r="C397">
-        <v>5.962958348945498</v>
+        <v>5.9629583489455</v>
       </c>
       <c r="D397">
-        <v>-0.3670416510545023</v>
+        <v>-0.3670416510545005</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7496,10 +7496,10 @@
         <v>5.74</v>
       </c>
       <c r="C399">
-        <v>5.919342170002717</v>
+        <v>5.919342170002718</v>
       </c>
       <c r="D399">
-        <v>0.1793421700027169</v>
+        <v>0.1793421700027178</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7510,10 +7510,10 @@
         <v>5.73</v>
       </c>
       <c r="C400">
-        <v>5.934681362486987</v>
+        <v>5.934681362486989</v>
       </c>
       <c r="D400">
-        <v>0.204681362486987</v>
+        <v>0.2046813624869888</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7524,10 +7524,10 @@
         <v>5.7</v>
       </c>
       <c r="C401">
-        <v>5.856169912933455</v>
+        <v>5.856169912933457</v>
       </c>
       <c r="D401">
-        <v>0.1561699129334553</v>
+        <v>0.1561699129334571</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7538,10 +7538,10 @@
         <v>5.71</v>
       </c>
       <c r="C402">
-        <v>5.757097631830059</v>
+        <v>5.757097631830061</v>
       </c>
       <c r="D402">
-        <v>0.04709763183005933</v>
+        <v>0.0470976318300611</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7566,10 +7566,10 @@
         <v>5.57</v>
       </c>
       <c r="C404">
-        <v>5.703585061664096</v>
+        <v>5.703585061664097</v>
       </c>
       <c r="D404">
-        <v>0.1335850616640952</v>
+        <v>0.133585061664097</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7580,10 +7580,10 @@
         <v>5.45</v>
       </c>
       <c r="C405">
-        <v>5.593328680379028</v>
+        <v>5.593328680379029</v>
       </c>
       <c r="D405">
-        <v>0.1433286803790281</v>
+        <v>0.143328680379029</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7608,10 +7608,10 @@
         <v>5.35</v>
       </c>
       <c r="C407">
-        <v>5.566313147305759</v>
+        <v>5.566313147305761</v>
       </c>
       <c r="D407">
-        <v>0.2163131473057591</v>
+        <v>0.2163131473057609</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7622,10 +7622,10 @@
         <v>5.31</v>
       </c>
       <c r="C408">
-        <v>5.551692365718835</v>
+        <v>5.551692365718837</v>
       </c>
       <c r="D408">
-        <v>0.2416923657188352</v>
+        <v>0.241692365718837</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7636,10 +7636,10 @@
         <v>5.32</v>
       </c>
       <c r="C409">
-        <v>5.550925119357301</v>
+        <v>5.550925119357302</v>
       </c>
       <c r="D409">
-        <v>0.230925119357301</v>
+        <v>0.2309251193573019</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7650,10 +7650,10 @@
         <v>5.33</v>
       </c>
       <c r="C410">
-        <v>5.537383578291704</v>
+        <v>5.537383578291706</v>
       </c>
       <c r="D410">
-        <v>0.2073835782917035</v>
+        <v>0.2073835782917062</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7664,10 +7664,10 @@
         <v>5.38</v>
       </c>
       <c r="C411">
-        <v>5.547605439871385</v>
+        <v>5.547605439871386</v>
       </c>
       <c r="D411">
-        <v>0.1676054398713847</v>
+        <v>0.1676054398713864</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7678,10 +7678,10 @@
         <v>5.6</v>
       </c>
       <c r="C412">
-        <v>5.587311140200615</v>
+        <v>5.587311140200616</v>
       </c>
       <c r="D412">
-        <v>-0.01268885979938439</v>
+        <v>-0.0126888597993835</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7692,10 +7692,10 @@
         <v>5.58</v>
       </c>
       <c r="C413">
-        <v>5.594819133983871</v>
+        <v>5.594819133983873</v>
       </c>
       <c r="D413">
-        <v>0.01481913398387125</v>
+        <v>0.01481913398387302</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7706,10 +7706,10 @@
         <v>5.63</v>
       </c>
       <c r="C414">
-        <v>5.596746839448921</v>
+        <v>5.596746839448923</v>
       </c>
       <c r="D414">
-        <v>-0.03325316055107841</v>
+        <v>-0.03325316055107663</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7720,10 +7720,10 @@
         <v>5.68</v>
       </c>
       <c r="C415">
-        <v>5.632383055719751</v>
+        <v>5.632383055719752</v>
       </c>
       <c r="D415">
-        <v>-0.04761694428024921</v>
+        <v>-0.04761694428024743</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7734,10 +7734,10 @@
         <v>5.73</v>
       </c>
       <c r="C416">
-        <v>5.634366253539098</v>
+        <v>5.6343662535391</v>
       </c>
       <c r="D416">
-        <v>-0.09563374646090228</v>
+        <v>-0.0956337464609005</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7748,10 +7748,10 @@
         <v>5.91</v>
       </c>
       <c r="C417">
-        <v>5.708080340413122</v>
+        <v>5.708080340413124</v>
       </c>
       <c r="D417">
-        <v>-0.2019196595868777</v>
+        <v>-0.201919659586876</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7790,10 +7790,10 @@
         <v>5.85</v>
       </c>
       <c r="C420">
-        <v>5.658143618590197</v>
+        <v>5.658143618590198</v>
       </c>
       <c r="D420">
-        <v>-0.1918563814098029</v>
+        <v>-0.191856381409802</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7804,10 +7804,10 @@
         <v>5.97</v>
       </c>
       <c r="C421">
-        <v>5.645376522039847</v>
+        <v>5.645376522039848</v>
       </c>
       <c r="D421">
-        <v>-0.3246234779601531</v>
+        <v>-0.3246234779601522</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7818,10 +7818,10 @@
         <v>5.98</v>
       </c>
       <c r="C422">
-        <v>5.684178152730073</v>
+        <v>5.684178152730075</v>
       </c>
       <c r="D422">
-        <v>-0.2958218472699272</v>
+        <v>-0.2958218472699254</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7832,10 +7832,10 @@
         <v>5.49</v>
       </c>
       <c r="C423">
-        <v>5.536564784063205</v>
+        <v>5.536564784063206</v>
       </c>
       <c r="D423">
-        <v>0.04656478406320463</v>
+        <v>0.04656478406320552</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7846,10 +7846,10 @@
         <v>5.48</v>
       </c>
       <c r="C424">
-        <v>5.541527782075735</v>
+        <v>5.541527782075736</v>
       </c>
       <c r="D424">
-        <v>0.06152778207573473</v>
+        <v>0.06152778207573562</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7860,10 +7860,10 @@
         <v>5.39</v>
       </c>
       <c r="C425">
-        <v>5.518942401291755</v>
+        <v>5.518942401291756</v>
       </c>
       <c r="D425">
-        <v>0.1289424012917557</v>
+        <v>0.1289424012917566</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7874,10 +7874,10 @@
         <v>5.3</v>
       </c>
       <c r="C426">
-        <v>5.497664901955815</v>
+        <v>5.497664901955816</v>
       </c>
       <c r="D426">
-        <v>0.1976649019558154</v>
+        <v>0.1976649019558163</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7888,10 +7888,10 @@
         <v>5.29</v>
       </c>
       <c r="C427">
-        <v>5.466221110219406</v>
+        <v>5.466221110219407</v>
       </c>
       <c r="D427">
-        <v>0.176221110219406</v>
+        <v>0.1762211102194069</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7902,10 +7902,10 @@
         <v>5.27</v>
       </c>
       <c r="C428">
-        <v>5.45506143381238</v>
+        <v>5.455061433812381</v>
       </c>
       <c r="D428">
-        <v>0.1850614338123799</v>
+        <v>0.1850614338123817</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7916,10 +7916,10 @@
         <v>5.26</v>
       </c>
       <c r="C429">
-        <v>5.461791389583246</v>
+        <v>5.461791389583247</v>
       </c>
       <c r="D429">
-        <v>0.2017913895832466</v>
+        <v>0.2017913895832475</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7930,10 +7930,10 @@
         <v>5.27</v>
       </c>
       <c r="C430">
-        <v>5.48424187287686</v>
+        <v>5.484241872876861</v>
       </c>
       <c r="D430">
-        <v>0.2142418728768609</v>
+        <v>0.2142418728768618</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7958,10 +7958,10 @@
         <v>5.29</v>
       </c>
       <c r="C432">
-        <v>5.491622368923847</v>
+        <v>5.491622368923848</v>
       </c>
       <c r="D432">
-        <v>0.2016223689238474</v>
+        <v>0.2016223689238483</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7975,7 +7975,7 @@
         <v>5.501798072564529</v>
       </c>
       <c r="D433">
-        <v>0.2517980725645286</v>
+        <v>0.2517980725645295</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7986,10 +7986,10 @@
         <v>5.19</v>
       </c>
       <c r="C434">
-        <v>5.482609595511798</v>
+        <v>5.4826095955118</v>
       </c>
       <c r="D434">
-        <v>0.2926095955117978</v>
+        <v>0.2926095955117995</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -8000,10 +8000,10 @@
         <v>4.99</v>
       </c>
       <c r="C435">
-        <v>5.417120968879246</v>
+        <v>5.417120968879249</v>
       </c>
       <c r="D435">
-        <v>0.4271209688792457</v>
+        <v>0.4271209688792483</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8014,10 +8014,10 @@
         <v>5</v>
       </c>
       <c r="C436">
-        <v>5.407174247276175</v>
+        <v>5.407174247276177</v>
       </c>
       <c r="D436">
-        <v>0.407174247276175</v>
+        <v>0.4071742472761768</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8056,10 +8056,10 @@
         <v>4.99</v>
       </c>
       <c r="C439">
-        <v>5.380060505922985</v>
+        <v>5.380060505922986</v>
       </c>
       <c r="D439">
-        <v>0.3900605059229845</v>
+        <v>0.3900605059229862</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8070,10 +8070,10 @@
         <v>5.09</v>
       </c>
       <c r="C440">
-        <v>5.447864205404017</v>
+        <v>5.447864205404019</v>
       </c>
       <c r="D440">
-        <v>0.3578642054040175</v>
+        <v>0.3578642054040193</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8084,10 +8084,10 @@
         <v>5.08</v>
       </c>
       <c r="C441">
-        <v>5.436044472052021</v>
+        <v>5.436044472052022</v>
       </c>
       <c r="D441">
-        <v>0.3560444720520213</v>
+        <v>0.3560444720520222</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8098,10 +8098,10 @@
         <v>5.14</v>
       </c>
       <c r="C442">
-        <v>5.425190617425137</v>
+        <v>5.425190617425138</v>
       </c>
       <c r="D442">
-        <v>0.2851906174251368</v>
+        <v>0.2851906174251386</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8112,10 +8112,10 @@
         <v>5.14</v>
       </c>
       <c r="C443">
-        <v>5.388172787021316</v>
+        <v>5.388172787021317</v>
       </c>
       <c r="D443">
-        <v>0.248172787021316</v>
+        <v>0.2481727870213168</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8126,10 +8126,10 @@
         <v>5.11</v>
       </c>
       <c r="C444">
-        <v>5.312262427318291</v>
+        <v>5.312262427318292</v>
       </c>
       <c r="D444">
-        <v>0.2022624273182902</v>
+        <v>0.202262427318292</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8140,10 +8140,10 @@
         <v>5.07</v>
       </c>
       <c r="C445">
-        <v>5.2961944217122</v>
+        <v>5.296194421712201</v>
       </c>
       <c r="D445">
-        <v>0.2261944217121998</v>
+        <v>0.2261944217122007</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>5.3249719787314</v>
       </c>
       <c r="D446">
-        <v>0.2149719787313993</v>
+        <v>0.2149719787314002</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8168,10 +8168,10 @@
         <v>5.12</v>
       </c>
       <c r="C447">
-        <v>5.353705932798657</v>
+        <v>5.353705932798658</v>
       </c>
       <c r="D447">
-        <v>0.2337059327986566</v>
+        <v>0.2337059327986575</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8182,10 +8182,10 @@
         <v>5.13</v>
       </c>
       <c r="C448">
-        <v>5.357054645496914</v>
+        <v>5.357054645496916</v>
       </c>
       <c r="D448">
-        <v>0.2270546454969145</v>
+        <v>0.2270546454969162</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8196,10 +8196,10 @@
         <v>5.1</v>
       </c>
       <c r="C449">
-        <v>5.247009413846609</v>
+        <v>5.24700941384661</v>
       </c>
       <c r="D449">
-        <v>0.1470094138466091</v>
+        <v>0.14700941384661</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8210,10 +8210,10 @@
         <v>5.08</v>
       </c>
       <c r="C450">
-        <v>5.252621907366219</v>
+        <v>5.25262190736622</v>
       </c>
       <c r="D450">
-        <v>0.172621907366219</v>
+        <v>0.1726219073662199</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8224,10 +8224,10 @@
         <v>5.05</v>
       </c>
       <c r="C451">
-        <v>5.23253194796959</v>
+        <v>5.232531947969591</v>
       </c>
       <c r="D451">
-        <v>0.1825319479695899</v>
+        <v>0.1825319479695908</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8238,10 +8238,10 @@
         <v>5.07</v>
       </c>
       <c r="C452">
-        <v>5.268913248465975</v>
+        <v>5.268913248465976</v>
       </c>
       <c r="D452">
-        <v>0.198913248465975</v>
+        <v>0.1989132484659759</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8252,10 +8252,10 @@
         <v>5.06</v>
       </c>
       <c r="C453">
-        <v>5.217929816749738</v>
+        <v>5.217929816749739</v>
       </c>
       <c r="D453">
-        <v>0.1579298167497383</v>
+        <v>0.1579298167497392</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8266,10 +8266,10 @@
         <v>4.97</v>
       </c>
       <c r="C454">
-        <v>5.111124904810197</v>
+        <v>5.111124904810198</v>
       </c>
       <c r="D454">
-        <v>0.141124904810197</v>
+        <v>0.1411249048101979</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8280,10 +8280,10 @@
         <v>4.97</v>
       </c>
       <c r="C455">
-        <v>5.116100943616758</v>
+        <v>5.116100943616759</v>
       </c>
       <c r="D455">
-        <v>0.1461009436167586</v>
+        <v>0.1461009436167595</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8294,10 +8294,10 @@
         <v>4.92</v>
       </c>
       <c r="C456">
-        <v>5.042589182703973</v>
+        <v>5.042589182703974</v>
       </c>
       <c r="D456">
-        <v>0.1225891827039733</v>
+        <v>0.1225891827039742</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8322,10 +8322,10 @@
         <v>5.1</v>
       </c>
       <c r="C458">
-        <v>5.023931839310774</v>
+        <v>5.023931839310775</v>
       </c>
       <c r="D458">
-        <v>-0.07606816068922573</v>
+        <v>-0.07606816068922484</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8336,10 +8336,10 @@
         <v>5.09</v>
       </c>
       <c r="C459">
-        <v>5.040463801671666</v>
+        <v>5.040463801671667</v>
       </c>
       <c r="D459">
-        <v>-0.049536198328334</v>
+        <v>-0.04953619832833311</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8364,10 +8364,10 @@
         <v>5.17</v>
       </c>
       <c r="C461">
-        <v>5.042728407790006</v>
+        <v>5.042728407790007</v>
       </c>
       <c r="D461">
-        <v>-0.1272715922099943</v>
+        <v>-0.1272715922099934</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8378,10 +8378,10 @@
         <v>5.19</v>
       </c>
       <c r="C462">
-        <v>5.063294216156996</v>
+        <v>5.063294216156997</v>
       </c>
       <c r="D462">
-        <v>-0.1267057838430041</v>
+        <v>-0.1267057838430032</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8392,10 +8392,10 @@
         <v>5.15</v>
       </c>
       <c r="C463">
-        <v>5.120102190702295</v>
+        <v>5.120102190702296</v>
       </c>
       <c r="D463">
-        <v>-0.02989780929770536</v>
+        <v>-0.02989780929770447</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8420,10 +8420,10 @@
         <v>5.16</v>
       </c>
       <c r="C465">
-        <v>5.122514050850123</v>
+        <v>5.122514050850124</v>
       </c>
       <c r="D465">
-        <v>-0.03748594914987713</v>
+        <v>-0.03748594914987624</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8465,7 +8465,7 @@
         <v>5.169948844183756</v>
       </c>
       <c r="D468">
-        <v>-0.06005115581624487</v>
+        <v>-0.06005115581624398</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8605,7 +8605,7 @@
         <v>5.184318257791539</v>
       </c>
       <c r="D478">
-        <v>-0.1556817422084613</v>
+        <v>-0.1556817422084604</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8672,10 +8672,10 @@
         <v>5.32</v>
       </c>
       <c r="C483">
-        <v>5.140231245012978</v>
+        <v>5.140231245012979</v>
       </c>
       <c r="D483">
-        <v>-0.1797687549870224</v>
+        <v>-0.1797687549870215</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8686,10 +8686,10 @@
         <v>5.29</v>
       </c>
       <c r="C484">
-        <v>5.162707996001721</v>
+        <v>5.162707996001722</v>
       </c>
       <c r="D484">
-        <v>-0.1272920039982788</v>
+        <v>-0.1272920039982779</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8700,10 +8700,10 @@
         <v>5.28</v>
       </c>
       <c r="C485">
-        <v>5.175399389487563</v>
+        <v>5.175399389487565</v>
       </c>
       <c r="D485">
-        <v>-0.1046006105124375</v>
+        <v>-0.1046006105124357</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8742,10 +8742,10 @@
         <v>5.49</v>
       </c>
       <c r="C488">
-        <v>5.306260498542392</v>
+        <v>5.306260498542394</v>
       </c>
       <c r="D488">
-        <v>-0.183739501457608</v>
+        <v>-0.1837395014576062</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8798,10 +8798,10 @@
         <v>5.69</v>
       </c>
       <c r="C492">
-        <v>5.387323123970719</v>
+        <v>5.387323123970721</v>
       </c>
       <c r="D492">
-        <v>-0.3026768760292811</v>
+        <v>-0.3026768760292793</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8840,10 +8840,10 @@
         <v>5.55</v>
       </c>
       <c r="C495">
-        <v>5.44200009932342</v>
+        <v>5.442000099323421</v>
       </c>
       <c r="D495">
-        <v>-0.1079999006765799</v>
+        <v>-0.1079999006765791</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8854,10 +8854,10 @@
         <v>5.53</v>
       </c>
       <c r="C496">
-        <v>5.4278718640887</v>
+        <v>5.427871864088702</v>
       </c>
       <c r="D496">
-        <v>-0.1021281359113004</v>
+        <v>-0.1021281359112978</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8882,10 +8882,10 @@
         <v>5.54</v>
       </c>
       <c r="C498">
-        <v>5.374675326959125</v>
+        <v>5.374675326959126</v>
       </c>
       <c r="D498">
-        <v>-0.1653246730408746</v>
+        <v>-0.1653246730408737</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8910,10 +8910,10 @@
         <v>5.54</v>
       </c>
       <c r="C500">
-        <v>5.366088761064228</v>
+        <v>5.366088761064229</v>
       </c>
       <c r="D500">
-        <v>-0.173911238935772</v>
+        <v>-0.1739112389357711</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8924,10 +8924,10 @@
         <v>5.52</v>
       </c>
       <c r="C501">
-        <v>5.391695552411612</v>
+        <v>5.391695552411613</v>
       </c>
       <c r="D501">
-        <v>-0.1283044475883877</v>
+        <v>-0.1283044475883868</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8938,10 +8938,10 @@
         <v>5.5</v>
       </c>
       <c r="C502">
-        <v>5.376991029311552</v>
+        <v>5.376991029311553</v>
       </c>
       <c r="D502">
-        <v>-0.1230089706884483</v>
+        <v>-0.1230089706884465</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8966,10 +8966,10 @@
         <v>5.54</v>
       </c>
       <c r="C504">
-        <v>5.348560725223889</v>
+        <v>5.348560725223891</v>
       </c>
       <c r="D504">
-        <v>-0.1914392747761111</v>
+        <v>-0.1914392747761093</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8980,10 +8980,10 @@
         <v>5.56</v>
       </c>
       <c r="C505">
-        <v>5.360068152963996</v>
+        <v>5.360068152963997</v>
       </c>
       <c r="D505">
-        <v>-0.1999318470360034</v>
+        <v>-0.1999318470360025</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8994,10 +8994,10 @@
         <v>5.54</v>
       </c>
       <c r="C506">
-        <v>5.322973834960982</v>
+        <v>5.322973834960983</v>
       </c>
       <c r="D506">
-        <v>-0.2170261650390177</v>
+        <v>-0.2170261650390168</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -9022,10 +9022,10 @@
         <v>5.69</v>
       </c>
       <c r="C508">
-        <v>5.412316241280171</v>
+        <v>5.412316241280172</v>
       </c>
       <c r="D508">
-        <v>-0.2776837587198298</v>
+        <v>-0.2776837587198289</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -9050,10 +9050,10 @@
         <v>5.72</v>
       </c>
       <c r="C510">
-        <v>5.439178793430956</v>
+        <v>5.439178793430958</v>
       </c>
       <c r="D510">
-        <v>-0.2808212065690441</v>
+        <v>-0.2808212065690414</v>
       </c>
     </row>
   </sheetData>
